--- a/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1066.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1066.xlsx
@@ -7505,10 +7505,10 @@
         <v>0.001187942365466839</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>0.01545571139260989</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.0003959807884889464</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -7543,10 +7543,10 @@
     </row>
     <row r="86">
       <c r="F86" t="n">
-        <v>0.01545571139260989</v>
+        <v>0.03447812541428361</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0003959807884889464</v>
+        <v>0.001187942365466839</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -7564,7 +7564,7 @@
         <v>0.09000000000000002</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0007763743465561777</v>
+        <v>0.0007251043425383169</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0.15</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.0007763743465561778</v>
+        <v>0.0008264630140759309</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -7591,19 +7591,19 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03447812541428361</v>
+        <v>0.03554783686976567</v>
       </c>
       <c r="G87" t="n">
-        <v>0.001187942365466839</v>
+        <v>0.00163241066618372</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.05591430350429792</v>
+        <v>0.05606847505490191</v>
       </c>
       <c r="K87" t="n">
-        <v>0.001598625596086652</v>
+        <v>0.001601806555376761</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -7612,7 +7612,7 @@
         <v>0.1666194517938904</v>
       </c>
       <c r="N87" t="n">
-        <v>0.001932951590954473</v>
+        <v>0.001805303844382008</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -7621,7 +7621,7 @@
         <v>0.2607224551298897</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.0018147840927875</v>
+        <v>0.001931866937483468</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -7643,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03724752176241052</v>
+        <v>0.03738841467109505</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002335464733098836</v>
+        <v>0.002448615999275579</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.004559083435162413</v>
+        <v>-0.00288522947762239</v>
       </c>
       <c r="J88" t="n">
         <v>0.07251644845789101</v>
@@ -7658,25 +7658,25 @@
         <v>0.002498551190971445</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.003873544958194306</v>
+        <v>-0.002537173119229391</v>
       </c>
       <c r="M88" t="n">
-        <v>0.1719909638267921</v>
+        <v>0.172491366951991</v>
       </c>
       <c r="N88" t="n">
-        <v>0.00240622540895605</v>
+        <v>0.002396803095598479</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.002465504029325259</v>
+        <v>-0.003085154574104032</v>
       </c>
       <c r="P88" t="n">
-        <v>0.2716243755222256</v>
+        <v>0.2699461101742072</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.002405580046275018</v>
+        <v>0.002400528772949561</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.004353272481886241</v>
+        <v>-0.004320428002156399</v>
       </c>
     </row>
     <row r="89">
@@ -7697,40 +7697,40 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03892222241967613</v>
+        <v>0.03906893212409041</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003113952977465115</v>
+        <v>0.003264821332367439</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.004559083435162413</v>
+        <v>-0.002886095133031218</v>
       </c>
       <c r="J89" t="n">
-        <v>0.07588528066553223</v>
+        <v>0.07573246604803859</v>
       </c>
       <c r="K89" t="n">
-        <v>0.003197251192173304</v>
+        <v>0.003203613110753522</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.003873544958194306</v>
+        <v>-0.002537173119229391</v>
       </c>
       <c r="M89" t="n">
-        <v>0.1805931409955203</v>
+        <v>0.1796775633939948</v>
       </c>
       <c r="N89" t="n">
-        <v>0.003208300545274733</v>
+        <v>0.003195737460797972</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.002465504029325259</v>
+        <v>-0.003085154574104032</v>
       </c>
       <c r="P89" t="n">
-        <v>0.2855391065557636</v>
+        <v>0.2847718268499886</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.003207440061700024</v>
+        <v>0.003200705030599415</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.004353272481886241</v>
+        <v>-0.004320428002156399</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
@@ -7743,40 +7743,40 @@
         <v/>
       </c>
       <c r="F90" t="n">
-        <v>0.04047006201031753</v>
+        <v>0.04061677408276959</v>
       </c>
       <c r="G90" t="n">
-        <v>0.003892441221831393</v>
+        <v>0.004081026665459299</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.004559083435162413</v>
+        <v>-0.00288522947762239</v>
       </c>
       <c r="J90" t="n">
-        <v>0.07943984807656267</v>
+        <v>0.07916673141465634</v>
       </c>
       <c r="K90" t="n">
-        <v>0.003996563990216629</v>
+        <v>0.004004516388441902</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.003873544958194306</v>
+        <v>-0.002537173119229391</v>
       </c>
       <c r="M90" t="n">
-        <v>0.1883796486809106</v>
+        <v>0.1864147383437492</v>
       </c>
       <c r="N90" t="n">
-        <v>0.004010375681593415</v>
+        <v>0.003994671825997465</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.002465504029325259</v>
+        <v>-0.003085154574104032</v>
       </c>
       <c r="P90" t="n">
-        <v>0.2984232644365792</v>
+        <v>0.298478594159175</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.004009300077125029</v>
+        <v>0.004000881288249269</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.004353272481886241</v>
+        <v>-0.004320428002156399</v>
       </c>
     </row>
     <row r="91">
@@ -7786,40 +7786,40 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.04188571496941733</v>
+        <v>0.04202042444038744</v>
       </c>
       <c r="G91" t="n">
-        <v>0.004670929466197672</v>
+        <v>0.004897231998551159</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.004559083435162413</v>
+        <v>-0.002885518029425333</v>
       </c>
       <c r="J91" t="n">
-        <v>0.08271687451147287</v>
+        <v>0.0822869401038991</v>
       </c>
       <c r="K91" t="n">
-        <v>0.004795876788259955</v>
+        <v>0.004805419666130283</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.003873544958194306</v>
+        <v>-0.002537173119229391</v>
       </c>
       <c r="M91" t="n">
-        <v>0.1956181275711766</v>
+        <v>0.1924381866651492</v>
       </c>
       <c r="N91" t="n">
-        <v>0.004812450817912099</v>
+        <v>0.004793606191196958</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.002465504029325259</v>
+        <v>-0.003085154574104032</v>
       </c>
       <c r="P91" t="n">
-        <v>0.3102128957609314</v>
+        <v>0.311174122363715</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.004811160092550035</v>
+        <v>0.004801057545899123</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.004353272481886241</v>
+        <v>-0.004320428002156399</v>
       </c>
     </row>
     <row r="92">
@@ -7831,40 +7831,40 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04316956102306985</v>
+        <v>0.04328739568203566</v>
       </c>
       <c r="G92" t="n">
-        <v>0.005449417710563951</v>
+        <v>0.005713437331643019</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.00423797343197878</v>
+        <v>-0.002909015958781929</v>
       </c>
       <c r="J92" t="n">
-        <v>0.08579609312676705</v>
+        <v>0.08518384356566415</v>
       </c>
       <c r="K92" t="n">
-        <v>0.005595189586303282</v>
+        <v>0.005606322943818663</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.003743138359503096</v>
+        <v>-0.002715519950222874</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2022439980110354</v>
+        <v>0.1980879941239767</v>
       </c>
       <c r="N92" t="n">
-        <v>0.005614525954230782</v>
+        <v>0.005592540556396451</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.0025240688726808</v>
+        <v>-0.003660837303171824</v>
       </c>
       <c r="P92" t="n">
-        <v>0.3211779792252036</v>
+        <v>0.32268440035388</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.005613020107975042</v>
+        <v>0.005601233803548977</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.004151210073400725</v>
+        <v>-0.0039822531054266</v>
       </c>
     </row>
     <row r="93">
@@ -7877,154 +7877,154 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>0.04434955428681242</v>
+        <v>0.0444533589130976</v>
       </c>
       <c r="G93" t="n">
-        <v>0.00622790595493023</v>
+        <v>0.006529642664734879</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.00423797343197878</v>
+        <v>-0.002909597761973685</v>
       </c>
       <c r="J93" t="n">
-        <v>0.08861054691278204</v>
+        <v>0.08785865606262862</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006394502384346607</v>
+        <v>0.006407226221507044</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.003743138359503096</v>
+        <v>-0.002715519950222874</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2082560339226201</v>
+        <v>0.203017519537292</v>
       </c>
       <c r="N93" t="n">
-        <v>0.006416601090549466</v>
+        <v>0.006391474921595944</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.0025240688726808</v>
+        <v>-0.003660837303171824</v>
       </c>
       <c r="P93" t="n">
-        <v>0.3310826343150729</v>
+        <v>0.3334595246145374</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.006414880123400048</v>
+        <v>0.00640141006119883</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.004151210073400725</v>
+        <v>-0.0039822531054266</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="n">
-        <v>0.04542652165327367</v>
+        <v>0.04547734620504043</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007006394199296508</v>
+        <v>0.007345847997826738</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.00423797343197878</v>
+        <v>-0.002909306860377807</v>
       </c>
       <c r="J94" t="n">
-        <v>0.09121358151232013</v>
+        <v>0.09029730888913996</v>
       </c>
       <c r="K94" t="n">
-        <v>0.007193815182389933</v>
+        <v>0.007208129499195423</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.003743138359503096</v>
+        <v>-0.002715519950222874</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2136872016423572</v>
+        <v>0.2076811139226054</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007218676226868149</v>
+        <v>0.007190409286795436</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.0025240688726808</v>
+        <v>-0.003660837303171824</v>
       </c>
       <c r="P94" t="n">
-        <v>0.3402618570042963</v>
+        <v>0.3431481389478175</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.007216740138825053</v>
+        <v>0.007201586318848684</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.004151210073400725</v>
+        <v>-0.0039822531054266</v>
       </c>
     </row>
     <row r="95">
       <c r="F95" t="n">
-        <v>0.04636471381490685</v>
+        <v>0.04641663226757772</v>
       </c>
       <c r="G95" t="n">
-        <v>0.007784882443662787</v>
+        <v>0.008162053330918599</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.00423797343197878</v>
+        <v>-0.002909306860377807</v>
       </c>
       <c r="J95" t="n">
-        <v>0.09357552240090104</v>
+        <v>0.09255508758430801</v>
       </c>
       <c r="K95" t="n">
-        <v>0.007993127980433258</v>
+        <v>0.008009032776883803</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.003743138359503096</v>
+        <v>-0.002715519950222874</v>
       </c>
       <c r="M95" t="n">
-        <v>0.2186813694843758</v>
+        <v>0.2117587192278823</v>
       </c>
       <c r="N95" t="n">
-        <v>0.008020751363186831</v>
+        <v>0.00798934365199493</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.0025240688726808</v>
+        <v>-0.003660837303171824</v>
       </c>
       <c r="P95" t="n">
-        <v>0.3487695379030492</v>
+        <v>0.3521545431646812</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.008018600154250058</v>
+        <v>0.008001762576498537</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.004151210073400725</v>
+        <v>-0.0039822531054266</v>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="n">
-        <v>0.04722844708615896</v>
+        <v>0.04726535974707267</v>
       </c>
       <c r="G96" t="n">
-        <v>0.008563370688029067</v>
+        <v>0.008978258664010459</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.003707870085741263</v>
+        <v>-0.002921836064222169</v>
       </c>
       <c r="J96" t="n">
-        <v>0.09575140626071045</v>
+        <v>0.09457419265876661</v>
       </c>
       <c r="K96" t="n">
-        <v>0.008792440778476586</v>
+        <v>0.008809936054572184</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.003479116826003066</v>
+        <v>-0.002822742286981898</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2230522883816667</v>
+        <v>0.2154255447007204</v>
       </c>
       <c r="N96" t="n">
-        <v>0.008822826499505514</v>
+        <v>0.008788278017194423</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.002564401970443619</v>
+        <v>-0.004091107957605092</v>
       </c>
       <c r="P96" t="n">
-        <v>0.3563554900145011</v>
+        <v>0.3602327972807939</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.008820460169675066</v>
+        <v>0.008801938834148391</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.003802394354865935</v>
+        <v>-0.003397700618166165</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
@@ -8038,7160 +8038,7160 @@
         <v/>
       </c>
       <c r="F97" t="n">
-        <v>0.04801839662898125</v>
+        <v>0.04799478125011318</v>
       </c>
       <c r="G97" t="n">
-        <v>0.009341858932395345</v>
+        <v>0.009794463997102317</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.003707870085741263</v>
+        <v>-0.002921836064222169</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0977545681384701</v>
+        <v>0.0964393146337225</v>
       </c>
       <c r="K97" t="n">
-        <v>0.00959175357651991</v>
+        <v>0.009610839332260566</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.003479116826003066</v>
+        <v>-0.002822742286981898</v>
       </c>
       <c r="M97" t="n">
-        <v>0.227093737683406</v>
+        <v>0.2188261906488486</v>
       </c>
       <c r="N97" t="n">
-        <v>0.009624901635824199</v>
+        <v>0.009587212382393916</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.002564401970443619</v>
+        <v>-0.004091107957605092</v>
       </c>
       <c r="P97" t="n">
-        <v>0.3633067127059563</v>
+        <v>0.3674913967391527</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.009622320185100071</v>
+        <v>0.009602115091798246</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.003802394354865935</v>
+        <v>-0.003397700618166165</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04871246562399036</v>
+        <v>0.04867152054760406</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01012034717676162</v>
+        <v>0.01061066933019418</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.003707870085741263</v>
+        <v>-0.002921251813859397</v>
       </c>
       <c r="J98" t="n">
-        <v>0.09955337160609247</v>
+        <v>0.09812034872659338</v>
       </c>
       <c r="K98" t="n">
-        <v>0.01039106637456324</v>
+        <v>0.01041174260994895</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.003479116826003066</v>
+        <v>-0.002822742286981898</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2307298977285352</v>
+        <v>0.2217742620363112</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01042697677214288</v>
+        <v>0.01038614674759341</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.002564401970443619</v>
+        <v>-0.004091107957605092</v>
       </c>
       <c r="P98" t="n">
-        <v>0.3694878092829903</v>
+        <v>0.3741671792164732</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01042418020052508</v>
+        <v>0.0104022913494481</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.003802394354865935</v>
+        <v>-0.003397700618166165</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04932501872132282</v>
+        <v>0.04925176064198851</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0108988354211279</v>
+        <v>0.01142687466328604</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.003707870085741263</v>
+        <v>-0.002921543939040783</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1012199342189984</v>
+        <v>0.09963005254036793</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01119037917260656</v>
+        <v>0.01121264588763733</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.003479116826003066</v>
+        <v>-0.002822742286981898</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2340339345438371</v>
+        <v>0.2244882268435469</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01122905190846156</v>
+        <v>0.0111850811127929</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.002564401970443619</v>
+        <v>-0.004091107957605092</v>
       </c>
       <c r="P99" t="n">
-        <v>0.3752563622071596</v>
+        <v>0.379937524439861</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01122604021595008</v>
+        <v>0.01120246760709795</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.003802394354865935</v>
+        <v>-0.003397700618166165</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04989341911413264</v>
+        <v>0.04976558446690982</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01167732366549418</v>
+        <v>0.0122430799963779</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.003111172927273486</v>
+        <v>-0.00292676990952997</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1027068076448433</v>
+        <v>0.1009963744658857</v>
       </c>
       <c r="K100" t="n">
-        <v>0.01198969197064989</v>
+        <v>0.01201354916532571</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.00314122936885691</v>
+        <v>-0.002886564310910751</v>
       </c>
       <c r="M100" t="n">
-        <v>0.2369640969919758</v>
+        <v>0.22685274418279</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01203112704478025</v>
+        <v>0.0119840154779924</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.002589870825498132</v>
+        <v>-0.004396270507583067</v>
       </c>
       <c r="P100" t="n">
-        <v>0.3804765967677926</v>
+        <v>0.3853557134846234</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01202790023137509</v>
+        <v>0.01200264386474781</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.003382210285805368</v>
+        <v>-0.002710236710400838</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.05037972414873262</v>
+        <v>0.05024374191117627</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01245581190986046</v>
+        <v>0.01305928532946976</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.003111172927273486</v>
+        <v>-0.002927355322053128</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1040720298713638</v>
+        <v>0.1022630661548032</v>
       </c>
       <c r="K101" t="n">
-        <v>0.01278900476869321</v>
+        <v>0.01281445244301409</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.00314122936885691</v>
+        <v>-0.002886564310910751</v>
       </c>
       <c r="M101" t="n">
-        <v>0.2395932279803432</v>
+        <v>0.2289382011970343</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01283320218109893</v>
+        <v>0.01278294984319189</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.002589870825498132</v>
+        <v>-0.004396270507583067</v>
       </c>
       <c r="P101" t="n">
-        <v>0.3850697172765725</v>
+        <v>0.3900955202265388</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.0128297602468001</v>
+        <v>0.01280282012239766</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.003382210285805368</v>
+        <v>-0.002710236710400838</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05081375034590958</v>
+        <v>0.05064871419183936</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01323430015422674</v>
+        <v>0.01387549066256162</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.003111172927273486</v>
+        <v>-0.002927648028314707</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1052821034811357</v>
+        <v>0.1034134287823783</v>
       </c>
       <c r="K102" t="n">
-        <v>0.01358831756673654</v>
+        <v>0.01361535572070247</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.00314122936885691</v>
+        <v>-0.002886564310910751</v>
       </c>
       <c r="M102" t="n">
-        <v>0.2419952892282402</v>
+        <v>0.2309303075398954</v>
       </c>
       <c r="N102" t="n">
-        <v>0.01363527731741761</v>
+        <v>0.01358188420839138</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.002589870825498132</v>
+        <v>-0.004396270507583067</v>
       </c>
       <c r="P102" t="n">
-        <v>0.3894010758462447</v>
+        <v>0.394528037398907</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.0136316202622251</v>
+        <v>0.01360299638004752</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.003382210285805368</v>
+        <v>-0.002710236710400838</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0512104829560026</v>
+        <v>0.05100343127983811</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01401278839859302</v>
+        <v>0.01469169599565348</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.003111172927273486</v>
+        <v>-0.002927062615791549</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1064428881329582</v>
+        <v>0.1043989260992556</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01438763036477987</v>
+        <v>0.01441625899839085</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.00314122936885691</v>
+        <v>-0.002886564310910751</v>
       </c>
       <c r="M103" t="n">
-        <v>0.2440874600175205</v>
+        <v>0.2326732726950842</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0144373524537363</v>
+        <v>0.01438081857359087</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.002589870825498132</v>
+        <v>-0.004396270507583067</v>
       </c>
       <c r="P103" t="n">
-        <v>0.3930081333463699</v>
+        <v>0.3983843084721063</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.01443348027765011</v>
+        <v>0.01440317263769737</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.003382210285805368</v>
+        <v>-0.002710236710400838</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.05158504795969482</v>
+        <v>0.05135429191231572</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0147912766429593</v>
+        <v>0.01550790132874534</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.00252437826932194</v>
+        <v>-0.002932160381655422</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1074896321397887</v>
+        <v>0.1053559477692242</v>
       </c>
       <c r="K104" t="n">
-        <v>0.01518694316282319</v>
+        <v>0.01521716227607923</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.002789224999227322</v>
+        <v>-0.002931391208848822</v>
       </c>
       <c r="M104" t="n">
-        <v>0.2459824910768803</v>
+        <v>0.2343152273433704</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01523942759005498</v>
+        <v>0.01517975293879037</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.002603842940728759</v>
+        <v>-0.004593729517674858</v>
       </c>
       <c r="P104" t="n">
-        <v>0.3965804004186112</v>
+        <v>0.401909146853221</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.01523534029307511</v>
+        <v>0.01520334889534722</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.00296604282574252</v>
+        <v>-0.002066036610921829</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.05190608700378568</v>
+        <v>0.05167091037458509</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01556976488732557</v>
+        <v>0.0163241066618372</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.00252437826932194</v>
+        <v>-0.002932746872380825</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1083871580653022</v>
+        <v>0.1062051313425609</v>
       </c>
       <c r="K105" t="n">
-        <v>0.01598625596086652</v>
+        <v>0.01601806555376761</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.002789224999227322</v>
+        <v>-0.002931391208848822</v>
       </c>
       <c r="M105" t="n">
-        <v>0.2477947595348827</v>
+        <v>0.2358519300425084</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01604150272637366</v>
+        <v>0.01597868730398986</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.002603842940728759</v>
+        <v>-0.004593729517674858</v>
       </c>
       <c r="P105" t="n">
-        <v>0.3995865542118437</v>
+        <v>0.4050241118389818</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.01603720030850012</v>
+        <v>0.01600352515299707</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.00296604282574252</v>
+        <v>-0.002066036610921829</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.05221176986959508</v>
+        <v>0.05194558096527876</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01634825313169185</v>
+        <v>0.01714031199492906</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.00252437826932194</v>
+        <v>-0.002932746872380825</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1092904262295239</v>
+        <v>0.1070220449683709</v>
       </c>
       <c r="K106" t="n">
-        <v>0.01678556875890984</v>
+        <v>0.01681896883145599</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.002789224999227322</v>
+        <v>-0.002931391208848822</v>
       </c>
       <c r="M106" t="n">
-        <v>0.2494402248734812</v>
+        <v>0.2373947035746014</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01684357786269235</v>
+        <v>0.01677762166918935</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.002603842940728759</v>
+        <v>-0.004593729517674858</v>
       </c>
       <c r="P106" t="n">
-        <v>0.4025281255524695</v>
+        <v>0.4076483299272247</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.01683906032392513</v>
+        <v>0.01680370141064693</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.00296604282574252</v>
+        <v>-0.002066036610921829</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05250946303093292</v>
+        <v>0.05223277486536829</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01712674137605813</v>
+        <v>0.01795651732802092</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.00252437826932194</v>
+        <v>-0.002932160381655422</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1100853215660797</v>
+        <v>0.1077573055986641</v>
       </c>
       <c r="K107" t="n">
-        <v>0.01758488155695317</v>
+        <v>0.01761987210914437</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.002789224999227322</v>
+        <v>-0.00298242614641599</v>
       </c>
       <c r="M107" t="n">
-        <v>0.2510333547374846</v>
+        <v>0.2387838643338045</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01764565299901103</v>
+        <v>0.01757655603438885</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.002603842940728759</v>
+        <v>-0.004593729517674858</v>
       </c>
       <c r="P107" t="n">
-        <v>0.4051284214175958</v>
+        <v>0.4104253525897377</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.01764092033935013</v>
+        <v>0.01760387766829678</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.002629276934200886</v>
+        <v>-0.002066036610921829</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05277511107617448</v>
+        <v>0.05250154811059433</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01790522962042441</v>
+        <v>0.01877272266111278</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.002061930911034816</v>
+        <v>-0.002942260658127703</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1108803161646185</v>
+        <v>0.1085029764327525</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0183841943549965</v>
+        <v>0.01842077538683275</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.002482852728276996</v>
+        <v>-0.00298242614641599</v>
       </c>
       <c r="M108" t="n">
-        <v>0.2524886172602087</v>
+        <v>0.2402080631364257</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01844772813532971</v>
+        <v>0.01837549039958834</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.002609685819019917</v>
+        <v>-0.004706634638566943</v>
       </c>
       <c r="P108" t="n">
-        <v>0.4078288780109922</v>
+        <v>0.4128148459159016</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.01844278035477514</v>
+        <v>0.01840405392594664</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.002629276934200886</v>
+        <v>-0.001610104570858173</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05304726151213882</v>
+        <v>0.05277537614827325</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01868371786479069</v>
+        <v>0.01958892799420463</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.002061930911034816</v>
+        <v>-0.002941966461481555</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1115918110635628</v>
+        <v>0.1091933576377633</v>
       </c>
       <c r="K109" t="n">
-        <v>0.01918350715303982</v>
+        <v>0.01922167866452113</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.002482852728276996</v>
+        <v>-0.00298242614641599</v>
       </c>
       <c r="M109" t="n">
-        <v>0.2540014726358689</v>
+        <v>0.2417015856016086</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0192498032716484</v>
+        <v>0.01917442476478783</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.002609685819019917</v>
+        <v>-0.004706634638566943</v>
       </c>
       <c r="P109" t="n">
-        <v>0.4100206834799558</v>
+        <v>0.4150657329167021</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.01924464037020014</v>
+        <v>0.01920423018359649</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.002629276934200886</v>
+        <v>-0.001610104570858173</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05334909146463844</v>
+        <v>0.05307795772732431</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01946220610915697</v>
+        <v>0.0204051333272965</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.002061930911034816</v>
+        <v>-0.002942260658127703</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1122805222656558</v>
+        <v>0.1098572799146613</v>
       </c>
       <c r="K110" t="n">
-        <v>0.01998281995108315</v>
+        <v>0.02002258194220951</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.002482852728276996</v>
+        <v>-0.00298242614641599</v>
       </c>
       <c r="M110" t="n">
-        <v>0.2555264884057699</v>
+        <v>0.2431807879775509</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02005187840796708</v>
+        <v>0.01997335912998733</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.002609685819019917</v>
+        <v>-0.004706634638566943</v>
       </c>
       <c r="P110" t="n">
-        <v>0.4123441339937168</v>
+        <v>0.4172296223727235</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.02004650038562515</v>
+        <v>0.02000440644124634</v>
       </c>
       <c r="R110" t="n">
-        <v>-0.002629276934200886</v>
+        <v>-0.001610104570858173</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05364843965028755</v>
+        <v>0.05338574907822215</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02024069435352325</v>
+        <v>0.02122133866038836</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.002061930911034816</v>
+        <v>-0.002941672264835407</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1129917301917764</v>
+        <v>0.1105559622597954</v>
       </c>
       <c r="K111" t="n">
-        <v>0.02078213274912647</v>
+        <v>0.02082348521989789</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.002281861567168625</v>
+        <v>-0.00298242614641599</v>
       </c>
       <c r="M111" t="n">
-        <v>0.2569356541280379</v>
+        <v>0.2448365036664624</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02085395354428576</v>
+        <v>0.02077229349518682</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.002609685819019917</v>
+        <v>-0.004706634638566943</v>
       </c>
       <c r="P111" t="n">
-        <v>0.4147832322673716</v>
+        <v>0.4192912006367299</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.02084836040105015</v>
+        <v>0.0208045826988962</v>
       </c>
       <c r="R111" t="n">
-        <v>-0.002629276934200886</v>
+        <v>-0.001610104570858173</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0539523990742565</v>
+        <v>0.05373828480455951</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02101918259788953</v>
+        <v>0.02203754399348022</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.001822697160789844</v>
+        <v>-0.002962045294417943</v>
       </c>
       <c r="J112" t="n">
-        <v>0.113656697151206</v>
+        <v>0.1112224615844774</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0215814455471698</v>
+        <v>0.02162438849758627</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.002281861567168625</v>
+        <v>-0.003065768825618057</v>
       </c>
       <c r="M112" t="n">
-        <v>0.2585886999500834</v>
+        <v>0.2465846367914525</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02165602868060445</v>
+        <v>0.02157122786038631</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.00261047504829124</v>
+        <v>-0.004752261468519279</v>
       </c>
       <c r="P112" t="n">
-        <v>0.4170542222313298</v>
+        <v>0.4215028437727678</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.02165022041647516</v>
+        <v>0.02160475895654605</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.002447297570703963</v>
+        <v>-0.001481128826609164</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05430006220377324</v>
+        <v>0.05411799903659568</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0217976708422558</v>
+        <v>0.02285374932657207</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.001822697160789844</v>
+        <v>-0.002961453003817179</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1143696588941977</v>
+        <v>0.1119503752659545</v>
       </c>
       <c r="K113" t="n">
-        <v>0.02238075834521313</v>
+        <v>0.02242529177527465</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.002281861567168625</v>
+        <v>-0.003065768825618057</v>
       </c>
       <c r="M113" t="n">
-        <v>0.2602557295029698</v>
+        <v>0.2484585179390278</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02245810381692313</v>
+        <v>0.02237016222558581</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.00261047504829124</v>
+        <v>-0.004752261468519279</v>
       </c>
       <c r="P113" t="n">
-        <v>0.4194711333531533</v>
+        <v>0.4235883829305421</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.02245208043190017</v>
+        <v>0.02240493521419591</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.002447297570703963</v>
+        <v>-0.001481128826609164</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05468281082056063</v>
+        <v>0.05449654816983669</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02257615908662208</v>
+        <v>0.02366995465966394</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.001822697160789844</v>
+        <v>-0.002961453003817179</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1151272115982721</v>
+        <v>0.1127534019084896</v>
       </c>
       <c r="K114" t="n">
-        <v>0.02318007114325645</v>
+        <v>0.02322619505296303</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.002281861567168625</v>
+        <v>-0.003065768825618057</v>
       </c>
       <c r="M114" t="n">
-        <v>0.2619715715420319</v>
+        <v>0.2506115430240731</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02326017895324181</v>
+        <v>0.0231690965907853</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.00261047504829124</v>
+        <v>-0.004752261468519279</v>
       </c>
       <c r="P114" t="n">
-        <v>0.4220158673586644</v>
+        <v>0.4255763558483976</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.02325394044732517</v>
+        <v>0.02320511147184576</v>
       </c>
       <c r="R114" t="n">
-        <v>-0.002447297570703963</v>
+        <v>-0.001481128826609164</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="52" t="n"/>
       <c r="B115" s="52" t="n"/>
       <c r="F115" t="n">
-        <v>0.05510598765092238</v>
+        <v>0.05489354499995495</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02335464733098836</v>
+        <v>0.0244861599927558</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.001822697160789844</v>
+        <v>-0.003029225908940642</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1158887783680234</v>
+        <v>0.1135063217823352</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02397938394129978</v>
+        <v>0.02402709833065141</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.002281861567168625</v>
+        <v>-0.003065768825618057</v>
       </c>
       <c r="M115" t="n">
-        <v>0.2635859824107453</v>
+        <v>0.2528774387055541</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0240622540895605</v>
+        <v>0.02396803095598479</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.00261047504829124</v>
+        <v>-0.004752261468519279</v>
       </c>
       <c r="P115" t="n">
-        <v>0.4248070487591599</v>
+        <v>0.4276022250663055</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.02405580046275018</v>
+        <v>0.02400528772949561</v>
       </c>
       <c r="R115" t="n">
-        <v>-0.002447297570703963</v>
+        <v>-0.001481128826609164</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05549115062624416</v>
+        <v>0.05526864263262668</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02413313557535464</v>
+        <v>0.02530236532584765</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.00184016604394269</v>
+        <v>-0.003028317322885171</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1166837703836564</v>
+        <v>0.1142657157692246</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0247786967393431</v>
+        <v>0.02482800160833979</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.002212196535009171</v>
+        <v>-0.003205061186549642</v>
       </c>
       <c r="M116" t="n">
-        <v>0.2652252927699147</v>
+        <v>0.2553563799199571</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02486432922587918</v>
+        <v>0.02476696532118429</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.002582866024238497</v>
+        <v>-0.004724884007852076</v>
       </c>
       <c r="P116" t="n">
-        <v>0.4272714167696412</v>
+        <v>0.4293317596698876</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.02485766047817518</v>
+        <v>0.02480546398714547</v>
       </c>
       <c r="R116" t="n">
-        <v>-0.00246119170433761</v>
+        <v>-0.001625256012371542</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05587023128103394</v>
+        <v>0.05562143987702423</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02491162381972092</v>
+        <v>0.02611857065893951</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.00184016604394269</v>
+        <v>-0.003028317322885171</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1174830875525111</v>
+        <v>0.1150494465847728</v>
       </c>
       <c r="K117" t="n">
-        <v>0.02557800953738643</v>
+        <v>0.02562890488602818</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.002212196535009171</v>
+        <v>-0.003205061186549642</v>
       </c>
       <c r="M117" t="n">
-        <v>0.2667260183309314</v>
+        <v>0.2578468445920929</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02566640436219786</v>
+        <v>0.02556589968638378</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.002582866024238497</v>
+        <v>-0.004724884007852076</v>
       </c>
       <c r="P117" t="n">
-        <v>0.42980250062644</v>
+        <v>0.4313125966829577</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.02565952049360019</v>
+        <v>0.02560564024479532</v>
       </c>
       <c r="R117" t="n">
-        <v>-0.00246119170433761</v>
+        <v>-0.001625256012371542</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="82" t="n"/>
       <c r="F118" t="n">
-        <v>0.05626758431034524</v>
+        <v>0.05600876919560573</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0256901120640872</v>
+        <v>0.02693477599203138</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.00184016604394269</v>
+        <v>-0.003028317322885171</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1182026255297059</v>
+        <v>0.115709948695643</v>
       </c>
       <c r="K118" t="n">
-        <v>0.02637732233542975</v>
+        <v>0.02642980816371656</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.002212196535009171</v>
+        <v>-0.003205061186549642</v>
       </c>
       <c r="M118" t="n">
-        <v>0.2681313403236701</v>
+        <v>0.260385225060539</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02646847949851655</v>
+        <v>0.02636483405158327</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.002582866024238497</v>
+        <v>-0.004724884007852076</v>
       </c>
       <c r="P118" t="n">
-        <v>0.4323346797856743</v>
+        <v>0.432800491553927</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.0264613805090252</v>
+        <v>0.02640581650244518</v>
       </c>
       <c r="R118" t="n">
-        <v>-0.00246119170433761</v>
+        <v>-0.001625256012371542</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05663386721228439</v>
+        <v>0.05634888451803105</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02646860030845348</v>
+        <v>0.02775098132512324</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.00184016604394269</v>
+        <v>-0.003155972828149141</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1189426289506284</v>
+        <v>0.1164133274991816</v>
       </c>
       <c r="K119" t="n">
-        <v>0.02717663513347308</v>
+        <v>0.02723071144140493</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.002212196535009171</v>
+        <v>-0.003205061186549642</v>
       </c>
       <c r="M119" t="n">
-        <v>0.2694850615817553</v>
+        <v>0.2628437595738487</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02727055463483523</v>
+        <v>0.02716376841678276</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.002582866024238497</v>
+        <v>-0.004724884007852076</v>
       </c>
       <c r="P119" t="n">
-        <v>0.4347328279812278</v>
+        <v>0.4344812722032891</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.0272632405244502</v>
+        <v>0.02720599276009503</v>
       </c>
       <c r="R119" t="n">
-        <v>-0.00246119170433761</v>
+        <v>-0.001939509907087542</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="82" t="n"/>
       <c r="F120" t="n">
-        <v>0.05700987108971085</v>
+        <v>0.05671529140813267</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02724708855281975</v>
+        <v>0.0285671866582151</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.001940707199367495</v>
+        <v>-0.00315628845699484</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1196693827725596</v>
+        <v>0.1170611033297799</v>
       </c>
       <c r="K120" t="n">
-        <v>0.02797594793151641</v>
+        <v>0.02803161471909332</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.002162452900823037</v>
+        <v>-0.003402937837844506</v>
       </c>
       <c r="M120" t="n">
-        <v>0.2708315529586623</v>
+        <v>0.2653824557611875</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02807262977115391</v>
+        <v>0.02796270278198225</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.002516930663931141</v>
+        <v>-0.004495981735146307</v>
       </c>
       <c r="P120" t="n">
-        <v>0.4371347125368645</v>
+        <v>0.4359495624089643</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.02806510053987521</v>
+        <v>0.02800616901774488</v>
       </c>
       <c r="R120" t="n">
-        <v>-0.00258852251424771</v>
+        <v>-0.001939509907087542</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="82" t="n"/>
       <c r="F121" t="n">
-        <v>0.05734569594893239</v>
+        <v>0.05705854861620378</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02802557679718603</v>
+        <v>0.02938339199130695</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.001940707199367495</v>
+        <v>-0.003156604085840539</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1203997001384946</v>
+        <v>0.1177041494513175</v>
       </c>
       <c r="K121" t="n">
-        <v>0.02877526072955973</v>
+        <v>0.02883251799678169</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.002162452900823037</v>
+        <v>-0.003402937837844506</v>
       </c>
       <c r="M121" t="n">
-        <v>0.2721734911610807</v>
+        <v>0.2678310141793925</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02887470490747259</v>
+        <v>0.02876163714718175</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.002516930663931141</v>
+        <v>-0.004495981735146307</v>
       </c>
       <c r="P121" t="n">
-        <v>0.4394042482405532</v>
+        <v>0.4374837759982175</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.02886696055530021</v>
+        <v>0.02880634527539474</v>
       </c>
       <c r="R121" t="n">
-        <v>-0.00258852251424771</v>
+        <v>-0.001939509907087542</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05770743869534141</v>
+        <v>0.05736996027742887</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02880406504155231</v>
+        <v>0.03019959732439882</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.001940707199367495</v>
+        <v>-0.00315628845699484</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1210822411266794</v>
+        <v>0.1183267737966743</v>
       </c>
       <c r="K122" t="n">
-        <v>0.02957457352760306</v>
+        <v>0.02963342127447008</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.002162452900823037</v>
+        <v>-0.003402937837844506</v>
       </c>
       <c r="M122" t="n">
-        <v>0.2733441706866898</v>
+        <v>0.2703094033812634</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02967678004379128</v>
+        <v>0.02956057151238124</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.002516930663931141</v>
+        <v>-0.004495981735146307</v>
       </c>
       <c r="P122" t="n">
-        <v>0.441403547171234</v>
+        <v>0.4388824290219355</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.02966882057072522</v>
+        <v>0.02960652153304459</v>
       </c>
       <c r="R122" t="n">
-        <v>-0.00258852251424771</v>
+        <v>-0.001939509907087542</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05805336436171765</v>
+        <v>0.05772417419794451</v>
       </c>
       <c r="G123" t="n">
-        <v>0.02958255328591859</v>
+        <v>0.03101580265749068</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.002110440547903133</v>
+        <v>-0.003155972828149141</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1217850722020247</v>
+        <v>0.1189806096775743</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03037388632564639</v>
+        <v>0.03043432455215845</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.002117693885446081</v>
+        <v>-0.003402937837844506</v>
       </c>
       <c r="M123" t="n">
-        <v>0.2745570594517838</v>
+        <v>0.2728982830533881</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03047885518010996</v>
+        <v>0.03035950587758073</v>
       </c>
       <c r="O123" t="n">
-        <v>-0.002516930663931141</v>
+        <v>-0.004495981735146307</v>
       </c>
       <c r="P123" t="n">
-        <v>0.4435479370153975</v>
+        <v>0.4402874666411746</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.03047068058615022</v>
+        <v>0.03040669779069445</v>
       </c>
       <c r="R123" t="n">
-        <v>-0.00258852251424771</v>
+        <v>-0.001939509907087542</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="82" t="n"/>
       <c r="B124" s="82" t="n"/>
       <c r="F124" t="n">
-        <v>0.05838311885396377</v>
+        <v>0.05803781126127203</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03036104153028487</v>
+        <v>0.03183200799058254</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.002110440547903133</v>
+        <v>-0.003325394122096273</v>
       </c>
       <c r="J124" t="n">
-        <v>0.122456643546488</v>
+        <v>0.1195484605228396</v>
       </c>
       <c r="K124" t="n">
-        <v>0.03117319912368971</v>
+        <v>0.03123522782984684</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.002117693885446081</v>
+        <v>-0.003638580643644182</v>
       </c>
       <c r="M124" t="n">
-        <v>0.2758151580216786</v>
+        <v>0.2753400511636088</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03128093031642865</v>
+        <v>0.03115844024278023</v>
       </c>
       <c r="O124" t="n">
-        <v>-0.002421868947722793</v>
+        <v>-0.004101319188247664</v>
       </c>
       <c r="P124" t="n">
-        <v>0.4457012951090141</v>
+        <v>0.4414961448226498</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.03127254060157523</v>
+        <v>0.0312068740483443</v>
       </c>
       <c r="R124" t="n">
-        <v>-0.002794285136461346</v>
+        <v>-0.002377742481700072</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05872169714653228</v>
+        <v>0.05833554224165456</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03113952977465115</v>
+        <v>0.0326482133236744</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.002110440547903133</v>
+        <v>-0.003325394122096273</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1231311478913359</v>
+        <v>0.1201156285556978</v>
       </c>
       <c r="K125" t="n">
-        <v>0.03197251192173303</v>
+        <v>0.03203613110753521</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.002117693885446081</v>
+        <v>-0.003638580643644182</v>
       </c>
       <c r="M125" t="n">
-        <v>0.2769506567458756</v>
+        <v>0.2777133985024158</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03208300545274732</v>
+        <v>0.03195737460797972</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.002421868947722793</v>
+        <v>-0.004101319188247664</v>
       </c>
       <c r="P125" t="n">
-        <v>0.4476559981884988</v>
+        <v>0.4427198505999546</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.03207440061700023</v>
+        <v>0.03200705030599415</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.002794285136461346</v>
+        <v>-0.002377742481700072</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05905208389436446</v>
+        <v>0.05865086529364524</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03191801801901743</v>
+        <v>0.03346441865676626</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.002110440547903133</v>
+        <v>-0.003325061649178647</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1237564311322881</v>
+        <v>0.1206491036392556</v>
       </c>
       <c r="K126" t="n">
-        <v>0.03277182471977636</v>
+        <v>0.0328370343852236</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.002117693885446081</v>
+        <v>-0.003638580643644182</v>
       </c>
       <c r="M126" t="n">
-        <v>0.2780935490822814</v>
+        <v>0.2800129618910714</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03288508058906601</v>
+        <v>0.03275630897317922</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.002421868947722793</v>
+        <v>-0.004101319188247664</v>
       </c>
       <c r="P126" t="n">
-        <v>0.4498317513112163</v>
+        <v>0.4438244942404005</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.03287626063242524</v>
+        <v>0.03280722656364401</v>
       </c>
       <c r="R126" t="n">
-        <v>-0.002794285136461346</v>
+        <v>-0.002377742481700072</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="83" t="n"/>
       <c r="B127" s="83" t="n"/>
       <c r="F127" t="n">
-        <v>0.05935700292455254</v>
+        <v>0.058966936210926</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0326965062633837</v>
+        <v>0.03428062398985812</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.002110440547903133</v>
+        <v>-0.003324729176261021</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1243841970822157</v>
+        <v>0.1211667931777929</v>
       </c>
       <c r="K127" t="n">
-        <v>0.03357113751781968</v>
+        <v>0.03363793766291198</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.002117693885446081</v>
+        <v>-0.003638580643644182</v>
       </c>
       <c r="M127" t="n">
-        <v>0.2791177054059243</v>
+        <v>0.2824063616606276</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03368715572538469</v>
+        <v>0.03355524333837871</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.002421868947722793</v>
+        <v>-0.004101319188247664</v>
       </c>
       <c r="P127" t="n">
-        <v>0.4516706689427286</v>
+        <v>0.4450225654092305</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.03367812064785025</v>
+        <v>0.03360740282129386</v>
       </c>
       <c r="R127" t="n">
-        <v>-0.002794285136461346</v>
+        <v>-0.002892930895207675</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="83" t="n"/>
       <c r="B128" s="83" t="n"/>
       <c r="F128" t="n">
-        <v>0.05966164483243586</v>
+        <v>0.05924116346030803</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03347499450774999</v>
+        <v>0.03509682932294998</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.002317331867249499</v>
+        <v>-0.003516396091947282</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1249619150599554</v>
+        <v>0.1217383326418457</v>
       </c>
       <c r="K128" t="n">
-        <v>0.03437045031586301</v>
+        <v>0.03443884094060036</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.002078154741363403</v>
+        <v>-0.003891260060299029</v>
       </c>
       <c r="M128" t="n">
-        <v>0.2801968119393067</v>
+        <v>0.2847606390258314</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03448923086170338</v>
+        <v>0.0343541777035782</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.002306880855967074</v>
+        <v>-0.003611455351661666</v>
       </c>
       <c r="P128" t="n">
-        <v>0.4534529458288844</v>
+        <v>0.4461102174415099</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.03447998066327525</v>
+        <v>0.03440757907894371</v>
       </c>
       <c r="R128" t="n">
-        <v>-0.003049756015080962</v>
+        <v>-0.002892930895207675</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05997442232391624</v>
+        <v>0.05953272494895656</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03425348275211627</v>
+        <v>0.03591303465604184</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.002317331867249499</v>
+        <v>-0.003515692883049783</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1255767898886144</v>
+        <v>0.1222275148527854</v>
       </c>
       <c r="K129" t="n">
-        <v>0.03516976311390634</v>
+        <v>0.03523974421828874</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.002078154741363403</v>
+        <v>-0.003891260060299029</v>
       </c>
       <c r="M129" t="n">
-        <v>0.2812044192295802</v>
+        <v>0.2869400394108669</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03529130599802206</v>
+        <v>0.03515311206877769</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.002306880855967074</v>
+        <v>-0.003611455351661666</v>
       </c>
       <c r="P129" t="n">
-        <v>0.4551796859723335</v>
+        <v>0.4470914451096335</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.03528184067870026</v>
+        <v>0.03520775533659357</v>
       </c>
       <c r="R129" t="n">
-        <v>-0.003049756015080962</v>
+        <v>-0.002892930895207675</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="83" t="n"/>
       <c r="F130" t="n">
-        <v>0.06026085561358427</v>
+        <v>0.05979891748717399</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03503197099648254</v>
+        <v>0.0367292399891337</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.002317331867249499</v>
+        <v>-0.003516747696396032</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1261586659450596</v>
+        <v>0.1227383076226679</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03596907591194966</v>
+        <v>0.03604064749597712</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.002078154741363403</v>
+        <v>-0.003891260060299029</v>
       </c>
       <c r="M130" t="n">
-        <v>0.282185707743067</v>
+        <v>0.2892892667239566</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03609338113434074</v>
+        <v>0.03595204643397718</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.002306880855967074</v>
+        <v>-0.003611455351661666</v>
       </c>
       <c r="P130" t="n">
-        <v>0.4571347902974799</v>
+        <v>0.448109900290297</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.03608370069412527</v>
+        <v>0.03600793159424342</v>
       </c>
       <c r="R130" t="n">
-        <v>-0.003049756015080962</v>
+        <v>-0.002892930895207675</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="83" t="n"/>
       <c r="B131" s="83" t="n"/>
       <c r="F131" t="n">
-        <v>0.0605118945302474</v>
+        <v>0.06008231495106194</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03581045924084882</v>
+        <v>0.03754544532222556</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.002317331867249499</v>
+        <v>-0.003712101923963349</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1267248160473988</v>
+        <v>0.1231853603417158</v>
       </c>
       <c r="K131" t="n">
-        <v>0.03676838870999299</v>
+        <v>0.0368415507736655</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.002078154741363403</v>
+        <v>-0.003891260060299029</v>
       </c>
       <c r="M131" t="n">
-        <v>0.2830563391984569</v>
+        <v>0.2914538597399018</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03689545627065943</v>
+        <v>0.03675098079917668</v>
       </c>
       <c r="O131" t="n">
-        <v>-0.002306880855967074</v>
+        <v>-0.003611455351661666</v>
       </c>
       <c r="P131" t="n">
-        <v>0.4588253116547129</v>
+        <v>0.4491702100507654</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.03688556070955027</v>
+        <v>0.03680810785189328</v>
       </c>
       <c r="R131" t="n">
-        <v>-0.003049756015080962</v>
+        <v>-0.002892930895207675</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.06077897657469244</v>
+        <v>0.06032271799529208</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0365889474852151</v>
+        <v>0.03836165065531742</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.002544419625407317</v>
+        <v>-0.00371173075088826</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1272572875709325</v>
+        <v>0.1236733892035944</v>
       </c>
       <c r="K132" t="n">
-        <v>0.03756770150803632</v>
+        <v>0.03764245405135388</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.002044070721060111</v>
+        <v>-0.004140966570953329</v>
       </c>
       <c r="M132" t="n">
-        <v>0.2840350212235923</v>
+        <v>0.2935159188449462</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03769753140697811</v>
+        <v>0.03754991516437617</v>
       </c>
       <c r="O132" t="n">
-        <v>-0.002181166369017606</v>
+        <v>-0.003095031619407649</v>
       </c>
       <c r="P132" t="n">
-        <v>0.4603928803736295</v>
+        <v>0.4501369580918368</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.03768742072497527</v>
+        <v>0.03760828410954313</v>
       </c>
       <c r="R132" t="n">
-        <v>-0.003326211594209</v>
+        <v>-0.003440022683453506</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.06106209175329935</v>
+        <v>0.06056281215247479</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03736743572958138</v>
+        <v>0.03917785598840927</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.002544419625407317</v>
+        <v>-0.003711359577813171</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1278268188007799</v>
+        <v>0.1241167060084154</v>
       </c>
       <c r="K133" t="n">
-        <v>0.03836701430607964</v>
+        <v>0.03844335732904226</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.002044070721060111</v>
+        <v>-0.004140966570953329</v>
       </c>
       <c r="M133" t="n">
-        <v>0.2848639182654004</v>
+        <v>0.2956038379326728</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0384996065432968</v>
+        <v>0.03834884952957567</v>
       </c>
       <c r="O133" t="n">
-        <v>-0.002181166369017606</v>
+        <v>-0.003095031619407649</v>
       </c>
       <c r="P133" t="n">
-        <v>0.462051680459804</v>
+        <v>0.4511543923138802</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.03848928074040028</v>
+        <v>0.03840846036719298</v>
       </c>
       <c r="R133" t="n">
-        <v>-0.003326211594209</v>
+        <v>-0.003440022683453506</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.06128286592476878</v>
+        <v>0.06081981267317055</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03814592397394766</v>
+        <v>0.03999406132150113</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.002544419625407317</v>
+        <v>-0.003712101923963349</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1283266593978579</v>
+        <v>0.1245683569238251</v>
       </c>
       <c r="K134" t="n">
-        <v>0.03916632710412297</v>
+        <v>0.03924426060673064</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.002044070721060111</v>
+        <v>-0.004140966570953329</v>
       </c>
       <c r="M134" t="n">
-        <v>0.2858495531624808</v>
+        <v>0.2975799279536519</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03930168167961547</v>
+        <v>0.03914778389477516</v>
       </c>
       <c r="O134" t="n">
-        <v>-0.002181166369017606</v>
+        <v>-0.003095031619407649</v>
       </c>
       <c r="P134" t="n">
-        <v>0.4633756687058758</v>
+        <v>0.4520867105827776</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.03929114075582529</v>
+        <v>0.03920863662484284</v>
       </c>
       <c r="R134" t="n">
-        <v>-0.003326211594209</v>
+        <v>-0.003440022683453506</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.06154535882370341</v>
+        <v>0.06104167289336147</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03892441221831394</v>
+        <v>0.040810266654593</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.002784111775600709</v>
+        <v>-0.003712473097038438</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1288097716864053</v>
+        <v>0.1250469280931709</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0399656399021663</v>
+        <v>0.04004516388441902</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.002044070721060111</v>
+        <v>-0.004140966570953329</v>
       </c>
       <c r="M135" t="n">
-        <v>0.2867769231872333</v>
+        <v>0.2993940096851923</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04010375681593416</v>
+        <v>0.03994671825997465</v>
       </c>
       <c r="O135" t="n">
-        <v>-0.002181166369017606</v>
+        <v>-0.003095031619407649</v>
       </c>
       <c r="P135" t="n">
-        <v>0.4650790670598478</v>
+        <v>0.452867660935696</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.0400930007712503</v>
+        <v>0.04000881288249269</v>
       </c>
       <c r="R135" t="n">
-        <v>-0.003326211594209</v>
+        <v>-0.003440022683453506</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.06175347147949056</v>
+        <v>0.0612802254074658</v>
       </c>
       <c r="G136" t="n">
-        <v>0.03970290046268021</v>
+        <v>0.04162647198768486</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.002784111775600709</v>
+        <v>-0.003892505747603667</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1292938667559823</v>
+        <v>0.1254659065577662</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04076495270020962</v>
+        <v>0.0408460671621074</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.002015677077021305</v>
+        <v>-0.004367350398993559</v>
       </c>
       <c r="M136" t="n">
-        <v>0.287560519653189</v>
+        <v>0.3012208277896237</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04090583195225284</v>
+        <v>0.04074565262517414</v>
       </c>
       <c r="O136" t="n">
-        <v>-0.002053925467228011</v>
+        <v>-0.002620924056253658</v>
       </c>
       <c r="P136" t="n">
-        <v>0.4664492229022572</v>
+        <v>0.4539233280777781</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.04089486078667531</v>
+        <v>0.04080898914014255</v>
       </c>
       <c r="R136" t="n">
-        <v>-0.003594928317947905</v>
+        <v>-0.00397067841403622</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06197680386690724</v>
+        <v>0.06146570017744309</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04048138870704649</v>
+        <v>0.04244267732077672</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.002784111775600709</v>
+        <v>-0.003893284248753187</v>
       </c>
       <c r="J137" t="n">
-        <v>0.129814820499387</v>
+        <v>0.1259137900479501</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04156426549825295</v>
+        <v>0.04164697043979578</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.002015677077021305</v>
+        <v>-0.004367350398993559</v>
       </c>
       <c r="M137" t="n">
-        <v>0.2885087324559259</v>
+        <v>0.3029662375323793</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04170790708857153</v>
+        <v>0.04154458699037364</v>
       </c>
       <c r="O137" t="n">
-        <v>-0.002053925467228011</v>
+        <v>-0.002620924056253658</v>
       </c>
       <c r="P137" t="n">
-        <v>0.4679161710637869</v>
+        <v>0.4547657945890309</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.04169672080210031</v>
+        <v>0.0416091653977924</v>
       </c>
       <c r="R137" t="n">
-        <v>-0.003594928317947905</v>
+        <v>-0.00397067841403622</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06216253681053817</v>
+        <v>0.06168504820000903</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04125987695141278</v>
+        <v>0.04325888265386858</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.002784111775600709</v>
+        <v>-0.003892505747603667</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1302286297006559</v>
+        <v>0.1262860025157805</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04236357829629628</v>
+        <v>0.04244787371748417</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.002015677077021305</v>
+        <v>-0.004367350398993559</v>
       </c>
       <c r="M138" t="n">
-        <v>0.2893173709258235</v>
+        <v>0.304580129705639</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04250998222489021</v>
+        <v>0.04234352135557313</v>
       </c>
       <c r="O138" t="n">
-        <v>-0.002053925467228011</v>
+        <v>-0.002620924056253658</v>
       </c>
       <c r="P138" t="n">
-        <v>0.4691222612677581</v>
+        <v>0.4556808316479165</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.04249858081752531</v>
+        <v>0.04240934165544225</v>
       </c>
       <c r="R138" t="n">
-        <v>-0.003594928317947905</v>
+        <v>-0.00397067841403622</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06237192975229422</v>
+        <v>0.06188581346633852</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04203836519577905</v>
+        <v>0.04407508798696044</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.002784111775600709</v>
+        <v>-0.003892894998178427</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1306969999087729</v>
+        <v>0.1267066943074356</v>
       </c>
       <c r="K139" t="n">
-        <v>0.04316289109433959</v>
+        <v>0.04324877699517254</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.002015677077021305</v>
+        <v>-0.004367350398993559</v>
       </c>
       <c r="M139" t="n">
-        <v>0.2901639901885972</v>
+        <v>0.306148625913955</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04331205736120889</v>
+        <v>0.04314245572077263</v>
       </c>
       <c r="O139" t="n">
-        <v>-0.002053925467228011</v>
+        <v>-0.002620924056253658</v>
       </c>
       <c r="P139" t="n">
-        <v>0.4704996493199078</v>
+        <v>0.4567436959354031</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.04330044083295032</v>
+        <v>0.0432095179130921</v>
       </c>
       <c r="R139" t="n">
-        <v>-0.003594928317947905</v>
+        <v>-0.00397067841403622</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06255197381637984</v>
+        <v>0.06205019726126458</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04281685344014533</v>
+        <v>0.04489129332005229</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.003006734152666729</v>
+        <v>-0.00404139321536888</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1310753537069596</v>
+        <v>0.1271240511042478</v>
       </c>
       <c r="K140" t="n">
-        <v>0.04396220389238292</v>
+        <v>0.04404968027286092</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.00199320906173209</v>
+        <v>-0.004549606852612455</v>
       </c>
       <c r="M140" t="n">
-        <v>0.2909188283137776</v>
+        <v>0.3076675501046559</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04411413249752758</v>
+        <v>0.04394139008597212</v>
       </c>
       <c r="O140" t="n">
-        <v>-0.00193435813095191</v>
+        <v>-0.002257384326646538</v>
       </c>
       <c r="P140" t="n">
-        <v>0.4717619086225963</v>
+        <v>0.4576055010011211</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.04410230084837533</v>
+        <v>0.04400969417074196</v>
       </c>
       <c r="R140" t="n">
-        <v>-0.00382718263040012</v>
+        <v>-0.004441130414032666</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06272000480610587</v>
+        <v>0.06223945278929376</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04359534168451161</v>
+        <v>0.04570749865314415</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.003006734152666729</v>
+        <v>-0.004042605754587412</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1315081568651634</v>
+        <v>0.1275567778496318</v>
       </c>
       <c r="K141" t="n">
-        <v>0.04476151669042625</v>
+        <v>0.04485058355054931</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.00199320906173209</v>
+        <v>-0.004549606852612455</v>
       </c>
       <c r="M141" t="n">
-        <v>0.2918487358154045</v>
+        <v>0.3090408599147729</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04491620763384626</v>
+        <v>0.04474032445117161</v>
       </c>
       <c r="O141" t="n">
-        <v>-0.00193435813095191</v>
+        <v>-0.002257384326646538</v>
       </c>
       <c r="P141" t="n">
-        <v>0.4728374567947905</v>
+        <v>0.4585531175731777</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.04490416086380034</v>
+        <v>0.04480987042839182</v>
       </c>
       <c r="R141" t="n">
-        <v>-0.00382718263040012</v>
+        <v>-0.004441130414032666</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06286690971213667</v>
+        <v>0.06237427523052963</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04437382992887789</v>
+        <v>0.04652370398623601</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.003006734152666729</v>
+        <v>-0.00404179739510839</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1318683539860462</v>
+        <v>0.1279881508466248</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04556082948846957</v>
+        <v>0.04565148682823768</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.00199320906173209</v>
+        <v>-0.004549606852612455</v>
       </c>
       <c r="M142" t="n">
-        <v>0.292602878269394</v>
+        <v>0.3102634971674347</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04571828277016494</v>
+        <v>0.0455392588163711</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.00193435813095191</v>
+        <v>-0.002257384326646538</v>
       </c>
       <c r="P142" t="n">
-        <v>0.4742335358993623</v>
+        <v>0.4594492624200892</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.04570602087922534</v>
+        <v>0.04561004668604167</v>
       </c>
       <c r="R142" t="n">
-        <v>-0.00382718263040012</v>
+        <v>-0.004441130414032666</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06301902609661643</v>
+        <v>0.06254254934434894</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04515231817324417</v>
+        <v>0.04733990931932788</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.003006734152666729</v>
+        <v>-0.004042605754587412</v>
       </c>
       <c r="J143" t="n">
-        <v>0.132228269018022</v>
+        <v>0.128365604181925</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0463601422865129</v>
+        <v>0.04645239010592607</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.00199320906173209</v>
+        <v>-0.004549606852612455</v>
       </c>
       <c r="M143" t="n">
-        <v>0.2935816586017347</v>
+        <v>0.311515054963291</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04652035790648362</v>
+        <v>0.0463381931815706</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.00193435813095191</v>
+        <v>-0.002257384326646538</v>
       </c>
       <c r="P143" t="n">
-        <v>0.4753002608145978</v>
+        <v>0.4605110922528857</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.04650788089465035</v>
+        <v>0.04641022294369151</v>
       </c>
       <c r="R143" t="n">
-        <v>-0.00382718263040012</v>
+        <v>-0.004441130414032666</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06313173563554197</v>
+        <v>0.06268241523812799</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04593080641761044</v>
+        <v>0.04815611465241974</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.00319356010500763</v>
+        <v>-0.004140392812269515</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1325330193742366</v>
+        <v>0.1287969933549994</v>
       </c>
       <c r="K144" t="n">
-        <v>0.04715945508455623</v>
+        <v>0.04725329338361445</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.00197690192767757</v>
+        <v>-0.004667350555576523</v>
       </c>
       <c r="M144" t="n">
-        <v>0.2944331478258069</v>
+        <v>0.3125143531228904</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04732243304280231</v>
+        <v>0.04713712754677009</v>
       </c>
       <c r="O144" t="n">
-        <v>-0.001831664340542925</v>
+        <v>-0.002069936691724905</v>
       </c>
       <c r="P144" t="n">
-        <v>0.4762552618689604</v>
+        <v>0.4613878024354793</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.04730974091007535</v>
+        <v>0.04721039920134137</v>
       </c>
       <c r="R144" t="n">
-        <v>-0.003994250975668089</v>
+        <v>-0.004802076219182335</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06325808893130822</v>
+        <v>0.0628024690447732</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04670929466197673</v>
+        <v>0.0489723199855116</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.00319356010500763</v>
+        <v>-0.004139978772988289</v>
       </c>
       <c r="J145" t="n">
-        <v>0.132855335949024</v>
+        <v>0.1292119556582751</v>
       </c>
       <c r="K145" t="n">
-        <v>0.04795876788259956</v>
+        <v>0.04805419666130283</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.00197690192767757</v>
+        <v>-0.004667350555576523</v>
       </c>
       <c r="M145" t="n">
-        <v>0.2952033723965559</v>
+        <v>0.3134688917937793</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04812450817912099</v>
+        <v>0.04793606191196959</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.001831664340542925</v>
+        <v>-0.002069936691724905</v>
       </c>
       <c r="P145" t="n">
-        <v>0.4774630142698241</v>
+        <v>0.4625102841669978</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.04811160092550035</v>
+        <v>0.04801057545899123</v>
       </c>
       <c r="R145" t="n">
-        <v>-0.003994250975668089</v>
+        <v>-0.004802076219182335</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06335356412250244</v>
+        <v>0.0629291031707082</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04748778290634301</v>
+        <v>0.04978852531860345</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.00319356010500763</v>
+        <v>-0.004140392812269515</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1331768693190339</v>
+        <v>0.1296472417244501</v>
       </c>
       <c r="K146" t="n">
-        <v>0.04875808068064288</v>
+        <v>0.0488550999389912</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.00197690192767757</v>
+        <v>-0.004667350555576523</v>
       </c>
       <c r="M146" t="n">
-        <v>0.2961171200726668</v>
+        <v>0.314365307133944</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04892658331543967</v>
+        <v>0.04873499627716908</v>
       </c>
       <c r="O146" t="n">
-        <v>-0.001831664340542925</v>
+        <v>-0.002069936691724905</v>
       </c>
       <c r="P146" t="n">
-        <v>0.4785616502194908</v>
+        <v>0.4635983772582717</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.04891346094092536</v>
+        <v>0.04881075171664109</v>
       </c>
       <c r="R146" t="n">
-        <v>-0.003994250975668089</v>
+        <v>-0.004802076219182335</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06346022348028389</v>
+        <v>0.06304445145085671</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04826627115070928</v>
+        <v>0.05060473065169531</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.00319356010500763</v>
+        <v>-0.004140392812269515</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1334974795590109</v>
+        <v>0.1300499121304517</v>
       </c>
       <c r="K147" t="n">
-        <v>0.04955739347868621</v>
+        <v>0.04965600321667959</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.00197690192767757</v>
+        <v>-0.004667350555576523</v>
       </c>
       <c r="M147" t="n">
-        <v>0.2969092773792449</v>
+        <v>0.315440533524029</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04972865845175835</v>
+        <v>0.04953393064236857</v>
       </c>
       <c r="O147" t="n">
-        <v>-0.001831664340542925</v>
+        <v>-0.002069936691724905</v>
       </c>
       <c r="P147" t="n">
-        <v>0.47933311663773</v>
+        <v>0.4647990218591983</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.04971532095635037</v>
+        <v>0.04961092797429093</v>
       </c>
       <c r="R147" t="n">
-        <v>-0.003994250975668089</v>
+        <v>-0.004802076219182335</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06354574237675129</v>
+        <v>0.06311278179229735</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04904475939507556</v>
+        <v>0.05142093598478717</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.00335759599131103</v>
+        <v>-0.004167708665155689</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1337067799204093</v>
+        <v>0.1305108999814885</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05035670627672953</v>
+        <v>0.05045690649436797</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.001966990927342849</v>
+        <v>-0.004701963760102318</v>
       </c>
       <c r="M148" t="n">
-        <v>0.2978500247939927</v>
+        <v>0.3163684841252027</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05053073358807704</v>
+        <v>0.05033286500756806</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.001755044076354677</v>
+        <v>-0.001961016880535409</v>
       </c>
       <c r="P148" t="n">
-        <v>0.4805077054547032</v>
+        <v>0.4660453016294419</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.05051718097177537</v>
+        <v>0.05041110423194078</v>
       </c>
       <c r="R148" t="n">
-        <v>-0.004067409797854254</v>
+        <v>-0.00500830929409465</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06363699167657874</v>
+        <v>0.06321529185051838</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04982324763944184</v>
+        <v>0.05223714131787903</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.00335759599131103</v>
+        <v>-0.004167708665155689</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1339881362721384</v>
+        <v>0.1308877207867036</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05115601907477286</v>
+        <v>0.05125780977205635</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.001966990927342849</v>
+        <v>-0.004701963760102318</v>
       </c>
       <c r="M149" t="n">
-        <v>0.298762941405818</v>
+        <v>0.3172409529948879</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05133280872439572</v>
+        <v>0.05113179937276755</v>
       </c>
       <c r="O149" t="n">
-        <v>-0.001755044076354677</v>
+        <v>-0.001961016880535409</v>
       </c>
       <c r="P149" t="n">
-        <v>0.4812106535354349</v>
+        <v>0.4671981277026708</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.05131904098720038</v>
+        <v>0.05121128048959064</v>
       </c>
       <c r="R149" t="n">
-        <v>-0.004067409797854254</v>
+        <v>-0.00500830929409465</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06375200243426239</v>
+        <v>0.06329568694330578</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05060173588380812</v>
+        <v>0.05305334665097089</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.00335759599131103</v>
+        <v>-0.004167708665155689</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1341759034337189</v>
+        <v>0.1313834816978041</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05195533187281618</v>
+        <v>0.05205871304974473</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.001966990927342849</v>
+        <v>-0.004701963760102318</v>
       </c>
       <c r="M150" t="n">
-        <v>0.2996949951440218</v>
+        <v>0.3181036676259184</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05213488386071441</v>
+        <v>0.05193073373796705</v>
       </c>
       <c r="O150" t="n">
-        <v>-0.001755044076354677</v>
+        <v>-0.001961016880535409</v>
       </c>
       <c r="P150" t="n">
-        <v>0.4821016444200812</v>
+        <v>0.4684765926475508</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.05212090100262539</v>
+        <v>0.0520114567472405</v>
       </c>
       <c r="R150" t="n">
-        <v>-0.004067409797854254</v>
+        <v>-0.00500830929409465</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06382825109374833</v>
+        <v>0.06338146336960528</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0513802241281744</v>
+        <v>0.05386955198406276</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.00335759599131103</v>
+        <v>-0.004168125477703459</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1344171178836528</v>
+        <v>0.1318166373421172</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0527546446708595</v>
+        <v>0.05285961632743311</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.001966990927342849</v>
+        <v>-0.004701963760102318</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3006484585406269</v>
+        <v>0.3189558210886773</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05293695899703309</v>
+        <v>0.05272966810316654</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.001755044076354677</v>
+        <v>-0.001961016880535409</v>
       </c>
       <c r="P151" t="n">
-        <v>0.4831910997160115</v>
+        <v>0.4697414540388618</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.0529227610180504</v>
+        <v>0.05281163300489036</v>
       </c>
       <c r="R151" t="n">
-        <v>-0.004067409797854254</v>
+        <v>-0.00500830929409465</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06389263957007778</v>
+        <v>0.0634281956007899</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05215871237254067</v>
+        <v>0.05468575731715462</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.003522160607149635</v>
+        <v>-0.004093154727091035</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1346194961404787</v>
+        <v>0.1322584062854545</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05355395746890284</v>
+        <v>0.05366051960512148</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.001963752993157806</v>
+        <v>-0.004574097827588633</v>
       </c>
       <c r="M152" t="n">
-        <v>0.3016256041276568</v>
+        <v>0.3198905848944796</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05373903413335177</v>
+        <v>0.05352860246836603</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.001713697318740788</v>
+        <v>-0.00185953201460897</v>
       </c>
       <c r="P152" t="n">
-        <v>0.4838947921376169</v>
+        <v>0.4710813736279817</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.0537246210334754</v>
+        <v>0.0536118092625402</v>
       </c>
       <c r="R152" t="n">
-        <v>-0.004018414624096924</v>
+        <v>-0.005038142689515056</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06397217200569535</v>
+        <v>0.06352521599843071</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05293720061690696</v>
+        <v>0.05550196265024648</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.003522160607149635</v>
+        <v>-0.004093564083499385</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1347458301157621</v>
+        <v>0.1327624630007477</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05435327026694616</v>
+        <v>0.05446142288280987</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.001963752993157806</v>
+        <v>-0.004574097827588633</v>
       </c>
       <c r="M153" t="n">
-        <v>0.3026739673075781</v>
+        <v>0.3207664483451808</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05454110926967046</v>
+        <v>0.05432753683356552</v>
       </c>
       <c r="O153" t="n">
-        <v>-0.001713697318740788</v>
+        <v>-0.00185953201460897</v>
       </c>
       <c r="P153" t="n">
-        <v>0.4847996603727251</v>
+        <v>0.4726593068542512</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.0545264810489004</v>
+        <v>0.05441198552019006</v>
       </c>
       <c r="R153" t="n">
-        <v>-0.004018414624096924</v>
+        <v>-0.005038142689515056</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06405801933392688</v>
+        <v>0.06357453154220927</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05371568886127323</v>
+        <v>0.05631816798333834</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.003522160607149635</v>
+        <v>-0.004093154727091035</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1349322681125274</v>
+        <v>0.1331815313009986</v>
       </c>
       <c r="K154" t="n">
-        <v>0.05515258306498949</v>
+        <v>0.05526232616049825</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.001963752993157806</v>
+        <v>-0.004574097827588633</v>
       </c>
       <c r="M154" t="n">
-        <v>0.3036600320010828</v>
+        <v>0.3216766647813639</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05534318440598913</v>
+        <v>0.05512647119876502</v>
       </c>
       <c r="O154" t="n">
-        <v>-0.001713697318740788</v>
+        <v>-0.00185953201460897</v>
       </c>
       <c r="P154" t="n">
-        <v>0.485465545645262</v>
+        <v>0.4742520218752091</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.05532834106432541</v>
+        <v>0.05521216177783991</v>
       </c>
       <c r="R154" t="n">
-        <v>-0.004018414624096924</v>
+        <v>-0.005038142689515056</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06414131960509113</v>
+        <v>0.06364771258415906</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05449417710563951</v>
+        <v>0.0571343733164302</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.003522160607149635</v>
+        <v>-0.003922094572024729</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1350736934410007</v>
+        <v>0.1336974337934426</v>
       </c>
       <c r="K155" t="n">
-        <v>0.05595189586303281</v>
+        <v>0.05606322943818663</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.001963752993157806</v>
+        <v>-0.004281913471958457</v>
       </c>
       <c r="M155" t="n">
-        <v>0.3047227186524221</v>
+        <v>0.3224316875771962</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05614525954230783</v>
+        <v>0.0559254055639645</v>
       </c>
       <c r="O155" t="n">
-        <v>-0.001727330370559517</v>
+        <v>-0.00185953201460897</v>
       </c>
       <c r="P155" t="n">
-        <v>0.4864812162196774</v>
+        <v>0.4759244070646951</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.05613020107975042</v>
+        <v>0.05601233803548976</v>
       </c>
       <c r="R155" t="n">
-        <v>-0.003851594977128687</v>
+        <v>-0.005038142689515056</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06422217702395494</v>
+        <v>0.06369129101530557</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05527266535000579</v>
+        <v>0.05795057864952204</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.003704602895992373</v>
+        <v>-0.003922486742264907</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1352074902559351</v>
+        <v>0.1341624208139346</v>
       </c>
       <c r="K156" t="n">
-        <v>0.05675120866107614</v>
+        <v>0.056864132715875</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.002109533347808484</v>
+        <v>-0.004281913471958457</v>
       </c>
       <c r="M156" t="n">
-        <v>0.3057942784962872</v>
+        <v>0.3232666079881938</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0569473346786265</v>
+        <v>0.05672433992916401</v>
       </c>
       <c r="O156" t="n">
-        <v>-0.001727330370559517</v>
+        <v>-0.001766311686507292</v>
       </c>
       <c r="P156" t="n">
-        <v>0.4872585814978957</v>
+        <v>0.4775964685241063</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.05693206109517542</v>
+        <v>0.05681251429313963</v>
       </c>
       <c r="R156" t="n">
-        <v>-0.003851594977128687</v>
+        <v>-0.005029715158326929</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06429169251677963</v>
+        <v>0.06375012312103658</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05605115359437206</v>
+        <v>0.0587667839826139</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.003704602895992373</v>
+        <v>-0.00392170240178455</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1352970341392328</v>
+        <v>0.1346487752619397</v>
       </c>
       <c r="K157" t="n">
-        <v>0.05755052145911946</v>
+        <v>0.05766503599356339</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.002109533347808484</v>
+        <v>-0.004281913471958457</v>
       </c>
       <c r="M157" t="n">
-        <v>0.3069706768077461</v>
+        <v>0.3241337036836107</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05774940981494519</v>
+        <v>0.05752327429436349</v>
       </c>
       <c r="O157" t="n">
-        <v>-0.001727330370559517</v>
+        <v>-0.001766311686507292</v>
       </c>
       <c r="P157" t="n">
-        <v>0.4878711509523417</v>
+        <v>0.4795522279770235</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.05773392111060043</v>
+        <v>0.05761269055078947</v>
       </c>
       <c r="R157" t="n">
-        <v>-0.003851594977128687</v>
+        <v>-0.005029715158326929</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06434094015009795</v>
+        <v>0.0638064799583986</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05682964183873835</v>
+        <v>0.05958298931570577</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.003704602895992373</v>
+        <v>-0.003921310231544371</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1354539383001073</v>
+        <v>0.1351184747265973</v>
       </c>
       <c r="K158" t="n">
-        <v>0.05834983425716279</v>
+        <v>0.05846593927125177</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.002109533347808484</v>
+        <v>-0.004281913471958457</v>
       </c>
       <c r="M158" t="n">
-        <v>0.3082461198919377</v>
+        <v>0.3249374184934433</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05855148495126387</v>
+        <v>0.05832220865956299</v>
       </c>
       <c r="O158" t="n">
-        <v>-0.001727330370559517</v>
+        <v>-0.001766311686507292</v>
       </c>
       <c r="P158" t="n">
-        <v>0.4886143463770601</v>
+        <v>0.4812741791623498</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.05853578112602544</v>
+        <v>0.05841286680843933</v>
       </c>
       <c r="R158" t="n">
-        <v>-0.003851594977128687</v>
+        <v>-0.005029715158326929</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06440605205860267</v>
+        <v>0.06386947514219975</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05760813008310463</v>
+        <v>0.06039919464879763</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.003704602895992373</v>
+        <v>-0.003922094572024729</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1355489064714613</v>
+        <v>0.135663044682905</v>
       </c>
       <c r="K159" t="n">
-        <v>0.05914914705520612</v>
+        <v>0.05926684254894016</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.002109533347808484</v>
+        <v>-0.004281913471958457</v>
       </c>
       <c r="M159" t="n">
-        <v>0.3095229401719265</v>
+        <v>0.3257718463572866</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05935356008758256</v>
+        <v>0.05912114302476248</v>
       </c>
       <c r="O159" t="n">
-        <v>-0.001727330370559517</v>
+        <v>-0.001766311686507292</v>
       </c>
       <c r="P159" t="n">
-        <v>0.489341167428569</v>
+        <v>0.4834127632287565</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.05933764114145044</v>
+        <v>0.05921304306608918</v>
       </c>
       <c r="R159" t="n">
-        <v>-0.003851594977128687</v>
+        <v>-0.005029715158326929</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06446010368919594</v>
+        <v>0.06392133877537244</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0583866183274709</v>
+        <v>0.06121539998188949</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.003893410278879523</v>
+        <v>-0.003677577372661132</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1356379645619712</v>
+        <v>0.1361144276772063</v>
       </c>
       <c r="K160" t="n">
-        <v>0.05994845985324944</v>
+        <v>0.06006774582662854</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.002487940611290763</v>
+        <v>-0.003869676775365833</v>
       </c>
       <c r="M160" t="n">
-        <v>0.3108867767051706</v>
+        <v>0.3264934601112252</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06015563522390124</v>
+        <v>0.05992007738996198</v>
       </c>
       <c r="O160" t="n">
-        <v>-0.001839849890493314</v>
+        <v>-0.001682180265299358</v>
       </c>
       <c r="P160" t="n">
-        <v>0.4901260411988388</v>
+        <v>0.4853019642571492</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.06013950115687545</v>
+        <v>0.06001321932373903</v>
       </c>
       <c r="R160" t="n">
-        <v>-0.003593646830679318</v>
+        <v>-0.005009765311492326</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06454832654548426</v>
+        <v>0.06398015215383621</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05916510657183718</v>
+        <v>0.06203160531498135</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.003893410278879523</v>
+        <v>-0.003677577372661132</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1357586972207525</v>
+        <v>0.1366386924290445</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06074777265129278</v>
+        <v>0.06086864910431691</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.002487940611290763</v>
+        <v>-0.003869676775365833</v>
       </c>
       <c r="M161" t="n">
-        <v>0.3122394499572926</v>
+        <v>0.3272441671557019</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06095771036021992</v>
+        <v>0.06071901175516146</v>
       </c>
       <c r="O161" t="n">
-        <v>-0.001839849890493314</v>
+        <v>-0.001682180265299358</v>
       </c>
       <c r="P161" t="n">
-        <v>0.4907473739654421</v>
+        <v>0.4873008038455531</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.06094136117230044</v>
+        <v>0.06081339558138889</v>
       </c>
       <c r="R161" t="n">
-        <v>-0.003593646830679318</v>
+        <v>-0.005009765311492326</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06458958311368874</v>
+        <v>0.06401914679863763</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05994359481620346</v>
+        <v>0.06284781064807321</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.003893410278879523</v>
+        <v>-0.003677577372661132</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1358558480036762</v>
+        <v>0.1370856121257975</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06154708544933609</v>
+        <v>0.06166955238200529</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.002487940611290763</v>
+        <v>-0.003869676775365833</v>
       </c>
       <c r="M162" t="n">
-        <v>0.3136207649579948</v>
+        <v>0.3279277876230695</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0617597854965386</v>
+        <v>0.06151794612036097</v>
       </c>
       <c r="O162" t="n">
-        <v>-0.001839849890493314</v>
+        <v>-0.001682180265299358</v>
       </c>
       <c r="P162" t="n">
-        <v>0.4915017459878713</v>
+        <v>0.4892548022049913</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.06174322118772545</v>
+        <v>0.06161357183903874</v>
       </c>
       <c r="R162" t="n">
-        <v>-0.003593646830679318</v>
+        <v>-0.005009765311492326</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06464717508333789</v>
+        <v>0.06405641015850265</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06072208306056975</v>
+        <v>0.06366401598116507</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.003893410278879523</v>
+        <v>-0.003677945093626302</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1359112296879045</v>
+        <v>0.1376035199866853</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06234639824737943</v>
+        <v>0.06247045565969368</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.002487940611290763</v>
+        <v>-0.003378814751404032</v>
       </c>
       <c r="M163" t="n">
-        <v>0.3149780766352986</v>
+        <v>0.3287826416880074</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06256186063285729</v>
+        <v>0.06231688048556045</v>
       </c>
       <c r="O163" t="n">
-        <v>-0.002028754549740434</v>
+        <v>-0.001682180265299358</v>
       </c>
       <c r="P163" t="n">
-        <v>0.4920189363553628</v>
+        <v>0.4912302472028414</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.06254508120315046</v>
+        <v>0.06241374809668859</v>
       </c>
       <c r="R163" t="n">
-        <v>-0.003271419897146347</v>
+        <v>-0.005009765311492326</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06471219571618921</v>
+        <v>0.06411905432621902</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06150057130493602</v>
+        <v>0.06448022131425693</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.004069116254591309</v>
+        <v>-0.003383534615694872</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1360368351122793</v>
+        <v>0.1380602194693092</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06314571104542274</v>
+        <v>0.06327135893738206</v>
       </c>
       <c r="L164" t="n">
-        <v>-0.003025900991570044</v>
+        <v>-0.003378814751404032</v>
       </c>
       <c r="M164" t="n">
-        <v>0.3163514515296119</v>
+        <v>0.3293773146506408</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06336393576917597</v>
+        <v>0.06311581485075995</v>
       </c>
       <c r="O164" t="n">
-        <v>-0.002028754549740434</v>
+        <v>-0.001608599537303073</v>
       </c>
       <c r="P164" t="n">
-        <v>0.4926701487386387</v>
+        <v>0.4934429173272703</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.06334694121857547</v>
+        <v>0.06321392435433845</v>
       </c>
       <c r="R164" t="n">
-        <v>-0.003271419897146347</v>
+        <v>-0.004982132582720919</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06476666287715573</v>
+        <v>0.0641623129669241</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0622790595493023</v>
+        <v>0.06529642664734879</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.004069116254591309</v>
+        <v>-0.003384211390295471</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1360843207422311</v>
+        <v>0.138548399087102</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06394502384346606</v>
+        <v>0.06407226221507042</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.003025900991570044</v>
+        <v>-0.003378814751404032</v>
       </c>
       <c r="M165" t="n">
-        <v>0.3177815221474368</v>
+        <v>0.3299980017297027</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06416601090549465</v>
+        <v>0.06391474921595944</v>
       </c>
       <c r="O165" t="n">
-        <v>-0.002028754549740434</v>
+        <v>-0.001608599537303073</v>
       </c>
       <c r="P165" t="n">
-        <v>0.4933075194632358</v>
+        <v>0.4955147277341586</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.06414880123400046</v>
+        <v>0.0640141006119883</v>
       </c>
       <c r="R165" t="n">
-        <v>-0.003271419897146347</v>
+        <v>-0.004982132582720919</v>
       </c>
     </row>
     <row r="166">
       <c r="F166" t="n">
-        <v>0.06481066518015195</v>
+        <v>0.06420430180848659</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06305754779366858</v>
+        <v>0.06611263198044065</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.004069116254591309</v>
+        <v>-0.003383534615694872</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1361657323759927</v>
+        <v>0.1389916081107907</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0647443366415094</v>
+        <v>0.06487316549275882</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.003025900991570044</v>
+        <v>-0.003378814751404032</v>
       </c>
       <c r="M166" t="n">
-        <v>0.3192156446461247</v>
+        <v>0.3306441002475484</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06496808604181334</v>
+        <v>0.06471368358115893</v>
       </c>
       <c r="O166" t="n">
-        <v>-0.002028754549740434</v>
+        <v>-0.001608599537303073</v>
       </c>
       <c r="P166" t="n">
-        <v>0.4940802715495288</v>
+        <v>0.4974372092091978</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.06495066124942547</v>
+        <v>0.06481427686963816</v>
       </c>
       <c r="R166" t="n">
-        <v>-0.003271419897146347</v>
+        <v>-0.004982132582720919</v>
       </c>
     </row>
     <row r="167">
       <c r="F167" t="n">
-        <v>0.06485335425626491</v>
+        <v>0.06422717245824465</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06383603603803485</v>
+        <v>0.06692883731353251</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.004069116254591309</v>
+        <v>-0.00338454977759577</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1362629275179177</v>
+        <v>0.1394263161983296</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06554364943955272</v>
+        <v>0.06567406877044719</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.003025900991570044</v>
+        <v>-0.003378814751404032</v>
       </c>
       <c r="M167" t="n">
-        <v>0.3207888814134299</v>
+        <v>0.3312668626719645</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06577016117813202</v>
+        <v>0.06551261794635843</v>
       </c>
       <c r="O167" t="n">
-        <v>-0.002028754549740434</v>
+        <v>-0.001608599537303073</v>
       </c>
       <c r="P167" t="n">
-        <v>0.4946913466981244</v>
+        <v>0.4996516412308749</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.06575252126485048</v>
+        <v>0.06561445312728802</v>
       </c>
       <c r="R167" t="n">
-        <v>-0.003271419897146347</v>
+        <v>-0.004982132582720919</v>
       </c>
     </row>
     <row r="168">
       <c r="F168" t="n">
-        <v>0.06491296992553966</v>
+        <v>0.06427606951749799</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06461452428240114</v>
+        <v>0.06774504264662437</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.004250016861275231</v>
+        <v>-0.003064229198531825</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1363763638768274</v>
+        <v>0.1398513851809298</v>
       </c>
       <c r="K168" t="n">
-        <v>0.06634296223759606</v>
+        <v>0.06647497204813557</v>
       </c>
       <c r="L168" t="n">
-        <v>-0.003650340696611729</v>
+        <v>-0.002853722877248461</v>
       </c>
       <c r="M168" t="n">
-        <v>0.322071461146149</v>
+        <v>0.3320100533033739</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06657223631445071</v>
+        <v>0.06631155231155793</v>
       </c>
       <c r="O168" t="n">
-        <v>-0.002263550991910511</v>
+        <v>-0.001545687257743564</v>
       </c>
       <c r="P168" t="n">
-        <v>0.4952898432111124</v>
+        <v>0.5016271262125701</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.06655438128027549</v>
+        <v>0.06641462938493786</v>
       </c>
       <c r="R168" t="n">
-        <v>-0.002911763888927305</v>
+        <v>-0.004945150223080477</v>
       </c>
     </row>
     <row r="169">
       <c r="F169" t="n">
-        <v>0.0649715027547286</v>
+        <v>0.06433316446058181</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06539301252676741</v>
+        <v>0.06856124797971623</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.004250016861275231</v>
+        <v>-0.003063922775611972</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1363946500027849</v>
+        <v>0.1403417988413617</v>
       </c>
       <c r="K169" t="n">
-        <v>0.06714227503563937</v>
+        <v>0.06727587532582396</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.003650340696611729</v>
+        <v>-0.002853722877248461</v>
       </c>
       <c r="M169" t="n">
-        <v>0.3236229215422851</v>
+        <v>0.332583886254149</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06737431145076939</v>
+        <v>0.06711048667675741</v>
       </c>
       <c r="O169" t="n">
-        <v>-0.002263550991910511</v>
+        <v>-0.001545687257743564</v>
       </c>
       <c r="P169" t="n">
-        <v>0.4958761830190525</v>
+        <v>0.5038067925926104</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.0673562412957005</v>
+        <v>0.06721480564258772</v>
       </c>
       <c r="R169" t="n">
-        <v>-0.002911763888927305</v>
+        <v>-0.004945150223080477</v>
       </c>
     </row>
     <row r="170">
       <c r="F170" t="n">
-        <v>0.06501090330494019</v>
+        <v>0.06437158540231171</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06617150077113369</v>
+        <v>0.06937745331280809</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.004250016861275231</v>
+        <v>-0.003064842044371532</v>
       </c>
       <c r="J170" t="n">
-        <v>0.136504596837398</v>
+        <v>0.1407634180742782</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0679415878336827</v>
+        <v>0.06807677860351233</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.003650340696611729</v>
+        <v>-0.002853722877248461</v>
       </c>
       <c r="M170" t="n">
-        <v>0.3248697327498046</v>
+        <v>0.3332389035877807</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06817638658708808</v>
+        <v>0.06790942104195691</v>
       </c>
       <c r="O170" t="n">
-        <v>-0.002263550991910511</v>
+        <v>-0.001545687257743564</v>
       </c>
       <c r="P170" t="n">
-        <v>0.4964507880525051</v>
+        <v>0.5055806964645441</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.0681581013111255</v>
+        <v>0.06801498190023757</v>
       </c>
       <c r="R170" t="n">
-        <v>-0.002911763888927305</v>
+        <v>-0.004945150223080477</v>
       </c>
     </row>
     <row r="171">
       <c r="F171" t="n">
-        <v>0.06506757491467778</v>
+        <v>0.06440047512310171</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06694998901549998</v>
+        <v>0.07019365864589995</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.004250016861275231</v>
+        <v>-0.003063922775611972</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1365761574415017</v>
+        <v>0.141152949574135</v>
       </c>
       <c r="K171" t="n">
-        <v>0.06874090063172603</v>
+        <v>0.06887768188120072</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.003650340696611729</v>
+        <v>-0.002853722877248461</v>
       </c>
       <c r="M171" t="n">
-        <v>0.3263748079936563</v>
+        <v>0.3335083554203729</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06897846172340676</v>
+        <v>0.0687083554071564</v>
       </c>
       <c r="O171" t="n">
-        <v>-0.002513745860613183</v>
+        <v>-0.001545687257743564</v>
       </c>
       <c r="P171" t="n">
-        <v>0.4970140802420296</v>
+        <v>0.5076205013687681</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.06895996132655051</v>
+        <v>0.06881515815788743</v>
       </c>
       <c r="R171" t="n">
-        <v>-0.002911763888927305</v>
+        <v>-0.004945150223080477</v>
       </c>
     </row>
     <row r="172">
       <c r="F172" t="n">
-        <v>0.06510530493778516</v>
+        <v>0.0644470296772699</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06772847725986625</v>
+        <v>0.07100986397899181</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.004395844584511598</v>
+        <v>-0.002744344997712281</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1366470494186022</v>
+        <v>0.1415091339721583</v>
       </c>
       <c r="K172" t="n">
-        <v>0.06954021342976935</v>
+        <v>0.0696785851588891</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.004288185934381218</v>
+        <v>-0.002338173932372418</v>
       </c>
       <c r="M172" t="n">
-        <v>0.3277045738928355</v>
+        <v>0.3340022903664207</v>
       </c>
       <c r="N172" t="n">
-        <v>0.06978053685972543</v>
+        <v>0.0695072897723559</v>
       </c>
       <c r="O172" t="n">
-        <v>-0.002513745860613183</v>
+        <v>-0.001494261293679842</v>
       </c>
       <c r="P172" t="n">
-        <v>0.4974169831717172</v>
+        <v>0.5095415522393212</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.06976182134197552</v>
+        <v>0.06961533441553729</v>
       </c>
       <c r="R172" t="n">
-        <v>-0.002541528518419726</v>
+        <v>-0.004903111309571257</v>
       </c>
     </row>
     <row r="173">
       <c r="F173" t="n">
-        <v>0.06516053482659348</v>
+        <v>0.06446630936605591</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06850696550423253</v>
+        <v>0.07182606931208367</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.004395844584511598</v>
+        <v>-0.002744344997712281</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1366990378101584</v>
+        <v>0.1419074840452119</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07033952622781268</v>
+        <v>0.07047948843657748</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.004288185934381218</v>
+        <v>-0.002338173932372418</v>
       </c>
       <c r="M173" t="n">
-        <v>0.3289953577357039</v>
+        <v>0.334516482062757</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07058261199604411</v>
+        <v>0.07030622413755538</v>
       </c>
       <c r="O173" t="n">
-        <v>-0.002513745860613183</v>
+        <v>-0.001494261293679842</v>
       </c>
       <c r="P173" t="n">
-        <v>0.4981832171725797</v>
+        <v>0.5115644701648996</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.07056368135740053</v>
+        <v>0.07041551067318713</v>
       </c>
       <c r="R173" t="n">
-        <v>-0.002541528518419726</v>
+        <v>-0.004903111309571257</v>
       </c>
     </row>
     <row r="174">
       <c r="F174" t="n">
-        <v>0.065187918790163</v>
+        <v>0.06451258923679593</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0692854537485988</v>
+        <v>0.07264227464517553</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.004395844584511598</v>
+        <v>-0.002744070590653216</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1368072442617813</v>
+        <v>0.1422895141469188</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07113883902585601</v>
+        <v>0.07128039171426587</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.004288185934381218</v>
+        <v>-0.002338173932372418</v>
       </c>
       <c r="M174" t="n">
-        <v>0.3301929971450167</v>
+        <v>0.3349532610901238</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0713846871323628</v>
+        <v>0.07110515850275488</v>
       </c>
       <c r="O174" t="n">
-        <v>-0.002513745860613183</v>
+        <v>-0.001494261293679842</v>
       </c>
       <c r="P174" t="n">
-        <v>0.4986402990526351</v>
+        <v>0.5131488583397229</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.07136554137282554</v>
+        <v>0.07121568693083699</v>
       </c>
       <c r="R174" t="n">
-        <v>-0.002541528518419726</v>
+        <v>-0.004903111309571257</v>
       </c>
     </row>
     <row r="175">
       <c r="F175" t="n">
-        <v>0.06523302186566574</v>
+        <v>0.06454993343542867</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07006394199296509</v>
+        <v>0.07345847997826739</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.004536713003576194</v>
+        <v>-0.00274379618359415</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1368787471781728</v>
+        <v>0.142615555214394</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07193815182389933</v>
+        <v>0.07208129499195423</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.004288185934381218</v>
+        <v>-0.002338173932372418</v>
       </c>
       <c r="M175" t="n">
-        <v>0.3313391199126056</v>
+        <v>0.3354087586585921</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07218676226868148</v>
+        <v>0.07190409286795436</v>
       </c>
       <c r="O175" t="n">
-        <v>-0.002513745860613183</v>
+        <v>-0.001494261293679842</v>
       </c>
       <c r="P175" t="n">
-        <v>0.4991625591720471</v>
+        <v>0.5148968073251611</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.07216740138825053</v>
+        <v>0.07201586318848684</v>
       </c>
       <c r="R175" t="n">
-        <v>-0.002541528518419726</v>
+        <v>-0.004903111309571257</v>
       </c>
     </row>
     <row r="176">
       <c r="F176" t="n">
-        <v>0.06528687144153468</v>
+        <v>0.06457848149028297</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07084243023733136</v>
+        <v>0.07427468531135925</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.004536713003576194</v>
+        <v>-0.002446242290956061</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1369326299617684</v>
+        <v>0.1429421475283435</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07273746462194265</v>
+        <v>0.07288219826964262</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.004866362912843912</v>
+        <v>-0.001874818131879572</v>
       </c>
       <c r="M176" t="n">
-        <v>0.3325240905523473</v>
+        <v>0.3358337041309989</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07298883740500017</v>
+        <v>0.07270302723315387</v>
       </c>
       <c r="O176" t="n">
-        <v>-0.002748845799458088</v>
+        <v>-0.001455714598518968</v>
       </c>
       <c r="P176" t="n">
-        <v>0.4996006560347276</v>
+        <v>0.5166493321457495</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.07296926140367554</v>
+        <v>0.0728160394461367</v>
       </c>
       <c r="R176" t="n">
-        <v>-0.002187563498021141</v>
+        <v>-0.004852417941517762</v>
       </c>
     </row>
     <row r="177">
       <c r="F177" t="n">
-        <v>0.06532225854257477</v>
+        <v>0.06461644795034957</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07162091848169765</v>
+        <v>0.07509089064445111</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.004536713003576194</v>
+        <v>-0.002445753140327996</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1370067029824499</v>
+        <v>0.1432875730392767</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07353677741998599</v>
+        <v>0.073683101547331</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.004866362912843912</v>
+        <v>-0.001874818131879572</v>
       </c>
       <c r="M177" t="n">
-        <v>0.3332389035877807</v>
+        <v>0.3360814537583069</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07379091254131885</v>
+        <v>0.07350196159835336</v>
       </c>
       <c r="O177" t="n">
-        <v>-0.002748845799458088</v>
+        <v>-0.001455714598518968</v>
       </c>
       <c r="P177" t="n">
-        <v>0.5001798917680467</v>
+        <v>0.5183228609567547</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.07377112141910054</v>
+        <v>0.07361621570378656</v>
       </c>
       <c r="R177" t="n">
-        <v>-0.002187563498021141</v>
+        <v>-0.004852417941517762</v>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="n">
-        <v>0.06539394259821019</v>
+        <v>0.06467303639835686</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07239940672606393</v>
+        <v>0.07590709597754297</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.004536713003576194</v>
+        <v>-0.002446242290956061</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1370640106465024</v>
+        <v>0.1435734485361288</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07433609021802931</v>
+        <v>0.07448400482501938</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.004866362912843912</v>
+        <v>-0.001874818131879572</v>
       </c>
       <c r="M178" t="n">
-        <v>0.3346493703410841</v>
+        <v>0.3364427429809652</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07459298767763754</v>
+        <v>0.07430089596355285</v>
       </c>
       <c r="O178" t="n">
-        <v>-0.002748845799458088</v>
+        <v>-0.001455714598518968</v>
       </c>
       <c r="P178" t="n">
-        <v>0.5007508681805567</v>
+        <v>0.5198331659217083</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.07457298143452555</v>
+        <v>0.0744163919614364</v>
       </c>
       <c r="R178" t="n">
-        <v>-0.002187563498021141</v>
+        <v>-0.004852417941517762</v>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="n">
-        <v>0.06541090220024662</v>
+        <v>0.06469414888127807</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0731778949704302</v>
+        <v>0.07672330131063483</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.004536713003576194</v>
+        <v>-0.002194613956120955</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1371798213416459</v>
+        <v>0.1437984617224705</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07513540301607263</v>
+        <v>0.07528490810270776</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.004866362912843912</v>
+        <v>-0.001874818131879572</v>
       </c>
       <c r="M179" t="n">
-        <v>0.3355771563875082</v>
+        <v>0.3366250290051649</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07539506281395622</v>
+        <v>0.07509983032875234</v>
       </c>
       <c r="O179" t="n">
-        <v>-0.002748845799458088</v>
+        <v>-0.001455714598518968</v>
       </c>
       <c r="P179" t="n">
-        <v>0.5010886781761947</v>
+        <v>0.5214449102597793</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.07537484144995055</v>
+        <v>0.07521656821908626</v>
       </c>
       <c r="R179" t="n">
-        <v>-0.002187563498021141</v>
+        <v>-0.004852417941517762</v>
       </c>
     </row>
     <row r="180">
       <c r="F180" t="n">
-        <v>0.06545526400170286</v>
+        <v>0.06473418481307625</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07395638321479649</v>
+        <v>0.07753950664372669</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.004654176016433461</v>
+        <v>-0.002194613956120955</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1372048633749208</v>
+        <v>0.1440389428531736</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07593471581411597</v>
+        <v>0.07608581138039613</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.00531179783996521</v>
+        <v>-0.00150860907270212</v>
       </c>
       <c r="M180" t="n">
-        <v>0.3362770275267339</v>
+        <v>0.3369194222891535</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0761971379502749</v>
+        <v>0.07589876469395185</v>
       </c>
       <c r="O180" t="n">
-        <v>-0.002938357452054862</v>
+        <v>-0.001429961251610505</v>
       </c>
       <c r="P180" t="n">
-        <v>0.5016442505133822</v>
+        <v>0.5224106907341752</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.07617670146537556</v>
+        <v>0.07601674447673611</v>
       </c>
       <c r="R180" t="n">
-        <v>-0.00187671854012908</v>
+        <v>-0.004798771993084778</v>
       </c>
     </row>
     <row r="181">
       <c r="F181" t="n">
-        <v>0.06551804606179205</v>
+        <v>0.06477521202972125</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07473487145916276</v>
+        <v>0.07835571197681854</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.004654176016433461</v>
+        <v>-0.002194175121096736</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1372892933570984</v>
+        <v>0.1442550441744914</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07673402861215928</v>
+        <v>0.07688671465808453</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.00531179783996521</v>
+        <v>-0.00150860907270212</v>
       </c>
       <c r="M181" t="n">
-        <v>0.3370344040401593</v>
+        <v>0.3371304714319251</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07699921308659359</v>
+        <v>0.07669769905915133</v>
       </c>
       <c r="O181" t="n">
-        <v>-0.002938357452054862</v>
+        <v>-0.001429961251610505</v>
       </c>
       <c r="P181" t="n">
-        <v>0.501967211961183</v>
+        <v>0.523849819870074</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.07697856148080057</v>
+        <v>0.07681692073438597</v>
       </c>
       <c r="R181" t="n">
-        <v>-0.00187671854012908</v>
+        <v>-0.004798771993084778</v>
       </c>
     </row>
     <row r="182">
       <c r="F182" t="n">
-        <v>0.06557198623229593</v>
+        <v>0.06480832357165625</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07551335970352903</v>
+        <v>0.0791719173099104</v>
       </c>
       <c r="H182" t="n">
-        <v>-0.004654176016433461</v>
+        <v>-0.002194175121096736</v>
       </c>
       <c r="J182" t="n">
-        <v>0.137414882657188</v>
+        <v>0.144445624880994</v>
       </c>
       <c r="K182" t="n">
-        <v>0.07753334141020261</v>
+        <v>0.0776876179357729</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.00531179783996521</v>
+        <v>-0.00150860907270212</v>
       </c>
       <c r="M182" t="n">
-        <v>0.3378438197558374</v>
+        <v>0.337257303317989</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07780128822291227</v>
+        <v>0.07749663342435083</v>
       </c>
       <c r="O182" t="n">
-        <v>-0.002938357452054862</v>
+        <v>-0.001429961251610505</v>
       </c>
       <c r="P182" t="n">
-        <v>0.5024338169541238</v>
+        <v>0.5247092853452318</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.07778042149622558</v>
+        <v>0.07761709699203583</v>
       </c>
       <c r="R182" t="n">
-        <v>-0.00187671854012908</v>
+        <v>-0.004798771993084778</v>
       </c>
     </row>
     <row r="183">
       <c r="F183" t="n">
-        <v>0.06559890444210026</v>
+        <v>0.06487896731186968</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07629184794789531</v>
+        <v>0.07998812264300226</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.004654176016433461</v>
+        <v>-0.002194394538608846</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1374883772853518</v>
+        <v>0.1445900832128352</v>
       </c>
       <c r="K183" t="n">
-        <v>0.07833265420824594</v>
+        <v>0.07848852121346128</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.00531179783996521</v>
+        <v>-0.001281580713595313</v>
       </c>
       <c r="M183" t="n">
-        <v>0.3384066496916995</v>
+        <v>0.3374452998757852</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07860336335923095</v>
+        <v>0.07829556778955031</v>
       </c>
       <c r="O183" t="n">
-        <v>-0.002938357452054862</v>
+        <v>-0.001429961251610505</v>
       </c>
       <c r="P183" t="n">
-        <v>0.502969470466713</v>
+        <v>0.5257557620562621</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.07858228151165059</v>
+        <v>0.07841727324968567</v>
       </c>
       <c r="R183" t="n">
-        <v>-0.001635843357141075</v>
+        <v>-0.004798771993084778</v>
       </c>
     </row>
     <row r="184">
       <c r="F184" t="n">
-        <v>0.06563542633678301</v>
+        <v>0.06490574869341859</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0770703361922616</v>
+        <v>0.08080432797609412</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.004746688816935375</v>
+        <v>-0.002012058479754808</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1375851617886682</v>
+        <v>0.1447261866617128</v>
       </c>
       <c r="K184" t="n">
-        <v>0.07913196700628927</v>
+        <v>0.07928942449114966</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.005551416923710519</v>
+        <v>-0.001281580713595313</v>
       </c>
       <c r="M184" t="n">
-        <v>0.3388628709024714</v>
+        <v>0.3375474594134011</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07940543849554964</v>
+        <v>0.07909450215474982</v>
       </c>
       <c r="O184" t="n">
-        <v>-0.003051787462013142</v>
+        <v>-0.001418386438022883</v>
       </c>
       <c r="P184" t="n">
-        <v>0.5034993883131745</v>
+        <v>0.5265948479827296</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.07938414152707558</v>
+        <v>0.07921744950733553</v>
       </c>
       <c r="R184" t="n">
-        <v>-0.001635843357141075</v>
+        <v>-0.004740070399440715</v>
       </c>
     </row>
     <row r="185">
       <c r="F185" t="n">
-        <v>0.0656999604794221</v>
+        <v>0.06497039070760069</v>
       </c>
       <c r="G185" t="n">
-        <v>0.07784882443662788</v>
+        <v>0.08162053330918599</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.004746688816935375</v>
+        <v>-0.002012460931695953</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1377057001477281</v>
+        <v>0.1448333499737897</v>
       </c>
       <c r="K185" t="n">
-        <v>0.07993127980433259</v>
+        <v>0.08009032776883804</v>
       </c>
       <c r="L185" t="n">
-        <v>-0.005551416923710519</v>
+        <v>-0.001281580713595313</v>
       </c>
       <c r="M185" t="n">
-        <v>0.3390596029550308</v>
+        <v>0.3376117026524928</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08020751363186833</v>
+        <v>0.0798934365199493</v>
       </c>
       <c r="O185" t="n">
-        <v>-0.003051787462013142</v>
+        <v>-0.001418386438022883</v>
       </c>
       <c r="P185" t="n">
-        <v>0.5040239907181078</v>
+        <v>0.5274522541849433</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.08018600154250059</v>
+        <v>0.08001762576498538</v>
       </c>
       <c r="R185" t="n">
-        <v>-0.001635843357141075</v>
+        <v>-0.004740070399440715</v>
       </c>
     </row>
     <row r="186">
       <c r="F186" t="n">
-        <v>0.06573775549639649</v>
+        <v>0.06501864495442156</v>
       </c>
       <c r="G186" t="n">
-        <v>0.07862731268099415</v>
+        <v>0.08243673864227785</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.004746688816935375</v>
+        <v>-0.002012662157666525</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1377941211848447</v>
+        <v>0.1449494184428068</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08073059260237592</v>
+        <v>0.08089123104652643</v>
       </c>
       <c r="L186" t="n">
-        <v>-0.005551416923710519</v>
+        <v>-0.001281580713595313</v>
       </c>
       <c r="M186" t="n">
-        <v>0.339284095724116</v>
+        <v>0.3377347471552661</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08100958876818701</v>
+        <v>0.0806923708851488</v>
       </c>
       <c r="O186" t="n">
-        <v>-0.003051787462013142</v>
+        <v>-0.001418386438022883</v>
       </c>
       <c r="P186" t="n">
-        <v>0.5044682663345824</v>
+        <v>0.5280099464860716</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.0809878615579256</v>
+        <v>0.08081780202263522</v>
       </c>
       <c r="R186" t="n">
-        <v>-0.001635843357141075</v>
+        <v>-0.004740070399440715</v>
       </c>
     </row>
     <row r="187">
       <c r="F187" t="n">
-        <v>0.06578549184903849</v>
+        <v>0.06505063321759058</v>
       </c>
       <c r="G187" t="n">
-        <v>0.07940580092536043</v>
+        <v>0.08325294397536971</v>
       </c>
       <c r="H187" t="n">
-        <v>-0.004746688816935375</v>
+        <v>-0.002012058479754808</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1379067035398701</v>
+        <v>0.1449562934221449</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08152990540041924</v>
+        <v>0.08169213432421481</v>
       </c>
       <c r="L187" t="n">
-        <v>-0.005551416923710519</v>
+        <v>-0.001281580713595313</v>
       </c>
       <c r="M187" t="n">
-        <v>0.3395304033944451</v>
+        <v>0.3377322000575748</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08181166390450569</v>
+        <v>0.08149130525034828</v>
       </c>
       <c r="O187" t="n">
-        <v>-0.003051787462013142</v>
+        <v>-0.001418386438022883</v>
       </c>
       <c r="P187" t="n">
-        <v>0.5046815524314978</v>
+        <v>0.5283381893989214</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.08178972157335061</v>
+        <v>0.08161797828028509</v>
       </c>
       <c r="R187" t="n">
-        <v>-0.001635843357141075</v>
+        <v>-0.004740070399440715</v>
       </c>
     </row>
     <row r="188">
       <c r="F188" t="n">
-        <v>0.06583412945633373</v>
+        <v>0.06510281988127141</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08018428916972671</v>
+        <v>0.08406914930846157</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.00479653291527693</v>
+        <v>-0.00192471323362788</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1380217570257702</v>
+        <v>0.1449896316217845</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08232921819846256</v>
+        <v>0.08249303760190319</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.005551833945484856</v>
+        <v>-0.001231025829800322</v>
       </c>
       <c r="M188" t="n">
-        <v>0.3395336647855863</v>
+        <v>0.3377212396377675</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08261373904082436</v>
+        <v>0.08229023961554778</v>
       </c>
       <c r="O188" t="n">
-        <v>-0.003069550807776467</v>
+        <v>-0.001424647430830903</v>
       </c>
       <c r="P188" t="n">
-        <v>0.5051169945527821</v>
+        <v>0.5286632326120484</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.08259158158877561</v>
+        <v>0.08241815453793494</v>
       </c>
       <c r="R188" t="n">
-        <v>-0.001491787661454658</v>
+        <v>-0.004676217976774981</v>
       </c>
     </row>
     <row r="189">
       <c r="F189" t="n">
-        <v>0.06587460894148528</v>
+        <v>0.06516629534581035</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08096277741409298</v>
+        <v>0.08488535464155343</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.00479653291527693</v>
+        <v>-0.0019249057242003</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1381386735296528</v>
+        <v>0.1449717865562462</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0831285309965059</v>
+        <v>0.08329394087959156</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.005551833945484856</v>
+        <v>-0.001231025829800322</v>
       </c>
       <c r="M189" t="n">
-        <v>0.3394784971092822</v>
+        <v>0.337653744864278</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08341581417714306</v>
+        <v>0.08308917398074728</v>
       </c>
       <c r="O189" t="n">
-        <v>-0.003069550807776467</v>
+        <v>-0.001424647430830903</v>
       </c>
       <c r="P189" t="n">
-        <v>0.505699844180112</v>
+        <v>0.5287444200172615</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.08339344160420062</v>
+        <v>0.0832183307955848</v>
       </c>
       <c r="R189" t="n">
-        <v>-0.001491787661454658</v>
+        <v>-0.004676217976774981</v>
       </c>
     </row>
     <row r="190">
       <c r="F190" t="n">
-        <v>0.06595286705404607</v>
+        <v>0.0652321300157397</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08174126565845927</v>
+        <v>0.08570155997464529</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.00479653291527693</v>
+        <v>-0.0019249057242003</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1382574319830427</v>
+        <v>0.1450318428199926</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08392784379454922</v>
+        <v>0.08409484415727994</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.005551833945484856</v>
+        <v>-0.001231025829800322</v>
       </c>
       <c r="M190" t="n">
-        <v>0.3394183659060857</v>
+        <v>0.3376762912092366</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08421788931346173</v>
+        <v>0.08388810834594677</v>
       </c>
       <c r="O190" t="n">
-        <v>-0.003069550807776467</v>
+        <v>-0.001424647430830903</v>
       </c>
       <c r="P190" t="n">
-        <v>0.5061283591413916</v>
+        <v>0.5285053690049927</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.08419530161962563</v>
+        <v>0.08401850705323465</v>
       </c>
       <c r="R190" t="n">
-        <v>-0.001491787661454658</v>
+        <v>-0.004676217976774981</v>
       </c>
     </row>
     <row r="191">
       <c r="F191" t="n">
-        <v>0.06597732472859635</v>
+        <v>0.06528276486068398</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08251975390282555</v>
+        <v>0.08651776530773715</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.00479653291527693</v>
+        <v>-0.00192529070534514</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1384156869197286</v>
+        <v>0.144974811609098</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08472715659259256</v>
+        <v>0.08489574743496833</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.005551833945484856</v>
+        <v>-0.001256600749535522</v>
       </c>
       <c r="M191" t="n">
-        <v>0.3395001605905972</v>
+        <v>0.3375941366159463</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08501996444978041</v>
+        <v>0.08468704271114626</v>
       </c>
       <c r="O191" t="n">
-        <v>-0.003069550807776467</v>
+        <v>-0.001424647430830903</v>
       </c>
       <c r="P191" t="n">
-        <v>0.5064783520347383</v>
+        <v>0.5284896029096312</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.08499716163505062</v>
+        <v>0.08481868331088449</v>
       </c>
       <c r="R191" t="n">
-        <v>-0.001464976242519096</v>
+        <v>-0.004676217976774981</v>
       </c>
     </row>
     <row r="192">
       <c r="F192" t="n">
-        <v>0.06604897116736969</v>
+        <v>0.06535522722156556</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08329824214719182</v>
+        <v>0.08733397064082901</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.004804207577084637</v>
+        <v>-0.001923234889251293</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1384815404253983</v>
+        <v>0.1449956897714282</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08552646939063586</v>
+        <v>0.08569665071265671</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.005433303081986265</v>
+        <v>-0.001256600749535522</v>
       </c>
       <c r="M192" t="n">
-        <v>0.3393324259507658</v>
+        <v>0.3375050981546562</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08582203958609909</v>
+        <v>0.08548597707634575</v>
       </c>
       <c r="O192" t="n">
-        <v>-0.003058346918844125</v>
+        <v>-0.00145542814254436</v>
       </c>
       <c r="P192" t="n">
-        <v>0.5068263938522007</v>
+        <v>0.5284637468404297</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.08579902165047563</v>
+        <v>0.08561885956853436</v>
       </c>
       <c r="R192" t="n">
-        <v>-0.001464976242519096</v>
+        <v>-0.004576208891397738</v>
       </c>
     </row>
     <row r="193">
       <c r="F193" t="n">
-        <v>0.06610363849338109</v>
+        <v>0.06542202302185079</v>
       </c>
       <c r="G193" t="n">
-        <v>0.08407673039155811</v>
+        <v>0.08815017597392087</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.004804207577084637</v>
+        <v>-0.001922850319187455</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1386245483555068</v>
+        <v>0.1449774844658388</v>
       </c>
       <c r="K193" t="n">
-        <v>0.08632578218867919</v>
+        <v>0.08649755399034509</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.005433303081986265</v>
+        <v>-0.001256600749535522</v>
       </c>
       <c r="M193" t="n">
-        <v>0.3393556850117519</v>
+        <v>0.3375557092464564</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08662411472241778</v>
+        <v>0.08628491144154525</v>
       </c>
       <c r="O193" t="n">
-        <v>-0.003058346918844125</v>
+        <v>-0.00145542814254436</v>
       </c>
       <c r="P193" t="n">
-        <v>0.5074814000177008</v>
+        <v>0.5286615542732549</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.08660088166590063</v>
+        <v>0.08641903582618421</v>
       </c>
       <c r="R193" t="n">
-        <v>-0.001464976242519096</v>
+        <v>-0.004576208891397738</v>
       </c>
     </row>
     <row r="194">
       <c r="F194" t="n">
-        <v>0.06616880156820143</v>
+        <v>0.06547382019896456</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08485521863592438</v>
+        <v>0.08896638130701272</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.004804207577084637</v>
+        <v>-0.001922658034155537</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1387693389685683</v>
+        <v>0.1450371975777052</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08712509498672252</v>
+        <v>0.08729845726803347</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.005433303081986265</v>
+        <v>-0.001256600749535522</v>
       </c>
       <c r="M194" t="n">
-        <v>0.3392763776251406</v>
+        <v>0.3373562938371801</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08742618985873647</v>
+        <v>0.08708384580674475</v>
       </c>
       <c r="O194" t="n">
-        <v>-0.003058346918844125</v>
+        <v>-0.00145542814254436</v>
       </c>
       <c r="P194" t="n">
-        <v>0.5078385998275851</v>
+        <v>0.5286161097855605</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.08740274168132564</v>
+        <v>0.08721921208383407</v>
       </c>
       <c r="R194" t="n">
-        <v>-0.001464976242519096</v>
+        <v>-0.004576208891397738</v>
       </c>
     </row>
     <row r="195">
       <c r="F195" t="n">
-        <v>0.06621680924450848</v>
+        <v>0.06554690875807882</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08563370688029066</v>
+        <v>0.08978258664010458</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.004804207577084637</v>
+        <v>-0.001922850319187455</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1388970039075872</v>
+        <v>0.1449798348789684</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08792440778476585</v>
+        <v>0.08809936054572184</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.005433303081986265</v>
+        <v>-0.001256600749535522</v>
       </c>
       <c r="M195" t="n">
-        <v>0.3392903067682409</v>
+        <v>0.3374433114541852</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08822826499505515</v>
+        <v>0.08788278017194423</v>
       </c>
       <c r="O195" t="n">
-        <v>-0.003058346918844125</v>
+        <v>-0.00145542814254436</v>
       </c>
       <c r="P195" t="n">
-        <v>0.5082758889312167</v>
+        <v>0.5285611776381044</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.08820460169675065</v>
+        <v>0.08801938834148391</v>
       </c>
       <c r="R195" t="n">
-        <v>-0.001464976242519096</v>
+        <v>-0.004576208891397738</v>
       </c>
     </row>
     <row r="196">
       <c r="F196" t="n">
-        <v>0.06627515633812084</v>
+        <v>0.06561372912363317</v>
       </c>
       <c r="G196" t="n">
-        <v>0.08641219512465693</v>
+        <v>0.09059879197319644</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.004765737933609273</v>
+        <v>-0.001936248228391508</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1390074838084364</v>
+        <v>0.1450003985066859</v>
       </c>
       <c r="K196" t="n">
-        <v>0.08872372058280918</v>
+        <v>0.08890026382341024</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.005226568505482769</v>
+        <v>-0.001310057619004593</v>
       </c>
       <c r="M196" t="n">
-        <v>0.339348592244279</v>
+        <v>0.3372809353563141</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08903034013137383</v>
+        <v>0.08868171453714373</v>
       </c>
       <c r="O196" t="n">
-        <v>-0.003036007055504652</v>
+        <v>-0.001507382494781921</v>
       </c>
       <c r="P196" t="n">
-        <v>0.5085651223902365</v>
+        <v>0.5283412913530737</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.08900646171217566</v>
+        <v>0.08881956459913376</v>
       </c>
       <c r="R196" t="n">
-        <v>-0.001493972786419822</v>
+        <v>-0.004413929175231494</v>
       </c>
     </row>
     <row r="197">
       <c r="F197" t="n">
-        <v>0.066325365201011</v>
+        <v>0.06569236123384434</v>
       </c>
       <c r="G197" t="n">
-        <v>0.08719068336902322</v>
+        <v>0.0914149973062883</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.004765737933609273</v>
+        <v>-0.001936829160953281</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1391574598456765</v>
+        <v>0.1450403930188089</v>
       </c>
       <c r="K197" t="n">
-        <v>0.0895230333808525</v>
+        <v>0.08970116710109861</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.005226568505482769</v>
+        <v>-0.001310057619004593</v>
       </c>
       <c r="M197" t="n">
-        <v>0.3391577627185279</v>
+        <v>0.3373080495919036</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08983241526769252</v>
+        <v>0.08948064890234322</v>
       </c>
       <c r="O197" t="n">
-        <v>-0.003036007055504652</v>
+        <v>-0.001507382494781921</v>
       </c>
       <c r="P197" t="n">
-        <v>0.5091608010488802</v>
+        <v>0.5284236574857379</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.08980832172760067</v>
+        <v>0.08961974085678363</v>
       </c>
       <c r="R197" t="n">
-        <v>-0.001493972786419822</v>
+        <v>-0.004413929175231494</v>
       </c>
     </row>
     <row r="198">
       <c r="F198" t="n">
-        <v>0.06640419766144291</v>
+        <v>0.0657734857897494</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0879691716133895</v>
+        <v>0.09223120263938016</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.004765737933609273</v>
+        <v>-0.001936635516766024</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1392712815754256</v>
+        <v>0.1450218214647321</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09032234617889583</v>
+        <v>0.09050207037878699</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.005226568505482769</v>
+        <v>-0.001310057619004593</v>
       </c>
       <c r="M198" t="n">
-        <v>0.3392560295286926</v>
+        <v>0.3372325795765599</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0906344904040112</v>
+        <v>0.09027958326754272</v>
       </c>
       <c r="O198" t="n">
-        <v>-0.003036007055504652</v>
+        <v>-0.001507382494781921</v>
       </c>
       <c r="P198" t="n">
-        <v>0.5095311034572501</v>
+        <v>0.5283414730417429</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.09061018174302567</v>
+        <v>0.09041991711443348</v>
       </c>
       <c r="R198" t="n">
-        <v>-0.001493972786419822</v>
+        <v>-0.004413929175231494</v>
       </c>
     </row>
     <row r="199">
       <c r="F199" t="n">
-        <v>0.06645630650213062</v>
+        <v>0.06585691413516001</v>
       </c>
       <c r="G199" t="n">
-        <v>0.08874765985775578</v>
+        <v>0.09304740797247202</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.004765737933609273</v>
+        <v>-0.001936248228391508</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1393867289260565</v>
+        <v>0.1450031877031643</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09112165897693915</v>
+        <v>0.09130297365647537</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.005226568505482769</v>
+        <v>-0.001310057619004593</v>
       </c>
       <c r="M199" t="n">
-        <v>0.3392031739210283</v>
+        <v>0.3370548645012746</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09143656554032988</v>
+        <v>0.0910785176327422</v>
       </c>
       <c r="O199" t="n">
-        <v>-0.003036007055504652</v>
+        <v>-0.001507382494781921</v>
       </c>
       <c r="P199" t="n">
-        <v>0.509978935502473</v>
+        <v>0.5280949890620047</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.09141204175845068</v>
+        <v>0.09122009337208334</v>
       </c>
       <c r="R199" t="n">
-        <v>-0.001493972786419822</v>
+        <v>-0.004202747480899098</v>
       </c>
     </row>
     <row r="200">
       <c r="F200" t="n">
-        <v>0.06650923875624429</v>
+        <v>0.06596997095820273</v>
       </c>
       <c r="G200" t="n">
-        <v>0.08952614810212206</v>
+        <v>0.09386361330556388</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.004682690169371613</v>
+        <v>-0.001957898951320311</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1395416886753432</v>
+        <v>0.1450039958713618</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09192097177498247</v>
+        <v>0.09210387693416375</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.004949229693723593</v>
+        <v>-0.001386019272389387</v>
       </c>
       <c r="M200" t="n">
-        <v>0.3390482155187503</v>
+        <v>0.3370674312615689</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09223864067664857</v>
+        <v>0.0918774519979417</v>
       </c>
       <c r="O200" t="n">
-        <v>-0.003003465384332669</v>
+        <v>-0.001575402593461012</v>
       </c>
       <c r="P200" t="n">
-        <v>0.510579790557006</v>
+        <v>0.5279178656208618</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.09221390177387569</v>
+        <v>0.09202026962973318</v>
       </c>
       <c r="R200" t="n">
-        <v>-0.001551451813030012</v>
+        <v>-0.004202747480899098</v>
       </c>
     </row>
     <row r="201">
       <c r="F201" t="n">
-        <v>0.06659061552341383</v>
+        <v>0.0660299275697445</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09030463634648833</v>
+        <v>0.09467981863865575</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.004682690169371613</v>
+        <v>-0.001957898951320311</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1397172539175735</v>
+        <v>0.14498524898169</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09272028457302581</v>
+        <v>0.09290478021185214</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.004949229693723593</v>
+        <v>-0.001386019272389387</v>
       </c>
       <c r="M201" t="n">
-        <v>0.3390357518271591</v>
+        <v>0.3368809647226179</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09304071581296725</v>
+        <v>0.0926763863631412</v>
       </c>
       <c r="O201" t="n">
-        <v>-0.003003465384332669</v>
+        <v>-0.001575402593461012</v>
       </c>
       <c r="P201" t="n">
-        <v>0.5108767283185491</v>
+        <v>0.5278880659908054</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.0930157617893007</v>
+        <v>0.09282044588738303</v>
       </c>
       <c r="R201" t="n">
-        <v>-0.001551451813030012</v>
+        <v>-0.004202747480899098</v>
       </c>
     </row>
     <row r="202">
       <c r="F202" t="n">
-        <v>0.06662649945851661</v>
+        <v>0.06614670169947726</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09108312459085462</v>
+        <v>0.09549602397174761</v>
       </c>
       <c r="H202" t="n">
-        <v>-0.004682690169371613</v>
+        <v>-0.001958094721638411</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1398375184140452</v>
+        <v>0.1450444532688559</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09351959737106913</v>
+        <v>0.0937056834895405</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.004949229693723593</v>
+        <v>-0.001386019272389387</v>
       </c>
       <c r="M202" t="n">
-        <v>0.3388724408342989</v>
+        <v>0.3368366196188934</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09384279094928594</v>
+        <v>0.09347532072834069</v>
       </c>
       <c r="O202" t="n">
-        <v>-0.003003465384332669</v>
+        <v>-0.001575402593461012</v>
       </c>
       <c r="P202" t="n">
-        <v>0.5112491891986489</v>
+        <v>0.5277723932123889</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.09381762180472569</v>
+        <v>0.0936206221450329</v>
       </c>
       <c r="R202" t="n">
-        <v>-0.001551451813030012</v>
+        <v>-0.004202747480899098</v>
       </c>
     </row>
     <row r="203">
       <c r="F203" t="n">
-        <v>0.06669068403701772</v>
+        <v>0.06623748587083206</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09186161283522089</v>
+        <v>0.09631222930483947</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.004682690169371613</v>
+        <v>-0.001957703181002211</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1399973149907729</v>
+        <v>0.1450451089777014</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09431891016911247</v>
+        <v>0.0945065867672289</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.004949229693723593</v>
+        <v>-0.001386019272389387</v>
       </c>
       <c r="M203" t="n">
-        <v>0.3388028370716317</v>
+        <v>0.336642590352786</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09464486608560461</v>
+        <v>0.09427425509354018</v>
       </c>
       <c r="O203" t="n">
-        <v>-0.003003465384332669</v>
+        <v>-0.001575402593461012</v>
       </c>
       <c r="P203" t="n">
-        <v>0.5118489788536884</v>
+        <v>0.5275710837073813</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.0946194818201507</v>
+        <v>0.09442079840268275</v>
       </c>
       <c r="R203" t="n">
-        <v>-0.001551451813030012</v>
+        <v>-0.004202747480899098</v>
       </c>
     </row>
     <row r="204">
       <c r="F204" t="n">
-        <v>0.06678314885724736</v>
+        <v>0.06632042388536409</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09264010107958716</v>
+        <v>0.09712843463793133</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.004562753900331991</v>
+        <v>-0.001986579551798015</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1401016566827633</v>
+        <v>0.1450262205812507</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09511822296715577</v>
+        <v>0.09530749004491727</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.00461888612445796</v>
+        <v>-0.001480242362236615</v>
       </c>
       <c r="M204" t="n">
-        <v>0.3387780882184799</v>
+        <v>0.3366398737238839</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09544694122192331</v>
+        <v>0.09507318945873967</v>
       </c>
       <c r="O204" t="n">
-        <v>-0.002961656071902797</v>
+        <v>-0.001656520279601696</v>
       </c>
       <c r="P204" t="n">
-        <v>0.5123709278642199</v>
+        <v>0.527439882107083</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.09542134183557571</v>
+        <v>0.09522097466033259</v>
       </c>
       <c r="R204" t="n">
-        <v>-0.00163075729623976</v>
+        <v>-0.003955460612285668</v>
       </c>
     </row>
     <row r="205">
       <c r="F205" t="n">
-        <v>0.06682054402237421</v>
+        <v>0.0664137318475792</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09341858932395346</v>
+        <v>0.09794463997102319</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.004562753900331991</v>
+        <v>-0.001986778209753195</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1402455161617607</v>
+        <v>0.1450462938156549</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09591753576519911</v>
+        <v>0.09610839332260565</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.00461888612445796</v>
+        <v>-0.001480242362236615</v>
       </c>
       <c r="M205" t="n">
-        <v>0.3387493681891348</v>
+        <v>0.3364394513039055</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09624901635824198</v>
+        <v>0.09587212382393917</v>
       </c>
       <c r="O205" t="n">
-        <v>-0.002961656071902797</v>
+        <v>-0.001656520279601696</v>
       </c>
       <c r="P205" t="n">
-        <v>0.5127379520016807</v>
+        <v>0.527534426577345</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.09622320185100071</v>
+        <v>0.09602115091798245</v>
       </c>
       <c r="R205" t="n">
-        <v>-0.00163075729623976</v>
+        <v>-0.003955460612285668</v>
       </c>
     </row>
     <row r="206">
       <c r="F206" t="n">
-        <v>0.06690459409850938</v>
+        <v>0.0664895715393686</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09419707756831973</v>
+        <v>0.09876084530411505</v>
       </c>
       <c r="H206" t="n">
-        <v>-0.004562753900331991</v>
+        <v>-0.001986380893842835</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1403908804946651</v>
+        <v>0.1449883280364739</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09671684856324243</v>
+        <v>0.09690929660029404</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.00461888612445796</v>
+        <v>-0.001480242362236615</v>
       </c>
       <c r="M206" t="n">
-        <v>0.3386190192542326</v>
+        <v>0.3364308481522437</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09705109149456066</v>
+        <v>0.09667105818913867</v>
       </c>
       <c r="O206" t="n">
-        <v>-0.002961656071902797</v>
+        <v>-0.001656520279601696</v>
       </c>
       <c r="P206" t="n">
-        <v>0.5131017228913742</v>
+        <v>0.527155277782394</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.09702506186642572</v>
+        <v>0.0968213271756323</v>
       </c>
       <c r="R206" t="n">
-        <v>-0.00163075729623976</v>
+        <v>-0.003955460612285668</v>
       </c>
     </row>
     <row r="207">
       <c r="F207" t="n">
-        <v>0.0669704149104345</v>
+        <v>0.06661234459591464</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09497556581268601</v>
+        <v>0.0995770506372069</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.004562753900331991</v>
+        <v>-0.001986579551798015</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1405377286130013</v>
+        <v>0.1449888321819096</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09751616136128576</v>
+        <v>0.09771019987798241</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.00461888612445796</v>
+        <v>-0.001480242362236615</v>
       </c>
       <c r="M207" t="n">
-        <v>0.3386314255548309</v>
+        <v>0.3362738379724615</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09785316663087934</v>
+        <v>0.09746999255433815</v>
       </c>
       <c r="O207" t="n">
-        <v>-0.002961656071902797</v>
+        <v>-0.001656520279601696</v>
       </c>
       <c r="P207" t="n">
-        <v>0.5136142654540928</v>
+        <v>0.5271576944951736</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.09782692188185071</v>
+        <v>0.09762150343328217</v>
       </c>
       <c r="R207" t="n">
-        <v>-0.00163075729623976</v>
+        <v>-0.003955460612285668</v>
       </c>
     </row>
     <row r="208">
       <c r="F208" t="n">
-        <v>0.06703644615678615</v>
+        <v>0.06668955640806767</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09575405405705228</v>
+        <v>0.1003932559702988</v>
       </c>
       <c r="H208" t="n">
-        <v>-0.004418713669399118</v>
+        <v>-0.002020494153729304</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1407241766561841</v>
+        <v>0.1450283095450503</v>
       </c>
       <c r="K208" t="n">
-        <v>0.09831547415932909</v>
+        <v>0.0985111031556708</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.004253137275435093</v>
+        <v>-0.001586069566121376</v>
       </c>
       <c r="M208" t="n">
-        <v>0.3384935085240885</v>
+        <v>0.3361146618277709</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09865524176719803</v>
+        <v>0.09826892691953765</v>
       </c>
       <c r="O208" t="n">
-        <v>-0.002911513284789657</v>
+        <v>-0.001745062254449939</v>
       </c>
       <c r="P208" t="n">
-        <v>0.5140459654253111</v>
+        <v>0.5269201087693623</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.09862878189727572</v>
+        <v>0.09842167969093202</v>
       </c>
       <c r="R208" t="n">
-        <v>-0.00172523320993916</v>
+        <v>-0.00368326370023928</v>
       </c>
     </row>
     <row r="209">
       <c r="F209" t="n">
-        <v>0.06710260967181253</v>
+        <v>0.06679491068566631</v>
       </c>
       <c r="G209" t="n">
-        <v>0.09653254230141856</v>
+        <v>0.1012094613033906</v>
       </c>
       <c r="H209" t="n">
-        <v>-0.004418713669399118</v>
+        <v>-0.002020292144715734</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1408548755112627</v>
+        <v>0.1450287604116571</v>
       </c>
       <c r="K209" t="n">
-        <v>0.09911478695737241</v>
+        <v>0.09931200643335918</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.004253137275435093</v>
+        <v>-0.001586069566121376</v>
       </c>
       <c r="M209" t="n">
-        <v>0.338449592626377</v>
+        <v>0.3361480345635419</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09945731690351671</v>
+        <v>0.09906786128473714</v>
       </c>
       <c r="O209" t="n">
-        <v>-0.002911513284789657</v>
+        <v>-0.001745062254449939</v>
       </c>
       <c r="P209" t="n">
-        <v>0.5144724492296598</v>
+        <v>0.5269089203550554</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.09943064191270073</v>
+        <v>0.09922185594858186</v>
       </c>
       <c r="R209" t="n">
-        <v>-0.00172523320993916</v>
+        <v>-0.00368326370023928</v>
       </c>
     </row>
     <row r="210">
       <c r="F210" t="n">
-        <v>0.0671502434788874</v>
+        <v>0.06687272037217594</v>
       </c>
       <c r="G210" t="n">
-        <v>0.09731103054578484</v>
+        <v>0.1020256666364825</v>
       </c>
       <c r="H210" t="n">
-        <v>-0.004418713669399118</v>
+        <v>-0.002020292144715734</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1409678662993517</v>
+        <v>0.1450486911370594</v>
       </c>
       <c r="K210" t="n">
-        <v>0.09991409975541574</v>
+        <v>0.1001129097110476</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.004253137275435093</v>
+        <v>-0.001586069566121376</v>
       </c>
       <c r="M210" t="n">
-        <v>0.3382555606116598</v>
+        <v>0.3359853642967874</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1002593920398354</v>
+        <v>0.09986679564993664</v>
       </c>
       <c r="O210" t="n">
-        <v>-0.002911513284789657</v>
+        <v>-0.001745062254449939</v>
       </c>
       <c r="P210" t="n">
-        <v>0.514893033119481</v>
+        <v>0.5266582289090133</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.1002325019281257</v>
+        <v>0.1000220322062317</v>
       </c>
       <c r="R210" t="n">
-        <v>-0.00172523320993916</v>
+        <v>-0.00368326370023928</v>
       </c>
     </row>
     <row r="211">
       <c r="F211" t="n">
-        <v>0.06723502084488213</v>
+        <v>0.06698762658331887</v>
       </c>
       <c r="G211" t="n">
-        <v>0.09808951879015111</v>
+        <v>0.1028418719695743</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.004418713669399118</v>
+        <v>-0.002020090135702164</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1411395375711648</v>
+        <v>0.1450101015241513</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1007134125534591</v>
+        <v>0.1009138129887359</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.004253137275435093</v>
+        <v>-0.001586069566121376</v>
       </c>
       <c r="M211" t="n">
-        <v>0.3382044619793715</v>
+        <v>0.3359185750189606</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1010614671761541</v>
+        <v>0.1006657300151361</v>
       </c>
       <c r="O211" t="n">
-        <v>-0.002911513284789657</v>
+        <v>-0.001745062254449939</v>
       </c>
       <c r="P211" t="n">
-        <v>0.5153070333471166</v>
+        <v>0.5264789542732888</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.1010343619435507</v>
+        <v>0.1008222084638816</v>
       </c>
       <c r="R211" t="n">
-        <v>-0.00172523320993916</v>
+        <v>-0.00368326370023928</v>
       </c>
     </row>
     <row r="212">
       <c r="F212" t="n">
-        <v>0.06729180703881905</v>
+        <v>0.06708385572306565</v>
       </c>
       <c r="G212" t="n">
-        <v>0.09886800703451741</v>
+        <v>0.1036580773026662</v>
       </c>
       <c r="H212" t="n">
-        <v>-0.004249839618165766</v>
+        <v>-0.002056820245995446</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1412934885895351</v>
+        <v>0.1450495022799742</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1015127253515024</v>
+        <v>0.1017147162664243</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.003869582624404215</v>
+        <v>-0.001699644814074848</v>
       </c>
       <c r="M212" t="n">
-        <v>0.3380522468989929</v>
+        <v>0.3357050386679623</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1018635423124728</v>
+        <v>0.1014646643803356</v>
       </c>
       <c r="O212" t="n">
-        <v>-0.002853971189567871</v>
+        <v>-0.001838525991244524</v>
       </c>
       <c r="P212" t="n">
-        <v>0.5157137661649086</v>
+        <v>0.5261383796509517</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.1018362219589758</v>
+        <v>0.1016223847215314</v>
       </c>
       <c r="R212" t="n">
-        <v>-0.001828223528018304</v>
+        <v>-0.003398698326718078</v>
       </c>
     </row>
     <row r="213">
       <c r="F213" t="n">
-        <v>0.06735771138059186</v>
+        <v>0.06717974739819495</v>
       </c>
       <c r="G213" t="n">
-        <v>0.09964649527888368</v>
+        <v>0.1044742826357581</v>
       </c>
       <c r="H213" t="n">
-        <v>-0.004249839618165766</v>
+        <v>-0.002057231610044645</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1414679418621854</v>
+        <v>0.1449913877971262</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1023120381495457</v>
+        <v>0.1025156195441127</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.003869582624404215</v>
+        <v>-0.001699644814074848</v>
       </c>
       <c r="M213" t="n">
-        <v>0.3379942238552334</v>
+        <v>0.3356365071260423</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1026656174487914</v>
+        <v>0.1022635987455351</v>
       </c>
       <c r="O213" t="n">
-        <v>-0.002853971189567871</v>
+        <v>-0.001838525991244524</v>
       </c>
       <c r="P213" t="n">
-        <v>0.5160359442307755</v>
+        <v>0.5261024364030359</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.1026380819744008</v>
+        <v>0.1024225609791813</v>
       </c>
       <c r="R213" t="n">
-        <v>-0.001828223528018304</v>
+        <v>-0.003398698326718078</v>
       </c>
     </row>
     <row r="214">
       <c r="F214" t="n">
-        <v>0.06742335718813365</v>
+        <v>0.06727511291478339</v>
       </c>
       <c r="G214" t="n">
-        <v>0.10042498352325</v>
+        <v>0.1052904879688499</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.004249839618165766</v>
+        <v>-0.002056614563970847</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1416437627698821</v>
+        <v>0.1450307724889516</v>
       </c>
       <c r="K214" t="n">
-        <v>0.103111350947589</v>
+        <v>0.1033165228218011</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.003869582624404215</v>
+        <v>-0.001699644814074848</v>
       </c>
       <c r="M214" t="n">
-        <v>0.3378840444286016</v>
+        <v>0.3355675277313201</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1034676925851101</v>
+        <v>0.1030625331107346</v>
       </c>
       <c r="O214" t="n">
-        <v>-0.002853971189567871</v>
+        <v>-0.001838525991244524</v>
       </c>
       <c r="P214" t="n">
-        <v>0.5163494093699335</v>
+        <v>0.5257504310862972</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.1034399419898258</v>
+        <v>0.1032227372368311</v>
       </c>
       <c r="R214" t="n">
-        <v>-0.001828223528018304</v>
+        <v>-0.003398698326718078</v>
       </c>
     </row>
     <row r="215">
       <c r="F215" t="n">
-        <v>0.06750731594056664</v>
+        <v>0.06737907557596461</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1012034717676162</v>
+        <v>0.1061066933019418</v>
       </c>
       <c r="H215" t="n">
-        <v>-0.004249839618165766</v>
+        <v>-0.002057025928020046</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1417442252780743</v>
+        <v>0.14505065365704</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1039106637456324</v>
+        <v>0.1041174260994895</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.003869582624404215</v>
+        <v>-0.001699644814074848</v>
       </c>
       <c r="M215" t="n">
-        <v>0.3376730367365825</v>
+        <v>0.3353527885261446</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1042697677214288</v>
+        <v>0.1038614674759341</v>
       </c>
       <c r="O215" t="n">
-        <v>-0.002853971189567871</v>
+        <v>-0.001838525991244524</v>
       </c>
       <c r="P215" t="n">
-        <v>0.5169602033668402</v>
+        <v>0.525548180321023</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.1042418020052508</v>
+        <v>0.104022913494481</v>
       </c>
       <c r="R215" t="n">
-        <v>-0.001828223528018304</v>
+        <v>-0.003398698326718078</v>
       </c>
     </row>
     <row r="216">
       <c r="F216" t="n">
-        <v>0.06757222318469139</v>
+        <v>0.06747283206747573</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1019819600119825</v>
+        <v>0.1069228986350336</v>
       </c>
       <c r="H216" t="n">
-        <v>-0.004056913957774106</v>
+        <v>-0.002094963676267896</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1419418479896555</v>
+        <v>0.1450120325003268</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1047099765436757</v>
+        <v>0.1049183293771778</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.003485821649114551</v>
+        <v>-0.001814792905282409</v>
       </c>
       <c r="M216" t="n">
-        <v>0.3376051406050444</v>
+        <v>0.3353323539552854</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1050718428577475</v>
+        <v>0.1046604018411336</v>
       </c>
       <c r="O216" t="n">
-        <v>-0.002789963952812058</v>
+        <v>-0.001931687793367723</v>
       </c>
       <c r="P216" t="n">
-        <v>0.517331066147538</v>
+        <v>0.5253406808603649</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.1050436620206758</v>
+        <v>0.1048230897521308</v>
       </c>
       <c r="R216" t="n">
-        <v>-0.001933072224367288</v>
+        <v>-0.003113692948078653</v>
       </c>
     </row>
     <row r="217">
       <c r="F217" t="n">
-        <v>0.06762729957409404</v>
+        <v>0.06754683493867754</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1027604482563488</v>
+        <v>0.1077391039681255</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.004056913957774106</v>
+        <v>-0.002094544725427726</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1421023912489047</v>
+        <v>0.1450124186019063</v>
       </c>
       <c r="K217" t="n">
-        <v>0.105509289341719</v>
+        <v>0.1057192326548662</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.003485821649114551</v>
+        <v>-0.001814792905282409</v>
       </c>
       <c r="M217" t="n">
-        <v>0.3375828202777182</v>
+        <v>0.3350697708376473</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1058739179940662</v>
+        <v>0.1054593362063331</v>
       </c>
       <c r="O217" t="n">
-        <v>-0.002789963952812058</v>
+        <v>-0.001931687793367723</v>
       </c>
       <c r="P217" t="n">
-        <v>0.5176144879381772</v>
+        <v>0.5251281344242588</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.1058455220361008</v>
+        <v>0.1056232660097807</v>
       </c>
       <c r="R217" t="n">
-        <v>-0.001933072224367288</v>
+        <v>-0.003113692948078653</v>
       </c>
     </row>
     <row r="218">
       <c r="F218" t="n">
-        <v>0.06769113604836061</v>
+        <v>0.06763819974538839</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1035389365007151</v>
+        <v>0.1085553093012174</v>
       </c>
       <c r="H218" t="n">
-        <v>-0.004056913957774106</v>
+        <v>-0.002094963676267896</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1422641866655637</v>
+        <v>0.1450518159136179</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1063086021397623</v>
+        <v>0.1065201359325546</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.003485821649114551</v>
+        <v>-0.001814792905282409</v>
       </c>
       <c r="M218" t="n">
-        <v>0.3373136877470224</v>
+        <v>0.3350990101621553</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1066759931303849</v>
+        <v>0.1062582705715326</v>
       </c>
       <c r="O218" t="n">
-        <v>-0.002789963952812058</v>
+        <v>-0.001931687793367723</v>
       </c>
       <c r="P218" t="n">
-        <v>0.5178864689491911</v>
+        <v>0.5250657403809514</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.1066473820515258</v>
+        <v>0.1064234422674305</v>
       </c>
       <c r="R218" t="n">
-        <v>-0.001933072224367288</v>
+        <v>-0.003113692948078653</v>
       </c>
     </row>
     <row r="219">
       <c r="F219" t="n">
-        <v>0.06774497268461636</v>
+        <v>0.06771874630948389</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1043174247450813</v>
+        <v>0.1093715146343092</v>
       </c>
       <c r="H219" t="n">
-        <v>-0.004056913957774106</v>
+        <v>-0.00209517315168798</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1424272131690505</v>
+        <v>0.1450132204668853</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1071079149378057</v>
+        <v>0.107321039210243</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.003485821649114551</v>
+        <v>-0.001814792905282409</v>
       </c>
       <c r="M219" t="n">
-        <v>0.3372365101819353</v>
+        <v>0.334838293416602</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1074780682667035</v>
+        <v>0.1070572049367321</v>
       </c>
       <c r="O219" t="n">
-        <v>-0.002789963952812058</v>
+        <v>-0.002019709269663108</v>
       </c>
       <c r="P219" t="n">
-        <v>0.5183767959256738</v>
+        <v>0.5249211373606818</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.1074492420669508</v>
+        <v>0.1072236185250804</v>
       </c>
       <c r="R219" t="n">
-        <v>-0.001933072224367288</v>
+        <v>-0.003113692948078653</v>
       </c>
     </row>
     <row r="220">
       <c r="F220" t="n">
-        <v>0.06782613935910696</v>
+        <v>0.06780697465500296</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1050959129894476</v>
+        <v>0.1101877199674011</v>
       </c>
       <c r="H220" t="n">
-        <v>-0.003836548023975124</v>
+        <v>-0.002132500907559879</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1425721924695365</v>
+        <v>0.1450526463978875</v>
       </c>
       <c r="K220" t="n">
-        <v>0.107907227735849</v>
+        <v>0.1081219424879314</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.003119453827315322</v>
+        <v>-0.001926222250132305</v>
       </c>
       <c r="M220" t="n">
-        <v>0.337205070568279</v>
+        <v>0.3347244162984167</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1082801434030222</v>
+        <v>0.1078561393019316</v>
       </c>
       <c r="O220" t="n">
-        <v>-0.002720425741096842</v>
+        <v>-0.002019709269663108</v>
       </c>
       <c r="P220" t="n">
-        <v>0.5187008069436461</v>
+        <v>0.5246945923679376</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.1082511020823758</v>
+        <v>0.1080237947827303</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.002033123272876203</v>
+        <v>-0.002842664434766346</v>
       </c>
     </row>
     <row r="221">
       <c r="F221" t="n">
-        <v>0.06786907361583121</v>
+        <v>0.06790272257804053</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1058744012338139</v>
+        <v>0.111003925300493</v>
       </c>
       <c r="H221" t="n">
-        <v>-0.003836548023975124</v>
+        <v>-0.002132287657469123</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1427376013940411</v>
+        <v>0.1450140866771871</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1087065405338923</v>
+        <v>0.1089228457656197</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.003119453827315322</v>
+        <v>-0.001926222250132305</v>
       </c>
       <c r="M221" t="n">
-        <v>0.3370246053976635</v>
+        <v>0.3346121720933161</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1090822185393409</v>
+        <v>0.108655073667131</v>
       </c>
       <c r="O221" t="n">
-        <v>-0.002720425741096842</v>
+        <v>-0.002019709269663108</v>
       </c>
       <c r="P221" t="n">
-        <v>0.5187807381936853</v>
+        <v>0.5244638060073318</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.1090529620978008</v>
+        <v>0.1088239710403801</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.002033123272876203</v>
+        <v>-0.002842664434766346</v>
       </c>
     </row>
     <row r="222">
       <c r="F222" t="n">
-        <v>0.06792046852818258</v>
+        <v>0.06797770274993854</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1066528894781802</v>
+        <v>0.1118201306335848</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.003836548023975124</v>
+        <v>-0.002132287657469123</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1428848876590444</v>
+        <v>0.1450145532104201</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1095058533319356</v>
+        <v>0.1097237490433081</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.003119453827315322</v>
+        <v>-0.001926222250132305</v>
       </c>
       <c r="M222" t="n">
-        <v>0.3368413537350236</v>
+        <v>0.3345018546899455</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1098842936756596</v>
+        <v>0.1094540080323306</v>
       </c>
       <c r="O222" t="n">
-        <v>-0.002720425741096842</v>
+        <v>-0.002019709269663108</v>
       </c>
       <c r="P222" t="n">
-        <v>0.5192309623166342</v>
+        <v>0.5240741652262771</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.1098548221132258</v>
+        <v>0.10962414729803</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.002033123272876203</v>
+        <v>-0.002842664434766346</v>
       </c>
     </row>
     <row r="223">
       <c r="F223" t="n">
-        <v>0.06800838918783769</v>
+        <v>0.06808797380509256</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1074313777225465</v>
+        <v>0.1126363359666767</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.003836548023975124</v>
+        <v>-0.002132500907559879</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1430719014494946</v>
+        <v>0.1449955454835884</v>
       </c>
       <c r="K223" t="n">
-        <v>0.110305166129979</v>
+        <v>0.1105246523209965</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.002788078636755752</v>
+        <v>-0.001926222250132305</v>
       </c>
       <c r="M223" t="n">
-        <v>0.3366553836653402</v>
+        <v>0.3345390906376088</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1106863688119783</v>
+        <v>0.11025294239753</v>
       </c>
       <c r="O223" t="n">
-        <v>-0.002720425741096842</v>
+        <v>-0.002019709269663108</v>
       </c>
       <c r="P223" t="n">
-        <v>0.5193587391441663</v>
+        <v>0.5237581656396088</v>
       </c>
       <c r="Q223" t="n">
-        <v>0.1106566821286508</v>
+        <v>0.1104243235556798</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.002033123272876203</v>
+        <v>-0.002842664434766346</v>
       </c>
     </row>
     <row r="224">
       <c r="F224" t="n">
-        <v>0.06804840113491877</v>
+        <v>0.06816770754226732</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1082098659669127</v>
+        <v>0.1134525412997685</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.003613844876882601</v>
+        <v>-0.002168265483334283</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1432407504434934</v>
+        <v>0.1450155717302227</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1111044789280223</v>
+        <v>0.1113255555986849</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.002788078636755752</v>
+        <v>-0.002029459131073452</v>
       </c>
       <c r="M224" t="n">
-        <v>0.3365640760619075</v>
+        <v>0.334433476825825</v>
       </c>
       <c r="N224" t="n">
-        <v>0.111488443948297</v>
+        <v>0.1110518767627295</v>
       </c>
       <c r="O224" t="n">
-        <v>-0.002646290720996841</v>
+        <v>-0.002099757698008139</v>
       </c>
       <c r="P224" t="n">
-        <v>0.5196248774935066</v>
+        <v>0.5235932978633508</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.1114585421440758</v>
+        <v>0.1112244998133297</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.002121720647435145</v>
+        <v>-0.002597835987874741</v>
       </c>
     </row>
     <row r="225">
       <c r="F225" t="n">
-        <v>0.06810604464214122</v>
+        <v>0.06824483922759116</v>
       </c>
       <c r="G225" t="n">
-        <v>0.108988354211279</v>
+        <v>0.1142687466328604</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.003613844876882601</v>
+        <v>-0.002168265483334283</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1434107039903736</v>
+        <v>0.1450161311556611</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1119037917260656</v>
+        <v>0.1121264588763733</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.002788078636755752</v>
+        <v>-0.002029459131073452</v>
       </c>
       <c r="M225" t="n">
-        <v>0.3364214869563579</v>
+        <v>0.3343306723243306</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1122905190846157</v>
+        <v>0.111850811127929</v>
       </c>
       <c r="O225" t="n">
-        <v>-0.002646290720996841</v>
+        <v>-0.002099757698008139</v>
       </c>
       <c r="P225" t="n">
-        <v>0.5199518581301635</v>
+        <v>0.5234249477341522</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.1122604021595008</v>
+        <v>0.1120246760709795</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.002121720647435145</v>
+        <v>-0.002597835987874741</v>
       </c>
     </row>
     <row r="226">
       <c r="F226" t="n">
-        <v>0.06818127612204175</v>
+        <v>0.06831918014827319</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1097668424556453</v>
+        <v>0.1150849519659522</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.003613844876882601</v>
+        <v>-0.002167831873598589</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1436204573698645</v>
+        <v>0.1450167289840369</v>
       </c>
       <c r="K226" t="n">
-        <v>0.112703104524109</v>
+        <v>0.1129273621540616</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.002788078636755752</v>
+        <v>-0.002029459131073452</v>
       </c>
       <c r="M226" t="n">
-        <v>0.3363249816373525</v>
+        <v>0.334230971109946</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1130925942209343</v>
+        <v>0.1126497454931285</v>
       </c>
       <c r="O226" t="n">
-        <v>-0.002646290720996841</v>
+        <v>-0.002099757698008139</v>
       </c>
       <c r="P226" t="n">
-        <v>0.5203390673948921</v>
+        <v>0.5232533160024024</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.1130622621749258</v>
+        <v>0.1128248523286294</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.002121720647435145</v>
+        <v>-0.002597835987874741</v>
       </c>
     </row>
     <row r="227">
       <c r="F227" t="n">
-        <v>0.06820826649194002</v>
+        <v>0.0683623022212229</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1105453307000116</v>
+        <v>0.1159011572990441</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.003613844876882601</v>
+        <v>-0.002167831873598589</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1437538404688778</v>
+        <v>0.1450368706716779</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1135024173221523</v>
+        <v>0.11372826543175</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.002788078636755752</v>
+        <v>-0.002029459131073452</v>
       </c>
       <c r="M227" t="n">
-        <v>0.3361287444465442</v>
+        <v>0.3341346671594916</v>
       </c>
       <c r="N227" t="n">
-        <v>0.113894669357253</v>
+        <v>0.113448679858328</v>
       </c>
       <c r="O227" t="n">
-        <v>-0.002646290720996841</v>
+        <v>-0.002167267189590965</v>
       </c>
       <c r="P227" t="n">
-        <v>0.520400680774937</v>
+        <v>0.522924034149293</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.1138641221903508</v>
+        <v>0.1136250285862793</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.002121720647435145</v>
+        <v>-0.002389811348763129</v>
       </c>
     </row>
     <row r="228">
       <c r="F228" t="n">
-        <v>0.06828088705557818</v>
+        <v>0.06844931490315354</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1113238189443779</v>
+        <v>0.1167173626321359</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.003386765591534032</v>
+        <v>-0.002200031385092048</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1439269812635519</v>
+        <v>0.1450180547273381</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1143017301201956</v>
+        <v>0.1145291687094384</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.002509295555185065</v>
+        <v>-0.002119130039344713</v>
       </c>
       <c r="M228" t="n">
-        <v>0.3359787255379872</v>
+        <v>0.3339936599232484</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1146967444935717</v>
+        <v>0.1142476142235275</v>
       </c>
       <c r="O228" t="n">
-        <v>-0.002568493059086678</v>
+        <v>-0.002167267189590965</v>
       </c>
       <c r="P228" t="n">
-        <v>0.5205210657966801</v>
+        <v>0.522514715149117</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.1146659822057758</v>
+        <v>0.1144252048439291</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.002192208321934205</v>
+        <v>-0.002389811348763129</v>
       </c>
     </row>
     <row r="229">
       <c r="F229" t="n">
-        <v>0.06834268947539336</v>
+        <v>0.06852357119455997</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1121023071887441</v>
+        <v>0.1175335679652278</v>
       </c>
       <c r="H229" t="n">
-        <v>-0.003386765591534032</v>
+        <v>-0.002199371507652008</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1441205524514409</v>
+        <v>0.1450577938391487</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1151010429182389</v>
+        <v>0.1153300719871268</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.002509295555185065</v>
+        <v>-0.002119130039344713</v>
       </c>
       <c r="M229" t="n">
-        <v>0.3357777818876827</v>
+        <v>0.3339534269576555</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1154988196298904</v>
+        <v>0.115046548588727</v>
       </c>
       <c r="O229" t="n">
-        <v>-0.002568493059086678</v>
+        <v>-0.002167267189590965</v>
       </c>
       <c r="P229" t="n">
-        <v>0.5209308365486789</v>
+        <v>0.5224118060771398</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.1154678422212009</v>
+        <v>0.1152253811015789</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.002192208321934205</v>
+        <v>-0.002389811348763129</v>
       </c>
     </row>
     <row r="230">
       <c r="F230" t="n">
-        <v>0.06839357943189446</v>
+        <v>0.06856599682560358</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1128807954331104</v>
+        <v>0.1183497732983197</v>
       </c>
       <c r="H230" t="n">
-        <v>-0.003386765591534032</v>
+        <v>-0.002199591466798688</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1442568749911065</v>
+        <v>0.1450000767577305</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1159003557162823</v>
+        <v>0.1161309752648152</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.002509295555185065</v>
+        <v>-0.002119130039344713</v>
       </c>
       <c r="M230" t="n">
-        <v>0.3357688629985721</v>
+        <v>0.3337239469626559</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1163008947662091</v>
+        <v>0.1158454829539265</v>
       </c>
       <c r="O230" t="n">
-        <v>-0.002568493059086678</v>
+        <v>-0.002167267189590965</v>
       </c>
       <c r="P230" t="n">
-        <v>0.520935663905233</v>
+        <v>0.522151953509037</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.1162697022366259</v>
+        <v>0.1160255573592288</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.002192208321934205</v>
+        <v>-0.002389811348763129</v>
       </c>
     </row>
     <row r="231">
       <c r="F231" t="n">
-        <v>0.06844288185180812</v>
+        <v>0.06862354172223437</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1136592836774767</v>
+        <v>0.1191659786314115</v>
       </c>
       <c r="H231" t="n">
-        <v>-0.003159514923580092</v>
+        <v>-0.002199371507652008</v>
       </c>
       <c r="J231" t="n">
-        <v>0.144471886291666</v>
+        <v>0.145000922307746</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1166996685143256</v>
+        <v>0.1169318785425035</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.002509295555185065</v>
+        <v>-0.002119130039344713</v>
       </c>
       <c r="M231" t="n">
-        <v>0.3354663336834429</v>
+        <v>0.3336925650203814</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1171029699025277</v>
+        <v>0.116644417319126</v>
       </c>
       <c r="O231" t="n">
-        <v>-0.002568493059086678</v>
+        <v>-0.002167267189590965</v>
       </c>
       <c r="P231" t="n">
-        <v>0.5212286048863422</v>
+        <v>0.5217355150606958</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.1170715622520509</v>
+        <v>0.1168257336168787</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.002192208321934205</v>
+        <v>-0.002389811348763129</v>
       </c>
     </row>
     <row r="232">
       <c r="F232" t="n">
-        <v>0.06846224920417342</v>
+        <v>0.06866772069359464</v>
       </c>
       <c r="G232" t="n">
-        <v>0.114437771921843</v>
+        <v>0.1199821839645034</v>
       </c>
       <c r="H232" t="n">
-        <v>-0.003159514923580092</v>
+        <v>-0.002225100693465261</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1446684624546195</v>
+        <v>0.145021330704304</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1174989813123689</v>
+        <v>0.1177327818201919</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.002300704060352485</v>
+        <v>-0.002189376784929794</v>
       </c>
       <c r="M232" t="n">
-        <v>0.3354529725096103</v>
+        <v>0.3336660337876866</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1179050450388464</v>
+        <v>0.1174433516843255</v>
       </c>
       <c r="O232" t="n">
-        <v>-0.002487966921940973</v>
+        <v>-0.00221738433918382</v>
       </c>
       <c r="P232" t="n">
-        <v>0.5211150566248846</v>
+        <v>0.5214714703851485</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.1178734222674759</v>
+        <v>0.1176259098745285</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.002237930270263479</v>
+        <v>-0.002231934480940065</v>
       </c>
     </row>
     <row r="233">
       <c r="F233" t="n">
-        <v>0.06852698368010662</v>
+        <v>0.06872667606963338</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1152162601662093</v>
+        <v>0.1207983892975953</v>
       </c>
       <c r="H233" t="n">
-        <v>-0.003159514923580092</v>
+        <v>-0.002225100693465261</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1448465295657503</v>
+        <v>0.1450613059577048</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1182982941104122</v>
+        <v>0.1185336850978803</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.002300704060352485</v>
+        <v>-0.002189376784929794</v>
       </c>
       <c r="M233" t="n">
-        <v>0.3351948443728482</v>
+        <v>0.3335962939073333</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1187071201751651</v>
+        <v>0.118242286049525</v>
       </c>
       <c r="O233" t="n">
-        <v>-0.002487966921940973</v>
+        <v>-0.00221738433918382</v>
       </c>
       <c r="P233" t="n">
-        <v>0.5212112088945549</v>
+        <v>0.5212782626695779</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.1186752822829009</v>
+        <v>0.1184260861321784</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.002237930270263479</v>
+        <v>-0.002231934480940065</v>
       </c>
     </row>
     <row r="234">
       <c r="F234" t="n">
-        <v>0.06856161792896495</v>
+        <v>0.0687718881702899</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1159947484105755</v>
+        <v>0.1216145946306871</v>
       </c>
       <c r="H234" t="n">
-        <v>-0.003159514923580092</v>
+        <v>-0.002224878205644696</v>
       </c>
       <c r="J234" t="n">
-        <v>0.145032896915782</v>
+        <v>0.1450428427829644</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1190976069084556</v>
+        <v>0.1193345883755687</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.002300704060352485</v>
+        <v>-0.002189376784929794</v>
       </c>
       <c r="M234" t="n">
-        <v>0.3349832783721702</v>
+        <v>0.3334836602172304</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1195091953114838</v>
+        <v>0.1190412204147245</v>
       </c>
       <c r="O234" t="n">
-        <v>-0.002487966921940973</v>
+        <v>-0.00221738433918382</v>
       </c>
       <c r="P234" t="n">
-        <v>0.5212850557674282</v>
+        <v>0.5210611993018937</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.1194771422983259</v>
+        <v>0.1192262623898282</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.002237930270263479</v>
+        <v>-0.002231934480940065</v>
       </c>
     </row>
     <row r="235">
       <c r="F235" t="n">
-        <v>0.06860378003443157</v>
+        <v>0.06882206920194089</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1167732366549418</v>
+        <v>0.122430799963779</v>
       </c>
       <c r="H235" t="n">
-        <v>-0.003159514923580092</v>
+        <v>-0.002224878205644696</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1451471542791827</v>
+        <v>0.1450439537234088</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1198969197064989</v>
+        <v>0.1201354916532571</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.002300704060352485</v>
+        <v>-0.002235388967448047</v>
       </c>
       <c r="M235" t="n">
-        <v>0.334866780109629</v>
+        <v>0.3334734717628716</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1203112704478025</v>
+        <v>0.119840154779924</v>
       </c>
       <c r="O235" t="n">
-        <v>-0.002487966921940973</v>
+        <v>-0.00224655610187269</v>
       </c>
       <c r="P235" t="n">
-        <v>0.5214901962435701</v>
+        <v>0.5206646811810226</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.1202790023137509</v>
+        <v>0.1200264386474781</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.002237930270263479</v>
+        <v>-0.002231934480940065</v>
       </c>
     </row>
     <row r="236">
       <c r="F236" t="n">
-        <v>0.06863452378276254</v>
+        <v>0.0688486588502376</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1175517248993081</v>
+        <v>0.1232470052968708</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.002925663044929085</v>
+        <v>-0.002243437863800825</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1453292790558703</v>
+        <v>0.1450256377049241</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1206962325045422</v>
+        <v>0.1209363949309454</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.002157181429419911</v>
+        <v>-0.002235388967448047</v>
       </c>
       <c r="M236" t="n">
-        <v>0.3347968472800729</v>
+        <v>0.3333726401296074</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1211133455841212</v>
+        <v>0.1206390891451234</v>
       </c>
       <c r="O236" t="n">
-        <v>-0.002405646476134348</v>
+        <v>-0.00224655610187269</v>
       </c>
       <c r="P236" t="n">
-        <v>0.5214449102597793</v>
+        <v>0.520320390371163</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.1210808623291759</v>
+        <v>0.1208266149051279</v>
       </c>
       <c r="R236" t="n">
-        <v>-0.002252347458984651</v>
+        <v>-0.002095202566378308</v>
       </c>
     </row>
     <row r="237">
       <c r="F237" t="n">
-        <v>0.06870098038316716</v>
+        <v>0.06888930401532384</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1183302131436744</v>
+        <v>0.1240632106299627</v>
       </c>
       <c r="H237" t="n">
-        <v>-0.002925663044929085</v>
+        <v>-0.00224321356487423</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1455720722570119</v>
+        <v>0.1450464061386282</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1214955453025856</v>
+        <v>0.1217372982086338</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.002157181429419911</v>
+        <v>-0.002235388967448047</v>
       </c>
       <c r="M237" t="n">
-        <v>0.3344827772420949</v>
+        <v>0.3333748194229271</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1219154207204398</v>
+        <v>0.1214380235103229</v>
       </c>
       <c r="O237" t="n">
-        <v>-0.002405646476134348</v>
+        <v>-0.00224655610187269</v>
       </c>
       <c r="P237" t="n">
-        <v>0.5214438097317698</v>
+        <v>0.5201056056192154</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.1218827223446009</v>
+        <v>0.1216267911627778</v>
       </c>
       <c r="R237" t="n">
-        <v>-0.002252347458984651</v>
+        <v>-0.002095202566378308</v>
       </c>
     </row>
     <row r="238">
       <c r="F238" t="n">
-        <v>0.06873698118707539</v>
+        <v>0.06890596700132594</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1191087013880407</v>
+        <v>0.1248794159630546</v>
       </c>
       <c r="H238" t="n">
-        <v>-0.002925663044929085</v>
+        <v>-0.002242989265947635</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1457191100041895</v>
+        <v>0.1450672578782389</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1222948581006289</v>
+        <v>0.1225382014863222</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.002157181429419911</v>
+        <v>-0.002235388967448047</v>
       </c>
       <c r="M238" t="n">
-        <v>0.3344092526386933</v>
+        <v>0.3333352917982203</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1227174958567585</v>
+        <v>0.1222369578755224</v>
       </c>
       <c r="O238" t="n">
-        <v>-0.002405646476134348</v>
+        <v>-0.00224655610187269</v>
       </c>
       <c r="P238" t="n">
-        <v>0.5214306429648845</v>
+        <v>0.5194817869156542</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.1226845823600259</v>
+        <v>0.1224269674204276</v>
       </c>
       <c r="R238" t="n">
-        <v>-0.002252347458984651</v>
+        <v>-0.002095202566378308</v>
       </c>
     </row>
     <row r="239">
       <c r="F239" t="n">
-        <v>0.06874241565012228</v>
+        <v>0.0689268509409082</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1198871896324069</v>
+        <v>0.1256956212961464</v>
       </c>
       <c r="H239" t="n">
-        <v>-0.002925663044929085</v>
+        <v>-0.002243437863800825</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1459464122824294</v>
+        <v>0.1450491907316646</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1230941708986722</v>
+        <v>0.1233391047640106</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.002157181429419911</v>
+        <v>-0.002235388967448047</v>
       </c>
       <c r="M239" t="n">
-        <v>0.3342855708688094</v>
+        <v>0.3333510139032318</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1235195709930772</v>
+        <v>0.1230358922407219</v>
       </c>
       <c r="O239" t="n">
-        <v>-0.002405646476134348</v>
+        <v>-0.00224655610187269</v>
       </c>
       <c r="P239" t="n">
-        <v>0.52155687716667</v>
+        <v>0.5192959881183619</v>
       </c>
       <c r="Q239" t="n">
-        <v>0.1234864423754509</v>
+        <v>0.1232271436780775</v>
       </c>
       <c r="R239" t="n">
-        <v>-0.002252347458984651</v>
+        <v>-0.002095202566378308</v>
       </c>
     </row>
     <row r="240">
       <c r="F240" t="n">
-        <v>0.06880226584593897</v>
+        <v>0.06896124358755024</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1206656778767732</v>
+        <v>0.1265118266292383</v>
       </c>
       <c r="H240" t="n">
-        <v>-0.002714994028576063</v>
+        <v>-0.002252805130021307</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1461365315005718</v>
+        <v>0.1450312137730027</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1238934836967155</v>
+        <v>0.124140008041699</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.002019604617556397</v>
+        <v>-0.00225285334484415</v>
       </c>
       <c r="M240" t="n">
-        <v>0.3340634488131584</v>
+        <v>0.3333249701375776</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1243216461293959</v>
+        <v>0.1238348266059214</v>
       </c>
       <c r="O240" t="n">
-        <v>-0.002322465888241423</v>
+        <v>-0.002251037450840335</v>
       </c>
       <c r="P240" t="n">
-        <v>0.5212825423835935</v>
+        <v>0.5188559932701255</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.1242883023908759</v>
+        <v>0.1240273199357273</v>
       </c>
       <c r="R240" t="n">
-        <v>-0.002244996809246449</v>
+        <v>-0.001962469639547529</v>
       </c>
     </row>
     <row r="241">
       <c r="F241" t="n">
-        <v>0.06881247895417072</v>
+        <v>0.06895625082856721</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1214441661211395</v>
+        <v>0.1273280319623301</v>
       </c>
       <c r="H241" t="n">
-        <v>-0.002714994028576063</v>
+        <v>-0.002252129423623581</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1462893374879624</v>
+        <v>0.145032896915782</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1246927964947589</v>
+        <v>0.1249409113193874</v>
       </c>
       <c r="L241" t="n">
-        <v>-0.002019604617556397</v>
+        <v>-0.00225285334484415</v>
       </c>
       <c r="M241" t="n">
-        <v>0.3339365943288915</v>
+        <v>0.3332519957943881</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1251237212657146</v>
+        <v>0.1246337609711209</v>
       </c>
       <c r="O241" t="n">
-        <v>-0.002322465888241423</v>
+        <v>-0.002251037450840335</v>
       </c>
       <c r="P241" t="n">
-        <v>0.5213018956494387</v>
+        <v>0.5181625850823723</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.1250901624063009</v>
+        <v>0.1248274961933772</v>
       </c>
       <c r="R241" t="n">
-        <v>-0.002244996809246449</v>
+        <v>-0.001962469639547529</v>
       </c>
     </row>
     <row r="242">
       <c r="F242" t="n">
-        <v>0.06882969381394727</v>
+        <v>0.06895615811513717</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1222226543655058</v>
+        <v>0.128144237295422</v>
       </c>
       <c r="H242" t="n">
-        <v>-0.002714994028576063</v>
+        <v>-0.002252354659089489</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1464636427346173</v>
+        <v>0.1450754679245571</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1254921092928022</v>
+        <v>0.1257418145970757</v>
       </c>
       <c r="L242" t="n">
-        <v>-0.002019604617556397</v>
+        <v>-0.00225285334484415</v>
       </c>
       <c r="M242" t="n">
-        <v>0.3336147712218589</v>
+        <v>0.3331309423500256</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1259257964020332</v>
+        <v>0.1254326953363204</v>
       </c>
       <c r="O242" t="n">
-        <v>-0.002322465888241423</v>
+        <v>-0.002251037450840335</v>
       </c>
       <c r="P242" t="n">
-        <v>0.5213063790392726</v>
+        <v>0.5178307905330081</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.1258920224217259</v>
+        <v>0.125627672451027</v>
       </c>
       <c r="R242" t="n">
-        <v>-0.002244996809246449</v>
+        <v>-0.001962469639547529</v>
       </c>
     </row>
     <row r="243">
       <c r="F243" t="n">
-        <v>0.06885384101165341</v>
+        <v>0.0689747970531448</v>
       </c>
       <c r="G243" t="n">
-        <v>0.123001142609872</v>
+        <v>0.1289604426285139</v>
       </c>
       <c r="H243" t="n">
-        <v>-0.002714994028576063</v>
+        <v>-0.002252805130021307</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1466988245591795</v>
+        <v>0.14508324689219</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1262914220908455</v>
+        <v>0.1265427178747641</v>
       </c>
       <c r="L243" t="n">
-        <v>-0.002019604617556397</v>
+        <v>-0.00225285334484415</v>
       </c>
       <c r="M243" t="n">
-        <v>0.3334850480722621</v>
+        <v>0.3332034101892888</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1267278715383519</v>
+        <v>0.1262316297015199</v>
       </c>
       <c r="O243" t="n">
-        <v>-0.002322465888241423</v>
+        <v>-0.002236358554639602</v>
       </c>
       <c r="P243" t="n">
-        <v>0.5211417673163864</v>
+        <v>0.5173231826239506</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.1266938824371509</v>
+        <v>0.1264278487086769</v>
       </c>
       <c r="R243" t="n">
-        <v>-0.002225306119723489</v>
+        <v>-0.001962469639547529</v>
       </c>
     </row>
     <row r="244">
       <c r="F244" t="n">
-        <v>0.06890377850796131</v>
+        <v>0.06895428484672921</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1237796308542383</v>
+        <v>0.1297766479616057</v>
       </c>
       <c r="H244" t="n">
-        <v>-0.002514743439036915</v>
+        <v>-0.002247222231718162</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1468769181054037</v>
+        <v>0.1450950753653845</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1270907348888888</v>
+        <v>0.1273436211524525</v>
       </c>
       <c r="L244" t="n">
-        <v>-0.001885213645061274</v>
+        <v>-0.002242421590323091</v>
       </c>
       <c r="M244" t="n">
-        <v>0.3334022863464658</v>
+        <v>0.3331311942976632</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1275299466746706</v>
+        <v>0.1270305640667194</v>
       </c>
       <c r="O244" t="n">
-        <v>-0.002239159035992129</v>
+        <v>-0.002236358554639602</v>
       </c>
       <c r="P244" t="n">
-        <v>0.5209623328862217</v>
+        <v>0.5166404526847396</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.1274957424525759</v>
+        <v>0.1272280249663268</v>
       </c>
       <c r="R244" t="n">
-        <v>-0.002225306119723489</v>
+        <v>-0.001832914521465603</v>
       </c>
     </row>
     <row r="245">
       <c r="F245" t="n">
-        <v>0.06891318086769738</v>
+        <v>0.0689514847577362</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1245581190986046</v>
+        <v>0.1305928532946976</v>
       </c>
       <c r="H245" t="n">
-        <v>-0.002514743439036915</v>
+        <v>-0.002247222231718162</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1470568516715235</v>
+        <v>0.1450913411266789</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1278900476869321</v>
+        <v>0.1281445244301408</v>
       </c>
       <c r="L245" t="n">
-        <v>-0.001885213645061274</v>
+        <v>-0.002242421590323091</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3331697051038698</v>
+        <v>0.3331558855465737</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1283320218109893</v>
+        <v>0.1278294984319189</v>
       </c>
       <c r="O245" t="n">
-        <v>-0.002239159035992129</v>
+        <v>-0.002236358554639602</v>
       </c>
       <c r="P245" t="n">
-        <v>0.5210764566809515</v>
+        <v>0.5161664012225053</v>
       </c>
       <c r="Q245" t="n">
-        <v>0.1282976024680009</v>
+        <v>0.1280282012239766</v>
       </c>
       <c r="R245" t="n">
-        <v>-0.002225306119723489</v>
+        <v>-0.001832914521465603</v>
       </c>
     </row>
     <row r="246">
       <c r="F246" t="n">
-        <v>0.0689292878001527</v>
+        <v>0.0689663541949526</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1253366073429709</v>
+        <v>0.1314090586277895</v>
       </c>
       <c r="H246" t="n">
-        <v>-0.002514743439036915</v>
+        <v>-0.002247671721113445</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1472977919941585</v>
+        <v>0.1450914424037079</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1286893604849755</v>
+        <v>0.1289454277078292</v>
       </c>
       <c r="L246" t="n">
-        <v>-0.001885213645061274</v>
+        <v>-0.002242421590323091</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3329195040647278</v>
+        <v>0.3331808686639929</v>
       </c>
       <c r="N246" t="n">
-        <v>0.129134096947308</v>
+        <v>0.1286284327971184</v>
       </c>
       <c r="O246" t="n">
-        <v>-0.002239159035992129</v>
+        <v>-0.002236358554639602</v>
       </c>
       <c r="P246" t="n">
-        <v>0.5209444391346971</v>
+        <v>0.5156712347555904</v>
       </c>
       <c r="Q246" t="n">
-        <v>0.1290994624834259</v>
+        <v>0.1288283774816265</v>
       </c>
       <c r="R246" t="n">
-        <v>-0.002225306119723489</v>
+        <v>-0.001832914521465603</v>
       </c>
     </row>
     <row r="247">
       <c r="F247" t="n">
-        <v>0.06894255670271324</v>
+        <v>0.06895149825102979</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1261150955873372</v>
+        <v>0.1322252639608813</v>
       </c>
       <c r="H247" t="n">
-        <v>-0.002514743439036915</v>
+        <v>-0.002247896465811086</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1475209128476342</v>
+        <v>0.1451342959992109</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1294886732830188</v>
+        <v>0.1297463309855176</v>
       </c>
       <c r="L247" t="n">
-        <v>-0.001885213645061274</v>
+        <v>-0.002242421590323091</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3327474647184949</v>
+        <v>0.3330129349066812</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1299361720836267</v>
+        <v>0.1294273671623179</v>
       </c>
       <c r="O247" t="n">
-        <v>-0.002146527132385309</v>
+        <v>-0.002236358554639602</v>
       </c>
       <c r="P247" t="n">
-        <v>0.5207975996523121</v>
+        <v>0.5150788336611218</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.1299013224988509</v>
+        <v>0.1296285537392763</v>
       </c>
       <c r="R247" t="n">
-        <v>-0.002225306119723489</v>
+        <v>-0.001708911098809931</v>
       </c>
     </row>
     <row r="248">
       <c r="F248" t="n">
-        <v>0.06893396881800687</v>
+        <v>0.0689258202370706</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1268935838317034</v>
+        <v>0.1330414692939732</v>
       </c>
       <c r="H248" t="n">
-        <v>-0.00232654705500035</v>
+        <v>-0.002221965933302993</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1477063689953012</v>
+        <v>0.1451417552813725</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1302879860810621</v>
+        <v>0.130547234263206</v>
       </c>
       <c r="L248" t="n">
-        <v>-0.0017557743169284</v>
+        <v>-0.002212035354941798</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3324126872787097</v>
+        <v>0.3331351658116913</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1307382472199453</v>
+        <v>0.1302263015275174</v>
       </c>
       <c r="O248" t="n">
-        <v>-0.002146527132385309</v>
+        <v>-0.002204518216173704</v>
       </c>
       <c r="P248" t="n">
-        <v>0.52040480125277</v>
+        <v>0.5144662014518356</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.130703182514276</v>
+        <v>0.1304287299969261</v>
       </c>
       <c r="R248" t="n">
-        <v>-0.002193262680870395</v>
+        <v>-0.001708911098809931</v>
       </c>
     </row>
     <row r="249">
       <c r="F249" t="n">
-        <v>0.06894132569200043</v>
+        <v>0.06894609410562501</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1276720720760697</v>
+        <v>0.133857674627065</v>
       </c>
       <c r="H249" t="n">
-        <v>-0.00232654705500035</v>
+        <v>-0.0022212994768143</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1478738100187081</v>
+        <v>0.1451722496724839</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1310872988791054</v>
+        <v>0.1313481375408944</v>
       </c>
       <c r="L249" t="n">
-        <v>-0.0017557743169284</v>
+        <v>-0.002212035354941798</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3322534085072342</v>
+        <v>0.3330645203028744</v>
       </c>
       <c r="N249" t="n">
-        <v>0.131540322356264</v>
+        <v>0.1310252358927169</v>
       </c>
       <c r="O249" t="n">
-        <v>-0.002146527132385309</v>
+        <v>-0.002204518216173704</v>
       </c>
       <c r="P249" t="n">
-        <v>0.5203054240895515</v>
+        <v>0.5137573492654199</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.131505042529701</v>
+        <v>0.131228906254576</v>
       </c>
       <c r="R249" t="n">
-        <v>-0.002193262680870395</v>
+        <v>-0.001708911098809931</v>
       </c>
     </row>
     <row r="250">
       <c r="F250" t="n">
-        <v>0.06895625082856721</v>
+        <v>0.06892705606167275</v>
       </c>
       <c r="G250" t="n">
-        <v>0.128450560320436</v>
+        <v>0.1346738799601569</v>
       </c>
       <c r="H250" t="n">
-        <v>-0.00232654705500035</v>
+        <v>-0.0022212994768143</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1480825873327659</v>
+        <v>0.1452452039135644</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1318866116771488</v>
+        <v>0.1321490408185828</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.0017557743169284</v>
+        <v>-0.002212035354941798</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3318842336101069</v>
+        <v>0.333042537856947</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1323423974925827</v>
+        <v>0.1318241702579164</v>
       </c>
       <c r="O250" t="n">
-        <v>-0.002146527132385309</v>
+        <v>-0.002204518216173704</v>
       </c>
       <c r="P250" t="n">
-        <v>0.520114202485924</v>
+        <v>0.5132581017273313</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.132306902545126</v>
+        <v>0.1320290825122259</v>
       </c>
       <c r="R250" t="n">
-        <v>-0.002193262680870395</v>
+        <v>-0.001708911098809931</v>
       </c>
     </row>
     <row r="251">
       <c r="F251" t="n">
-        <v>0.06895612351601957</v>
+        <v>0.06891601016261283</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1292290485648023</v>
+        <v>0.1354900852932487</v>
       </c>
       <c r="H251" t="n">
-        <v>-0.002167198153392026</v>
+        <v>-0.002221743781140095</v>
       </c>
       <c r="J251" t="n">
-        <v>0.148352641390725</v>
+        <v>0.1452824379717992</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1326859244751921</v>
+        <v>0.1329499440962711</v>
       </c>
       <c r="L251" t="n">
-        <v>-0.001633052438151635</v>
+        <v>-0.002212035354941798</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3316431181697291</v>
+        <v>0.3330692275424813</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1331444726289014</v>
+        <v>0.1326231046231159</v>
       </c>
       <c r="O251" t="n">
-        <v>-0.002146527132385309</v>
+        <v>-0.002155704088600924</v>
       </c>
       <c r="P251" t="n">
-        <v>0.5200621738375616</v>
+        <v>0.512358299952534</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.133108762560551</v>
+        <v>0.1328292587698757</v>
       </c>
       <c r="R251" t="n">
-        <v>-0.002193262680870395</v>
+        <v>-0.001708911098809931</v>
       </c>
     </row>
     <row r="252">
       <c r="F252" t="n">
-        <v>0.06893889004394446</v>
+        <v>0.06888451613370562</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1300075368091685</v>
+        <v>0.1363062906263406</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.002167198153392026</v>
+        <v>-0.002177978942028807</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1485054743913492</v>
+        <v>0.1453228812630551</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1334852372732354</v>
+        <v>0.1337508473739595</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.001633052438151635</v>
+        <v>-0.002162419626569076</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3313858639168727</v>
+        <v>0.3329997132306533</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1339465477652201</v>
+        <v>0.1334220389883153</v>
       </c>
       <c r="O252" t="n">
-        <v>-0.002040110411083003</v>
+        <v>-0.002155704088600924</v>
       </c>
       <c r="P252" t="n">
-        <v>0.5196104320613547</v>
+        <v>0.5117449244263592</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.133910622575976</v>
+        <v>0.1336294350275256</v>
       </c>
       <c r="R252" t="n">
-        <v>-0.002148853783141793</v>
+        <v>-0.001591057096773317</v>
       </c>
     </row>
     <row r="253">
       <c r="F253" t="n">
-        <v>0.06894777555653307</v>
+        <v>0.06889878910618627</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1307860250535348</v>
+        <v>0.1371224959594325</v>
       </c>
       <c r="H253" t="n">
-        <v>-0.002167198153392026</v>
+        <v>-0.002177325678998805</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1487791737229845</v>
+        <v>0.1453664287532646</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1342845500712787</v>
+        <v>0.1345517506516479</v>
       </c>
       <c r="L253" t="n">
-        <v>-0.001633052438151635</v>
+        <v>-0.002162419626569076</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3310167309797915</v>
+        <v>0.3328823162505859</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1347486229015388</v>
+        <v>0.1342209733535148</v>
       </c>
       <c r="O253" t="n">
-        <v>-0.002040110411083003</v>
+        <v>-0.002155704088600924</v>
       </c>
       <c r="P253" t="n">
-        <v>0.51952878104874</v>
+        <v>0.5110370105235897</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.134712482591401</v>
+        <v>0.1344296112851754</v>
       </c>
       <c r="R253" t="n">
-        <v>-0.002148853783141793</v>
+        <v>-0.001591057096773317</v>
       </c>
     </row>
     <row r="254">
       <c r="F254" t="n">
-        <v>0.06888846006980355</v>
+        <v>0.06886414189254902</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1315645132979011</v>
+        <v>0.1379387012925243</v>
       </c>
       <c r="H254" t="n">
-        <v>-0.002167198153392026</v>
+        <v>-0.002177761187685473</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1489552594143589</v>
+        <v>0.1453934380182973</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1350838628693221</v>
+        <v>0.1353526539293363</v>
       </c>
       <c r="L254" t="n">
-        <v>-0.001633052438151635</v>
+        <v>-0.002162419626569076</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3307286569410287</v>
+        <v>0.332958513365645</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1355506980378575</v>
+        <v>0.1350199077187143</v>
       </c>
       <c r="O254" t="n">
-        <v>-0.002040110411083003</v>
+        <v>-0.002155704088600924</v>
       </c>
       <c r="P254" t="n">
-        <v>0.519124584812072</v>
+        <v>0.5102351574136438</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.135514342606826</v>
+        <v>0.1352297875428253</v>
       </c>
       <c r="R254" t="n">
-        <v>-0.002148853783141793</v>
+        <v>-0.001591057096773317</v>
       </c>
     </row>
     <row r="255">
       <c r="F255" t="n">
-        <v>0.06884653420639551</v>
+        <v>0.06886570382830365</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1323430015422674</v>
+        <v>0.1387549066256162</v>
       </c>
       <c r="H255" t="n">
-        <v>-0.002167198153392026</v>
+        <v>-0.002177325678998805</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1492126460940408</v>
+        <v>0.1454428738611214</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1358831756673654</v>
+        <v>0.1361535572070247</v>
       </c>
       <c r="L255" t="n">
-        <v>-0.001633052438151635</v>
+        <v>-0.002162419626569076</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3304258380099283</v>
+        <v>0.3328902728440399</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1363527731741762</v>
+        <v>0.1358188420839138</v>
       </c>
       <c r="O255" t="n">
-        <v>-0.002040110411083003</v>
+        <v>-0.002155704088600924</v>
       </c>
       <c r="P255" t="n">
-        <v>0.5188595220244027</v>
+        <v>0.5096438020715404</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.136316202622251</v>
+        <v>0.1360299638004751</v>
       </c>
       <c r="R255" t="n">
-        <v>-0.002148853783141793</v>
+        <v>-0.001591057096773317</v>
       </c>
     </row>
     <row r="256">
       <c r="F256" t="n">
-        <v>0.06879396256070117</v>
+        <v>0.06883720107962804</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1331214897866337</v>
+        <v>0.139571111958708</v>
       </c>
       <c r="H256" t="n">
-        <v>-0.002012745644459141</v>
+        <v>-0.002116260132706098</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1493920660680107</v>
+        <v>0.1454950985218423</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1366824884654087</v>
+        <v>0.136954460484713</v>
       </c>
       <c r="L256" t="n">
-        <v>-0.001518813813724838</v>
+        <v>-0.00209473346227528</v>
       </c>
       <c r="M256" t="n">
-        <v>0.330012745179404</v>
+        <v>0.3329190635505668</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1371548483104948</v>
+        <v>0.1366177764491133</v>
       </c>
       <c r="O256" t="n">
-        <v>-0.001921226860262891</v>
+        <v>-0.002092910003899553</v>
       </c>
       <c r="P256" t="n">
-        <v>0.5186565755476469</v>
+        <v>0.5089591290945891</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.137118062637676</v>
+        <v>0.136830140058125</v>
       </c>
       <c r="R256" t="n">
-        <v>-0.00209206671699231</v>
+        <v>-0.001479459155151513</v>
       </c>
     </row>
     <row r="257">
       <c r="F257" t="n">
-        <v>0.06875946625974366</v>
+        <v>0.06881643699600744</v>
       </c>
       <c r="G257" t="n">
-        <v>0.133899978031</v>
+        <v>0.1403873172917999</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.002012745644459141</v>
+        <v>-0.002116471737558883</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1495930456005643</v>
+        <v>0.1455500069768941</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1374818012634521</v>
+        <v>0.1377553637624014</v>
       </c>
       <c r="L257" t="n">
-        <v>-0.001518813813724838</v>
+        <v>-0.00209473346227528</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3296339456325047</v>
+        <v>0.3329483192393418</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1379569234468135</v>
+        <v>0.1374167108143128</v>
       </c>
       <c r="O257" t="n">
-        <v>-0.001921226860262891</v>
+        <v>-0.002092910003899553</v>
       </c>
       <c r="P257" t="n">
-        <v>0.5185156645783274</v>
+        <v>0.5079543393543502</v>
       </c>
       <c r="Q257" t="n">
-        <v>0.137919922653101</v>
+        <v>0.1376303163157749</v>
       </c>
       <c r="R257" t="n">
-        <v>-0.00209206671699231</v>
+        <v>-0.001479459155151513</v>
       </c>
     </row>
     <row r="258">
       <c r="F258" t="n">
-        <v>0.06868669452668434</v>
+        <v>0.06878445564275366</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1346784662753662</v>
+        <v>0.1412035226248917</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.002012745644459141</v>
+        <v>-0.002116048527853312</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1498556014713235</v>
+        <v>0.1455683766156284</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1382811140614954</v>
+        <v>0.1385562670400898</v>
       </c>
       <c r="L258" t="n">
-        <v>-0.001518813813724838</v>
+        <v>-0.00209473346227528</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3291939552479325</v>
+        <v>0.3327849224329127</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1387589985831322</v>
+        <v>0.1382156451795123</v>
       </c>
       <c r="O258" t="n">
-        <v>-0.001921226860262891</v>
+        <v>-0.002092910003899553</v>
       </c>
       <c r="P258" t="n">
-        <v>0.5179758678676796</v>
+        <v>0.5071608327078729</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.138721782668526</v>
+        <v>0.1384304925734247</v>
       </c>
       <c r="R258" t="n">
-        <v>-0.00209206671699231</v>
+        <v>-0.001479459155151513</v>
       </c>
     </row>
     <row r="259">
       <c r="F259" t="n">
-        <v>0.06858551844818432</v>
+        <v>0.06876012734055358</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1354569545197325</v>
+        <v>0.1420197279579836</v>
       </c>
       <c r="H259" t="n">
-        <v>-0.002012745644459141</v>
+        <v>-0.002116471737558883</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1500998949475064</v>
+        <v>0.1456283255976473</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1390804268595387</v>
+        <v>0.1393571703177782</v>
       </c>
       <c r="L259" t="n">
-        <v>-0.001518813813724838</v>
+        <v>-0.00209473346227528</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3288848793758492</v>
+        <v>0.3329117257567511</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1395610737194509</v>
+        <v>0.1390145795447118</v>
       </c>
       <c r="O259" t="n">
-        <v>-0.001921226860262891</v>
+        <v>-0.00201442113834856</v>
       </c>
       <c r="P259" t="n">
-        <v>0.5176518531226436</v>
+        <v>0.5063513537401182</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.139523642683951</v>
+        <v>0.1392306688310746</v>
       </c>
       <c r="R259" t="n">
-        <v>-0.00209206671699231</v>
+        <v>-0.001479459155151513</v>
       </c>
     </row>
     <row r="260">
       <c r="F260" t="n">
-        <v>0.06850349090104772</v>
+        <v>0.06873395453649453</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1362354427640988</v>
+        <v>0.1428359332910755</v>
       </c>
       <c r="H260" t="n">
-        <v>-0.001861721615117013</v>
+        <v>-0.00204057363660276</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1503258431206529</v>
+        <v>0.145749355893756</v>
       </c>
       <c r="K260" t="n">
-        <v>0.139879739657582</v>
+        <v>0.1401580735954666</v>
       </c>
       <c r="L260" t="n">
-        <v>-0.001414824248641868</v>
+        <v>-0.002009097283562668</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3283719541492323</v>
+        <v>0.3328941949883257</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1403631488557696</v>
+        <v>0.1398135139099113</v>
       </c>
       <c r="O260" t="n">
-        <v>-0.00179119446810266</v>
+        <v>-0.00201442113834856</v>
       </c>
       <c r="P260" t="n">
-        <v>0.5174665972887593</v>
+        <v>0.5055262892463335</v>
       </c>
       <c r="Q260" t="n">
-        <v>0.140325502699376</v>
+        <v>0.1400308450887244</v>
       </c>
       <c r="R260" t="n">
-        <v>-0.00202288877287657</v>
+        <v>-0.001376403679408918</v>
       </c>
     </row>
     <row r="261">
       <c r="F261" t="n">
-        <v>0.06841265215096773</v>
+        <v>0.06870589632759733</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1370139310084651</v>
+        <v>0.1436521386241673</v>
       </c>
       <c r="H261" t="n">
-        <v>-0.001861721615117013</v>
+        <v>-0.002040165603482064</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1504932594341671</v>
+        <v>0.145774800789004</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1406790524556254</v>
+        <v>0.140958976873155</v>
       </c>
       <c r="L261" t="n">
-        <v>-0.001414824248641868</v>
+        <v>-0.002009097283562668</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3278951269535001</v>
+        <v>0.3327323615601216</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1411652239920882</v>
+        <v>0.1406124482751108</v>
       </c>
       <c r="O261" t="n">
-        <v>-0.00179119446810266</v>
+        <v>-0.00201442113834856</v>
       </c>
       <c r="P261" t="n">
-        <v>0.516959674022578</v>
+        <v>0.5046860260217663</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.1411273627148011</v>
+        <v>0.1408310213463743</v>
       </c>
       <c r="R261" t="n">
-        <v>-0.00202288877287657</v>
+        <v>-0.001376403679408918</v>
       </c>
     </row>
     <row r="262">
       <c r="F262" t="n">
-        <v>0.068285157407589</v>
+        <v>0.06866646826780287</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1377924192528313</v>
+        <v>0.1444683439572592</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.001861721615117013</v>
+        <v>-0.002039961586921716</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1507424412543293</v>
+        <v>0.1458415461876755</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1414783652536687</v>
+        <v>0.1417598801508433</v>
       </c>
       <c r="L262" t="n">
-        <v>-0.001414824248641868</v>
+        <v>-0.002009097283562668</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3275979915435369</v>
+        <v>0.3328607437104472</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1419672991284069</v>
+        <v>0.1414113826403103</v>
       </c>
       <c r="O262" t="n">
-        <v>-0.00179119446810266</v>
+        <v>-0.00201442113834856</v>
       </c>
       <c r="P262" t="n">
-        <v>0.5166681916297774</v>
+        <v>0.5038309508616637</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.1419292227302261</v>
+        <v>0.1416311976040241</v>
       </c>
       <c r="R262" t="n">
-        <v>-0.00202288877287657</v>
+        <v>-0.001376403679408918</v>
       </c>
     </row>
     <row r="263">
       <c r="F263" t="n">
-        <v>0.06818723004799736</v>
+        <v>0.06865340043127864</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1385709074971976</v>
+        <v>0.1452845492903511</v>
       </c>
       <c r="H263" t="n">
-        <v>-0.001861721615117013</v>
+        <v>-0.002040369620042413</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1509731613087843</v>
+        <v>0.1459103450339353</v>
       </c>
       <c r="K263" t="n">
-        <v>0.142277678051712</v>
+        <v>0.1425607834285317</v>
       </c>
       <c r="L263" t="n">
-        <v>-0.001414824248641868</v>
+        <v>-0.002009097283562668</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3270511317529537</v>
+        <v>0.3328448545262874</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1427693742647256</v>
+        <v>0.1422103170055098</v>
       </c>
       <c r="O263" t="n">
-        <v>-0.001651331222779987</v>
+        <v>-0.00201442113834856</v>
       </c>
       <c r="P263" t="n">
-        <v>0.5162086792527409</v>
+        <v>0.5030367542366974</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.1427310827456511</v>
+        <v>0.142431373861674</v>
       </c>
       <c r="R263" t="n">
-        <v>-0.001941307241249199</v>
+        <v>-0.001376403679408918</v>
       </c>
     </row>
     <row r="264">
       <c r="F264" t="n">
-        <v>0.06805343412187602</v>
+        <v>0.06862887414593045</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1393493957415639</v>
+        <v>0.1461007546234429</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.001715538493413819</v>
+        <v>-0.001949509654181599</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1511853342611948</v>
+        <v>0.1459614942054871</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1430769908497553</v>
+        <v>0.1433616867062201</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.001322849547896585</v>
+        <v>-0.001907310239408635</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3266846294354288</v>
+        <v>0.3327329972627233</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1435714494010443</v>
+        <v>0.1430092513707092</v>
       </c>
       <c r="O264" t="n">
-        <v>-0.001651331222779987</v>
+        <v>-0.00192352731896433</v>
       </c>
       <c r="P264" t="n">
-        <v>0.515811144920491</v>
+        <v>0.502153127228566</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.1435329427610761</v>
+        <v>0.1432315501193238</v>
       </c>
       <c r="R264" t="n">
-        <v>-0.001941307241249199</v>
+        <v>-0.001282823849581862</v>
       </c>
     </row>
     <row r="265">
       <c r="F265" t="n">
-        <v>0.06791235647403304</v>
+        <v>0.06858342473507961</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1401278839859302</v>
+        <v>0.1469169599565348</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.001715538493413819</v>
+        <v>-0.001949899595106527</v>
       </c>
       <c r="J265" t="n">
-        <v>0.1514795934871951</v>
+        <v>0.1460928937535637</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1438763036477987</v>
+        <v>0.1441625899839085</v>
       </c>
       <c r="L265" t="n">
-        <v>-0.001322849547896585</v>
+        <v>-0.001907310239408635</v>
       </c>
       <c r="M265" t="n">
-        <v>0.3261174987104209</v>
+        <v>0.3327665555523867</v>
       </c>
       <c r="N265" t="n">
-        <v>0.144373524537363</v>
+        <v>0.1438081857359087</v>
       </c>
       <c r="O265" t="n">
-        <v>-0.001651331222779987</v>
+        <v>-0.00192352731896433</v>
       </c>
       <c r="P265" t="n">
-        <v>0.5153989293853973</v>
+        <v>0.5012558473053503</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.1443348027765011</v>
+        <v>0.1440317263769737</v>
       </c>
       <c r="R265" t="n">
-        <v>-0.001941307241249199</v>
+        <v>-0.001282823849581862</v>
       </c>
     </row>
     <row r="266">
       <c r="F266" t="n">
-        <v>0.06778307704644437</v>
+        <v>0.06852646306510671</v>
       </c>
       <c r="G266" t="n">
-        <v>0.1409063722302965</v>
+        <v>0.1477331652896266</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.001715538493413819</v>
+        <v>-0.001949509654181599</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1516746976450344</v>
+        <v>0.1461083993263828</v>
       </c>
       <c r="K266" t="n">
-        <v>0.144675616445842</v>
+        <v>0.1449634932615969</v>
       </c>
       <c r="L266" t="n">
-        <v>-0.001322849547896585</v>
+        <v>-0.001907310239408635</v>
       </c>
       <c r="M266" t="n">
-        <v>0.3256837249856231</v>
+        <v>0.3328007207446837</v>
       </c>
       <c r="N266" t="n">
-        <v>0.1451755996736817</v>
+        <v>0.1446071201011082</v>
       </c>
       <c r="O266" t="n">
-        <v>-0.001651331222779987</v>
+        <v>-0.00192352731896433</v>
       </c>
       <c r="P266" t="n">
-        <v>0.5152015547825149</v>
+        <v>0.5003453013009811</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.1451366627919261</v>
+        <v>0.1448319026346235</v>
       </c>
       <c r="R266" t="n">
-        <v>-0.001941307241249199</v>
+        <v>-0.001282823849581862</v>
       </c>
     </row>
     <row r="267">
       <c r="F267" t="n">
-        <v>0.0676472042567168</v>
+        <v>0.06848623748757694</v>
       </c>
       <c r="G267" t="n">
-        <v>0.1416848604746627</v>
+        <v>0.1485493706227185</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.001715538493413819</v>
+        <v>-0.001950094565568992</v>
       </c>
       <c r="J267" t="n">
-        <v>0.1518914235801619</v>
+        <v>0.1462235950310227</v>
       </c>
       <c r="K267" t="n">
-        <v>0.1454749292438853</v>
+        <v>0.1457643965392852</v>
       </c>
       <c r="L267" t="n">
-        <v>-0.001322849547896585</v>
+        <v>-0.001907310239408635</v>
       </c>
       <c r="M267" t="n">
-        <v>0.3250982531781459</v>
+        <v>0.3326424324061535</v>
       </c>
       <c r="N267" t="n">
-        <v>0.1459776748100003</v>
+        <v>0.1454060544663077</v>
       </c>
       <c r="O267" t="n">
-        <v>-0.001651331222779987</v>
+        <v>-0.001818699611728017</v>
       </c>
       <c r="P267" t="n">
-        <v>0.5146834063819485</v>
+        <v>0.4993469338617841</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.1459385228073511</v>
+        <v>0.1456320788922734</v>
       </c>
       <c r="R267" t="n">
-        <v>-0.001941307241249199</v>
+        <v>-0.001198950599845341</v>
       </c>
     </row>
     <row r="268">
       <c r="F268" t="n">
-        <v>0.06748646005438773</v>
+        <v>0.06846268295766049</v>
       </c>
       <c r="G268" t="n">
-        <v>0.142463348719029</v>
+        <v>0.1493655759558103</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.001563757605482554</v>
+        <v>-0.001848919438790475</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1521298257898623</v>
+        <v>0.146320721814891</v>
       </c>
       <c r="K268" t="n">
-        <v>0.1462742420419287</v>
+        <v>0.1465652998169736</v>
       </c>
       <c r="L268" t="n">
-        <v>-0.001244655516482849</v>
+        <v>-0.001790475247847514</v>
       </c>
       <c r="M268" t="n">
-        <v>0.324741715428553</v>
+        <v>0.3327261318727347</v>
       </c>
       <c r="N268" t="n">
-        <v>0.146779749946319</v>
+        <v>0.1462049888315072</v>
       </c>
       <c r="O268" t="n">
-        <v>-0.00150295511247256</v>
+        <v>-0.001818699611728017</v>
       </c>
       <c r="P268" t="n">
-        <v>0.5142271014156542</v>
+        <v>0.4985608069803436</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.1467403828227761</v>
+        <v>0.1464322551499232</v>
       </c>
       <c r="R268" t="n">
-        <v>-0.001847309412564824</v>
+        <v>-0.001198950599845341</v>
       </c>
     </row>
     <row r="269">
       <c r="F269" t="n">
-        <v>0.06732923202882946</v>
+        <v>0.06840864772473931</v>
       </c>
       <c r="G269" t="n">
-        <v>0.1432418369633953</v>
+        <v>0.1501817812889022</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.001563757605482554</v>
+        <v>-0.001848364873871822</v>
       </c>
       <c r="J269" t="n">
-        <v>0.1524304376719544</v>
+        <v>0.1463800158171906</v>
       </c>
       <c r="K269" t="n">
-        <v>0.147073554839972</v>
+        <v>0.147366203094662</v>
       </c>
       <c r="L269" t="n">
-        <v>-0.001244655516482849</v>
+        <v>-0.001790475247847514</v>
       </c>
       <c r="M269" t="n">
-        <v>0.3242345124602546</v>
+        <v>0.3326174168299518</v>
       </c>
       <c r="N269" t="n">
-        <v>0.1475818250826377</v>
+        <v>0.1470039231967067</v>
       </c>
       <c r="O269" t="n">
-        <v>-0.00150295511247256</v>
+        <v>-0.001818699611728017</v>
       </c>
       <c r="P269" t="n">
-        <v>0.5138325105796347</v>
+        <v>0.4975379351402599</v>
       </c>
       <c r="Q269" t="n">
-        <v>0.1475422428382011</v>
+        <v>0.1472324314075731</v>
       </c>
       <c r="R269" t="n">
-        <v>-0.001847309412564824</v>
+        <v>-0.001198950599845341</v>
       </c>
     </row>
     <row r="270">
       <c r="F270" t="n">
-        <v>0.06715726087317418</v>
+        <v>0.06836178023823371</v>
       </c>
       <c r="G270" t="n">
-        <v>0.1440203252077616</v>
+        <v>0.1509979866219941</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.001563757605482554</v>
+        <v>-0.001848734583817591</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1526313552779331</v>
+        <v>0.1464602564540116</v>
       </c>
       <c r="K270" t="n">
-        <v>0.1478728676380153</v>
+        <v>0.1481671063723504</v>
       </c>
       <c r="L270" t="n">
-        <v>-0.001244655516482849</v>
+        <v>-0.001790475247847514</v>
       </c>
       <c r="M270" t="n">
-        <v>0.3236722938086984</v>
+        <v>0.3327507059067269</v>
       </c>
       <c r="N270" t="n">
-        <v>0.1483839002189564</v>
+        <v>0.1478028575619062</v>
       </c>
       <c r="O270" t="n">
-        <v>-0.00150295511247256</v>
+        <v>-0.001818699611728017</v>
       </c>
       <c r="P270" t="n">
-        <v>0.5133468569363593</v>
+        <v>0.4967275087892146</v>
       </c>
       <c r="Q270" t="n">
-        <v>0.1483441028536261</v>
+        <v>0.148032607665223</v>
       </c>
       <c r="R270" t="n">
-        <v>-0.001847309412564824</v>
+        <v>-0.001198950599845341</v>
       </c>
     </row>
     <row r="271">
       <c r="F271" t="n">
-        <v>0.06698024298968568</v>
+        <v>0.06830321110336726</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1447988134521279</v>
+        <v>0.1518141919550859</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.001422985181903963</v>
+        <v>-0.001848919438790475</v>
       </c>
       <c r="J271" t="n">
-        <v>0.1528742114657528</v>
+        <v>0.1465024061435657</v>
       </c>
       <c r="K271" t="n">
-        <v>0.1486721804360586</v>
+        <v>0.1489680096500388</v>
       </c>
       <c r="L271" t="n">
-        <v>-0.001244655516482849</v>
+        <v>-0.001659301383157658</v>
       </c>
       <c r="M271" t="n">
-        <v>0.3231029946526015</v>
+        <v>0.33269161910158</v>
       </c>
       <c r="N271" t="n">
-        <v>0.1491859753552751</v>
+        <v>0.1486017919271057</v>
       </c>
       <c r="O271" t="n">
-        <v>-0.00150295511247256</v>
+        <v>-0.001818699611728017</v>
       </c>
       <c r="P271" t="n">
-        <v>0.5126940243234027</v>
+        <v>0.4956816799613343</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.1491459628690511</v>
+        <v>0.1488327839228728</v>
       </c>
       <c r="R271" t="n">
-        <v>-0.001847309412564824</v>
+        <v>-0.001198950599845341</v>
       </c>
     </row>
     <row r="272">
       <c r="F272" t="n">
-        <v>0.06683558160074325</v>
+        <v>0.06827052312235679</v>
       </c>
       <c r="G272" t="n">
-        <v>0.1455773016964941</v>
+        <v>0.1526303972881778</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.001422985181903963</v>
+        <v>-0.001737571681683683</v>
       </c>
       <c r="J272" t="n">
-        <v>0.1531185121215443</v>
+        <v>0.14664393355856</v>
       </c>
       <c r="K272" t="n">
-        <v>0.1494714932341019</v>
+        <v>0.1497689129277271</v>
       </c>
       <c r="L272" t="n">
-        <v>-0.001182007959394518</v>
+        <v>-0.001659301383157658</v>
       </c>
       <c r="M272" t="n">
-        <v>0.3225270853047918</v>
+        <v>0.3326332381409787</v>
       </c>
       <c r="N272" t="n">
-        <v>0.1499880504915937</v>
+        <v>0.1494007262923052</v>
       </c>
       <c r="O272" t="n">
-        <v>-0.001347384125358058</v>
+        <v>-0.001702668753790601</v>
       </c>
       <c r="P272" t="n">
-        <v>0.5121792008889862</v>
+        <v>0.4947740252907197</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.1499478228844761</v>
+        <v>0.1496329601805227</v>
       </c>
       <c r="R272" t="n">
-        <v>-0.001740882577278069</v>
+        <v>-0.001125885032550145</v>
       </c>
     </row>
     <row r="273">
       <c r="F273" t="n">
-        <v>0.06664951716230472</v>
+        <v>0.0682166442356725</v>
       </c>
       <c r="G273" t="n">
-        <v>0.1463557899408604</v>
+        <v>0.1534466026212697</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.001422985181903963</v>
+        <v>-0.001737571681683683</v>
       </c>
       <c r="J273" t="n">
-        <v>0.1534049139715993</v>
+        <v>0.1466881702396037</v>
       </c>
       <c r="K273" t="n">
-        <v>0.1502708060321453</v>
+        <v>0.1505698162054155</v>
       </c>
       <c r="L273" t="n">
-        <v>-0.001182007959394518</v>
+        <v>-0.001659301383157658</v>
       </c>
       <c r="M273" t="n">
-        <v>0.3219922398351933</v>
+        <v>0.3326238408558531</v>
       </c>
       <c r="N273" t="n">
-        <v>0.1507901256279124</v>
+        <v>0.1501996606575047</v>
       </c>
       <c r="O273" t="n">
-        <v>-0.001347384125358058</v>
+        <v>-0.001702668753790601</v>
       </c>
       <c r="P273" t="n">
-        <v>0.5117259203373173</v>
+        <v>0.4937812495528934</v>
       </c>
       <c r="Q273" t="n">
-        <v>0.1507496828999011</v>
+        <v>0.1504331364381725</v>
       </c>
       <c r="R273" t="n">
-        <v>-0.001740882577278069</v>
+        <v>-0.001125885032550145</v>
       </c>
     </row>
     <row r="274">
       <c r="F274" t="n">
-        <v>0.06646874363300943</v>
+        <v>0.06816034796370581</v>
       </c>
       <c r="G274" t="n">
-        <v>0.1471342781852267</v>
+        <v>0.1542628079543615</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.001422985181903963</v>
+        <v>-0.001737745438851851</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1535910212110759</v>
+        <v>0.1467529488844337</v>
       </c>
       <c r="K274" t="n">
-        <v>0.1510701188301886</v>
+        <v>0.1513707194831039</v>
       </c>
       <c r="L274" t="n">
-        <v>-0.001182007959394518</v>
+        <v>-0.001659301383157658</v>
       </c>
       <c r="M274" t="n">
-        <v>0.32149876597873</v>
+        <v>0.3327117016059555</v>
       </c>
       <c r="N274" t="n">
-        <v>0.1515922007642311</v>
+        <v>0.1509985950227042</v>
       </c>
       <c r="O274" t="n">
-        <v>-0.001347384125358058</v>
+        <v>-0.001702668753790601</v>
       </c>
       <c r="P274" t="n">
-        <v>0.5112579164531407</v>
+        <v>0.4927040373936364</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.1515515429153261</v>
+        <v>0.1512333126958224</v>
       </c>
       <c r="R274" t="n">
-        <v>-0.001740882577278069</v>
+        <v>-0.001125885032550145</v>
       </c>
     </row>
     <row r="275">
       <c r="F275" t="n">
-        <v>0.06626596759200236</v>
+        <v>0.06809220822666581</v>
       </c>
       <c r="G275" t="n">
-        <v>0.147912766429593</v>
+        <v>0.1550790132874534</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.001422985181903963</v>
+        <v>-0.001618991010676343</v>
       </c>
       <c r="J275" t="n">
-        <v>0.153839533685452</v>
+        <v>0.1468972469203711</v>
       </c>
       <c r="K275" t="n">
-        <v>0.1518694316282319</v>
+        <v>0.1521716227607923</v>
       </c>
       <c r="L275" t="n">
-        <v>-0.001182007959394518</v>
+        <v>-0.001659301383157658</v>
       </c>
       <c r="M275" t="n">
-        <v>0.3210469680966621</v>
+        <v>0.3327037883970469</v>
       </c>
       <c r="N275" t="n">
-        <v>0.1523942759005498</v>
+        <v>0.1517975293879037</v>
       </c>
       <c r="O275" t="n">
-        <v>-0.001347384125358058</v>
+        <v>-0.001575649243826131</v>
       </c>
       <c r="P275" t="n">
-        <v>0.5106991377238307</v>
+        <v>0.4917655646565713</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.1523534029307511</v>
+        <v>0.1520334889534722</v>
       </c>
       <c r="R275" t="n">
-        <v>-0.001740882577278069</v>
+        <v>-0.001125885032550145</v>
       </c>
     </row>
     <row r="276">
       <c r="F276" t="n">
-        <v>0.06607841160593339</v>
+        <v>0.06804971868360478</v>
       </c>
       <c r="G276" t="n">
-        <v>0.1486912546739592</v>
+        <v>0.1558952186205453</v>
       </c>
       <c r="H276" t="n">
-        <v>-0.001279994404347431</v>
+        <v>-0.001618991010676343</v>
       </c>
       <c r="J276" t="n">
-        <v>0.1540894260020698</v>
+        <v>0.1469241184400175</v>
       </c>
       <c r="K276" t="n">
-        <v>0.1526687444262753</v>
+        <v>0.1529725260384807</v>
       </c>
       <c r="L276" t="n">
-        <v>-0.001136672681625451</v>
+        <v>-0.001514084937696261</v>
       </c>
       <c r="M276" t="n">
-        <v>0.3204019466714547</v>
+        <v>0.3326483816477816</v>
       </c>
       <c r="N276" t="n">
-        <v>0.1531963510368685</v>
+        <v>0.1525964637531032</v>
       </c>
       <c r="O276" t="n">
-        <v>-0.001185936249614164</v>
+        <v>-0.001575649243826131</v>
       </c>
       <c r="P276" t="n">
-        <v>0.5099737619463387</v>
+        <v>0.4906693697896448</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.1531552629461761</v>
+        <v>0.1528336652111221</v>
       </c>
       <c r="R276" t="n">
-        <v>-0.001622014025843561</v>
+        <v>-0.001065453394126952</v>
       </c>
     </row>
     <row r="277">
       <c r="F277" t="n">
-        <v>0.06591549997440063</v>
+        <v>0.0679765457654163</v>
       </c>
       <c r="G277" t="n">
-        <v>0.1494697429183255</v>
+        <v>0.1567114239536371</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.001279994404347431</v>
+        <v>-0.001618829143948621</v>
       </c>
       <c r="J277" t="n">
-        <v>0.154381554264239</v>
+        <v>0.1470500365953323</v>
       </c>
       <c r="K277" t="n">
-        <v>0.1534680572243186</v>
+        <v>0.1537734293161691</v>
       </c>
       <c r="L277" t="n">
-        <v>-0.001136672681625451</v>
+        <v>-0.001514084937696261</v>
       </c>
       <c r="M277" t="n">
-        <v>0.3198467415742444</v>
+        <v>0.3325937583056356</v>
       </c>
       <c r="N277" t="n">
-        <v>0.1539984261731872</v>
+        <v>0.1533953981183027</v>
       </c>
       <c r="O277" t="n">
-        <v>-0.001185936249614164</v>
+        <v>-0.001575649243826131</v>
       </c>
       <c r="P277" t="n">
-        <v>0.5094618423612602</v>
+        <v>0.4896383248378334</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.1539571229616011</v>
+        <v>0.1536338414687719</v>
       </c>
       <c r="R277" t="n">
-        <v>-0.001622014025843561</v>
+        <v>-0.001065453394126952</v>
       </c>
     </row>
     <row r="278">
       <c r="F278" t="n">
-        <v>0.06570425915781063</v>
+        <v>0.06791017088162489</v>
       </c>
       <c r="G278" t="n">
-        <v>0.1502482311626918</v>
+        <v>0.1575276292867289</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.001279994404347431</v>
+        <v>-0.001618991010676343</v>
       </c>
       <c r="J278" t="n">
-        <v>0.1546342084301582</v>
+        <v>0.1471567560207774</v>
       </c>
       <c r="K278" t="n">
-        <v>0.1542673700223619</v>
+        <v>0.1545743325938574</v>
       </c>
       <c r="L278" t="n">
-        <v>-0.001136672681625451</v>
+        <v>-0.001514084937696261</v>
       </c>
       <c r="M278" t="n">
-        <v>0.3192876304541349</v>
+        <v>0.3326847102517483</v>
       </c>
       <c r="N278" t="n">
-        <v>0.1548005013095058</v>
+        <v>0.1541943324835021</v>
       </c>
       <c r="O278" t="n">
-        <v>-0.001185936249614164</v>
+        <v>-0.001575649243826131</v>
       </c>
       <c r="P278" t="n">
-        <v>0.5087834613640907</v>
+        <v>0.4885248024693843</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.1547589829770261</v>
+        <v>0.1544340177264218</v>
       </c>
       <c r="R278" t="n">
-        <v>-0.001622014025843561</v>
+        <v>-0.001065453394126952</v>
       </c>
     </row>
     <row r="279">
       <c r="F279" t="n">
-        <v>0.0655274927704378</v>
+        <v>0.06783181494381038</v>
       </c>
       <c r="G279" t="n">
-        <v>0.1510267194070581</v>
+        <v>0.1583438346198208</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.001279994404347431</v>
+        <v>-0.001618829143948621</v>
       </c>
       <c r="J279" t="n">
-        <v>0.1548677075729222</v>
+        <v>0.1472441457260632</v>
       </c>
       <c r="K279" t="n">
-        <v>0.1550666828204052</v>
+        <v>0.1553752358715458</v>
       </c>
       <c r="L279" t="n">
-        <v>-0.001110415488169509</v>
+        <v>-0.001514084937696261</v>
       </c>
       <c r="M279" t="n">
-        <v>0.318818826532041</v>
+        <v>0.3325351818738808</v>
       </c>
       <c r="N279" t="n">
-        <v>0.1556025764458245</v>
+        <v>0.1549932668487017</v>
       </c>
       <c r="O279" t="n">
-        <v>-0.001185936249614164</v>
+        <v>-0.001575649243826131</v>
       </c>
       <c r="P279" t="n">
-        <v>0.5081664422982517</v>
+        <v>0.4875507469976516</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.1555608429924512</v>
+        <v>0.1552341939840717</v>
       </c>
       <c r="R279" t="n">
-        <v>-0.001622014025843561</v>
+        <v>-0.001065453394126952</v>
       </c>
     </row>
     <row r="280">
       <c r="F280" t="n">
-        <v>0.06533069375819051</v>
+        <v>0.06776951444508265</v>
       </c>
       <c r="G280" t="n">
-        <v>0.1518052076514244</v>
+        <v>0.1591600399529127</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.001140225048460976</v>
+        <v>-0.001494634136857937</v>
       </c>
       <c r="J280" t="n">
-        <v>0.155164008179616</v>
+        <v>0.147312074475954</v>
       </c>
       <c r="K280" t="n">
-        <v>0.1558659956184485</v>
+        <v>0.1561761391492342</v>
       </c>
       <c r="L280" t="n">
-        <v>-0.001110415488169509</v>
+        <v>-0.001356316643810918</v>
       </c>
       <c r="M280" t="n">
-        <v>0.3181595629636654</v>
+        <v>0.3325795167791812</v>
       </c>
       <c r="N280" t="n">
-        <v>0.1564046515821432</v>
+        <v>0.1557922012139011</v>
       </c>
       <c r="O280" t="n">
-        <v>-0.001019929473418562</v>
+        <v>-0.001437995035803961</v>
       </c>
       <c r="P280" t="n">
-        <v>0.5076863611164855</v>
+        <v>0.4865686299890811</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.1563627030078762</v>
+        <v>0.1560343702417215</v>
       </c>
       <c r="R280" t="n">
-        <v>-0.001490691048715924</v>
+        <v>-0.001018307497983578</v>
       </c>
     </row>
     <row r="281">
       <c r="F281" t="n">
-        <v>0.06512343870246315</v>
+        <v>0.06770449561074611</v>
       </c>
       <c r="G281" t="n">
-        <v>0.1525836958957906</v>
+        <v>0.1599762452860045</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.001140225048460976</v>
+        <v>-0.001494484703330957</v>
       </c>
       <c r="J281" t="n">
-        <v>0.155379558963451</v>
+        <v>0.1473604108952816</v>
       </c>
       <c r="K281" t="n">
-        <v>0.1566653084164919</v>
+        <v>0.1569770424269226</v>
       </c>
       <c r="L281" t="n">
-        <v>-0.001110415488169509</v>
+        <v>-0.001356316643810918</v>
       </c>
       <c r="M281" t="n">
-        <v>0.3176850613111297</v>
+        <v>0.3326246956003718</v>
       </c>
       <c r="N281" t="n">
-        <v>0.1572067267184619</v>
+        <v>0.1565911355791006</v>
       </c>
       <c r="O281" t="n">
-        <v>-0.001019929473418562</v>
+        <v>-0.001437995035803961</v>
       </c>
       <c r="P281" t="n">
-        <v>0.5068887044785951</v>
+        <v>0.4852846927471042</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.1571645630233012</v>
+        <v>0.1568345464993713</v>
       </c>
       <c r="R281" t="n">
-        <v>-0.001490691048715924</v>
+        <v>-0.001018307497983578</v>
       </c>
     </row>
     <row r="282">
       <c r="F282" t="n">
-        <v>0.06490615855363754</v>
+        <v>0.06762737989198785</v>
       </c>
       <c r="G282" t="n">
-        <v>0.1533621841401569</v>
+        <v>0.1607924506190964</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.001140225048460976</v>
+        <v>-0.001494185836276996</v>
       </c>
       <c r="J282" t="n">
-        <v>0.1556374175926441</v>
+        <v>0.1474680107782695</v>
       </c>
       <c r="K282" t="n">
-        <v>0.1574646212145352</v>
+        <v>0.157777945704611</v>
       </c>
       <c r="L282" t="n">
-        <v>-0.001110415488169509</v>
+        <v>-0.001356316643810918</v>
       </c>
       <c r="M282" t="n">
-        <v>0.3170681919859249</v>
+        <v>0.332622476831543</v>
       </c>
       <c r="N282" t="n">
-        <v>0.1580088018547806</v>
+        <v>0.1573900699443001</v>
       </c>
       <c r="O282" t="n">
-        <v>-0.001019929473418562</v>
+        <v>-0.001437995035803961</v>
       </c>
       <c r="P282" t="n">
-        <v>0.506379246469532</v>
+        <v>0.484214605878256</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.1579664230387262</v>
+        <v>0.1576347227570212</v>
       </c>
       <c r="R282" t="n">
-        <v>-0.001490691048715924</v>
+        <v>-0.001018307497983578</v>
       </c>
     </row>
     <row r="283">
       <c r="F283" t="n">
-        <v>0.06471547463520803</v>
+        <v>0.06752882067786137</v>
       </c>
       <c r="G283" t="n">
-        <v>0.1541406723845232</v>
+        <v>0.1616086559521882</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.001035516477347942</v>
+        <v>-0.001397672525596652</v>
       </c>
       <c r="J283" t="n">
-        <v>0.1558965433485456</v>
+        <v>0.1475558258326557</v>
       </c>
       <c r="K283" t="n">
-        <v>0.1582639340125785</v>
+        <v>0.1585788489822993</v>
       </c>
       <c r="L283" t="n">
-        <v>-0.001104304827974659</v>
+        <v>-0.001230665067736484</v>
       </c>
       <c r="M283" t="n">
-        <v>0.3164498716715133</v>
+        <v>0.3325728767977735</v>
       </c>
       <c r="N283" t="n">
-        <v>0.1588108769910993</v>
+        <v>0.1581890043094996</v>
       </c>
       <c r="O283" t="n">
-        <v>-0.0008932254651135628</v>
+        <v>-0.00132809959590249</v>
       </c>
       <c r="P283" t="n">
-        <v>0.5055527508902358</v>
+        <v>0.4832111508891576</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.1587682830541512</v>
+        <v>0.1584348990146711</v>
       </c>
       <c r="R283" t="n">
-        <v>-0.001384017953423194</v>
+        <v>-0.0009919670052984284</v>
       </c>
     </row>
     <row r="284">
       <c r="F284" t="n">
-        <v>0.06451546827520749</v>
+        <v>0.06743678837262929</v>
       </c>
       <c r="G284" t="n">
-        <v>0.1549191606288895</v>
+        <v>0.1624248612852801</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.001035516477347942</v>
+        <v>-0.001397672525596652</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1561981514932443</v>
+        <v>0.1476632534091721</v>
       </c>
       <c r="K284" t="n">
-        <v>0.1590632468106218</v>
+        <v>0.1593797522599877</v>
       </c>
       <c r="L284" t="n">
-        <v>-0.001104304827974659</v>
+        <v>-0.001230665067736484</v>
       </c>
       <c r="M284" t="n">
-        <v>0.3159703321421996</v>
+        <v>0.3325724257806053</v>
       </c>
       <c r="N284" t="n">
-        <v>0.159612952127418</v>
+        <v>0.1589879386746991</v>
       </c>
       <c r="O284" t="n">
-        <v>-0.0008932254651135628</v>
+        <v>-0.00132809959590249</v>
       </c>
       <c r="P284" t="n">
-        <v>0.5048629621135182</v>
+        <v>0.4820547512297894</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.1595701430695762</v>
+        <v>0.1592350752723209</v>
       </c>
       <c r="R284" t="n">
-        <v>-0.001384017953423194</v>
+        <v>-0.0009919670052984284</v>
       </c>
     </row>
   </sheetData>

--- a/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1066.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1066.xlsx
@@ -7564,7 +7564,7 @@
         <v>0.09000000000000002</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0007251043425383169</v>
+        <v>0.0008090637927269641</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0.15</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.0008264630140759309</v>
+        <v>0.0007535398069515843</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -7591,19 +7591,19 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03554783686976567</v>
+        <v>0.03551860259562882</v>
       </c>
       <c r="G87" t="n">
-        <v>0.00163241066618372</v>
+        <v>0.001600601073282627</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.05606847505490191</v>
+        <v>0.0564550946914059</v>
       </c>
       <c r="K87" t="n">
-        <v>0.001601806555376761</v>
+        <v>0.001614075969781468</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -7612,7 +7612,7 @@
         <v>0.1666194517938904</v>
       </c>
       <c r="N87" t="n">
-        <v>0.001805303844382008</v>
+        <v>0.002014339026363083</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -7621,7 +7621,7 @@
         <v>0.2607224551298897</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.001931866937483468</v>
+        <v>0.001761408090058456</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -7643,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03738841467109505</v>
+        <v>0.03741157931458866</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002448615999275579</v>
+        <v>0.00240090160992394</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.00288522947762239</v>
+        <v>-0.002669509954194329</v>
       </c>
       <c r="J88" t="n">
         <v>0.07251644845789101</v>
@@ -7658,25 +7658,25 @@
         <v>0.002498551190971445</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.002537173119229391</v>
+        <v>-0.001995705728196734</v>
       </c>
       <c r="M88" t="n">
-        <v>0.172491366951991</v>
+        <v>0.1718894242372715</v>
       </c>
       <c r="N88" t="n">
-        <v>0.002396803095598479</v>
+        <v>0.00243130954989431</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.003085154574104032</v>
+        <v>-0.004864563902792525</v>
       </c>
       <c r="P88" t="n">
-        <v>0.2699461101742072</v>
+        <v>0.2712581409939459</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.002400528772949561</v>
+        <v>0.002381372610997204</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.004320428002156399</v>
+        <v>-0.0009652504973378658</v>
       </c>
     </row>
     <row r="89">
@@ -7697,40 +7697,40 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03906893212409041</v>
+        <v>0.03913932305876108</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003264821332367439</v>
+        <v>0.003201202146565254</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.002886095133031218</v>
+        <v>-0.002669243056578433</v>
       </c>
       <c r="J89" t="n">
-        <v>0.07573246604803859</v>
+        <v>0.07568000561275266</v>
       </c>
       <c r="K89" t="n">
-        <v>0.003203613110753522</v>
+        <v>0.003228151939562936</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.002537173119229391</v>
+        <v>-0.001995705728196734</v>
       </c>
       <c r="M89" t="n">
-        <v>0.1796775633939948</v>
+        <v>0.1816106840486014</v>
       </c>
       <c r="N89" t="n">
-        <v>0.003195737460797972</v>
+        <v>0.003241746066525746</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.003085154574104032</v>
+        <v>-0.004864563902792525</v>
       </c>
       <c r="P89" t="n">
-        <v>0.2847718268499886</v>
+        <v>0.2840674695707887</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.003200705030599415</v>
+        <v>0.003175163481329605</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.004320428002156399</v>
+        <v>-0.0009652504973378658</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
@@ -7743,40 +7743,40 @@
         <v/>
       </c>
       <c r="F90" t="n">
-        <v>0.04061677408276959</v>
+        <v>0.04070417423472725</v>
       </c>
       <c r="G90" t="n">
-        <v>0.004081026665459299</v>
+        <v>0.004001502683206567</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.00288522947762239</v>
+        <v>-0.002668976158962537</v>
       </c>
       <c r="J90" t="n">
-        <v>0.07916673141465634</v>
+        <v>0.07889806045282367</v>
       </c>
       <c r="K90" t="n">
-        <v>0.004004516388441902</v>
+        <v>0.00403518992445367</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.002537173119229391</v>
+        <v>-0.001995705728196734</v>
       </c>
       <c r="M90" t="n">
-        <v>0.1864147383437492</v>
+        <v>0.1904868498306742</v>
       </c>
       <c r="N90" t="n">
-        <v>0.003994671825997465</v>
+        <v>0.004052182583157184</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.003085154574104032</v>
+        <v>-0.004864563902792525</v>
       </c>
       <c r="P90" t="n">
-        <v>0.298478594159175</v>
+        <v>0.2957470381073425</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.004000881288249269</v>
+        <v>0.003968954351662007</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.004320428002156399</v>
+        <v>-0.0009652504973378658</v>
       </c>
     </row>
     <row r="91">
@@ -7786,40 +7786,40 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.04202042444038744</v>
+        <v>0.04210791005167341</v>
       </c>
       <c r="G91" t="n">
-        <v>0.004897231998551159</v>
+        <v>0.004801803219847881</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.002885518029425333</v>
+        <v>-0.002669243056578433</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0822869401038991</v>
+        <v>0.08188657428069869</v>
       </c>
       <c r="K91" t="n">
-        <v>0.004805419666130283</v>
+        <v>0.004842227909344404</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.002537173119229391</v>
+        <v>-0.001995705728196734</v>
       </c>
       <c r="M91" t="n">
-        <v>0.1924381866651492</v>
+        <v>0.1986503557761642</v>
       </c>
       <c r="N91" t="n">
-        <v>0.004793606191196958</v>
+        <v>0.00486261909978862</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.003085154574104032</v>
+        <v>-0.004864563902792525</v>
       </c>
       <c r="P91" t="n">
-        <v>0.311174122363715</v>
+        <v>0.3063340812132076</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.004801057545899123</v>
+        <v>0.004762745221994408</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.004320428002156399</v>
+        <v>-0.0009652504973378658</v>
       </c>
     </row>
     <row r="92">
@@ -7831,40 +7831,40 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04328739568203566</v>
+        <v>0.04340028518383487</v>
       </c>
       <c r="G92" t="n">
-        <v>0.005713437331643019</v>
+        <v>0.005602103756489195</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.002909015958781929</v>
+        <v>-0.002450826185566459</v>
       </c>
       <c r="J92" t="n">
-        <v>0.08518384356566415</v>
+        <v>0.08463119772526502</v>
       </c>
       <c r="K92" t="n">
-        <v>0.005606322943818663</v>
+        <v>0.005649265894235138</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.002715519950222874</v>
+        <v>-0.00198044674607765</v>
       </c>
       <c r="M92" t="n">
-        <v>0.1980879941239767</v>
+        <v>0.20624390679479</v>
       </c>
       <c r="N92" t="n">
-        <v>0.005592540556396451</v>
+        <v>0.005673055616420057</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.003660837303171824</v>
+        <v>-0.004830919546074376</v>
       </c>
       <c r="P92" t="n">
-        <v>0.32268440035388</v>
+        <v>0.316207228924007</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.005601233803548977</v>
+        <v>0.005556536092326809</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.0039822531054266</v>
+        <v>-0.001323404994659754</v>
       </c>
     </row>
     <row r="93">
@@ -7877,154 +7877,154 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>0.0444533589130976</v>
+        <v>0.0445355543759271</v>
       </c>
       <c r="G93" t="n">
-        <v>0.006529642664734879</v>
+        <v>0.006402404293130508</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.002909597761973685</v>
+        <v>-0.002451071268185015</v>
       </c>
       <c r="J93" t="n">
-        <v>0.08785865606262862</v>
+        <v>0.08715656532549308</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006407226221507044</v>
+        <v>0.006456303879125872</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.002715519950222874</v>
+        <v>-0.00198044674607765</v>
       </c>
       <c r="M93" t="n">
-        <v>0.203017519537292</v>
+        <v>0.2130190918719343</v>
       </c>
       <c r="N93" t="n">
-        <v>0.006391474921595944</v>
+        <v>0.006483492133051493</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.003660837303171824</v>
+        <v>-0.004830919546074376</v>
       </c>
       <c r="P93" t="n">
-        <v>0.3334595246145374</v>
+        <v>0.3253655955989225</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.00640141006119883</v>
+        <v>0.006350326962659211</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.0039822531054266</v>
+        <v>-0.001323404994659754</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="n">
-        <v>0.04547734620504043</v>
+        <v>0.04555710524760448</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007345847997826738</v>
+        <v>0.007202704829771821</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.002909306860377807</v>
+        <v>-0.002450581102947902</v>
       </c>
       <c r="J94" t="n">
-        <v>0.09029730888913996</v>
+        <v>0.08948836866382197</v>
       </c>
       <c r="K94" t="n">
-        <v>0.007208129499195423</v>
+        <v>0.007263341864016606</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.002715519950222874</v>
+        <v>-0.00198044674607765</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2076811139226054</v>
+        <v>0.2194080414740405</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007190409286795436</v>
+        <v>0.00729392864968293</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.003660837303171824</v>
+        <v>-0.004830919546074376</v>
       </c>
       <c r="P94" t="n">
-        <v>0.3431481389478175</v>
+        <v>0.3335700975282125</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.007201586318848684</v>
+        <v>0.007144117832991612</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.0039822531054266</v>
+        <v>-0.001323404994659754</v>
       </c>
     </row>
     <row r="95">
       <c r="F95" t="n">
-        <v>0.04641663226757772</v>
+        <v>0.04649598635261051</v>
       </c>
       <c r="G95" t="n">
-        <v>0.008162053330918599</v>
+        <v>0.008003005366413135</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.002909306860377807</v>
+        <v>-0.002450826185566459</v>
       </c>
       <c r="J95" t="n">
-        <v>0.09255508758430801</v>
+        <v>0.09162482152098907</v>
       </c>
       <c r="K95" t="n">
-        <v>0.008009032776883803</v>
+        <v>0.008070379848907339</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.002715519950222874</v>
+        <v>-0.00198044674607765</v>
       </c>
       <c r="M95" t="n">
-        <v>0.2117587192278823</v>
+        <v>0.225044647351585</v>
       </c>
       <c r="N95" t="n">
-        <v>0.00798934365199493</v>
+        <v>0.008104365166314367</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.003660837303171824</v>
+        <v>-0.004830919546074376</v>
       </c>
       <c r="P95" t="n">
-        <v>0.3521545431646812</v>
+        <v>0.3412159219515981</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.008001762576498537</v>
+        <v>0.007937908703324014</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.0039822531054266</v>
+        <v>-0.001940190781020478</v>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="n">
-        <v>0.04726535974707267</v>
+        <v>0.04731109954147973</v>
       </c>
       <c r="G96" t="n">
-        <v>0.008978258664010459</v>
+        <v>0.008803305903054448</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.002921836064222169</v>
+        <v>-0.002119733543744486</v>
       </c>
       <c r="J96" t="n">
-        <v>0.09457419265876661</v>
+        <v>0.09357760079750425</v>
       </c>
       <c r="K96" t="n">
-        <v>0.008809936054572184</v>
+        <v>0.008877417833798073</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.002822742286981898</v>
+        <v>-0.001951017151833536</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2154255447007204</v>
+        <v>0.2302604812039238</v>
       </c>
       <c r="N96" t="n">
-        <v>0.008788278017194423</v>
+        <v>0.008914801682945804</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.004091107957605092</v>
+        <v>-0.004767410650606136</v>
       </c>
       <c r="P96" t="n">
-        <v>0.3602327972807939</v>
+        <v>0.3480582160610911</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.008801938834148391</v>
+        <v>0.008731699573656415</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.003397700618166165</v>
+        <v>-0.001940190781020478</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
@@ -8038,7160 +8038,7160 @@
         <v/>
       </c>
       <c r="F97" t="n">
-        <v>0.04799478125011318</v>
+        <v>0.04802549839404538</v>
       </c>
       <c r="G97" t="n">
-        <v>0.009794463997102317</v>
+        <v>0.009603606439695761</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.002921836064222169</v>
+        <v>-0.002119945538298315</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0964393146337225</v>
+        <v>0.09537292068594617</v>
       </c>
       <c r="K97" t="n">
-        <v>0.009610839332260566</v>
+        <v>0.009684455818688808</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.002822742286981898</v>
+        <v>-0.001951017151833536</v>
       </c>
       <c r="M97" t="n">
-        <v>0.2188261906488486</v>
+        <v>0.2349417431926643</v>
       </c>
       <c r="N97" t="n">
-        <v>0.009587212382393916</v>
+        <v>0.009725238199577239</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.004091107957605092</v>
+        <v>-0.004767410650606136</v>
       </c>
       <c r="P97" t="n">
-        <v>0.3674913967391527</v>
+        <v>0.354140624195407</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.009602115091798246</v>
+        <v>0.009525490443988816</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.003397700618166165</v>
+        <v>-0.001940190781020478</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04867152054760406</v>
+        <v>0.0486629089203636</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01061066933019418</v>
+        <v>0.01040390697633707</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.002921251813859397</v>
+        <v>-0.002120157532852145</v>
       </c>
       <c r="J98" t="n">
-        <v>0.09812034872659338</v>
+        <v>0.09700824491973183</v>
       </c>
       <c r="K98" t="n">
-        <v>0.01041174260994895</v>
+        <v>0.01049149380357954</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.002822742286981898</v>
+        <v>-0.001951017151833536</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2217742620363112</v>
+        <v>0.2391226724885688</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01038614674759341</v>
+        <v>0.01053567471620868</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.004091107957605092</v>
+        <v>-0.004767410650606136</v>
       </c>
       <c r="P98" t="n">
-        <v>0.3741671792164732</v>
+        <v>0.3598124140292239</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.0104022913494481</v>
+        <v>0.01031928131432122</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.003397700618166165</v>
+        <v>-0.001940190781020478</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04925176064198851</v>
+        <v>0.04921756112526098</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01142687466328604</v>
+        <v>0.01120420751297839</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.002921543939040783</v>
+        <v>-0.002120369527405975</v>
       </c>
       <c r="J99" t="n">
-        <v>0.09963005254036793</v>
+        <v>0.09848035925077787</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01121264588763733</v>
+        <v>0.01129853178847028</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.002822742286981898</v>
+        <v>-0.001951017151833536</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2244882268435469</v>
+        <v>0.2428770695944147</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0111850811127929</v>
+        <v>0.01134611123284011</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.004091107957605092</v>
+        <v>-0.004767410650606136</v>
       </c>
       <c r="P99" t="n">
-        <v>0.379937524439861</v>
+        <v>0.3648188212994798</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01120246760709795</v>
+        <v>0.01111307218465362</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.003397700618166165</v>
+        <v>-0.001940190781020478</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04976558446690982</v>
+        <v>0.04972852874165598</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0122430799963779</v>
+        <v>0.0120045080496197</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.00292676990952997</v>
+        <v>-0.001754365324904771</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1009963744658857</v>
+        <v>0.09981548020727639</v>
       </c>
       <c r="K100" t="n">
-        <v>0.01201354916532571</v>
+        <v>0.01210556977336101</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.002886564310910751</v>
+        <v>-0.001912645492450973</v>
       </c>
       <c r="M100" t="n">
-        <v>0.22685274418279</v>
+        <v>0.2463992264947201</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0119840154779924</v>
+        <v>0.01215654774947155</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.004396270507583067</v>
+        <v>-0.004681117660649159</v>
       </c>
       <c r="P100" t="n">
-        <v>0.3853557134846234</v>
+        <v>0.3695143984361766</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01200264386474781</v>
+        <v>0.01190686305498602</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.002710236710400838</v>
+        <v>-0.00268586030570654</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.05024374191117627</v>
+        <v>0.05015971007314381</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01305928532946976</v>
+        <v>0.01280480858626102</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.002927355322053128</v>
+        <v>-0.001754365324904771</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1022630661548032</v>
+        <v>0.1010101860067503</v>
       </c>
       <c r="K101" t="n">
-        <v>0.01281445244301409</v>
+        <v>0.01291260775825174</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.002886564310910751</v>
+        <v>-0.001912645492450973</v>
       </c>
       <c r="M101" t="n">
-        <v>0.2289382011970343</v>
+        <v>0.2493691197125504</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01278294984319189</v>
+        <v>0.01296698426610299</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.004396270507583067</v>
+        <v>-0.004681117660649159</v>
       </c>
       <c r="P101" t="n">
-        <v>0.3900955202265388</v>
+        <v>0.3734519334490093</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01280282012239766</v>
+        <v>0.01270065392531842</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.002710236710400838</v>
+        <v>-0.00268586030570654</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05064871419183936</v>
+        <v>0.05054264781056825</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01387549066256162</v>
+        <v>0.01360510912290233</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.002927648028314707</v>
+        <v>-0.001754365324904771</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1034134287823783</v>
+        <v>0.1021366695659569</v>
       </c>
       <c r="K102" t="n">
-        <v>0.01361535572070247</v>
+        <v>0.01371964574314248</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.002886564310910751</v>
+        <v>-0.001912645492450973</v>
       </c>
       <c r="M102" t="n">
-        <v>0.2309303075398954</v>
+        <v>0.2520592663228384</v>
       </c>
       <c r="N102" t="n">
-        <v>0.01358188420839138</v>
+        <v>0.01377742078273442</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.004396270507583067</v>
+        <v>-0.004681117660649159</v>
       </c>
       <c r="P102" t="n">
-        <v>0.394528037398907</v>
+        <v>0.3773633114026769</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.01360299638004752</v>
+        <v>0.01349444479565082</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.002710236710400838</v>
+        <v>-0.00268586030570654</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.05100343127983811</v>
+        <v>0.05090938397945081</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01469169599565348</v>
+        <v>0.01440540965954364</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.002927062615791549</v>
+        <v>-0.001754365324904771</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1043989260992556</v>
+        <v>0.1031309852272382</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01441625899839085</v>
+        <v>0.01452668372803321</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.002886564310910751</v>
+        <v>-0.001912645492450973</v>
       </c>
       <c r="M103" t="n">
-        <v>0.2326732726950842</v>
+        <v>0.2545062209173418</v>
       </c>
       <c r="N103" t="n">
-        <v>0.01438081857359087</v>
+        <v>0.01458785729936586</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.004396270507583067</v>
+        <v>-0.004681117660649159</v>
       </c>
       <c r="P103" t="n">
-        <v>0.3983843084721063</v>
+        <v>0.3806090060836219</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.01440317263769737</v>
+        <v>0.01428823566598322</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.002710236710400838</v>
+        <v>-0.00268586030570654</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.05135429191231572</v>
+        <v>0.05121536768297991</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01550790132874534</v>
+        <v>0.01520571019618495</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.002932160381655422</v>
+        <v>-0.001430118004380596</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1053559477692242</v>
+        <v>0.1039888141673493</v>
       </c>
       <c r="K104" t="n">
-        <v>0.01521716227607923</v>
+        <v>0.01533372171292394</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.002931391208848822</v>
+        <v>-0.001874458459982933</v>
       </c>
       <c r="M104" t="n">
-        <v>0.2343152273433704</v>
+        <v>0.2567463610647907</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01517975293879037</v>
+        <v>0.0153982938159973</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.004593729517674858</v>
+        <v>-0.004576807228361593</v>
       </c>
       <c r="P104" t="n">
-        <v>0.401909146853221</v>
+        <v>0.3838021956250071</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.01520334889534722</v>
+        <v>0.01508202653631563</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.002066036610921829</v>
+        <v>-0.003432031784493915</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.05167091037458509</v>
+        <v>0.05152335098908303</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0163241066618372</v>
+        <v>0.01600601073282627</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.002932746872380825</v>
+        <v>-0.001429689054769204</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1062051313425609</v>
+        <v>0.104829474688413</v>
       </c>
       <c r="K105" t="n">
-        <v>0.01601806555376761</v>
+        <v>0.01614075969781468</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.002931391208848822</v>
+        <v>-0.001874458459982933</v>
       </c>
       <c r="M105" t="n">
-        <v>0.2358519300425084</v>
+        <v>0.2586933027014602</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01597868730398986</v>
+        <v>0.01620873033262873</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.004593729517674858</v>
+        <v>-0.004576807228361593</v>
       </c>
       <c r="P105" t="n">
-        <v>0.4050241118389818</v>
+        <v>0.3865486245696242</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.01600352515299707</v>
+        <v>0.01587581740664803</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.002066036610921829</v>
+        <v>-0.003432031784493915</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.05194558096527876</v>
+        <v>0.05181160938810439</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01714031199492906</v>
+        <v>0.01680631126946758</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.002932746872380825</v>
+        <v>-0.001429832037973002</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1070220449683709</v>
+        <v>0.1056189410860427</v>
       </c>
       <c r="K106" t="n">
-        <v>0.01681896883145599</v>
+        <v>0.01694779768270541</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.002931391208848822</v>
+        <v>-0.001874458459982933</v>
       </c>
       <c r="M106" t="n">
-        <v>0.2373947035746014</v>
+        <v>0.2605047095802644</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01677762166918935</v>
+        <v>0.01701916684926017</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.004593729517674858</v>
+        <v>-0.004576807228361593</v>
       </c>
       <c r="P106" t="n">
-        <v>0.4076483299272247</v>
+        <v>0.3892131186555612</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.01680370141064693</v>
+        <v>0.01666960827698043</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.002066036610921829</v>
+        <v>-0.003432031784493915</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05223277486536829</v>
+        <v>0.05210465854306266</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01795651732802092</v>
+        <v>0.0176066118061089</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.002932160381655422</v>
+        <v>-0.001430118004380596</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1077573055986641</v>
+        <v>0.1062909391559013</v>
       </c>
       <c r="K107" t="n">
-        <v>0.01761987210914437</v>
+        <v>0.01775483566759615</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.00298242614641599</v>
+        <v>-0.001874458459982933</v>
       </c>
       <c r="M107" t="n">
-        <v>0.2387838643338045</v>
+        <v>0.2622167685865504</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01757655603438885</v>
+        <v>0.01782960336589161</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.004593729517674858</v>
+        <v>-0.004576807228361593</v>
       </c>
       <c r="P107" t="n">
-        <v>0.4104253525897377</v>
+        <v>0.3916524908340453</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.01760387766829678</v>
+        <v>0.01746339914731283</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.002066036610921829</v>
+        <v>-0.004049846026219325</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05250154811059433</v>
+        <v>0.05239599117340428</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01877272266111278</v>
+        <v>0.01840691234275021</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.002942260658127703</v>
+        <v>-0.001225984750176904</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1085029764327525</v>
+        <v>0.1069348046104523</v>
       </c>
       <c r="K108" t="n">
-        <v>0.01842077538683275</v>
+        <v>0.01856187365248688</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.00298242614641599</v>
+        <v>-0.001842676478314511</v>
       </c>
       <c r="M108" t="n">
-        <v>0.2402080631364257</v>
+        <v>0.263865589384182</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01837549039958834</v>
+        <v>0.01864003988252304</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.004706634638566943</v>
+        <v>-0.004463924290350217</v>
       </c>
       <c r="P108" t="n">
-        <v>0.4128148459159016</v>
+        <v>0.3938493781710989</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.01840405392594664</v>
+        <v>0.01825719001764523</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.001610104570858173</v>
+        <v>-0.004049846026219325</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05277537614827325</v>
+        <v>0.05268670858762974</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01958892799420463</v>
+        <v>0.01920721287939152</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.002941966461481555</v>
+        <v>-0.001225739577744112</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1091933576377633</v>
+        <v>0.1076096987398269</v>
       </c>
       <c r="K109" t="n">
-        <v>0.01922167866452113</v>
+        <v>0.01936891163737762</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.00298242614641599</v>
+        <v>-0.001842676478314511</v>
       </c>
       <c r="M109" t="n">
-        <v>0.2417015856016086</v>
+        <v>0.2652796002588201</v>
       </c>
       <c r="N109" t="n">
-        <v>0.01917442476478783</v>
+        <v>0.01945047639915448</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.004706634638566943</v>
+        <v>-0.004463924290350217</v>
       </c>
       <c r="P109" t="n">
-        <v>0.4150657329167021</v>
+        <v>0.3962378487376738</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.01920423018359649</v>
+        <v>0.01905098088797763</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.001610104570858173</v>
+        <v>-0.004049846026219325</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05307795772732431</v>
+        <v>0.05303291273909595</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0204051333272965</v>
+        <v>0.02000751341603284</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.002942260658127703</v>
+        <v>-0.0012261073363933</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1098572799146613</v>
+        <v>0.1081698489858266</v>
       </c>
       <c r="K110" t="n">
-        <v>0.02002258194220951</v>
+        <v>0.02017594962226835</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.00298242614641599</v>
+        <v>-0.001842676478314511</v>
       </c>
       <c r="M110" t="n">
-        <v>0.2431807879775509</v>
+        <v>0.2667427143190907</v>
       </c>
       <c r="N110" t="n">
-        <v>0.01997335912998733</v>
+        <v>0.02026091291578592</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.004706634638566943</v>
+        <v>-0.004463924290350217</v>
       </c>
       <c r="P110" t="n">
-        <v>0.4172296223727235</v>
+        <v>0.3982848464464922</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.02000440644124634</v>
+        <v>0.01984477175831003</v>
       </c>
       <c r="R110" t="n">
-        <v>-0.001610104570858173</v>
+        <v>-0.004049846026219325</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05338574907822215</v>
+        <v>0.05338865608196512</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02122133866038836</v>
+        <v>0.02080781395267415</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.002941672264835407</v>
+        <v>-0.001225862163960508</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1105559622597954</v>
+        <v>0.1087687526137542</v>
       </c>
       <c r="K111" t="n">
-        <v>0.02082348521989789</v>
+        <v>0.02098298760715908</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.00298242614641599</v>
+        <v>-0.001842676478314511</v>
       </c>
       <c r="M111" t="n">
-        <v>0.2448365036664624</v>
+        <v>0.2682078184073658</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02077229349518682</v>
+        <v>0.02107134943241735</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.004706634638566943</v>
+        <v>-0.004463924290350217</v>
       </c>
       <c r="P111" t="n">
-        <v>0.4192912006367299</v>
+        <v>0.400555228243429</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.0208045826988962</v>
+        <v>0.02063856262864243</v>
       </c>
       <c r="R111" t="n">
-        <v>-0.001610104570858173</v>
+        <v>-0.004049846026219325</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05373828480455951</v>
+        <v>0.05377656853192643</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02203754399348022</v>
+        <v>0.02160811448931546</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.002962045294417943</v>
+        <v>-0.001202442096029222</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1112224615844774</v>
+        <v>0.1094026904195375</v>
       </c>
       <c r="K112" t="n">
-        <v>0.02162438849758627</v>
+        <v>0.02179002559204982</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.003065768825618057</v>
+        <v>-0.001824492763923396</v>
       </c>
       <c r="M112" t="n">
-        <v>0.2465846367914525</v>
+        <v>0.2696626158534969</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02157122786038631</v>
+        <v>0.02188178594904879</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.004752261468519279</v>
+        <v>-0.004341793330567641</v>
       </c>
       <c r="P112" t="n">
-        <v>0.4215028437727678</v>
+        <v>0.4030334993002576</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.02160475895654605</v>
+        <v>0.02143235349897483</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.001481128826609164</v>
+        <v>-0.004407592571308399</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05411799903659568</v>
+        <v>0.05414308076796853</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02285374932657207</v>
+        <v>0.02240841502595678</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.002961453003817179</v>
+        <v>-0.001202321863842838</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1119503752659545</v>
+        <v>0.1100197079941646</v>
       </c>
       <c r="K113" t="n">
-        <v>0.02242529177527465</v>
+        <v>0.02259706357694055</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.003065768825618057</v>
+        <v>-0.001824492763923396</v>
       </c>
       <c r="M113" t="n">
-        <v>0.2484585179390278</v>
+        <v>0.2712591978123414</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02237016222558581</v>
+        <v>0.02269222246568023</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.004752261468519279</v>
+        <v>-0.004341793330567641</v>
       </c>
       <c r="P113" t="n">
-        <v>0.4235883829305421</v>
+        <v>0.4053756228148707</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.02240493521419591</v>
+        <v>0.02222614436930724</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.001481128826609164</v>
+        <v>-0.004407592571308399</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05449654816983669</v>
+        <v>0.05451933389253386</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02366995465966394</v>
+        <v>0.02320871556259809</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.002961453003817179</v>
+        <v>-0.001202201631656453</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1127534019084896</v>
+        <v>0.110647176782296</v>
       </c>
       <c r="K114" t="n">
-        <v>0.02322619505296303</v>
+        <v>0.02340410156183129</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.003065768825618057</v>
+        <v>-0.001824492763923396</v>
       </c>
       <c r="M114" t="n">
-        <v>0.2506115430240731</v>
+        <v>0.2726382589867853</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0231690965907853</v>
+        <v>0.02350265898231166</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.004752261468519279</v>
+        <v>-0.004341793330567641</v>
       </c>
       <c r="P114" t="n">
-        <v>0.4255763558483976</v>
+        <v>0.4082185499078937</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.02320511147184576</v>
+        <v>0.02301993523963964</v>
       </c>
       <c r="R114" t="n">
-        <v>-0.001481128826609164</v>
+        <v>-0.004407592571308399</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="52" t="n"/>
       <c r="B115" s="52" t="n"/>
       <c r="F115" t="n">
-        <v>0.05489354499995495</v>
+        <v>0.05491361753472934</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0244861599927558</v>
+        <v>0.0240090160992394</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.003029225908940642</v>
+        <v>-0.001202321863842838</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1135063217823352</v>
+        <v>0.111353993396135</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02402709833065141</v>
+        <v>0.02421113954672202</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.003065768825618057</v>
+        <v>-0.001824492763923396</v>
       </c>
       <c r="M115" t="n">
-        <v>0.2528774387055541</v>
+        <v>0.2739691134766659</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02396803095598479</v>
+        <v>0.0243130954989431</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.004752261468519279</v>
+        <v>-0.004341793330567641</v>
       </c>
       <c r="P115" t="n">
-        <v>0.4276022250663055</v>
+        <v>0.4110781684920105</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.02400528772949561</v>
+        <v>0.02381372610997204</v>
       </c>
       <c r="R115" t="n">
-        <v>-0.001481128826609164</v>
+        <v>-0.004407592571308399</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05526864263262668</v>
+        <v>0.05526954273638317</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02530236532584765</v>
+        <v>0.02480931663588072</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.003028317322885171</v>
+        <v>-0.001289424887291214</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1142657157692246</v>
+        <v>0.1120132021229329</v>
       </c>
       <c r="K116" t="n">
-        <v>0.02482800160833979</v>
+        <v>0.02501817753161275</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.003205061186549642</v>
+        <v>-0.00182761141846428</v>
       </c>
       <c r="M116" t="n">
-        <v>0.2553563799199571</v>
+        <v>0.2753382521248209</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02476696532118429</v>
+        <v>0.02512353201557454</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.004724884007852076</v>
+        <v>-0.004150872861435</v>
       </c>
       <c r="P116" t="n">
-        <v>0.4293317596698876</v>
+        <v>0.4138384726750871</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.02480546398714547</v>
+        <v>0.02460751698030444</v>
       </c>
       <c r="R116" t="n">
-        <v>-0.001625256012371542</v>
+        <v>-0.004421944441469857</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05562143987702423</v>
+        <v>0.05562736212948806</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02611857065893951</v>
+        <v>0.02560961717252203</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.003028317322885171</v>
+        <v>-0.001289167053880438</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1150494465847728</v>
+        <v>0.112614552524957</v>
       </c>
       <c r="K117" t="n">
-        <v>0.02562890488602818</v>
+        <v>0.02582521551650349</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.003205061186549642</v>
+        <v>-0.00182761141846428</v>
       </c>
       <c r="M117" t="n">
-        <v>0.2578468445920929</v>
+        <v>0.2766625595266916</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02556589968638378</v>
+        <v>0.02593396853220597</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.004724884007852076</v>
+        <v>-0.004150872861435</v>
       </c>
       <c r="P117" t="n">
-        <v>0.4313125966829577</v>
+        <v>0.4168021950815314</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.02560564024479532</v>
+        <v>0.02540130785063684</v>
       </c>
       <c r="R117" t="n">
-        <v>-0.001625256012371542</v>
+        <v>-0.004421944441469857</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="82" t="n"/>
       <c r="F118" t="n">
-        <v>0.05600876919560573</v>
+        <v>0.05596266209685051</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02693477599203138</v>
+        <v>0.02640991770916334</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.003028317322885171</v>
+        <v>-0.001289424887291214</v>
       </c>
       <c r="J118" t="n">
-        <v>0.115709948695643</v>
+        <v>0.1132076447443446</v>
       </c>
       <c r="K118" t="n">
-        <v>0.02642980816371656</v>
+        <v>0.02663225350139422</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.003205061186549642</v>
+        <v>-0.00182761141846428</v>
       </c>
       <c r="M118" t="n">
-        <v>0.260385225060539</v>
+        <v>0.2777723140063758</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02636483405158327</v>
+        <v>0.02674440504883741</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.004724884007852076</v>
+        <v>-0.004150872861435</v>
       </c>
       <c r="P118" t="n">
-        <v>0.432800491553927</v>
+        <v>0.4195041091785461</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.02640581650244518</v>
+        <v>0.02619509872096925</v>
       </c>
       <c r="R118" t="n">
-        <v>-0.001625256012371542</v>
+        <v>-0.004421944441469857</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05634888451803105</v>
+        <v>0.05631627142604376</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02775098132512324</v>
+        <v>0.02721021824580466</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.003155972828149141</v>
+        <v>-0.001289424887291214</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1164133274991816</v>
+        <v>0.1138428102207721</v>
       </c>
       <c r="K119" t="n">
-        <v>0.02723071144140493</v>
+        <v>0.02743929148628495</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.003205061186549642</v>
+        <v>-0.00182761141846428</v>
       </c>
       <c r="M119" t="n">
-        <v>0.2628437595738487</v>
+        <v>0.2790106943300502</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02716376841678276</v>
+        <v>0.02755484156546885</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.004724884007852076</v>
+        <v>-0.004150872861435</v>
       </c>
       <c r="P119" t="n">
-        <v>0.4344812722032891</v>
+        <v>0.4220761910560397</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.02720599276009503</v>
+        <v>0.02698888959130165</v>
       </c>
       <c r="R119" t="n">
-        <v>-0.001939509907087542</v>
+        <v>-0.004421944441469857</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="82" t="n"/>
       <c r="F120" t="n">
-        <v>0.05671529140813267</v>
+        <v>0.05665553129083474</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0285671866582151</v>
+        <v>0.02801051878244597</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.00315628845699484</v>
+        <v>-0.001451648089238097</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1170611033297799</v>
+        <v>0.1143737941362552</v>
       </c>
       <c r="K120" t="n">
-        <v>0.02803161471909332</v>
+        <v>0.02824632947117569</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.003402937837844506</v>
+        <v>-0.001851824182920323</v>
       </c>
       <c r="M120" t="n">
-        <v>0.2653824557611875</v>
+        <v>0.2802514910751713</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02796270278198225</v>
+        <v>0.02836527808210029</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.004495981735146307</v>
+        <v>-0.003887360346253072</v>
       </c>
       <c r="P120" t="n">
-        <v>0.4359495624089643</v>
+        <v>0.4247201226161716</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.02800616901774488</v>
+        <v>0.02778268046163405</v>
       </c>
       <c r="R120" t="n">
-        <v>-0.001939509907087542</v>
+        <v>-0.004241160996890789</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="82" t="n"/>
       <c r="F121" t="n">
-        <v>0.05705854861620378</v>
+        <v>0.05698033806777579</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02938339199130695</v>
+        <v>0.02881081931908729</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.003156604085840539</v>
+        <v>-0.001451502938944202</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1177041494513175</v>
+        <v>0.1148997116971872</v>
       </c>
       <c r="K121" t="n">
-        <v>0.02883251799678169</v>
+        <v>0.02905336745606642</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.003402937837844506</v>
+        <v>-0.001851824182920323</v>
       </c>
       <c r="M121" t="n">
-        <v>0.2678310141793925</v>
+        <v>0.2812808039398308</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02876163714718175</v>
+        <v>0.02917571459873172</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.004495981735146307</v>
+        <v>-0.003887360346253072</v>
       </c>
       <c r="P121" t="n">
-        <v>0.4374837759982175</v>
+        <v>0.427437510641857</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.02880634527539474</v>
+        <v>0.02857647133196645</v>
       </c>
       <c r="R121" t="n">
-        <v>-0.001939509907087542</v>
+        <v>-0.004241160996890789</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05736996027742887</v>
+        <v>0.05730720684742088</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03019959732439882</v>
+        <v>0.0296111198557286</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.00315628845699484</v>
+        <v>-0.001451357788650308</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1183267737966743</v>
+        <v>0.1154713618108368</v>
       </c>
       <c r="K122" t="n">
-        <v>0.02963342127447008</v>
+        <v>0.02986040544095716</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.003402937837844506</v>
+        <v>-0.001851824182920323</v>
       </c>
       <c r="M122" t="n">
-        <v>0.2703094033812634</v>
+        <v>0.2824013854771157</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02956057151238124</v>
+        <v>0.02998615111536316</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.004495981735146307</v>
+        <v>-0.003887360346253072</v>
       </c>
       <c r="P122" t="n">
-        <v>0.4388824290219355</v>
+        <v>0.4300259205129296</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.02960652153304459</v>
+        <v>0.02937026220229885</v>
       </c>
       <c r="R122" t="n">
-        <v>-0.001939509907087542</v>
+        <v>-0.004241160996890789</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05772417419794451</v>
+        <v>0.05764457342982235</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03101580265749068</v>
+        <v>0.03041142039236991</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.003155972828149141</v>
+        <v>-0.001451502938944202</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1189806096775743</v>
+        <v>0.11597419325381</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03043432455215845</v>
+        <v>0.03066744342584789</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.003402937837844506</v>
+        <v>-0.001851824182920323</v>
       </c>
       <c r="M123" t="n">
-        <v>0.2728982830533881</v>
+        <v>0.2833989126138605</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03035950587758073</v>
+        <v>0.0307965876319946</v>
       </c>
       <c r="O123" t="n">
-        <v>-0.004495981735146307</v>
+        <v>-0.003887360346253072</v>
       </c>
       <c r="P123" t="n">
-        <v>0.4402874666411746</v>
+        <v>0.4324845978450567</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.03040669779069445</v>
+        <v>0.03016405307263125</v>
       </c>
       <c r="R123" t="n">
-        <v>-0.001939509907087542</v>
+        <v>-0.004241160996890789</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="82" t="n"/>
       <c r="B124" s="82" t="n"/>
       <c r="F124" t="n">
-        <v>0.05803781126127203</v>
+        <v>0.05796751160434696</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03183200799058254</v>
+        <v>0.03121172092901123</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.003325394122096273</v>
+        <v>-0.001672448415036285</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1195484605228396</v>
+        <v>0.1164087518695442</v>
       </c>
       <c r="K124" t="n">
-        <v>0.03123522782984684</v>
+        <v>0.03147448141073863</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.003638580643644182</v>
+        <v>-0.001895981377634156</v>
       </c>
       <c r="M124" t="n">
-        <v>0.2753400511636088</v>
+        <v>0.2844479507093204</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03115844024278023</v>
+        <v>0.03160702414862603</v>
       </c>
       <c r="O124" t="n">
-        <v>-0.004101319188247664</v>
+        <v>-0.003571343229827267</v>
       </c>
       <c r="P124" t="n">
-        <v>0.4414961448226498</v>
+        <v>0.4348812998829585</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.0312068740483443</v>
+        <v>0.03095784394296365</v>
       </c>
       <c r="R124" t="n">
-        <v>-0.002377742481700072</v>
+        <v>-0.003943418967284283</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05833554224165456</v>
+        <v>0.05825071771753092</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0326482133236744</v>
+        <v>0.03201202146565254</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.003325394122096273</v>
+        <v>-0.001671946780838613</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1201156285556978</v>
+        <v>0.1168757513815844</v>
       </c>
       <c r="K125" t="n">
-        <v>0.03203613110753521</v>
+        <v>0.03228151939562936</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.003638580643644182</v>
+        <v>-0.001895981377634156</v>
       </c>
       <c r="M125" t="n">
-        <v>0.2777133985024158</v>
+        <v>0.2854198976947876</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03195737460797972</v>
+        <v>0.03241746066525747</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.004101319188247664</v>
+        <v>-0.003571343229827267</v>
       </c>
       <c r="P125" t="n">
-        <v>0.4427198505999546</v>
+        <v>0.437216046893989</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.03200705030599415</v>
+        <v>0.03175163481329606</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.002377742481700072</v>
+        <v>-0.003943418967284283</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05865086529364524</v>
+        <v>0.05857814627332866</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03346441865676626</v>
+        <v>0.03281232200229385</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.003325061649178647</v>
+        <v>-0.001671946780838613</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1206491036392556</v>
+        <v>0.1173431421038693</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0328370343852236</v>
+        <v>0.03308855738052009</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.003638580643644182</v>
+        <v>-0.001895981377634156</v>
       </c>
       <c r="M126" t="n">
-        <v>0.2800129618910714</v>
+        <v>0.2862722478907045</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03275630897317922</v>
+        <v>0.03322789718188891</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.004101319188247664</v>
+        <v>-0.003571343229827267</v>
       </c>
       <c r="P126" t="n">
-        <v>0.4438244942404005</v>
+        <v>0.4393509889477126</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.03280722656364401</v>
+        <v>0.03254542568362846</v>
       </c>
       <c r="R126" t="n">
-        <v>-0.002377742481700072</v>
+        <v>-0.003943418967284283</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="83" t="n"/>
       <c r="B127" s="83" t="n"/>
       <c r="F127" t="n">
-        <v>0.058966936210926</v>
+        <v>0.05885725529612937</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03428062398985812</v>
+        <v>0.03361262253893517</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.003324729176261021</v>
+        <v>-0.001672113992237837</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1211667931777929</v>
+        <v>0.117795275094461</v>
       </c>
       <c r="K127" t="n">
-        <v>0.03363793766291198</v>
+        <v>0.03389559536541083</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.003638580643644182</v>
+        <v>-0.001895981377634156</v>
       </c>
       <c r="M127" t="n">
-        <v>0.2824063616606276</v>
+        <v>0.2873119308784332</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03355524333837871</v>
+        <v>0.03403833369852034</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.004101319188247664</v>
+        <v>-0.003571343229827267</v>
       </c>
       <c r="P127" t="n">
-        <v>0.4450225654092305</v>
+        <v>0.441492288471467</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.03360740282129386</v>
+        <v>0.03333921655396086</v>
       </c>
       <c r="R127" t="n">
-        <v>-0.002892930895207675</v>
+        <v>-0.003943418967284283</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="83" t="n"/>
       <c r="B128" s="83" t="n"/>
       <c r="F128" t="n">
-        <v>0.05924116346030803</v>
+        <v>0.0591470372847776</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03509682932294998</v>
+        <v>0.03441292307557648</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.003516396091947282</v>
+        <v>-0.001934382197110509</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1217383326418457</v>
+        <v>0.1182163243997782</v>
       </c>
       <c r="K128" t="n">
-        <v>0.03443884094060036</v>
+        <v>0.03470263335030156</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.003891260060299029</v>
+        <v>-0.001957203892221154</v>
       </c>
       <c r="M128" t="n">
-        <v>0.2847606390258314</v>
+        <v>0.2881912177492714</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0343541777035782</v>
+        <v>0.03484877021515178</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.003611455351661666</v>
+        <v>-0.003227986821902982</v>
       </c>
       <c r="P128" t="n">
-        <v>0.4461102174415099</v>
+        <v>0.4437100184357046</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.03440757907894371</v>
+        <v>0.03413300742429326</v>
       </c>
       <c r="R128" t="n">
-        <v>-0.002892930895207675</v>
+        <v>-0.003579358866185065</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05953272494895656</v>
+        <v>0.05942210721885832</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03591303465604184</v>
+        <v>0.03521322361221779</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.003515692883049783</v>
+        <v>-0.001934382197110509</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1222275148527854</v>
+        <v>0.1186408835511676</v>
       </c>
       <c r="K129" t="n">
-        <v>0.03523974421828874</v>
+        <v>0.03550967133519229</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.003891260060299029</v>
+        <v>-0.001957203892221154</v>
       </c>
       <c r="M129" t="n">
-        <v>0.2869400394108669</v>
+        <v>0.2889985255508771</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03515311206877769</v>
+        <v>0.03565920673178322</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.003611455351661666</v>
+        <v>-0.003227986821902982</v>
       </c>
       <c r="P129" t="n">
-        <v>0.4470914451096335</v>
+        <v>0.4457271509972748</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.03520775533659357</v>
+        <v>0.03492679829462566</v>
       </c>
       <c r="R129" t="n">
-        <v>-0.002892930895207675</v>
+        <v>-0.003579358866185065</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="83" t="n"/>
       <c r="F130" t="n">
-        <v>0.05979891748717399</v>
+        <v>0.05972511380412181</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0367292399891337</v>
+        <v>0.03601352414885911</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.003516747696396032</v>
+        <v>-0.00193457563533022</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1227383076226679</v>
+        <v>0.1190362691477834</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03604064749597712</v>
+        <v>0.03631670932008303</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.003891260060299029</v>
+        <v>-0.001957203892221154</v>
       </c>
       <c r="M130" t="n">
-        <v>0.2892892667239566</v>
+        <v>0.2898229805188379</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03595204643397718</v>
+        <v>0.03646964324841465</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.003611455351661666</v>
+        <v>-0.003227986821902982</v>
       </c>
       <c r="P130" t="n">
-        <v>0.448109900290297</v>
+        <v>0.4478216015831414</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.03600793159424342</v>
+        <v>0.03572058916495807</v>
       </c>
       <c r="R130" t="n">
-        <v>-0.002892930895207675</v>
+        <v>-0.003579358866185065</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="83" t="n"/>
       <c r="B131" s="83" t="n"/>
       <c r="F131" t="n">
-        <v>0.06008231495106194</v>
+        <v>0.0599963653750817</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03754544532222556</v>
+        <v>0.03681382468550042</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.003712101923963349</v>
+        <v>-0.001934769073549931</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1231853603417158</v>
+        <v>0.1193694838140984</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0368415507736655</v>
+        <v>0.03712374730497376</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.003891260060299029</v>
+        <v>-0.001957203892221154</v>
       </c>
       <c r="M131" t="n">
-        <v>0.2914538597399018</v>
+        <v>0.2906662477117358</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03675098079917668</v>
+        <v>0.03728007976504608</v>
       </c>
       <c r="O131" t="n">
-        <v>-0.003611455351661666</v>
+        <v>-0.003227986821902982</v>
       </c>
       <c r="P131" t="n">
-        <v>0.4491702100507654</v>
+        <v>0.4498546299025484</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.03680810785189328</v>
+        <v>0.03651438003529046</v>
       </c>
       <c r="R131" t="n">
-        <v>-0.002892930895207675</v>
+        <v>-0.003200450375804201</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.06032271799529208</v>
+        <v>0.0602442163821884</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03836165065531742</v>
+        <v>0.03761412522214173</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.00371173075088826</v>
+        <v>-0.002222649871679653</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1236733892035944</v>
+        <v>0.1197430459245099</v>
       </c>
       <c r="K132" t="n">
-        <v>0.03764245405135388</v>
+        <v>0.0379307852898645</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.004140966570953329</v>
+        <v>-0.002032774767683993</v>
       </c>
       <c r="M132" t="n">
-        <v>0.2935159188449462</v>
+        <v>0.291441706638617</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03754991516437617</v>
+        <v>0.03809051628167753</v>
       </c>
       <c r="O132" t="n">
-        <v>-0.003095031619407649</v>
+        <v>-0.002874749814528811</v>
       </c>
       <c r="P132" t="n">
-        <v>0.4501369580918368</v>
+        <v>0.4516859004964329</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.03760828410954313</v>
+        <v>0.03730817090562286</v>
       </c>
       <c r="R132" t="n">
-        <v>-0.003440022683453506</v>
+        <v>-0.003200450375804201</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.06056281215247479</v>
+        <v>0.06052026722062191</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03917785598840927</v>
+        <v>0.03841442575878305</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.003711359577813171</v>
+        <v>-0.002222427651136593</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1241167060084154</v>
+        <v>0.1201242654662126</v>
       </c>
       <c r="K133" t="n">
-        <v>0.03844335732904226</v>
+        <v>0.03873782327475523</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.004140966570953329</v>
+        <v>-0.002032774767683993</v>
       </c>
       <c r="M133" t="n">
-        <v>0.2956038379326728</v>
+        <v>0.2921947529465664</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03834884952957567</v>
+        <v>0.03890095279830896</v>
       </c>
       <c r="O133" t="n">
-        <v>-0.003095031619407649</v>
+        <v>-0.002874749814528811</v>
       </c>
       <c r="P133" t="n">
-        <v>0.4511543923138802</v>
+        <v>0.4536660740973316</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.03840846036719298</v>
+        <v>0.03810196177595526</v>
       </c>
       <c r="R133" t="n">
-        <v>-0.003440022683453506</v>
+        <v>-0.003200450375804201</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.06081981267317055</v>
+        <v>0.06077291380311838</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03999406132150113</v>
+        <v>0.03921472629542436</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.003712101923963349</v>
+        <v>-0.002222649871679653</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1245683569238251</v>
+        <v>0.1204971994911061</v>
       </c>
       <c r="K134" t="n">
-        <v>0.03924426060673064</v>
+        <v>0.03954486125964597</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.004140966570953329</v>
+        <v>-0.002032774767683993</v>
       </c>
       <c r="M134" t="n">
-        <v>0.2975799279536519</v>
+        <v>0.2928825205587334</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03914778389477516</v>
+        <v>0.03971138931494039</v>
       </c>
       <c r="O134" t="n">
-        <v>-0.003095031619407649</v>
+        <v>-0.002874749814528811</v>
       </c>
       <c r="P134" t="n">
-        <v>0.4520867105827776</v>
+        <v>0.4552325469742604</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.03920863662484284</v>
+        <v>0.03889575264628766</v>
       </c>
       <c r="R134" t="n">
-        <v>-0.003440022683453506</v>
+        <v>-0.003200450375804201</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.06104167289336147</v>
+        <v>0.06099332657419562</v>
       </c>
       <c r="G135" t="n">
-        <v>0.040810266654593</v>
+        <v>0.04001502683206568</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.003712473097038438</v>
+        <v>-0.002222205430593534</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1250469280931709</v>
+        <v>0.1208115954891891</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04004516388441902</v>
+        <v>0.04035189924453669</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.004140966570953329</v>
+        <v>-0.002032774767683993</v>
       </c>
       <c r="M135" t="n">
-        <v>0.2993940096851923</v>
+        <v>0.2935949236361037</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03994671825997465</v>
+        <v>0.04052182583157184</v>
       </c>
       <c r="O135" t="n">
-        <v>-0.003095031619407649</v>
+        <v>-0.002874749814528811</v>
       </c>
       <c r="P135" t="n">
-        <v>0.452867660935696</v>
+        <v>0.456948343630565</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.04000881288249269</v>
+        <v>0.03968954351662007</v>
       </c>
       <c r="R135" t="n">
-        <v>-0.003440022683453506</v>
+        <v>-0.003200450375804201</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0612802254074658</v>
+        <v>0.06125088888658402</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04162647198768486</v>
+        <v>0.04081532736870699</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.003892505747603667</v>
+        <v>-0.00251882460458804</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1254659065577662</v>
+        <v>0.1212050786793979</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0408460671621074</v>
+        <v>0.04115893722942743</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.004367350398993559</v>
+        <v>-0.002121214394298799</v>
       </c>
       <c r="M136" t="n">
-        <v>0.3012208277896237</v>
+        <v>0.2942891691505858</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04074565262517414</v>
+        <v>0.04133226234820327</v>
       </c>
       <c r="O136" t="n">
-        <v>-0.002620924056253658</v>
+        <v>-0.002536573353042994</v>
       </c>
       <c r="P136" t="n">
-        <v>0.4539233280777781</v>
+        <v>0.4587441613756229</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.04080898914014255</v>
+        <v>0.04048333438695247</v>
       </c>
       <c r="R136" t="n">
-        <v>-0.00397067841403622</v>
+        <v>-0.002860880611925137</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06146570017744309</v>
+        <v>0.06147616689983253</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04244267732077672</v>
+        <v>0.0416156279053483</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.003893284248753187</v>
+        <v>-0.002519076461862771</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1259137900479501</v>
+        <v>0.1215419498671235</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04164697043979578</v>
+        <v>0.04196597521431816</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.004367350398993559</v>
+        <v>-0.002121214394298799</v>
       </c>
       <c r="M137" t="n">
-        <v>0.3029662375323793</v>
+        <v>0.2948776902707586</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04154458699037364</v>
+        <v>0.0421426988648347</v>
       </c>
       <c r="O137" t="n">
-        <v>-0.002620924056253658</v>
+        <v>-0.002536573353042994</v>
       </c>
       <c r="P137" t="n">
-        <v>0.4547657945890309</v>
+        <v>0.4603368696628967</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.0416091653977924</v>
+        <v>0.04127712525728486</v>
       </c>
       <c r="R137" t="n">
-        <v>-0.00397067841403622</v>
+        <v>-0.002860880611925137</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06168504820000903</v>
+        <v>0.06171268177819288</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04325888265386858</v>
+        <v>0.04241592844198962</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.003892505747603667</v>
+        <v>-0.002518572747313308</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1262860025157805</v>
+        <v>0.1218572722478137</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04244787371748417</v>
+        <v>0.0427730131992089</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.004367350398993559</v>
+        <v>-0.002121214394298799</v>
       </c>
       <c r="M138" t="n">
-        <v>0.304580129705639</v>
+        <v>0.2955842994812439</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04234352135557313</v>
+        <v>0.04295313538146615</v>
       </c>
       <c r="O138" t="n">
-        <v>-0.002620924056253658</v>
+        <v>-0.002536573353042994</v>
       </c>
       <c r="P138" t="n">
-        <v>0.4556808316479165</v>
+        <v>0.4618678925668211</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.04240934165544225</v>
+        <v>0.04207091612761727</v>
       </c>
       <c r="R138" t="n">
-        <v>-0.00397067841403622</v>
+        <v>-0.002860880611925137</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06188581346633852</v>
+        <v>0.06192549246889578</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04407508798696044</v>
+        <v>0.04321622897863093</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.003892894998178427</v>
+        <v>-0.00280595910314897</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1267066943074356</v>
+        <v>0.1222035964487049</v>
       </c>
       <c r="K139" t="n">
-        <v>0.04324877699517254</v>
+        <v>0.04358005118409963</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.004367350398993559</v>
+        <v>-0.002121214394298799</v>
       </c>
       <c r="M139" t="n">
-        <v>0.306148625913955</v>
+        <v>0.296321759618781</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04314245572077263</v>
+        <v>0.04376357189809758</v>
       </c>
       <c r="O139" t="n">
-        <v>-0.002620924056253658</v>
+        <v>-0.002536573353042994</v>
       </c>
       <c r="P139" t="n">
-        <v>0.4567436959354031</v>
+        <v>0.4634085769450997</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.0432095179130921</v>
+        <v>0.04286470699794967</v>
       </c>
       <c r="R139" t="n">
-        <v>-0.00397067841403622</v>
+        <v>-0.002860880611925137</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06205019726126458</v>
+        <v>0.06213204612707954</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04489129332005229</v>
+        <v>0.04401652951527224</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.00404139321536888</v>
+        <v>-0.002806800975067106</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1271240511042478</v>
+        <v>0.122513119457103</v>
       </c>
       <c r="K140" t="n">
-        <v>0.04404968027286092</v>
+        <v>0.04438708916899037</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.004549606852612455</v>
+        <v>-0.002218126743313399</v>
       </c>
       <c r="M140" t="n">
-        <v>0.3076675501046559</v>
+        <v>0.2969129276811652</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04394139008597212</v>
+        <v>0.04457400841472901</v>
       </c>
       <c r="O140" t="n">
-        <v>-0.002257384326646538</v>
+        <v>-0.002232719989381493</v>
       </c>
       <c r="P140" t="n">
-        <v>0.4576055010011211</v>
+        <v>0.4648164306355256</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.04400969417074196</v>
+        <v>0.04365849786828208</v>
       </c>
       <c r="R140" t="n">
-        <v>-0.004441130414032666</v>
+        <v>-0.002613151620183494</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06223945278929376</v>
+        <v>0.06235877561653996</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04570749865314415</v>
+        <v>0.04481683005191356</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.004042605754587412</v>
+        <v>-0.002806239727121682</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1275567778496318</v>
+        <v>0.1228039262810369</v>
       </c>
       <c r="K141" t="n">
-        <v>0.04485058355054931</v>
+        <v>0.0451941271538811</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.004549606852612455</v>
+        <v>-0.002218126743313399</v>
       </c>
       <c r="M141" t="n">
-        <v>0.3090408599147729</v>
+        <v>0.2975823987473727</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04474032445117161</v>
+        <v>0.04538444493136046</v>
       </c>
       <c r="O141" t="n">
-        <v>-0.002257384326646538</v>
+        <v>-0.002232719989381493</v>
       </c>
       <c r="P141" t="n">
-        <v>0.4585531175731777</v>
+        <v>0.4661626535767421</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.04480987042839182</v>
+        <v>0.04445228873861447</v>
       </c>
       <c r="R141" t="n">
-        <v>-0.004441130414032666</v>
+        <v>-0.002613151620183494</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06237427523052963</v>
+        <v>0.06256170737947524</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04652370398623601</v>
+        <v>0.04561713058855487</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.00404179739510839</v>
+        <v>-0.002806520351094394</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1279881508466248</v>
+        <v>0.123180805847872</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04565148682823768</v>
+        <v>0.04600116513877184</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.004549606852612455</v>
+        <v>-0.002218126743313399</v>
       </c>
       <c r="M142" t="n">
-        <v>0.3102634971674347</v>
+        <v>0.2981975300919696</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0455392588163711</v>
+        <v>0.04619488144799189</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.002257384326646538</v>
+        <v>-0.002232719989381493</v>
       </c>
       <c r="P142" t="n">
-        <v>0.4594492624200892</v>
+        <v>0.4674472660361032</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.04561004668604167</v>
+        <v>0.04524607960894687</v>
       </c>
       <c r="R142" t="n">
-        <v>-0.004441130414032666</v>
+        <v>-0.002613151620183494</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06254254934434894</v>
+        <v>0.06274956873228603</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04733990931932788</v>
+        <v>0.04641743112519618</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.004042605754587412</v>
+        <v>-0.00280595910314897</v>
       </c>
       <c r="J143" t="n">
-        <v>0.128365604181925</v>
+        <v>0.1234891200805079</v>
       </c>
       <c r="K143" t="n">
-        <v>0.04645239010592607</v>
+        <v>0.04680820312366257</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.004549606852612455</v>
+        <v>-0.002218126743313399</v>
       </c>
       <c r="M143" t="n">
-        <v>0.311515054963291</v>
+        <v>0.2986698118808594</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0463381931815706</v>
+        <v>0.04700531796462332</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.002257384326646538</v>
+        <v>-0.002232719989381493</v>
       </c>
       <c r="P143" t="n">
-        <v>0.4605110922528857</v>
+        <v>0.4686702882809628</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.04641022294369151</v>
+        <v>0.04603987047927928</v>
       </c>
       <c r="R143" t="n">
-        <v>-0.004441130414032666</v>
+        <v>-0.002613151620183494</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06268241523812799</v>
+        <v>0.06293117064351353</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04815611465241974</v>
+        <v>0.04721773166183749</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.004140392812269515</v>
+        <v>-0.003068972425195566</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1287969933549994</v>
+        <v>0.1237989956749658</v>
       </c>
       <c r="K144" t="n">
-        <v>0.04725329338361445</v>
+        <v>0.0476152411085533</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.004667350555576523</v>
+        <v>-0.002322241678092774</v>
       </c>
       <c r="M144" t="n">
-        <v>0.3125143531228904</v>
+        <v>0.2993595736116652</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04713712754677009</v>
+        <v>0.04781575448125477</v>
       </c>
       <c r="O144" t="n">
-        <v>-0.002069936691724905</v>
+        <v>-0.001985570973555893</v>
       </c>
       <c r="P144" t="n">
-        <v>0.4613878024354793</v>
+        <v>0.4696158342377691</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.04721039920134137</v>
+        <v>0.04683366134961168</v>
       </c>
       <c r="R144" t="n">
-        <v>-0.004802076219182335</v>
+        <v>-0.00250734609149487</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0628024690447732</v>
+        <v>0.06314206665762502</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0489723199855116</v>
+        <v>0.0480180321984788</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.004139978772988289</v>
+        <v>-0.003069279353130879</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1292119556582751</v>
+        <v>0.1241636690975443</v>
       </c>
       <c r="K145" t="n">
-        <v>0.04805419666130283</v>
+        <v>0.04842227909344404</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.004667350555576523</v>
+        <v>-0.002322241678092774</v>
       </c>
       <c r="M145" t="n">
-        <v>0.3134688917937793</v>
+        <v>0.2999541932886025</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04793606191196959</v>
+        <v>0.0486261909978862</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.002069936691724905</v>
+        <v>-0.001985570973555893</v>
       </c>
       <c r="P145" t="n">
-        <v>0.4625102841669978</v>
+        <v>0.4708595644480226</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.04801057545899123</v>
+        <v>0.04762745221994408</v>
       </c>
       <c r="R145" t="n">
-        <v>-0.004802076219182335</v>
+        <v>-0.00250734609149487</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0629291031707082</v>
+        <v>0.06330231477574148</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04978852531860345</v>
+        <v>0.04881833273512012</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.004140392812269515</v>
+        <v>-0.003069279353130879</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1296472417244501</v>
+        <v>0.1244797604974669</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0488550999389912</v>
+        <v>0.04922931707833477</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.004667350555576523</v>
+        <v>-0.002322241678092774</v>
       </c>
       <c r="M146" t="n">
-        <v>0.314365307133944</v>
+        <v>0.3004997814752705</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04873499627716908</v>
+        <v>0.04943662751451763</v>
       </c>
       <c r="O146" t="n">
-        <v>-0.002069936691724905</v>
+        <v>-0.001985570973555893</v>
       </c>
       <c r="P146" t="n">
-        <v>0.4635983772582717</v>
+        <v>0.471907216540019</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.04881075171664109</v>
+        <v>0.04842124309027648</v>
       </c>
       <c r="R146" t="n">
-        <v>-0.004802076219182335</v>
+        <v>-0.00250734609149487</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06304445145085671</v>
+        <v>0.06347411339347893</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05060473065169531</v>
+        <v>0.04961863327176144</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.004140392812269515</v>
+        <v>-0.003069893209001506</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1300499121304517</v>
+        <v>0.1248004068875354</v>
       </c>
       <c r="K147" t="n">
-        <v>0.04965600321667959</v>
+        <v>0.05003635506322551</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.004667350555576523</v>
+        <v>-0.002322241678092774</v>
       </c>
       <c r="M147" t="n">
-        <v>0.315440533524029</v>
+        <v>0.3011780144908816</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04953393064236857</v>
+        <v>0.05024706403114907</v>
       </c>
       <c r="O147" t="n">
-        <v>-0.002069936691724905</v>
+        <v>-0.001985570973555893</v>
       </c>
       <c r="P147" t="n">
-        <v>0.4647990218591983</v>
+        <v>0.473004223278499</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.04961092797429093</v>
+        <v>0.04921503396060888</v>
       </c>
       <c r="R147" t="n">
-        <v>-0.004802076219182335</v>
+        <v>-0.00250734609149487</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06311278179229735</v>
+        <v>0.06363968390338785</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05142093598478717</v>
+        <v>0.05041893380840275</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.004167708665155689</v>
+        <v>-0.003290757380799739</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1305108999814885</v>
+        <v>0.1251266051824889</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05045690649436797</v>
+        <v>0.05084339304811624</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.004701963760102318</v>
+        <v>-0.002431318121576544</v>
       </c>
       <c r="M148" t="n">
-        <v>0.3163684841252027</v>
+        <v>0.3016746662003704</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05033286500756806</v>
+        <v>0.05105750054778051</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.001961016880535409</v>
+        <v>-0.001816999831777729</v>
       </c>
       <c r="P148" t="n">
-        <v>0.4660453016294419</v>
+        <v>0.473936129992107</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.05041110423194078</v>
+        <v>0.05000882483094129</v>
       </c>
       <c r="R148" t="n">
-        <v>-0.00500830929409465</v>
+        <v>-0.002512423346751922</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06321529185051838</v>
+        <v>0.06379006860545074</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05223714131787903</v>
+        <v>0.05121923434504407</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.004167708665155689</v>
+        <v>-0.003290757380799739</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1308877207867036</v>
+        <v>0.1254944507878634</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05125780977205635</v>
+        <v>0.05165043103300698</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.004701963760102318</v>
+        <v>-0.002431318121576544</v>
       </c>
       <c r="M149" t="n">
-        <v>0.3172409529948879</v>
+        <v>0.302352259106575</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05113179937276755</v>
+        <v>0.05186793706441194</v>
       </c>
       <c r="O149" t="n">
-        <v>-0.001961016880535409</v>
+        <v>-0.001816999831777729</v>
       </c>
       <c r="P149" t="n">
-        <v>0.4671981277026708</v>
+        <v>0.4749201421125882</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.05121128048959064</v>
+        <v>0.05080261570127369</v>
       </c>
       <c r="R149" t="n">
-        <v>-0.00500830929409465</v>
+        <v>-0.002512423346751922</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06329568694330578</v>
+        <v>0.06394316205180853</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05305334665097089</v>
+        <v>0.05201953488168538</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.004167708665155689</v>
+        <v>-0.003290428337965942</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1313834816978041</v>
+        <v>0.1258348136289784</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05205871304974473</v>
+        <v>0.0524574690178977</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.004701963760102318</v>
+        <v>-0.002431318121576544</v>
       </c>
       <c r="M150" t="n">
-        <v>0.3181036676259184</v>
+        <v>0.3029412061565984</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05193073373796705</v>
+        <v>0.05267837358104338</v>
       </c>
       <c r="O150" t="n">
-        <v>-0.001961016880535409</v>
+        <v>-0.001816999831777729</v>
       </c>
       <c r="P150" t="n">
-        <v>0.4684765926475508</v>
+        <v>0.4757391588631412</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.0520114567472405</v>
+        <v>0.05159640657160609</v>
       </c>
       <c r="R150" t="n">
-        <v>-0.00500830929409465</v>
+        <v>-0.002512423346751922</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06338146336960528</v>
+        <v>0.06410799418214734</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05386955198406276</v>
+        <v>0.05281983541832669</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.004168125477703459</v>
+        <v>-0.003291086423633535</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1318166373421172</v>
+        <v>0.126218962238538</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05285961632743311</v>
+        <v>0.05326450700278845</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.004701963760102318</v>
+        <v>-0.002431318121576544</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3189558210886773</v>
+        <v>0.3033972272590486</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05272966810316654</v>
+        <v>0.05348881009767482</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.001961016880535409</v>
+        <v>-0.001816999831777729</v>
       </c>
       <c r="P151" t="n">
-        <v>0.4697414540388618</v>
+        <v>0.4768290148241282</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.05281163300489036</v>
+        <v>0.05239019744193849</v>
       </c>
       <c r="R151" t="n">
-        <v>-0.00500830929409465</v>
+        <v>-0.002512423346751922</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0634281956007899</v>
+        <v>0.06425764778467037</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05468575731715462</v>
+        <v>0.053620135954968</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.004093154727091035</v>
+        <v>-0.003454336771637689</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1322584062854545</v>
+        <v>0.1265774797840366</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05366051960512148</v>
+        <v>0.05407154498767917</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.004574097827588633</v>
+        <v>-0.002541891455829251</v>
       </c>
       <c r="M152" t="n">
-        <v>0.3198905848944796</v>
+        <v>0.3040844345720463</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05352860246836603</v>
+        <v>0.05429924661430625</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.00185953201460897</v>
+        <v>-0.001747942260500335</v>
       </c>
       <c r="P152" t="n">
-        <v>0.4710813736279817</v>
+        <v>0.477827338668099</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.0536118092625402</v>
+        <v>0.05318398831227089</v>
       </c>
       <c r="R152" t="n">
-        <v>-0.005038142689515056</v>
+        <v>-0.002529330462140475</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06352521599843071</v>
+        <v>0.06436503688003457</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05550196265024648</v>
+        <v>0.05442043649160932</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.004093564083499385</v>
+        <v>-0.003454682170774939</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1327624630007477</v>
+        <v>0.1269996266410794</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05446142288280987</v>
+        <v>0.05487858297256991</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.004574097827588633</v>
+        <v>-0.002541891455829251</v>
       </c>
       <c r="M153" t="n">
-        <v>0.3207664483451808</v>
+        <v>0.3046868950941554</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05432753683356552</v>
+        <v>0.05510968313093769</v>
       </c>
       <c r="O153" t="n">
-        <v>-0.00185953201460897</v>
+        <v>-0.001747942260500335</v>
       </c>
       <c r="P153" t="n">
-        <v>0.4726593068542512</v>
+        <v>0.4786613357387091</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.05441198552019006</v>
+        <v>0.05397777918260329</v>
       </c>
       <c r="R153" t="n">
-        <v>-0.005038142689515056</v>
+        <v>-0.002529330462140475</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06357453154220927</v>
+        <v>0.06449318716753338</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05631816798333834</v>
+        <v>0.05522073702825063</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.004093154727091035</v>
+        <v>-0.003453645973363189</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1331815313009986</v>
+        <v>0.1273980661232361</v>
       </c>
       <c r="K154" t="n">
-        <v>0.05526232616049825</v>
+        <v>0.05568562095746064</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.004574097827588633</v>
+        <v>-0.002541891455829251</v>
       </c>
       <c r="M154" t="n">
-        <v>0.3216766647813639</v>
+        <v>0.3052939546086116</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05512647119876502</v>
+        <v>0.05592011964756913</v>
       </c>
       <c r="O154" t="n">
-        <v>-0.00185953201460897</v>
+        <v>-0.001747942260500335</v>
       </c>
       <c r="P154" t="n">
-        <v>0.4742520218752091</v>
+        <v>0.4796226057840355</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.05521216177783991</v>
+        <v>0.0547715700529357</v>
       </c>
       <c r="R154" t="n">
-        <v>-0.005038142689515056</v>
+        <v>-0.002529330462140475</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06364771258415906</v>
+        <v>0.06463317378247781</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0571343733164302</v>
+        <v>0.05602103756489194</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.003922094572024729</v>
+        <v>-0.003454682170774939</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1336974337934426</v>
+        <v>0.1277913366256284</v>
       </c>
       <c r="K155" t="n">
-        <v>0.05606322943818663</v>
+        <v>0.05649265894235137</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.004281913471958457</v>
+        <v>-0.002541891455829251</v>
       </c>
       <c r="M155" t="n">
-        <v>0.3224316875771962</v>
+        <v>0.3058497030435616</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0559254055639645</v>
+        <v>0.05673055616420057</v>
       </c>
       <c r="O155" t="n">
-        <v>-0.00185953201460897</v>
+        <v>-0.001899222518269355</v>
       </c>
       <c r="P155" t="n">
-        <v>0.4759244070646951</v>
+        <v>0.4804929198321019</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.05601233803548976</v>
+        <v>0.0555653609232681</v>
       </c>
       <c r="R155" t="n">
-        <v>-0.005038142689515056</v>
+        <v>-0.002529330462140475</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06369129101530557</v>
+        <v>0.06475791448681913</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05795057864952204</v>
+        <v>0.05682133810153326</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.003922486742264907</v>
+        <v>-0.003541590501665936</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1341624208139346</v>
+        <v>0.1282159524549227</v>
       </c>
       <c r="K156" t="n">
-        <v>0.056864132715875</v>
+        <v>0.05729969692724211</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.004281913471958457</v>
+        <v>-0.00265297339933594</v>
       </c>
       <c r="M156" t="n">
-        <v>0.3232666079881938</v>
+        <v>0.3064440008935759</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05672433992916401</v>
+        <v>0.05754099268083199</v>
       </c>
       <c r="O156" t="n">
-        <v>-0.001766311686507292</v>
+        <v>-0.001899222518269355</v>
       </c>
       <c r="P156" t="n">
-        <v>0.4775964685241063</v>
+        <v>0.4813454843016878</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.05681251429313963</v>
+        <v>0.05635915179360049</v>
       </c>
       <c r="R156" t="n">
-        <v>-0.005029715158326929</v>
+        <v>-0.00255595556532809</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06375012312103658</v>
+        <v>0.06484924910427414</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0587667839826139</v>
+        <v>0.05762163863817457</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.00392170240178455</v>
+        <v>-0.00354123634261577</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1346487752619397</v>
+        <v>0.1286909050141906</v>
       </c>
       <c r="K157" t="n">
-        <v>0.05766503599356339</v>
+        <v>0.05810673491213285</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.004281913471958457</v>
+        <v>-0.00265297339933594</v>
       </c>
       <c r="M157" t="n">
-        <v>0.3241337036836107</v>
+        <v>0.307031193109953</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05752327429436349</v>
+        <v>0.05835142919746344</v>
       </c>
       <c r="O157" t="n">
-        <v>-0.001766311686507292</v>
+        <v>-0.001899222518269355</v>
       </c>
       <c r="P157" t="n">
-        <v>0.4795522279770235</v>
+        <v>0.4820342399159012</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.05761269055078947</v>
+        <v>0.0571529426639329</v>
       </c>
       <c r="R157" t="n">
-        <v>-0.005029715158326929</v>
+        <v>-0.00255595556532809</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0638064799583986</v>
+        <v>0.06496150821949544</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05958298931570577</v>
+        <v>0.05842193917481588</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.003921310231544371</v>
+        <v>-0.003541944660716102</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1351184747265973</v>
+        <v>0.1291279106000888</v>
       </c>
       <c r="K158" t="n">
-        <v>0.05846593927125177</v>
+        <v>0.05891377289702358</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.004281913471958457</v>
+        <v>-0.00265297339933594</v>
       </c>
       <c r="M158" t="n">
-        <v>0.3249374184934433</v>
+        <v>0.3075653883720193</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05832220865956299</v>
+        <v>0.05916186571409487</v>
       </c>
       <c r="O158" t="n">
-        <v>-0.001766311686507292</v>
+        <v>-0.001899222518269355</v>
       </c>
       <c r="P158" t="n">
-        <v>0.4812741791623498</v>
+        <v>0.482925469571347</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.05841286680843933</v>
+        <v>0.0579467335342653</v>
       </c>
       <c r="R158" t="n">
-        <v>-0.005029715158326929</v>
+        <v>-0.00255595556532809</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06386947514219975</v>
+        <v>0.06504939213123266</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06039919464879763</v>
+        <v>0.0592222397114572</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.003922094572024729</v>
+        <v>-0.00354123634261577</v>
       </c>
       <c r="J159" t="n">
-        <v>0.135663044682905</v>
+        <v>0.129599385860981</v>
       </c>
       <c r="K159" t="n">
-        <v>0.05926684254894016</v>
+        <v>0.05972081088191431</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.004281913471958457</v>
+        <v>-0.00265297339933594</v>
       </c>
       <c r="M159" t="n">
-        <v>0.3257718463572866</v>
+        <v>0.3082753765668593</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05912114302476248</v>
+        <v>0.05997230223072631</v>
       </c>
       <c r="O159" t="n">
-        <v>-0.001766311686507292</v>
+        <v>-0.001899222518269355</v>
       </c>
       <c r="P159" t="n">
-        <v>0.4834127632287565</v>
+        <v>0.4837267906079458</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.05921304306608918</v>
+        <v>0.0587405244045977</v>
       </c>
       <c r="R159" t="n">
-        <v>-0.005029715158326929</v>
+        <v>-0.00255595556532809</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06392133877537244</v>
+        <v>0.06514183274984282</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06121539998188949</v>
+        <v>0.06002254024809851</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.003677577372661132</v>
+        <v>-0.00354272183677904</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1361144276772063</v>
+        <v>0.1300706188544725</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06006774582662854</v>
+        <v>0.06052784886680505</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.003869676775365833</v>
+        <v>-0.002761915741217857</v>
       </c>
       <c r="M160" t="n">
-        <v>0.3264934601112252</v>
+        <v>0.3087947087834008</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05992007738996198</v>
+        <v>0.06078273874735775</v>
       </c>
       <c r="O160" t="n">
-        <v>-0.001682180265299358</v>
+        <v>-0.002358482782335564</v>
       </c>
       <c r="P160" t="n">
-        <v>0.4853019642571492</v>
+        <v>0.4845851978170449</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.06001321932373903</v>
+        <v>0.0595343152749301</v>
       </c>
       <c r="R160" t="n">
-        <v>-0.005009765311492326</v>
+        <v>-0.00258822185244187</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06398015215383621</v>
+        <v>0.0652401091488681</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06203160531498135</v>
+        <v>0.06082284078473982</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.003677577372661132</v>
+        <v>-0.00354272183677904</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1366386924290445</v>
+        <v>0.1305974948407894</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06086864910431691</v>
+        <v>0.06133488685169577</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.003869676775365833</v>
+        <v>-0.002761915741217857</v>
       </c>
       <c r="M161" t="n">
-        <v>0.3272441671557019</v>
+        <v>0.3093981627848935</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06071901175516146</v>
+        <v>0.06159317526398919</v>
       </c>
       <c r="O161" t="n">
-        <v>-0.001682180265299358</v>
+        <v>-0.002358482782335564</v>
       </c>
       <c r="P161" t="n">
-        <v>0.4873008038455531</v>
+        <v>0.4853542279605912</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.06081339558138889</v>
+        <v>0.0603281061452625</v>
       </c>
       <c r="R161" t="n">
-        <v>-0.005009765311492326</v>
+        <v>-0.00258822185244187</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06401914679863763</v>
+        <v>0.06531704746061283</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06284781064807321</v>
+        <v>0.06162314132138114</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.003677577372661132</v>
+        <v>-0.003543076108962718</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1370856121257975</v>
+        <v>0.1311539060805111</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06166955238200529</v>
+        <v>0.06214192483658652</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.003869676775365833</v>
+        <v>-0.002761915741217857</v>
       </c>
       <c r="M162" t="n">
-        <v>0.3279277876230695</v>
+        <v>0.3099019980881525</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06151794612036097</v>
+        <v>0.06240361178062061</v>
       </c>
       <c r="O162" t="n">
-        <v>-0.001682180265299358</v>
+        <v>-0.002358482782335564</v>
       </c>
       <c r="P162" t="n">
-        <v>0.4892548022049913</v>
+        <v>0.4861075939522022</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.06161357183903874</v>
+        <v>0.06112189701559491</v>
       </c>
       <c r="R162" t="n">
-        <v>-0.005009765311492326</v>
+        <v>-0.00258822185244187</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06405641015850265</v>
+        <v>0.06540918409354381</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06366401598116507</v>
+        <v>0.06242344185802245</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.003677945093626302</v>
+        <v>-0.003543076108962718</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1376035199866853</v>
+        <v>0.1318076738396035</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06247045565969368</v>
+        <v>0.06294896282147726</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.003378814751404032</v>
+        <v>-0.002910820152545507</v>
       </c>
       <c r="M163" t="n">
-        <v>0.3287826416880074</v>
+        <v>0.3103978365812316</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06231688048556045</v>
+        <v>0.06321404829725205</v>
       </c>
       <c r="O163" t="n">
-        <v>-0.001682180265299358</v>
+        <v>-0.002358482782335564</v>
       </c>
       <c r="P163" t="n">
-        <v>0.4912302472028414</v>
+        <v>0.4868456433629679</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.06241374809668859</v>
+        <v>0.06191568788592731</v>
       </c>
       <c r="R163" t="n">
-        <v>-0.005009765311492326</v>
+        <v>-0.00258822185244187</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06411905432621902</v>
+        <v>0.06548931938108508</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06448022131425693</v>
+        <v>0.06322374239466376</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.003383534615694872</v>
+        <v>-0.003468929360300417</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1380602194693092</v>
+        <v>0.1324816894121808</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06327135893738206</v>
+        <v>0.06375600080636798</v>
       </c>
       <c r="L164" t="n">
-        <v>-0.003378814751404032</v>
+        <v>-0.002910820152545507</v>
       </c>
       <c r="M164" t="n">
-        <v>0.3293773146506408</v>
+        <v>0.3109777367662069</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06311581485075995</v>
+        <v>0.06402448481388349</v>
       </c>
       <c r="O164" t="n">
-        <v>-0.001608599537303073</v>
+        <v>-0.003023885668974424</v>
       </c>
       <c r="P164" t="n">
-        <v>0.4934429173272703</v>
+        <v>0.4874949816400281</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.06321392435433845</v>
+        <v>0.06270947875625971</v>
       </c>
       <c r="R164" t="n">
-        <v>-0.004982132582720919</v>
+        <v>-0.002626154445260839</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.0641623129669241</v>
+        <v>0.0655575525760837</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06529642664734879</v>
+        <v>0.06402404293130508</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.003384211390295471</v>
+        <v>-0.003469623215558003</v>
       </c>
       <c r="J165" t="n">
-        <v>0.138548399087102</v>
+        <v>0.1331527438813509</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06407226221507042</v>
+        <v>0.06456303879125871</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.003378814751404032</v>
+        <v>-0.002910820152545507</v>
       </c>
       <c r="M165" t="n">
-        <v>0.3299980017297027</v>
+        <v>0.3115034490733585</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06391474921595944</v>
+        <v>0.06483492133051494</v>
       </c>
       <c r="O165" t="n">
-        <v>-0.001608599537303073</v>
+        <v>-0.003023885668974424</v>
       </c>
       <c r="P165" t="n">
-        <v>0.4955147277341586</v>
+        <v>0.4882771827263284</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.0640141006119883</v>
+        <v>0.06350326962659211</v>
       </c>
       <c r="R165" t="n">
-        <v>-0.004982132582720919</v>
+        <v>-0.002626154445260839</v>
       </c>
     </row>
     <row r="166">
       <c r="F166" t="n">
-        <v>0.06420430180848659</v>
+        <v>0.0656414021033673</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06611263198044065</v>
+        <v>0.0648243434679464</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.003383534615694872</v>
+        <v>-0.003468929360300417</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1389916081107907</v>
+        <v>0.1338708610457884</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06487316549275882</v>
+        <v>0.06537007677614945</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.003378814751404032</v>
+        <v>-0.002910820152545507</v>
       </c>
       <c r="M166" t="n">
-        <v>0.3306441002475484</v>
+        <v>0.3120208830675987</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06471368358115893</v>
+        <v>0.06564535784714637</v>
       </c>
       <c r="O166" t="n">
-        <v>-0.001608599537303073</v>
+        <v>-0.003023885668974424</v>
       </c>
       <c r="P166" t="n">
-        <v>0.4974372092091978</v>
+        <v>0.4889713678211043</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.06481427686963816</v>
+        <v>0.06429706049692452</v>
       </c>
       <c r="R166" t="n">
-        <v>-0.004982132582720919</v>
+        <v>-0.002626154445260839</v>
       </c>
     </row>
     <row r="167">
       <c r="F167" t="n">
-        <v>0.06422717245824465</v>
+        <v>0.0656953033510782</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06692883731353251</v>
+        <v>0.0656246440045877</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.00338454977759577</v>
+        <v>-0.003468929360300417</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1394263161983296</v>
+        <v>0.1346315460867348</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06567406877044719</v>
+        <v>0.06617711476104018</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.003378814751404032</v>
+        <v>-0.002910820152545507</v>
       </c>
       <c r="M167" t="n">
-        <v>0.3312668626719645</v>
+        <v>0.3124374117981492</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06551261794635843</v>
+        <v>0.06645579436377781</v>
       </c>
       <c r="O167" t="n">
-        <v>-0.001608599537303073</v>
+        <v>-0.003792666835880098</v>
       </c>
       <c r="P167" t="n">
-        <v>0.4996516412308749</v>
+        <v>0.4896516266193988</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.06561445312728802</v>
+        <v>0.06509085136725691</v>
       </c>
       <c r="R167" t="n">
-        <v>-0.004982132582720919</v>
+        <v>-0.002626154445260839</v>
       </c>
     </row>
     <row r="168">
       <c r="F168" t="n">
-        <v>0.06427606951749799</v>
+        <v>0.06576508295990807</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06774504264662437</v>
+        <v>0.06642494454122902</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.003064229198531825</v>
+        <v>-0.003345724711144046</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1398513851809298</v>
+        <v>0.1353747108546049</v>
       </c>
       <c r="K168" t="n">
-        <v>0.06647497204813557</v>
+        <v>0.06698415274593092</v>
       </c>
       <c r="L168" t="n">
-        <v>-0.002853722877248461</v>
+        <v>-0.003095301493702196</v>
       </c>
       <c r="M168" t="n">
-        <v>0.3320100533033739</v>
+        <v>0.3130766936520461</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06631155231155793</v>
+        <v>0.06726623088040924</v>
       </c>
       <c r="O168" t="n">
-        <v>-0.001545687257743564</v>
+        <v>-0.003792666835880098</v>
       </c>
       <c r="P168" t="n">
-        <v>0.5016271262125701</v>
+        <v>0.4902442896650383</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.06641462938493786</v>
+        <v>0.06588464223758932</v>
       </c>
       <c r="R168" t="n">
-        <v>-0.004945150223080477</v>
+        <v>-0.002665914403460413</v>
       </c>
     </row>
     <row r="169">
       <c r="F169" t="n">
-        <v>0.06433316446058181</v>
+        <v>0.06584174597867136</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06856124797971623</v>
+        <v>0.06722524507787034</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.003063922775611972</v>
+        <v>-0.003346728528939169</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1403417988413617</v>
+        <v>0.1361510239761096</v>
       </c>
       <c r="K169" t="n">
-        <v>0.06727587532582396</v>
+        <v>0.06779119073082165</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.002853722877248461</v>
+        <v>-0.003095301493702196</v>
       </c>
       <c r="M169" t="n">
-        <v>0.332583886254149</v>
+        <v>0.3134758653988556</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06711048667675741</v>
+        <v>0.06807666739704067</v>
       </c>
       <c r="O169" t="n">
-        <v>-0.001545687257743564</v>
+        <v>-0.003792666835880098</v>
       </c>
       <c r="P169" t="n">
-        <v>0.5038067925926104</v>
+        <v>0.4907495085336374</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.06721480564258772</v>
+        <v>0.06667843310792172</v>
       </c>
       <c r="R169" t="n">
-        <v>-0.004945150223080477</v>
+        <v>-0.002665914403460413</v>
       </c>
     </row>
     <row r="170">
       <c r="F170" t="n">
-        <v>0.06437158540231171</v>
+        <v>0.06591626863076974</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06937745331280809</v>
+        <v>0.06802554561451164</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.003064842044371532</v>
+        <v>-0.003346393923007461</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1407634180742782</v>
+        <v>0.1369560080895323</v>
       </c>
       <c r="K170" t="n">
-        <v>0.06807677860351233</v>
+        <v>0.06859822871571239</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.002853722877248461</v>
+        <v>-0.003095301493702196</v>
       </c>
       <c r="M170" t="n">
-        <v>0.3332389035877807</v>
+        <v>0.3140516274241</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06790942104195691</v>
+        <v>0.06888710391367212</v>
       </c>
       <c r="O170" t="n">
-        <v>-0.001545687257743564</v>
+        <v>-0.003792666835880098</v>
       </c>
       <c r="P170" t="n">
-        <v>0.5055806964645441</v>
+        <v>0.4916123209462989</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.06801498190023757</v>
+        <v>0.06747222397825411</v>
       </c>
       <c r="R170" t="n">
-        <v>-0.004945150223080477</v>
+        <v>-0.002665914403460413</v>
       </c>
     </row>
     <row r="171">
       <c r="F171" t="n">
-        <v>0.06440047512310171</v>
+        <v>0.06597960059113653</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07019365864589995</v>
+        <v>0.06882584615115296</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.003063922775611972</v>
+        <v>-0.003346393923007461</v>
       </c>
       <c r="J171" t="n">
-        <v>0.141152949574135</v>
+        <v>0.1377101068354429</v>
       </c>
       <c r="K171" t="n">
-        <v>0.06887768188120072</v>
+        <v>0.06940526670060312</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.002853722877248461</v>
+        <v>-0.003095301493702196</v>
       </c>
       <c r="M171" t="n">
-        <v>0.3335083554203729</v>
+        <v>0.3144793206890336</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0687083554071564</v>
+        <v>0.06969754043030356</v>
       </c>
       <c r="O171" t="n">
-        <v>-0.001545687257743564</v>
+        <v>-0.003792666835880098</v>
       </c>
       <c r="P171" t="n">
-        <v>0.5076205013687681</v>
+        <v>0.492240350269574</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.06881515815788743</v>
+        <v>0.06826601484858652</v>
       </c>
       <c r="R171" t="n">
-        <v>-0.004945150223080477</v>
+        <v>-0.002665914403460413</v>
       </c>
     </row>
     <row r="172">
       <c r="F172" t="n">
-        <v>0.0644470296772699</v>
+        <v>0.06603184615311278</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07100986397899181</v>
+        <v>0.06962614668779428</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.002744344997712281</v>
+        <v>-0.003191881348267402</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1415091339721583</v>
+        <v>0.1385398492866498</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0696785851588891</v>
+        <v>0.07021230468549385</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.002338173932372418</v>
+        <v>-0.003294878280348387</v>
       </c>
       <c r="M172" t="n">
-        <v>0.3340022903664207</v>
+        <v>0.3149908399981905</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0695072897723559</v>
+        <v>0.07050797694693499</v>
       </c>
       <c r="O172" t="n">
-        <v>-0.001494261293679842</v>
+        <v>-0.004558049429047641</v>
       </c>
       <c r="P172" t="n">
-        <v>0.5095415522393212</v>
+        <v>0.4928561911518213</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.06961533441553729</v>
+        <v>0.06905980571891893</v>
       </c>
       <c r="R172" t="n">
-        <v>-0.004903111309571257</v>
+        <v>-0.002706275740300126</v>
       </c>
     </row>
     <row r="173">
       <c r="F173" t="n">
-        <v>0.06446630936605591</v>
+        <v>0.06608229582961588</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07182606931208367</v>
+        <v>0.07042644722443558</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.002744344997712281</v>
+        <v>-0.003190923975337508</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1419074840452119</v>
+        <v>0.1392711121343442</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07047948843657748</v>
+        <v>0.07101934267038458</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.002338173932372418</v>
+        <v>-0.003294878280348387</v>
       </c>
       <c r="M173" t="n">
-        <v>0.334516482062757</v>
+        <v>0.3153071191602263</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07030622413755538</v>
+        <v>0.07131841346356643</v>
       </c>
       <c r="O173" t="n">
-        <v>-0.001494261293679842</v>
+        <v>-0.004558049429047641</v>
       </c>
       <c r="P173" t="n">
-        <v>0.5115644701648996</v>
+        <v>0.4933115288583597</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.07041551067318713</v>
+        <v>0.06985359658925132</v>
       </c>
       <c r="R173" t="n">
-        <v>-0.004903111309571257</v>
+        <v>-0.002706275740300126</v>
       </c>
     </row>
     <row r="174">
       <c r="F174" t="n">
-        <v>0.06451258923679593</v>
+        <v>0.06616783701183294</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07264227464517553</v>
+        <v>0.0712267477610769</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.002744070590653216</v>
+        <v>-0.003191562223957437</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1422895141469188</v>
+        <v>0.1400690743896736</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07128039171426587</v>
+        <v>0.07182638065527533</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.002338173932372418</v>
+        <v>-0.003294878280348387</v>
       </c>
       <c r="M174" t="n">
-        <v>0.3349532610901238</v>
+        <v>0.3158467095072386</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07110515850275488</v>
+        <v>0.07212884998019786</v>
       </c>
       <c r="O174" t="n">
-        <v>-0.001494261293679842</v>
+        <v>-0.004558049429047641</v>
       </c>
       <c r="P174" t="n">
-        <v>0.5131488583397229</v>
+        <v>0.4940526978775952</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.07121568693083699</v>
+        <v>0.07064738745958372</v>
       </c>
       <c r="R174" t="n">
-        <v>-0.004903111309571257</v>
+        <v>-0.002706275740300126</v>
       </c>
     </row>
     <row r="175">
       <c r="F175" t="n">
-        <v>0.06454993343542867</v>
+        <v>0.06621508884742486</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07345847997826739</v>
+        <v>0.07202704829771822</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.00274379618359415</v>
+        <v>-0.003024793553453781</v>
       </c>
       <c r="J175" t="n">
-        <v>0.142615555214394</v>
+        <v>0.1408154558660849</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07208129499195423</v>
+        <v>0.07263341864016606</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.002338173932372418</v>
+        <v>-0.003488860418003007</v>
       </c>
       <c r="M175" t="n">
-        <v>0.3354087586585921</v>
+        <v>0.3162371551262111</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07190409286795436</v>
+        <v>0.07293928649682929</v>
       </c>
       <c r="O175" t="n">
-        <v>-0.001494261293679842</v>
+        <v>-0.004558049429047641</v>
       </c>
       <c r="P175" t="n">
-        <v>0.5148968073251611</v>
+        <v>0.4945596103471206</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.07201586318848684</v>
+        <v>0.07144117832991613</v>
       </c>
       <c r="R175" t="n">
-        <v>-0.004903111309571257</v>
+        <v>-0.002706275740300126</v>
       </c>
     </row>
     <row r="176">
       <c r="F176" t="n">
-        <v>0.06457848149028297</v>
+        <v>0.06625171344509978</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07427468531135925</v>
+        <v>0.07282734883435953</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.002446242290956061</v>
+        <v>-0.003025398512164471</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1429421475283435</v>
+        <v>0.1416008848116438</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07288219826964262</v>
+        <v>0.07344045662505679</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.001874818131879572</v>
+        <v>-0.003488860418003007</v>
       </c>
       <c r="M176" t="n">
-        <v>0.3358337041309989</v>
+        <v>0.3166646012157197</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07270302723315387</v>
+        <v>0.07374972301346074</v>
       </c>
       <c r="O176" t="n">
-        <v>-0.001455714598518968</v>
+        <v>-0.005218236961088843</v>
       </c>
       <c r="P176" t="n">
-        <v>0.5166493321457495</v>
+        <v>0.4952046216923471</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.0728160394461367</v>
+        <v>0.07223496920024852</v>
       </c>
       <c r="R176" t="n">
-        <v>-0.004852417941517762</v>
+        <v>-0.002744428327747755</v>
       </c>
     </row>
     <row r="177">
       <c r="F177" t="n">
-        <v>0.06461644795034957</v>
+        <v>0.06630544063807302</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07509089064445111</v>
+        <v>0.07362764937100083</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.002445753140327996</v>
+        <v>-0.003024793553453781</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1432875730392767</v>
+        <v>0.1423251576487602</v>
       </c>
       <c r="K177" t="n">
-        <v>0.073683101547331</v>
+        <v>0.07424749460994752</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.001874818131879572</v>
+        <v>-0.003488860418003007</v>
       </c>
       <c r="M177" t="n">
-        <v>0.3360814537583069</v>
+        <v>0.3170823375570898</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07350196159835336</v>
+        <v>0.07456015953009217</v>
       </c>
       <c r="O177" t="n">
-        <v>-0.001455714598518968</v>
+        <v>-0.005218236961088843</v>
       </c>
       <c r="P177" t="n">
-        <v>0.5183228609567547</v>
+        <v>0.4956156108136539</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.07361621570378656</v>
+        <v>0.07302876007058093</v>
       </c>
       <c r="R177" t="n">
-        <v>-0.004852417941517762</v>
+        <v>-0.002744428327747755</v>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="n">
-        <v>0.06467303639835686</v>
+        <v>0.06637642596924291</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07590709597754297</v>
+        <v>0.07442794990764216</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.002446242290956061</v>
+        <v>-0.003024491074098435</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1435734485361288</v>
+        <v>0.1430024312807328</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07448400482501938</v>
+        <v>0.07505453259483826</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.001874818131879572</v>
+        <v>-0.003488860418003007</v>
       </c>
       <c r="M178" t="n">
-        <v>0.3364427429809652</v>
+        <v>0.3175369829679909</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07430089596355285</v>
+        <v>0.07537059604672361</v>
       </c>
       <c r="O178" t="n">
-        <v>-0.001455714598518968</v>
+        <v>-0.005218236961088843</v>
       </c>
       <c r="P178" t="n">
-        <v>0.5198331659217083</v>
+        <v>0.4961655100627904</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.0744163919614364</v>
+        <v>0.07382255094091333</v>
       </c>
       <c r="R178" t="n">
-        <v>-0.004852417941517762</v>
+        <v>-0.002744428327747755</v>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="n">
-        <v>0.06469414888127807</v>
+        <v>0.06640951667793955</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07672330131063483</v>
+        <v>0.07522825044428347</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.002194613956120955</v>
+        <v>-0.003025398512164471</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1437984617224705</v>
+        <v>0.1437052633285109</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07528490810270776</v>
+        <v>0.07586157057972899</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.001874818131879572</v>
+        <v>-0.003488860418003007</v>
       </c>
       <c r="M179" t="n">
-        <v>0.3366250290051649</v>
+        <v>0.3179349489885316</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07509983032875234</v>
+        <v>0.07618103256335505</v>
       </c>
       <c r="O179" t="n">
-        <v>-0.001455714598518968</v>
+        <v>-0.00566609113464723</v>
       </c>
       <c r="P179" t="n">
-        <v>0.5214449102597793</v>
+        <v>0.4968549969503968</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.07521656821908626</v>
+        <v>0.07461634181124573</v>
       </c>
       <c r="R179" t="n">
-        <v>-0.004852417941517762</v>
+        <v>-0.002777808601699624</v>
       </c>
     </row>
     <row r="180">
       <c r="F180" t="n">
-        <v>0.06473418481307625</v>
+        <v>0.06648778073842013</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07753950664372669</v>
+        <v>0.07602855098092477</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.002194613956120955</v>
+        <v>-0.002867826369020739</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1440389428531736</v>
+        <v>0.1443129433422664</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07608581138039613</v>
+        <v>0.07666860856461973</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.00150860907270212</v>
+        <v>-0.003657372171224102</v>
       </c>
       <c r="M180" t="n">
-        <v>0.3369194222891535</v>
+        <v>0.3183696412323256</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07589876469395185</v>
+        <v>0.07699146907998648</v>
       </c>
       <c r="O180" t="n">
-        <v>-0.001429961251610505</v>
+        <v>-0.00566609113464723</v>
       </c>
       <c r="P180" t="n">
-        <v>0.5224106907341752</v>
+        <v>0.4973111192241304</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.07601674447673611</v>
+        <v>0.07541013268157813</v>
       </c>
       <c r="R180" t="n">
-        <v>-0.004798771993084778</v>
+        <v>-0.002777808601699624</v>
       </c>
     </row>
     <row r="181">
       <c r="F181" t="n">
-        <v>0.06477521202972125</v>
+        <v>0.06652836584576199</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07835571197681854</v>
+        <v>0.07682885151756609</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.002194175121096736</v>
+        <v>-0.002867252918437051</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1442550441744914</v>
+        <v>0.145032896915782</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07688671465808453</v>
+        <v>0.07747564654951046</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.00150860907270212</v>
+        <v>-0.003657372171224102</v>
       </c>
       <c r="M181" t="n">
-        <v>0.3371304714319251</v>
+        <v>0.318700446684817</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07669769905915133</v>
+        <v>0.07780190559661791</v>
       </c>
       <c r="O181" t="n">
-        <v>-0.001429961251610505</v>
+        <v>-0.00566609113464723</v>
       </c>
       <c r="P181" t="n">
-        <v>0.523849819870074</v>
+        <v>0.4976833010527122</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.07681692073438597</v>
+        <v>0.07620392355191052</v>
       </c>
       <c r="R181" t="n">
-        <v>-0.004798771993084778</v>
+        <v>-0.002777808601699624</v>
       </c>
     </row>
     <row r="182">
       <c r="F182" t="n">
-        <v>0.06480832357165625</v>
+        <v>0.06657749961020848</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0791719173099104</v>
+        <v>0.07762915205420741</v>
       </c>
       <c r="H182" t="n">
-        <v>-0.002194175121096736</v>
+        <v>-0.002867252918437051</v>
       </c>
       <c r="J182" t="n">
-        <v>0.144445624880994</v>
+        <v>0.1454173004453186</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0776876179357729</v>
+        <v>0.0782826845344012</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.00150860907270212</v>
+        <v>-0.003657372171224102</v>
       </c>
       <c r="M182" t="n">
-        <v>0.337257303317989</v>
+        <v>0.3191146200046544</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07749663342435083</v>
+        <v>0.07861234211324936</v>
       </c>
       <c r="O182" t="n">
-        <v>-0.001429961251610505</v>
+        <v>-0.00566609113464723</v>
       </c>
       <c r="P182" t="n">
-        <v>0.5247092853452318</v>
+        <v>0.4982710471483017</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.07761709699203583</v>
+        <v>0.07699771442224293</v>
       </c>
       <c r="R182" t="n">
-        <v>-0.004798771993084778</v>
+        <v>-0.002777808601699624</v>
       </c>
     </row>
     <row r="183">
       <c r="F183" t="n">
-        <v>0.06487896731186968</v>
+        <v>0.06660760717696244</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07998812264300226</v>
+        <v>0.07842945259084871</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.002194394538608846</v>
+        <v>-0.002867826369020739</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1445900832128352</v>
+        <v>0.1458850938819579</v>
       </c>
       <c r="K183" t="n">
-        <v>0.07848852121346128</v>
+        <v>0.07908972251929193</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.001281580713595313</v>
+        <v>-0.003657372171224102</v>
       </c>
       <c r="M183" t="n">
-        <v>0.3374452998757852</v>
+        <v>0.3193775593737991</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07829556778955031</v>
+        <v>0.07942277862988079</v>
       </c>
       <c r="O183" t="n">
-        <v>-0.001429961251610505</v>
+        <v>-0.00566609113464723</v>
       </c>
       <c r="P183" t="n">
-        <v>0.5257557620562621</v>
+        <v>0.4987756539498733</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.07841727324968567</v>
+        <v>0.07779150529257532</v>
       </c>
       <c r="R183" t="n">
-        <v>-0.004798771993084778</v>
+        <v>-0.002777808601699624</v>
       </c>
     </row>
     <row r="184">
       <c r="F184" t="n">
-        <v>0.06490574869341859</v>
+        <v>0.06666499521624263</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08080432797609412</v>
+        <v>0.07922975312749003</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.002012058479754808</v>
+        <v>-0.002739043091849341</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1447261866617128</v>
+        <v>0.1463557499316541</v>
       </c>
       <c r="K184" t="n">
-        <v>0.07928942449114966</v>
+        <v>0.07989676050418267</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.001281580713595313</v>
+        <v>-0.00377653591751564</v>
       </c>
       <c r="M184" t="n">
-        <v>0.3375474594134011</v>
+        <v>0.3197236817178982</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07909450215474982</v>
+        <v>0.08023321514651223</v>
       </c>
       <c r="O184" t="n">
-        <v>-0.001418386438022883</v>
+        <v>-0.005804310970010315</v>
       </c>
       <c r="P184" t="n">
-        <v>0.5265948479827296</v>
+        <v>0.4992722447667032</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.07921744950733553</v>
+        <v>0.07858529616290773</v>
       </c>
       <c r="R184" t="n">
-        <v>-0.004740070399440715</v>
+        <v>-0.002803841447771872</v>
       </c>
     </row>
     <row r="185">
       <c r="F185" t="n">
-        <v>0.06497039070760069</v>
+        <v>0.06670359409532435</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08162053330918599</v>
+        <v>0.08003005366413135</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.002012460931695953</v>
+        <v>-0.00273822154323151</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1448333499737897</v>
+        <v>0.1466872163749918</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08009032776883804</v>
+        <v>0.08070379848907339</v>
       </c>
       <c r="L185" t="n">
-        <v>-0.001281580713595313</v>
+        <v>-0.00377653591751564</v>
       </c>
       <c r="M185" t="n">
-        <v>0.3376117026524928</v>
+        <v>0.3201550627473071</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0798934365199493</v>
+        <v>0.08104365166314367</v>
       </c>
       <c r="O185" t="n">
-        <v>-0.001418386438022883</v>
+        <v>-0.005804310970010315</v>
       </c>
       <c r="P185" t="n">
-        <v>0.5274522541849433</v>
+        <v>0.4999111193338021</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.08001762576498538</v>
+        <v>0.07937908703324013</v>
       </c>
       <c r="R185" t="n">
-        <v>-0.004740070399440715</v>
+        <v>-0.002803841447771872</v>
       </c>
     </row>
     <row r="186">
       <c r="F186" t="n">
-        <v>0.06501864495442156</v>
+        <v>0.06675125444716914</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08243673864227785</v>
+        <v>0.08083035420077266</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.002012662157666525</v>
+        <v>-0.00273822154323151</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1449494184428068</v>
+        <v>0.1469925860621837</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08089123104652643</v>
+        <v>0.08151083647396414</v>
       </c>
       <c r="L186" t="n">
-        <v>-0.001281580713595313</v>
+        <v>-0.00377653591751564</v>
       </c>
       <c r="M186" t="n">
-        <v>0.3377347471552661</v>
+        <v>0.3204463837994249</v>
       </c>
       <c r="N186" t="n">
-        <v>0.0806923708851488</v>
+        <v>0.08185408817977509</v>
       </c>
       <c r="O186" t="n">
-        <v>-0.001418386438022883</v>
+        <v>-0.005804310970010315</v>
       </c>
       <c r="P186" t="n">
-        <v>0.5280099464860716</v>
+        <v>0.5003177927293453</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.08081780202263522</v>
+        <v>0.08017287790357253</v>
       </c>
       <c r="R186" t="n">
-        <v>-0.004740070399440715</v>
+        <v>-0.002803841447771872</v>
       </c>
     </row>
     <row r="187">
       <c r="F187" t="n">
-        <v>0.06505063321759058</v>
+        <v>0.06680811386234195</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08325294397536971</v>
+        <v>0.08163065473741397</v>
       </c>
       <c r="H187" t="n">
-        <v>-0.002012058479754808</v>
+        <v>-0.002657348898424655</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1449562934221449</v>
+        <v>0.1472476077111582</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08169213432421481</v>
+        <v>0.08231787445885487</v>
       </c>
       <c r="L187" t="n">
-        <v>-0.001281580713595313</v>
+        <v>-0.003828702223719352</v>
       </c>
       <c r="M187" t="n">
-        <v>0.3377322000575748</v>
+        <v>0.3206925163830514</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08149130525034828</v>
+        <v>0.08266452469640653</v>
       </c>
       <c r="O187" t="n">
-        <v>-0.001418386438022883</v>
+        <v>-0.005804310970010315</v>
       </c>
       <c r="P187" t="n">
-        <v>0.5283381893989214</v>
+        <v>0.5008675398039127</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.08161797828028509</v>
+        <v>0.08096666877390493</v>
       </c>
       <c r="R187" t="n">
-        <v>-0.004740070399440715</v>
+        <v>-0.002803841447771872</v>
       </c>
     </row>
     <row r="188">
       <c r="F188" t="n">
-        <v>0.06510281988127141</v>
+        <v>0.06684652532968814</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08406914930846157</v>
+        <v>0.08243095527405529</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.00192471323362788</v>
+        <v>-0.002657880421356633</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1449896316217845</v>
+        <v>0.1474081390339261</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08249303760190319</v>
+        <v>0.0831249124437456</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.001231025829800322</v>
+        <v>-0.003828702223719352</v>
       </c>
       <c r="M188" t="n">
-        <v>0.3377212396377675</v>
+        <v>0.3211756883545877</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08229023961554778</v>
+        <v>0.08347496121303798</v>
       </c>
       <c r="O188" t="n">
-        <v>-0.001424647430830903</v>
+        <v>-0.005747157235968399</v>
       </c>
       <c r="P188" t="n">
-        <v>0.5286632326120484</v>
+        <v>0.5011853982184158</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.08241815453793494</v>
+        <v>0.08176045964423734</v>
       </c>
       <c r="R188" t="n">
-        <v>-0.004676217976774981</v>
+        <v>-0.002822206585720302</v>
       </c>
     </row>
     <row r="189">
       <c r="F189" t="n">
-        <v>0.06516629534581035</v>
+        <v>0.06689438277968095</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08488535464155343</v>
+        <v>0.0832312558106966</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.0019249057242003</v>
+        <v>-0.002658146182822622</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1449717865562462</v>
+        <v>0.1474891719687084</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08329394087959156</v>
+        <v>0.08393195042863633</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.001231025829800322</v>
+        <v>-0.003828702223719352</v>
       </c>
       <c r="M189" t="n">
-        <v>0.337653744864278</v>
+        <v>0.3214718135782537</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08308917398074728</v>
+        <v>0.08428539772966941</v>
       </c>
       <c r="O189" t="n">
-        <v>-0.001424647430830903</v>
+        <v>-0.005747157235968399</v>
       </c>
       <c r="P189" t="n">
-        <v>0.5287444200172615</v>
+        <v>0.5015719569232309</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.0832183307955848</v>
+        <v>0.08255425051456973</v>
       </c>
       <c r="R189" t="n">
-        <v>-0.004676217976774981</v>
+        <v>-0.002822206585720302</v>
       </c>
     </row>
     <row r="190">
       <c r="F190" t="n">
-        <v>0.0652321300157397</v>
+        <v>0.06695196399732851</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08570155997464529</v>
+        <v>0.08403155634733792</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.0019249057242003</v>
+        <v>-0.002657348898424655</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1450318428199926</v>
+        <v>0.1474979085598374</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08409484415727994</v>
+        <v>0.08473898841352706</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.001231025829800322</v>
+        <v>-0.003828702223719352</v>
       </c>
       <c r="M190" t="n">
-        <v>0.3376762912092366</v>
+        <v>0.321863223360738</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08388810834594677</v>
+        <v>0.08509583424630085</v>
       </c>
       <c r="O190" t="n">
-        <v>-0.001424647430830903</v>
+        <v>-0.005747157235968399</v>
       </c>
       <c r="P190" t="n">
-        <v>0.5285053690049927</v>
+        <v>0.5020277037857664</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.08401850705323465</v>
+        <v>0.08334804138490214</v>
       </c>
       <c r="R190" t="n">
-        <v>-0.004676217976774981</v>
+        <v>-0.002822206585720302</v>
       </c>
     </row>
     <row r="191">
       <c r="F191" t="n">
-        <v>0.06528276486068398</v>
+        <v>0.06699157088530623</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08651776530773715</v>
+        <v>0.08483185688397923</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.00192529070534514</v>
+        <v>-0.002657348898424655</v>
       </c>
       <c r="J191" t="n">
-        <v>0.144974811609098</v>
+        <v>0.1474939707924096</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08489574743496833</v>
+        <v>0.0855460263984178</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.001256600749535522</v>
+        <v>-0.003828702223719352</v>
       </c>
       <c r="M191" t="n">
-        <v>0.3375941366159463</v>
+        <v>0.322113749579044</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08468704271114626</v>
+        <v>0.08590627076293229</v>
       </c>
       <c r="O191" t="n">
-        <v>-0.001424647430830903</v>
+        <v>-0.00560698608105217</v>
       </c>
       <c r="P191" t="n">
-        <v>0.5284896029096312</v>
+        <v>0.5024778677330409</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.08481868331088449</v>
+        <v>0.08414183225523454</v>
       </c>
       <c r="R191" t="n">
-        <v>-0.004676217976774981</v>
+        <v>-0.002822206585720302</v>
       </c>
     </row>
     <row r="192">
       <c r="F192" t="n">
-        <v>0.06535522722156556</v>
+        <v>0.0670502426560535</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08733397064082901</v>
+        <v>0.08563215742062054</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.001923234889251293</v>
+        <v>-0.00261212692293446</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1449956897714282</v>
+        <v>0.1475257950320757</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08569665071265671</v>
+        <v>0.08635306438330854</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.001256600749535522</v>
+        <v>-0.003805772883262803</v>
       </c>
       <c r="M192" t="n">
-        <v>0.3375050981546562</v>
+        <v>0.3225062390789648</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08548597707634575</v>
+        <v>0.08671670727956371</v>
       </c>
       <c r="O192" t="n">
-        <v>-0.00145542814254436</v>
+        <v>-0.00560698608105217</v>
       </c>
       <c r="P192" t="n">
-        <v>0.5284637468404297</v>
+        <v>0.5029980960414987</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.08561885956853436</v>
+        <v>0.08493562312556695</v>
       </c>
       <c r="R192" t="n">
-        <v>-0.004576208891397738</v>
+        <v>-0.002828374025437248</v>
       </c>
     </row>
     <row r="193">
       <c r="F193" t="n">
-        <v>0.06542202302185079</v>
+        <v>0.06711866790865013</v>
       </c>
       <c r="G193" t="n">
-        <v>0.08815017597392087</v>
+        <v>0.08643245795726186</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.001922850319187455</v>
+        <v>-0.002612388135626754</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1449774844658388</v>
+        <v>0.1474749625943557</v>
       </c>
       <c r="K193" t="n">
-        <v>0.08649755399034509</v>
+        <v>0.08716010236819927</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.001256600749535522</v>
+        <v>-0.003805772883262803</v>
       </c>
       <c r="M193" t="n">
-        <v>0.3375557092464564</v>
+        <v>0.3227570020522152</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08628491144154525</v>
+        <v>0.08752714379619515</v>
       </c>
       <c r="O193" t="n">
-        <v>-0.00145542814254436</v>
+        <v>-0.00560698608105217</v>
       </c>
       <c r="P193" t="n">
-        <v>0.5286615542732549</v>
+        <v>0.5035135482668699</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.08641903582618421</v>
+        <v>0.08572941399589934</v>
       </c>
       <c r="R193" t="n">
-        <v>-0.004576208891397738</v>
+        <v>-0.002828374025437248</v>
       </c>
     </row>
     <row r="194">
       <c r="F194" t="n">
-        <v>0.06547382019896456</v>
+        <v>0.06716893367069807</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08896638130701272</v>
+        <v>0.08723275849390318</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.001922658034155537</v>
+        <v>-0.002612649348319047</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1450371975777052</v>
+        <v>0.1474402923482612</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08729845726803347</v>
+        <v>0.08796714035309</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.001256600749535522</v>
+        <v>-0.003805772883262803</v>
       </c>
       <c r="M194" t="n">
-        <v>0.3373562938371801</v>
+        <v>0.3231492995733274</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08708384580674475</v>
+        <v>0.0883375803128266</v>
       </c>
       <c r="O194" t="n">
-        <v>-0.00145542814254436</v>
+        <v>-0.00560698608105217</v>
       </c>
       <c r="P194" t="n">
-        <v>0.5286161097855605</v>
+        <v>0.5040286593302981</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.08721921208383407</v>
+        <v>0.08652320486623175</v>
       </c>
       <c r="R194" t="n">
-        <v>-0.004576208891397738</v>
+        <v>-0.002828374025437248</v>
       </c>
     </row>
     <row r="195">
       <c r="F195" t="n">
-        <v>0.06554690875807882</v>
+        <v>0.06721025062198503</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08978258664010458</v>
+        <v>0.08803305903054448</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.001922850319187455</v>
+        <v>-0.00261212692293446</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1449798348789684</v>
+        <v>0.1474415981399263</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08809936054572184</v>
+        <v>0.08877417833798074</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.001256600749535522</v>
+        <v>-0.003805772883262803</v>
       </c>
       <c r="M195" t="n">
-        <v>0.3374433114541852</v>
+        <v>0.3235884252953835</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08788278017194423</v>
+        <v>0.08914801682945803</v>
       </c>
       <c r="O195" t="n">
-        <v>-0.00145542814254436</v>
+        <v>-0.00560698608105217</v>
       </c>
       <c r="P195" t="n">
-        <v>0.5285611776381044</v>
+        <v>0.5043199762387172</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.08801938834148391</v>
+        <v>0.08731699573656415</v>
       </c>
       <c r="R195" t="n">
-        <v>-0.004576208891397738</v>
+        <v>-0.002828374025437248</v>
       </c>
     </row>
     <row r="196">
       <c r="F196" t="n">
-        <v>0.06561372912363317</v>
+        <v>0.06725184940571625</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09059879197319644</v>
+        <v>0.0888333595671858</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.001936248228391508</v>
+        <v>-0.002572858874101627</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1450003985066859</v>
+        <v>0.1474394570235342</v>
       </c>
       <c r="K196" t="n">
-        <v>0.08890026382341024</v>
+        <v>0.08958121632287147</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.001310057619004593</v>
+        <v>-0.003725418705362967</v>
       </c>
       <c r="M196" t="n">
-        <v>0.3372809353563141</v>
+        <v>0.3237898617779856</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08868171453714373</v>
+        <v>0.08995845334608947</v>
       </c>
       <c r="O196" t="n">
-        <v>-0.001507382494781921</v>
+        <v>-0.00539827692139643</v>
       </c>
       <c r="P196" t="n">
-        <v>0.5283412913530737</v>
+        <v>0.5049150619144663</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.08881956459913376</v>
+        <v>0.08811078660689654</v>
       </c>
       <c r="R196" t="n">
-        <v>-0.004413929175231494</v>
+        <v>-0.002823390217750587</v>
       </c>
     </row>
     <row r="197">
       <c r="F197" t="n">
-        <v>0.06569236123384434</v>
+        <v>0.06729367472568536</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0914149973062883</v>
+        <v>0.08963366010382712</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.001936829160953281</v>
+        <v>-0.002573116159989038</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1450403930188089</v>
+        <v>0.1473747227363693</v>
       </c>
       <c r="K197" t="n">
-        <v>0.08970116710109861</v>
+        <v>0.09038825430776221</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.001310057619004593</v>
+        <v>-0.003725418705362967</v>
       </c>
       <c r="M197" t="n">
-        <v>0.3373080495919036</v>
+        <v>0.3242743744302529</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08948064890234322</v>
+        <v>0.09076888986272091</v>
       </c>
       <c r="O197" t="n">
-        <v>-0.001507382494781921</v>
+        <v>-0.00539827692139643</v>
       </c>
       <c r="P197" t="n">
-        <v>0.5284236574857379</v>
+        <v>0.5051343885151016</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.08961974085678363</v>
+        <v>0.08890457747722895</v>
       </c>
       <c r="R197" t="n">
-        <v>-0.004413929175231494</v>
+        <v>-0.002823390217750587</v>
       </c>
     </row>
     <row r="198">
       <c r="F198" t="n">
-        <v>0.0657734857897494</v>
+        <v>0.06737291683299478</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09223120263938016</v>
+        <v>0.09043396064046842</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.001936635516766024</v>
+        <v>-0.002573116159989038</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1450218214647321</v>
+        <v>0.1474053858083104</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09050207037878699</v>
+        <v>0.09119529229265294</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.001310057619004593</v>
+        <v>-0.003725418705362967</v>
       </c>
       <c r="M198" t="n">
-        <v>0.3372325795765599</v>
+        <v>0.3245677397307157</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09027958326754272</v>
+        <v>0.09157932637935233</v>
       </c>
       <c r="O198" t="n">
-        <v>-0.001507382494781921</v>
+        <v>-0.00539827692139643</v>
       </c>
       <c r="P198" t="n">
-        <v>0.5283414730417429</v>
+        <v>0.5057325703701105</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.09041991711443348</v>
+        <v>0.08969836834756136</v>
       </c>
       <c r="R198" t="n">
-        <v>-0.004413929175231494</v>
+        <v>-0.002823390217750587</v>
       </c>
     </row>
     <row r="199">
       <c r="F199" t="n">
-        <v>0.06585691413516001</v>
+        <v>0.06742436652617143</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09304740797247202</v>
+        <v>0.09123426117710974</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.001936248228391508</v>
+        <v>-0.002539866844648654</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1450031877031643</v>
+        <v>0.1473144060618579</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09130297365647537</v>
+        <v>0.09200233027754368</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.001310057619004593</v>
+        <v>-0.003599436380284835</v>
       </c>
       <c r="M199" t="n">
-        <v>0.3370548645012746</v>
+        <v>0.3249066610500744</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0910785176327422</v>
+        <v>0.09238976289598377</v>
       </c>
       <c r="O199" t="n">
-        <v>-0.001507382494781921</v>
+        <v>-0.00539827692139643</v>
       </c>
       <c r="P199" t="n">
-        <v>0.5280949890620047</v>
+        <v>0.5061050217741345</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.09122009337208334</v>
+        <v>0.09049215921789375</v>
       </c>
       <c r="R199" t="n">
-        <v>-0.004202747480899098</v>
+        <v>-0.002823390217750587</v>
       </c>
     </row>
     <row r="200">
       <c r="F200" t="n">
-        <v>0.06596997095820273</v>
+        <v>0.06746656565372303</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09386361330556388</v>
+        <v>0.09203456171375106</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.001957898951320311</v>
+        <v>-0.002539866844648654</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1450039958713618</v>
+        <v>0.147318945748414</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09210387693416375</v>
+        <v>0.09280936826243441</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.001386019272389387</v>
+        <v>-0.003599436380284835</v>
       </c>
       <c r="M200" t="n">
-        <v>0.3370674312615689</v>
+        <v>0.3251958829062297</v>
       </c>
       <c r="N200" t="n">
-        <v>0.0918774519979417</v>
+        <v>0.09320019941261522</v>
       </c>
       <c r="O200" t="n">
-        <v>-0.001575402593461012</v>
+        <v>-0.005132702483466217</v>
       </c>
       <c r="P200" t="n">
-        <v>0.5279178656208618</v>
+        <v>0.5065535880102386</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.09202026962973318</v>
+        <v>0.09128595008822615</v>
       </c>
       <c r="R200" t="n">
-        <v>-0.004202747480899098</v>
+        <v>-0.002811646797775357</v>
       </c>
     </row>
     <row r="201">
       <c r="F201" t="n">
-        <v>0.0660299275697445</v>
+        <v>0.06752742401935437</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09467981863865575</v>
+        <v>0.09283486225039236</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.001957898951320311</v>
+        <v>-0.002539866844648654</v>
       </c>
       <c r="J201" t="n">
-        <v>0.14498524898169</v>
+        <v>0.1473006670160009</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09290478021185214</v>
+        <v>0.09361640624732515</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.001386019272389387</v>
+        <v>-0.003599436380284835</v>
       </c>
       <c r="M201" t="n">
-        <v>0.3368809647226179</v>
+        <v>0.3256251991334082</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0926763863631412</v>
+        <v>0.09401063592924665</v>
       </c>
       <c r="O201" t="n">
-        <v>-0.001575402593461012</v>
+        <v>-0.005132702483466217</v>
       </c>
       <c r="P201" t="n">
-        <v>0.5278880659908054</v>
+        <v>0.5070023305686684</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.09282044588738303</v>
+        <v>0.09207974095855856</v>
       </c>
       <c r="R201" t="n">
-        <v>-0.004202747480899098</v>
+        <v>-0.002811646797775357</v>
       </c>
     </row>
     <row r="202">
       <c r="F202" t="n">
-        <v>0.06614670169947726</v>
+        <v>0.06756958939135102</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09549602397174761</v>
+        <v>0.09363516278703367</v>
       </c>
       <c r="H202" t="n">
-        <v>-0.001958094721638411</v>
+        <v>-0.002540374868820001</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1450444532688559</v>
+        <v>0.1472202094086335</v>
       </c>
       <c r="K202" t="n">
-        <v>0.0937056834895405</v>
+        <v>0.09442344423221587</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.001386019272389387</v>
+        <v>-0.003599436380284835</v>
       </c>
       <c r="M202" t="n">
-        <v>0.3368366196188934</v>
+        <v>0.3258139017012769</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09347532072834069</v>
+        <v>0.09482107244587809</v>
       </c>
       <c r="O202" t="n">
-        <v>-0.001575402593461012</v>
+        <v>-0.005132702483466217</v>
       </c>
       <c r="P202" t="n">
-        <v>0.5277723932123889</v>
+        <v>0.5073751315524729</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.0936206221450329</v>
+        <v>0.09287353182889095</v>
       </c>
       <c r="R202" t="n">
-        <v>-0.004202747480899098</v>
+        <v>-0.002811646797775357</v>
       </c>
     </row>
     <row r="203">
       <c r="F203" t="n">
-        <v>0.06623748587083206</v>
+        <v>0.06761164991996362</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09631222930483947</v>
+        <v>0.09443546332367499</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.001957703181002211</v>
+        <v>-0.002540374868820001</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1450451089777014</v>
+        <v>0.1471762728277762</v>
       </c>
       <c r="K203" t="n">
-        <v>0.0945065867672289</v>
+        <v>0.0952304822171066</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.001386019272389387</v>
+        <v>-0.003599436380284835</v>
       </c>
       <c r="M203" t="n">
-        <v>0.336642590352786</v>
+        <v>0.3262849871537348</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09427425509354018</v>
+        <v>0.09563150896250953</v>
       </c>
       <c r="O203" t="n">
-        <v>-0.001575402593461012</v>
+        <v>-0.004822638877868624</v>
       </c>
       <c r="P203" t="n">
-        <v>0.5275710837073813</v>
+        <v>0.5078230635300162</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.09442079840268275</v>
+        <v>0.09366732269922336</v>
       </c>
       <c r="R203" t="n">
-        <v>-0.004202747480899098</v>
+        <v>-0.002811646797775357</v>
       </c>
     </row>
     <row r="204">
       <c r="F204" t="n">
-        <v>0.06632042388536409</v>
+        <v>0.06765355042493545</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09712843463793133</v>
+        <v>0.09523576386031631</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.001986579551798015</v>
+        <v>-0.002513638207951434</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1450262205812507</v>
+        <v>0.1471689040202827</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09530749004491727</v>
+        <v>0.09603752020199735</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.001480242362236615</v>
+        <v>-0.003439329733352421</v>
       </c>
       <c r="M204" t="n">
-        <v>0.3366398737238839</v>
+        <v>0.3266098621799691</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09507318945873967</v>
+        <v>0.09644194547914095</v>
       </c>
       <c r="O204" t="n">
-        <v>-0.001656520279601696</v>
+        <v>-0.004822638877868624</v>
       </c>
       <c r="P204" t="n">
-        <v>0.527439882107083</v>
+        <v>0.5084975572626601</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.09522097466033259</v>
+        <v>0.09446111356955576</v>
       </c>
       <c r="R204" t="n">
-        <v>-0.003955460612285668</v>
+        <v>-0.002793358281401048</v>
       </c>
     </row>
     <row r="205">
       <c r="F205" t="n">
-        <v>0.0664137318475792</v>
+        <v>0.06773262512786571</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09794463997102319</v>
+        <v>0.09603606439695761</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.001986778209753195</v>
+        <v>-0.002513638207951434</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1450462938156549</v>
+        <v>0.1470996063833008</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09610839332260565</v>
+        <v>0.09684455818688809</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.001480242362236615</v>
+        <v>-0.003439329733352421</v>
       </c>
       <c r="M205" t="n">
-        <v>0.3364394513039055</v>
+        <v>0.3267879165745474</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09587212382393917</v>
+        <v>0.09725238199577239</v>
       </c>
       <c r="O205" t="n">
-        <v>-0.001656520279601696</v>
+        <v>-0.004822638877868624</v>
       </c>
       <c r="P205" t="n">
-        <v>0.527534426577345</v>
+        <v>0.5088674870006904</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.09602115091798245</v>
+        <v>0.09525490443988816</v>
       </c>
       <c r="R205" t="n">
-        <v>-0.003955460612285668</v>
+        <v>-0.002793358281401048</v>
       </c>
     </row>
     <row r="206">
       <c r="F206" t="n">
-        <v>0.0664895715393686</v>
+        <v>0.06776470802146092</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09876084530411505</v>
+        <v>0.09683636493359893</v>
       </c>
       <c r="H206" t="n">
-        <v>-0.001986380893842835</v>
+        <v>-0.00251388954663836</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1449883280364739</v>
+        <v>0.1470079039676976</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09690929660029404</v>
+        <v>0.09765159617177881</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.001480242362236615</v>
+        <v>-0.003439329733352421</v>
       </c>
       <c r="M206" t="n">
-        <v>0.3364308481522437</v>
+        <v>0.3271525538950639</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09667105818913867</v>
+        <v>0.09806281851240384</v>
       </c>
       <c r="O206" t="n">
-        <v>-0.001656520279601696</v>
+        <v>-0.004822638877868624</v>
       </c>
       <c r="P206" t="n">
-        <v>0.527155277782394</v>
+        <v>0.5093874869986349</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.0968213271756323</v>
+        <v>0.09604869531022056</v>
       </c>
       <c r="R206" t="n">
-        <v>-0.003955460612285668</v>
+        <v>-0.002793358281401048</v>
       </c>
     </row>
     <row r="207">
       <c r="F207" t="n">
-        <v>0.06661234459591464</v>
+        <v>0.06782452767131895</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0995770506372069</v>
+        <v>0.09763666547024025</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.001986579551798015</v>
+        <v>-0.00251388954663836</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1449888321819096</v>
+        <v>0.1469529789559457</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09771019987798241</v>
+        <v>0.09845863415666954</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.001480242362236615</v>
+        <v>-0.003439329733352421</v>
       </c>
       <c r="M207" t="n">
-        <v>0.3362738379724615</v>
+        <v>0.3275605956619873</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09746999255433815</v>
+        <v>0.09887325502903527</v>
       </c>
       <c r="O207" t="n">
-        <v>-0.001656520279601696</v>
+        <v>-0.004822638877868624</v>
       </c>
       <c r="P207" t="n">
-        <v>0.5271576944951736</v>
+        <v>0.5096776113680189</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.09762150343328217</v>
+        <v>0.09684248618055297</v>
       </c>
       <c r="R207" t="n">
-        <v>-0.003955460612285668</v>
+        <v>-0.002793358281401048</v>
       </c>
     </row>
     <row r="208">
       <c r="F208" t="n">
-        <v>0.06668955640806767</v>
+        <v>0.06785589928858028</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1003932559702988</v>
+        <v>0.09843696600688155</v>
       </c>
       <c r="H208" t="n">
-        <v>-0.002020494153729304</v>
+        <v>-0.002489367610543923</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1450283095450503</v>
+        <v>0.1469151799732376</v>
       </c>
       <c r="K208" t="n">
-        <v>0.0985111031556708</v>
+        <v>0.09926567214156028</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.001586069566121376</v>
+        <v>-0.003253773284713695</v>
       </c>
       <c r="M208" t="n">
-        <v>0.3361146618277709</v>
+        <v>0.3277729284655803</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09826892691953765</v>
+        <v>0.09968369154566671</v>
       </c>
       <c r="O208" t="n">
-        <v>-0.001745062254449939</v>
+        <v>-0.00448286311114696</v>
       </c>
       <c r="P208" t="n">
-        <v>0.5269201087693623</v>
+        <v>0.5100411378077419</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.09842167969093202</v>
+        <v>0.09763627705088536</v>
       </c>
       <c r="R208" t="n">
-        <v>-0.00368326370023928</v>
+        <v>-0.002767906589842845</v>
       </c>
     </row>
     <row r="209">
       <c r="F209" t="n">
-        <v>0.06679491068566631</v>
+        <v>0.06791492750008632</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1012094613033906</v>
+        <v>0.09923726654352287</v>
       </c>
       <c r="H209" t="n">
-        <v>-0.002020292144715734</v>
+        <v>-0.002489616547304978</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1450287604116571</v>
+        <v>0.1468748765906695</v>
       </c>
       <c r="K209" t="n">
-        <v>0.09931200643335918</v>
+        <v>0.100072710126451</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.001586069566121376</v>
+        <v>-0.003253773284713695</v>
       </c>
       <c r="M209" t="n">
-        <v>0.3361480345635419</v>
+        <v>0.3281235210306078</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09906786128473714</v>
+        <v>0.1004941280622981</v>
       </c>
       <c r="O209" t="n">
-        <v>-0.001745062254449939</v>
+        <v>-0.00448286311114696</v>
       </c>
       <c r="P209" t="n">
-        <v>0.5269089203550554</v>
+        <v>0.5106299369135517</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.09922185594858186</v>
+        <v>0.09843006792121776</v>
       </c>
       <c r="R209" t="n">
-        <v>-0.00368326370023928</v>
+        <v>-0.002767906589842845</v>
       </c>
     </row>
     <row r="210">
       <c r="F210" t="n">
-        <v>0.06687272037217594</v>
+        <v>0.06796411218854981</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1020256666364825</v>
+        <v>0.1000375670801642</v>
       </c>
       <c r="H210" t="n">
-        <v>-0.002020292144715734</v>
+        <v>-0.002489367610543923</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1450486911370594</v>
+        <v>0.1467731033344642</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1001129097110476</v>
+        <v>0.1008797481113417</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.001586069566121376</v>
+        <v>-0.003253773284713695</v>
       </c>
       <c r="M210" t="n">
-        <v>0.3359853642967874</v>
+        <v>0.328468814342281</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09986679564993664</v>
+        <v>0.1013045645789296</v>
       </c>
       <c r="O210" t="n">
-        <v>-0.001745062254449939</v>
+        <v>-0.00448286311114696</v>
       </c>
       <c r="P210" t="n">
-        <v>0.5266582289090133</v>
+        <v>0.5109113358233907</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.1000220322062317</v>
+        <v>0.09922385879155017</v>
       </c>
       <c r="R210" t="n">
-        <v>-0.00368326370023928</v>
+        <v>-0.002767906589842845</v>
       </c>
     </row>
     <row r="211">
       <c r="F211" t="n">
-        <v>0.06698762658331887</v>
+        <v>0.06802213784586481</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1028418719695743</v>
+        <v>0.1008378676168055</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.002020090135702164</v>
+        <v>-0.002489865484066032</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1450101015241513</v>
+        <v>0.1467673732964486</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1009138129887359</v>
+        <v>0.1016867860962325</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.001586069566121376</v>
+        <v>-0.003053948599000778</v>
       </c>
       <c r="M211" t="n">
-        <v>0.3359185750189606</v>
+        <v>0.3287606223005076</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1006657300151361</v>
+        <v>0.102115001095561</v>
       </c>
       <c r="O211" t="n">
-        <v>-0.001745062254449939</v>
+        <v>-0.00448286311114696</v>
       </c>
       <c r="P211" t="n">
-        <v>0.5264789542732888</v>
+        <v>0.5113412940941676</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.1008222084638816</v>
+        <v>0.1000176496618826</v>
       </c>
       <c r="R211" t="n">
-        <v>-0.00368326370023928</v>
+        <v>-0.002767906589842845</v>
       </c>
     </row>
     <row r="212">
       <c r="F212" t="n">
-        <v>0.06708385572306565</v>
+        <v>0.06805143554035158</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1036580773026662</v>
+        <v>0.1016381681534468</v>
       </c>
       <c r="H212" t="n">
-        <v>-0.002056820245995446</v>
+        <v>-0.002467809743053443</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1450495022799742</v>
+        <v>0.1467003316001804</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1017147162664243</v>
+        <v>0.1024938240811232</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.001699644814074848</v>
+        <v>-0.003053948599000778</v>
       </c>
       <c r="M212" t="n">
-        <v>0.3357050386679623</v>
+        <v>0.3289027493115733</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1014646643803356</v>
+        <v>0.1029254376121925</v>
       </c>
       <c r="O212" t="n">
-        <v>-0.001838525991244524</v>
+        <v>-0.004124713775793486</v>
       </c>
       <c r="P212" t="n">
-        <v>0.5261383796509517</v>
+        <v>0.5117673281775714</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.1016223847215314</v>
+        <v>0.100811440532215</v>
       </c>
       <c r="R212" t="n">
-        <v>-0.003398698326718078</v>
+        <v>-0.002736632060675757</v>
       </c>
     </row>
     <row r="213">
       <c r="F213" t="n">
-        <v>0.06717974739819495</v>
+        <v>0.06812700139208441</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1044742826357581</v>
+        <v>0.1024384686900881</v>
       </c>
       <c r="H213" t="n">
-        <v>-0.002057231610044645</v>
+        <v>-0.002468303305002054</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1449913877971262</v>
+        <v>0.1466310891892456</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1025156195441127</v>
+        <v>0.103300862066014</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.001699644814074848</v>
+        <v>-0.003053948599000778</v>
       </c>
       <c r="M213" t="n">
-        <v>0.3356365071260423</v>
+        <v>0.3292300869662757</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1022635987455351</v>
+        <v>0.1037358741288239</v>
       </c>
       <c r="O213" t="n">
-        <v>-0.001838525991244524</v>
+        <v>-0.004124713775793486</v>
       </c>
       <c r="P213" t="n">
-        <v>0.5261024364030359</v>
+        <v>0.5124177448891455</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.1024225609791813</v>
+        <v>0.1016052314025474</v>
       </c>
       <c r="R213" t="n">
-        <v>-0.003398698326718078</v>
+        <v>-0.002736632060675757</v>
       </c>
     </row>
     <row r="214">
       <c r="F214" t="n">
-        <v>0.06727511291478339</v>
+        <v>0.06814554476437434</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1052904879688499</v>
+        <v>0.1032387692267294</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.002056614563970847</v>
+        <v>-0.002468056524027748</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1450307724889516</v>
+        <v>0.1465204150894282</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1033165228218011</v>
+        <v>0.1041079000509047</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.001699644814074848</v>
+        <v>-0.003053948599000778</v>
       </c>
       <c r="M214" t="n">
-        <v>0.3355675277313201</v>
+        <v>0.3294549488953533</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1030625331107346</v>
+        <v>0.1045463106454553</v>
       </c>
       <c r="O214" t="n">
-        <v>-0.001838525991244524</v>
+        <v>-0.004124713775793486</v>
       </c>
       <c r="P214" t="n">
-        <v>0.5257504310862972</v>
+        <v>0.5127586691744227</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.1032227372368311</v>
+        <v>0.1023990222728798</v>
       </c>
       <c r="R214" t="n">
-        <v>-0.003398698326718078</v>
+        <v>-0.002736632060675757</v>
       </c>
     </row>
     <row r="215">
       <c r="F215" t="n">
-        <v>0.06737907557596461</v>
+        <v>0.06819149142074818</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1061066933019418</v>
+        <v>0.1040390697633708</v>
       </c>
       <c r="H215" t="n">
-        <v>-0.002057025928020046</v>
+        <v>-0.002467562962079138</v>
       </c>
       <c r="J215" t="n">
-        <v>0.14505065365704</v>
+        <v>0.1464666499580585</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1041174260994895</v>
+        <v>0.1049149380357954</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.001699644814074848</v>
+        <v>-0.003053948599000778</v>
       </c>
       <c r="M215" t="n">
-        <v>0.3353527885261446</v>
+        <v>0.3297207862485208</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1038614674759341</v>
+        <v>0.1053567471620868</v>
       </c>
       <c r="O215" t="n">
-        <v>-0.001838525991244524</v>
+        <v>-0.004124713775793486</v>
       </c>
       <c r="P215" t="n">
-        <v>0.525548180321023</v>
+        <v>0.5132470859235934</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.104022913494481</v>
+        <v>0.1031928131432122</v>
       </c>
       <c r="R215" t="n">
-        <v>-0.003398698326718078</v>
+        <v>-0.002736632060675757</v>
       </c>
     </row>
     <row r="216">
       <c r="F216" t="n">
-        <v>0.06747283206747573</v>
+        <v>0.06824602638307342</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1069228986350336</v>
+        <v>0.1048393703000121</v>
       </c>
       <c r="H216" t="n">
-        <v>-0.002094963676267896</v>
+        <v>-0.002447933775521563</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1450120325003268</v>
+        <v>0.1464108887564621</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1049183293771778</v>
+        <v>0.1057219760206861</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.001814792905282409</v>
+        <v>-0.002850317353569734</v>
       </c>
       <c r="M216" t="n">
-        <v>0.3353323539552854</v>
+        <v>0.3299793581407066</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1046604018411336</v>
+        <v>0.1061671836787182</v>
       </c>
       <c r="O216" t="n">
-        <v>-0.001931687793367723</v>
+        <v>-0.003762205850045474</v>
       </c>
       <c r="P216" t="n">
-        <v>0.5253406808603649</v>
+        <v>0.5136538175325283</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.1048230897521308</v>
+        <v>0.1039866040135446</v>
       </c>
       <c r="R216" t="n">
-        <v>-0.003113692948078653</v>
+        <v>-0.002698948317107486</v>
       </c>
     </row>
     <row r="217">
       <c r="F217" t="n">
-        <v>0.06754683493867754</v>
+        <v>0.06829029776079314</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1077391039681255</v>
+        <v>0.1056396708366534</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.002094544725427726</v>
+        <v>-0.002447933775521563</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1450124186019063</v>
+        <v>0.1462746862801682</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1057192326548662</v>
+        <v>0.1065290140055769</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.001814792905282409</v>
+        <v>-0.002850317353569734</v>
       </c>
       <c r="M217" t="n">
-        <v>0.3350697708376473</v>
+        <v>0.3303744302078958</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1054593362063331</v>
+        <v>0.1069776201953496</v>
       </c>
       <c r="O217" t="n">
-        <v>-0.001931687793367723</v>
+        <v>-0.003762205850045474</v>
       </c>
       <c r="P217" t="n">
-        <v>0.5251281344242588</v>
+        <v>0.5138255887637834</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.1056232660097807</v>
+        <v>0.104780394883877</v>
       </c>
       <c r="R217" t="n">
-        <v>-0.003113692948078653</v>
+        <v>-0.002698948317107486</v>
       </c>
     </row>
     <row r="218">
       <c r="F218" t="n">
-        <v>0.06763819974538839</v>
+        <v>0.06833364638041031</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1085553093012174</v>
+        <v>0.1064399713732947</v>
       </c>
       <c r="H218" t="n">
-        <v>-0.002094963676267896</v>
+        <v>-0.002447933775521563</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1450518159136179</v>
+        <v>0.1462544252226451</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1065201359325546</v>
+        <v>0.1073360519904676</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.001814792905282409</v>
+        <v>-0.002850317353569734</v>
       </c>
       <c r="M218" t="n">
-        <v>0.3350990101621553</v>
+        <v>0.3304734340366333</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1062582705715326</v>
+        <v>0.1077880567119811</v>
       </c>
       <c r="O218" t="n">
-        <v>-0.001931687793367723</v>
+        <v>-0.003762205850045474</v>
       </c>
       <c r="P218" t="n">
-        <v>0.5250657403809514</v>
+        <v>0.5143731088466575</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.1064234422674305</v>
+        <v>0.1055741857542094</v>
       </c>
       <c r="R218" t="n">
-        <v>-0.003113692948078653</v>
+        <v>-0.002698948317107486</v>
       </c>
     </row>
     <row r="219">
       <c r="F219" t="n">
-        <v>0.06771874630948389</v>
+        <v>0.0683948441349861</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1093715146343092</v>
+        <v>0.107240271909936</v>
       </c>
       <c r="H219" t="n">
-        <v>-0.00209517315168798</v>
+        <v>-0.002448423411240239</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1450132204668853</v>
+        <v>0.1461539003798595</v>
       </c>
       <c r="K219" t="n">
-        <v>0.107321039210243</v>
+        <v>0.1081430899753583</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.001814792905282409</v>
+        <v>-0.002850317353569734</v>
       </c>
       <c r="M219" t="n">
-        <v>0.334838293416602</v>
+        <v>0.3308044535632092</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1070572049367321</v>
+        <v>0.1085984932286125</v>
       </c>
       <c r="O219" t="n">
-        <v>-0.002019709269663108</v>
+        <v>-0.003762205850045474</v>
       </c>
       <c r="P219" t="n">
-        <v>0.5249211373606818</v>
+        <v>0.51483778211999</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.1072236185250804</v>
+        <v>0.1063679766245418</v>
       </c>
       <c r="R219" t="n">
-        <v>-0.003113692948078653</v>
+        <v>-0.002698948317107486</v>
       </c>
     </row>
     <row r="220">
       <c r="F220" t="n">
-        <v>0.06780697465500296</v>
+        <v>0.06841735448876933</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1101877199674011</v>
+        <v>0.1080405724465773</v>
       </c>
       <c r="H220" t="n">
-        <v>-0.002132500907559879</v>
+        <v>-0.002427973763901939</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1450526463978875</v>
+        <v>0.1460713082711022</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1081219424879314</v>
+        <v>0.1089501279602491</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.001926222250132305</v>
+        <v>-0.002653341225776629</v>
       </c>
       <c r="M220" t="n">
-        <v>0.3347244162984167</v>
+        <v>0.3310789283916867</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1078561393019316</v>
+        <v>0.1094089297452439</v>
       </c>
       <c r="O220" t="n">
-        <v>-0.002019709269663108</v>
+        <v>-0.003407560612214417</v>
       </c>
       <c r="P220" t="n">
-        <v>0.5246945923679376</v>
+        <v>0.5149895974586461</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.1080237947827303</v>
+        <v>0.1071617674948742</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.002842664434766346</v>
+        <v>-0.002656990212578803</v>
       </c>
     </row>
     <row r="221">
       <c r="F221" t="n">
-        <v>0.06790272257804053</v>
+        <v>0.0684481818369736</v>
       </c>
       <c r="G221" t="n">
-        <v>0.111003925300493</v>
+        <v>0.1088408729832186</v>
       </c>
       <c r="H221" t="n">
-        <v>-0.002132287657469123</v>
+        <v>-0.002427245517422064</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1450140866771871</v>
+        <v>0.1459675037292741</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1089228457656197</v>
+        <v>0.1097571659451398</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.001926222250132305</v>
+        <v>-0.002653341225776629</v>
       </c>
       <c r="M221" t="n">
-        <v>0.3346121720933161</v>
+        <v>0.3312002300367892</v>
       </c>
       <c r="N221" t="n">
-        <v>0.108655073667131</v>
+        <v>0.1102193662618754</v>
       </c>
       <c r="O221" t="n">
-        <v>-0.002019709269663108</v>
+        <v>-0.003407560612214417</v>
       </c>
       <c r="P221" t="n">
-        <v>0.5244638060073318</v>
+        <v>0.5154400831237326</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.1088239710403801</v>
+        <v>0.1079555583652066</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.002842664434766346</v>
+        <v>-0.002656990212578803</v>
       </c>
     </row>
     <row r="222">
       <c r="F222" t="n">
-        <v>0.06797770274993854</v>
+        <v>0.06848728337221675</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1118201306335848</v>
+        <v>0.10964117351986</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.002132287657469123</v>
+        <v>-0.002427488266248689</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1450145532104201</v>
+        <v>0.1459209382831801</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1097237490433081</v>
+        <v>0.1105642039300306</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.001926222250132305</v>
+        <v>-0.002653341225776629</v>
       </c>
       <c r="M222" t="n">
-        <v>0.3345018546899455</v>
+        <v>0.3315048363025835</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1094540080323306</v>
+        <v>0.1110298027785068</v>
       </c>
       <c r="O222" t="n">
-        <v>-0.002019709269663108</v>
+        <v>-0.003407560612214417</v>
       </c>
       <c r="P222" t="n">
-        <v>0.5240741652262771</v>
+        <v>0.5158064095057109</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.10962414729803</v>
+        <v>0.108749349235539</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.002842664434766346</v>
+        <v>-0.002656990212578803</v>
       </c>
     </row>
     <row r="223">
       <c r="F223" t="n">
-        <v>0.06808797380509256</v>
+        <v>0.06854404502545051</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1126363359666767</v>
+        <v>0.1104414740565013</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.002132500907559879</v>
+        <v>-0.002427245517422064</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1449955454835884</v>
+        <v>0.1457945507995348</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1105246523209965</v>
+        <v>0.1113712419149213</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.001926222250132305</v>
+        <v>-0.002653341225776629</v>
       </c>
       <c r="M223" t="n">
-        <v>0.3345390906376088</v>
+        <v>0.3316555483405402</v>
       </c>
       <c r="N223" t="n">
-        <v>0.11025294239753</v>
+        <v>0.1118402392951383</v>
       </c>
       <c r="O223" t="n">
-        <v>-0.002019709269663108</v>
+        <v>-0.003407560612214417</v>
       </c>
       <c r="P223" t="n">
-        <v>0.5237581656396088</v>
+        <v>0.516088093934661</v>
       </c>
       <c r="Q223" t="n">
-        <v>0.1104243235556798</v>
+        <v>0.1095431401058714</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.002842664434766346</v>
+        <v>-0.002656990212578803</v>
       </c>
     </row>
     <row r="224">
       <c r="F224" t="n">
-        <v>0.06816770754226732</v>
+        <v>0.06859013434344671</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1134525412997685</v>
+        <v>0.1112417745931426</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.002168265483334283</v>
+        <v>-0.002405698411215239</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1450155717302227</v>
+        <v>0.1457450846183657</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1113255555986849</v>
+        <v>0.112178279899812</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.002029459131073452</v>
+        <v>-0.002473234594247977</v>
       </c>
       <c r="M224" t="n">
-        <v>0.334433476825825</v>
+        <v>0.3318445908000838</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1110518767627295</v>
+        <v>0.1126506758117697</v>
       </c>
       <c r="O224" t="n">
-        <v>-0.002099757698008139</v>
+        <v>-0.003071616695349313</v>
       </c>
       <c r="P224" t="n">
-        <v>0.5235932978633508</v>
+        <v>0.5165146130144171</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.1112244998133297</v>
+        <v>0.1103369309762038</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.002597835987874741</v>
+        <v>-0.002610439789383311</v>
       </c>
     </row>
     <row r="225">
       <c r="F225" t="n">
-        <v>0.06824483922759116</v>
+        <v>0.06859717488988827</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1142687466328604</v>
+        <v>0.1120420751297839</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.002168265483334283</v>
+        <v>-0.002406179599016262</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1450161311556611</v>
+        <v>0.1456160129154124</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1121264588763733</v>
+        <v>0.1129853178847027</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.002029459131073452</v>
+        <v>-0.002473234594247977</v>
       </c>
       <c r="M225" t="n">
-        <v>0.3343306723243306</v>
+        <v>0.3319271098243274</v>
       </c>
       <c r="N225" t="n">
-        <v>0.111850811127929</v>
+        <v>0.1134611123284011</v>
       </c>
       <c r="O225" t="n">
-        <v>-0.002099757698008139</v>
+        <v>-0.003071616695349313</v>
       </c>
       <c r="P225" t="n">
-        <v>0.5234249477341522</v>
+        <v>0.5167790589481187</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.1120246760709795</v>
+        <v>0.1111307218465362</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.002597835987874741</v>
+        <v>-0.002610439789383311</v>
       </c>
     </row>
     <row r="226">
       <c r="F226" t="n">
-        <v>0.06831918014827319</v>
+        <v>0.06865003035955837</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1150849519659522</v>
+        <v>0.1128423756664252</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.002167831873598589</v>
+        <v>-0.002405939005115751</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1450167289840369</v>
+        <v>0.145563937317386</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1129273621540616</v>
+        <v>0.1137923558695935</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.002029459131073452</v>
+        <v>-0.002473234594247977</v>
       </c>
       <c r="M226" t="n">
-        <v>0.334230971109946</v>
+        <v>0.3322401870335555</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1126497454931285</v>
+        <v>0.1142715488450326</v>
       </c>
       <c r="O226" t="n">
-        <v>-0.002099757698008139</v>
+        <v>-0.003071616695349313</v>
       </c>
       <c r="P226" t="n">
-        <v>0.5232533160024024</v>
+        <v>0.5171877321208759</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.1128248523286294</v>
+        <v>0.1119245127168686</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.002597835987874741</v>
+        <v>-0.002610439789383311</v>
       </c>
     </row>
     <row r="227">
       <c r="F227" t="n">
-        <v>0.0683623022212229</v>
+        <v>0.06869203604263155</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1159011572990441</v>
+        <v>0.1136426762030665</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.002167831873598589</v>
+        <v>-0.002382249256777013</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1450368706716779</v>
+        <v>0.1454520180778563</v>
       </c>
       <c r="K227" t="n">
-        <v>0.11372826543175</v>
+        <v>0.1145993938544842</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.002029459131073452</v>
+        <v>-0.002320968958839981</v>
       </c>
       <c r="M227" t="n">
-        <v>0.3341346671594916</v>
+        <v>0.332397906320517</v>
       </c>
       <c r="N227" t="n">
-        <v>0.113448679858328</v>
+        <v>0.115081985361664</v>
       </c>
       <c r="O227" t="n">
-        <v>-0.002167267189590965</v>
+        <v>-0.003071616695349313</v>
       </c>
       <c r="P227" t="n">
-        <v>0.522924034149293</v>
+        <v>0.517586954020345</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.1136250285862793</v>
+        <v>0.112718303587201</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.002389811348763129</v>
+        <v>-0.002610439789383311</v>
       </c>
     </row>
     <row r="228">
       <c r="F228" t="n">
-        <v>0.06844931490315354</v>
+        <v>0.0687042337697179</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1167173626321359</v>
+        <v>0.1144429767397078</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.002200031385092048</v>
+        <v>-0.002382011031851335</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1450180547273381</v>
+        <v>0.1453390134479681</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1145291687094384</v>
+        <v>0.1154064318393749</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.002119130039344713</v>
+        <v>-0.002320968958839981</v>
       </c>
       <c r="M228" t="n">
-        <v>0.3339936599232484</v>
+        <v>0.3324480526951321</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1142476142235275</v>
+        <v>0.1158924218782954</v>
       </c>
       <c r="O228" t="n">
-        <v>-0.002167267189590965</v>
+        <v>-0.002770117244509052</v>
       </c>
       <c r="P228" t="n">
-        <v>0.522514715149117</v>
+        <v>0.5178227843507912</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.1144252048439291</v>
+        <v>0.1135120944575334</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.002389811348763129</v>
+        <v>-0.002558776504022049</v>
       </c>
     </row>
     <row r="229">
       <c r="F229" t="n">
-        <v>0.06852357119455997</v>
+        <v>0.0687337879168398</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1175335679652278</v>
+        <v>0.1152432772763491</v>
       </c>
       <c r="H229" t="n">
-        <v>-0.002199371507652008</v>
+        <v>-0.00238248748170269</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1450577938391487</v>
+        <v>0.1452640457500133</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1153300719871268</v>
+        <v>0.1162134698242657</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.002119130039344713</v>
+        <v>-0.002320968958839981</v>
       </c>
       <c r="M229" t="n">
-        <v>0.3339534269576555</v>
+        <v>0.3325350020391606</v>
       </c>
       <c r="N229" t="n">
-        <v>0.115046548588727</v>
+        <v>0.1167028583949269</v>
       </c>
       <c r="O229" t="n">
-        <v>-0.002167267189590965</v>
+        <v>-0.002770117244509052</v>
       </c>
       <c r="P229" t="n">
-        <v>0.5224118060771398</v>
+        <v>0.5180482908534911</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.1152253811015789</v>
+        <v>0.1143058853278658</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.002389811348763129</v>
+        <v>-0.002558776504022049</v>
       </c>
     </row>
     <row r="230">
       <c r="F230" t="n">
-        <v>0.06856599682560358</v>
+        <v>0.06877120886372839</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1183497732983197</v>
+        <v>0.1160435778129904</v>
       </c>
       <c r="H230" t="n">
-        <v>-0.002199591466798688</v>
+        <v>-0.002382725706628368</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1450000767577305</v>
+        <v>0.1451295565671554</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1161309752648152</v>
+        <v>0.1170205078091564</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.002119130039344713</v>
+        <v>-0.002320968958839981</v>
       </c>
       <c r="M230" t="n">
-        <v>0.3337239469626559</v>
+        <v>0.3326584804582269</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1158454829539265</v>
+        <v>0.1175132949115583</v>
       </c>
       <c r="O230" t="n">
-        <v>-0.002167267189590965</v>
+        <v>-0.002770117244509052</v>
       </c>
       <c r="P230" t="n">
-        <v>0.522151953509037</v>
+        <v>0.5185704705873132</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.1160255573592288</v>
+        <v>0.1150996761981982</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.002389811348763129</v>
+        <v>-0.002558776504022049</v>
       </c>
     </row>
     <row r="231">
       <c r="F231" t="n">
-        <v>0.06862354172223437</v>
+        <v>0.06877863025312449</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1191659786314115</v>
+        <v>0.1168438783496318</v>
       </c>
       <c r="H231" t="n">
-        <v>-0.002199371507652008</v>
+        <v>-0.00238248748170269</v>
       </c>
       <c r="J231" t="n">
-        <v>0.145000922307746</v>
+        <v>0.1450527370714094</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1169318785425035</v>
+        <v>0.1178275457940472</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.002119130039344713</v>
+        <v>-0.002320968958839981</v>
       </c>
       <c r="M231" t="n">
-        <v>0.3336925650203814</v>
+        <v>0.3328664889121047</v>
       </c>
       <c r="N231" t="n">
-        <v>0.116644417319126</v>
+        <v>0.1183237314281897</v>
       </c>
       <c r="O231" t="n">
-        <v>-0.002167267189590965</v>
+        <v>-0.002770117244509052</v>
       </c>
       <c r="P231" t="n">
-        <v>0.5217355150606958</v>
+        <v>0.5186205933933091</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.1168257336168787</v>
+        <v>0.1158934670685306</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.002389811348763129</v>
+        <v>-0.002558776504022049</v>
       </c>
     </row>
     <row r="232">
       <c r="F232" t="n">
-        <v>0.06866772069359464</v>
+        <v>0.06880326031115142</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1199821839645034</v>
+        <v>0.1176441788862731</v>
       </c>
       <c r="H232" t="n">
-        <v>-0.002225100693465261</v>
+        <v>-0.002354192331834262</v>
       </c>
       <c r="J232" t="n">
-        <v>0.145021330704304</v>
+        <v>0.1449718279292487</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1177327818201919</v>
+        <v>0.1186345837789379</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.002189376784929794</v>
+        <v>-0.002202603404288066</v>
       </c>
       <c r="M232" t="n">
-        <v>0.3336660337876866</v>
+        <v>0.3328690186001639</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1174433516843255</v>
+        <v>0.1191341679448212</v>
       </c>
       <c r="O232" t="n">
-        <v>-0.00221738433918382</v>
+        <v>-0.002514236747030782</v>
       </c>
       <c r="P232" t="n">
-        <v>0.5214714703851485</v>
+        <v>0.5188898616079797</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.1176259098745285</v>
+        <v>0.116687257938863</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.002231934480940065</v>
+        <v>-0.002504823094773646</v>
       </c>
     </row>
     <row r="233">
       <c r="F233" t="n">
-        <v>0.06872667606963338</v>
+        <v>0.06882613957404388</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1207983892975953</v>
+        <v>0.1184444794229144</v>
       </c>
       <c r="H233" t="n">
-        <v>-0.002225100693465261</v>
+        <v>-0.002354192331834262</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1450613059577048</v>
+        <v>0.1448411457942323</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1185336850978803</v>
+        <v>0.1194416217638286</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.002189376784929794</v>
+        <v>-0.002202603404288066</v>
       </c>
       <c r="M233" t="n">
-        <v>0.3335962939073333</v>
+        <v>0.3329554425702847</v>
       </c>
       <c r="N233" t="n">
-        <v>0.118242286049525</v>
+        <v>0.1199446044614526</v>
       </c>
       <c r="O233" t="n">
-        <v>-0.00221738433918382</v>
+        <v>-0.002514236747030782</v>
       </c>
       <c r="P233" t="n">
-        <v>0.5212782626695779</v>
+        <v>0.5193781447131058</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.1184260861321784</v>
+        <v>0.1174810488091954</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.002231934480940065</v>
+        <v>-0.002504823094773646</v>
       </c>
     </row>
     <row r="234">
       <c r="F234" t="n">
-        <v>0.0687718881702899</v>
+        <v>0.06887559769121344</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1216145946306871</v>
+        <v>0.1192447799595557</v>
       </c>
       <c r="H234" t="n">
-        <v>-0.002224878205644696</v>
+        <v>-0.002353956912601079</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1450428427829644</v>
+        <v>0.1447191215016232</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1193345883755687</v>
+        <v>0.1202486597487194</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.002189376784929794</v>
+        <v>-0.002202603404288066</v>
       </c>
       <c r="M234" t="n">
-        <v>0.3334836602172304</v>
+        <v>0.3331254947420782</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1190412204147245</v>
+        <v>0.1207550409780841</v>
       </c>
       <c r="O234" t="n">
-        <v>-0.00221738433918382</v>
+        <v>-0.002514236747030782</v>
       </c>
       <c r="P234" t="n">
-        <v>0.5210611993018937</v>
+        <v>0.5194697150383176</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.1192262623898282</v>
+        <v>0.1182748396795278</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.002231934480940065</v>
+        <v>-0.002504823094773646</v>
       </c>
     </row>
     <row r="235">
       <c r="F235" t="n">
-        <v>0.06882206920194089</v>
+        <v>0.06888535196142508</v>
       </c>
       <c r="G235" t="n">
-        <v>0.122430799963779</v>
+        <v>0.120045080496197</v>
       </c>
       <c r="H235" t="n">
-        <v>-0.002224878205644696</v>
+        <v>-0.002354663170300629</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1450439537234088</v>
+        <v>0.1445669632975339</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1201354916532571</v>
+        <v>0.1210556977336101</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.002235388967448047</v>
+        <v>-0.002202603404288066</v>
       </c>
       <c r="M235" t="n">
-        <v>0.3334734717628716</v>
+        <v>0.3331856383918873</v>
       </c>
       <c r="N235" t="n">
-        <v>0.119840154779924</v>
+        <v>0.1215654774947155</v>
       </c>
       <c r="O235" t="n">
-        <v>-0.00224655610187269</v>
+        <v>-0.002514236747030782</v>
       </c>
       <c r="P235" t="n">
-        <v>0.5206646811810226</v>
+        <v>0.5197026310300682</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.1200264386474781</v>
+        <v>0.1190686305498602</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.002231934480940065</v>
+        <v>-0.002504823094773646</v>
       </c>
     </row>
     <row r="236">
       <c r="F236" t="n">
-        <v>0.0688486588502376</v>
+        <v>0.06888372050570941</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1232470052968708</v>
+        <v>0.1208453810328383</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.002243437863800825</v>
+        <v>-0.002321212892519572</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1450256377049241</v>
+        <v>0.1444237649091993</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1209363949309454</v>
+        <v>0.1218627357185008</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.002235388967448047</v>
+        <v>-0.002091867392643651</v>
       </c>
       <c r="M236" t="n">
-        <v>0.3333726401296074</v>
+        <v>0.3331355195607555</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1206390891451234</v>
+        <v>0.1223759140113469</v>
       </c>
       <c r="O236" t="n">
-        <v>-0.00224655610187269</v>
+        <v>-0.002317059835654029</v>
       </c>
       <c r="P236" t="n">
-        <v>0.520320390371163</v>
+        <v>0.5198456827515983</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.1208266149051279</v>
+        <v>0.1198624214201926</v>
       </c>
       <c r="R236" t="n">
-        <v>-0.002095202566378308</v>
+        <v>-0.002447532198184649</v>
       </c>
     </row>
     <row r="237">
       <c r="F237" t="n">
-        <v>0.06888930401532384</v>
+        <v>0.06889904450185891</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1240632106299627</v>
+        <v>0.1216456815694796</v>
       </c>
       <c r="H237" t="n">
-        <v>-0.00224321356487423</v>
+        <v>-0.00232051666789674</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1450464061386282</v>
+        <v>0.1442896454943822</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1217372982086338</v>
+        <v>0.1226697737033915</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.002235388967448047</v>
+        <v>-0.002091867392643651</v>
       </c>
       <c r="M237" t="n">
-        <v>0.3333748194229271</v>
+        <v>0.3331680873296986</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1214380235103229</v>
+        <v>0.1231863505279784</v>
       </c>
       <c r="O237" t="n">
-        <v>-0.00224655610187269</v>
+        <v>-0.002317059835654029</v>
       </c>
       <c r="P237" t="n">
-        <v>0.5201056056192154</v>
+        <v>0.5202835000909656</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.1216267911627778</v>
+        <v>0.120656212290525</v>
       </c>
       <c r="R237" t="n">
-        <v>-0.002095202566378308</v>
+        <v>-0.002447532198184649</v>
       </c>
     </row>
     <row r="238">
       <c r="F238" t="n">
-        <v>0.06890596700132594</v>
+        <v>0.06894074605840549</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1248794159630546</v>
+        <v>0.122445982106121</v>
       </c>
       <c r="H238" t="n">
-        <v>-0.002242989265947635</v>
+        <v>-0.002320748742771018</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1450672578782389</v>
+        <v>0.1441453054433691</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1225382014863222</v>
+        <v>0.1234768116882823</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.002235388967448047</v>
+        <v>-0.002091867392643651</v>
       </c>
       <c r="M238" t="n">
-        <v>0.3333352917982203</v>
+        <v>0.3332389035877807</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1222369578755224</v>
+        <v>0.1239967870446098</v>
       </c>
       <c r="O238" t="n">
-        <v>-0.00224655610187269</v>
+        <v>-0.002317059835654029</v>
       </c>
       <c r="P238" t="n">
-        <v>0.5194817869156542</v>
+        <v>0.5204767202830102</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.1224269674204276</v>
+        <v>0.1214500031608574</v>
       </c>
       <c r="R238" t="n">
-        <v>-0.002095202566378308</v>
+        <v>-0.002447532198184649</v>
       </c>
     </row>
     <row r="239">
       <c r="F239" t="n">
-        <v>0.0689268509409082</v>
+        <v>0.06894249527982892</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1256956212961464</v>
+        <v>0.1232462826427623</v>
       </c>
       <c r="H239" t="n">
-        <v>-0.002243437863800825</v>
+        <v>-0.002280889820168723</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1450491907316646</v>
+        <v>0.1439521134308026</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1233391047640106</v>
+        <v>0.124283849673173</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.002235388967448047</v>
+        <v>-0.002091867392643651</v>
       </c>
       <c r="M239" t="n">
-        <v>0.3333510139032318</v>
+        <v>0.333238389313257</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1230358922407219</v>
+        <v>0.1248072235612412</v>
       </c>
       <c r="O239" t="n">
-        <v>-0.00224655610187269</v>
+        <v>-0.002317059835654029</v>
       </c>
       <c r="P239" t="n">
-        <v>0.5192959881183619</v>
+        <v>0.5206559472463889</v>
       </c>
       <c r="Q239" t="n">
-        <v>0.1232271436780775</v>
+        <v>0.1222437940311898</v>
       </c>
       <c r="R239" t="n">
-        <v>-0.002095202566378308</v>
+        <v>-0.002447532198184649</v>
       </c>
     </row>
     <row r="240">
       <c r="F240" t="n">
-        <v>0.06896124358755024</v>
+        <v>0.06893263462640319</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1265118266292383</v>
+        <v>0.1240465831794036</v>
       </c>
       <c r="H240" t="n">
-        <v>-0.002252805130021307</v>
+        <v>-0.002281117886344122</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1450312137730027</v>
+        <v>0.1437684693461148</v>
       </c>
       <c r="K240" t="n">
-        <v>0.124140008041699</v>
+        <v>0.1250908876580638</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.00225285334484415</v>
+        <v>-0.001984559637709086</v>
       </c>
       <c r="M240" t="n">
-        <v>0.3333249701375776</v>
+        <v>0.3332258008611378</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1238348266059214</v>
+        <v>0.1256176600778727</v>
       </c>
       <c r="O240" t="n">
-        <v>-0.002251037450840335</v>
+        <v>-0.002179028871050735</v>
       </c>
       <c r="P240" t="n">
-        <v>0.5188559932701255</v>
+        <v>0.520820808097253</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.1240273199357273</v>
+        <v>0.1230375849015222</v>
       </c>
       <c r="R240" t="n">
-        <v>-0.001962469639547529</v>
+        <v>-0.002386708461960814</v>
       </c>
     </row>
     <row r="241">
       <c r="F241" t="n">
-        <v>0.06895625082856721</v>
+        <v>0.06896793257083847</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1273280319623301</v>
+        <v>0.1248468837160449</v>
       </c>
       <c r="H241" t="n">
-        <v>-0.002252129423623581</v>
+        <v>-0.002281117886344122</v>
       </c>
       <c r="J241" t="n">
-        <v>0.145032896915782</v>
+        <v>0.1435557652093242</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1249409113193874</v>
+        <v>0.1258979256429545</v>
       </c>
       <c r="L241" t="n">
-        <v>-0.00225285334484415</v>
+        <v>-0.001984559637709086</v>
       </c>
       <c r="M241" t="n">
-        <v>0.3332519957943881</v>
+        <v>0.3332448195225074</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1246337609711209</v>
+        <v>0.1264280965945041</v>
       </c>
       <c r="O241" t="n">
-        <v>-0.002251037450840335</v>
+        <v>-0.002179028871050735</v>
       </c>
       <c r="P241" t="n">
-        <v>0.5181625850823723</v>
+        <v>0.5208167665984339</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.1248274961933772</v>
+        <v>0.1238313757718546</v>
       </c>
       <c r="R241" t="n">
-        <v>-0.001962469639547529</v>
+        <v>-0.002386708461960814</v>
       </c>
     </row>
     <row r="242">
       <c r="F242" t="n">
-        <v>0.06895615811513717</v>
+        <v>0.06895625082856721</v>
       </c>
       <c r="G242" t="n">
-        <v>0.128144237295422</v>
+        <v>0.1256471842526862</v>
       </c>
       <c r="H242" t="n">
-        <v>-0.002252354659089489</v>
+        <v>-0.002280889820168723</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1450754679245571</v>
+        <v>0.1434109101259589</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1257418145970757</v>
+        <v>0.1267049636278452</v>
       </c>
       <c r="L242" t="n">
-        <v>-0.00225285334484415</v>
+        <v>-0.001984559637709086</v>
       </c>
       <c r="M242" t="n">
-        <v>0.3331309423500256</v>
+        <v>0.3332473008729153</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1254326953363204</v>
+        <v>0.1272385331111356</v>
       </c>
       <c r="O242" t="n">
-        <v>-0.002251037450840335</v>
+        <v>-0.002179028871050735</v>
       </c>
       <c r="P242" t="n">
-        <v>0.5178307905330081</v>
+        <v>0.5209517495761264</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.125627672451027</v>
+        <v>0.124625166642187</v>
       </c>
       <c r="R242" t="n">
-        <v>-0.001962469639547529</v>
+        <v>-0.002386708461960814</v>
       </c>
     </row>
     <row r="243">
       <c r="F243" t="n">
-        <v>0.0689747970531448</v>
+        <v>0.06894649257406033</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1289604426285139</v>
+        <v>0.1264474847893275</v>
       </c>
       <c r="H243" t="n">
-        <v>-0.002252805130021307</v>
+        <v>-0.002281117886344122</v>
       </c>
       <c r="J243" t="n">
-        <v>0.14508324689219</v>
+        <v>0.1431986023334389</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1265427178747641</v>
+        <v>0.127512001612736</v>
       </c>
       <c r="L243" t="n">
-        <v>-0.00225285334484415</v>
+        <v>-0.001984559637709086</v>
       </c>
       <c r="M243" t="n">
-        <v>0.3332034101892888</v>
+        <v>0.3331851155508138</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1262316297015199</v>
+        <v>0.128048969627767</v>
       </c>
       <c r="O243" t="n">
-        <v>-0.002236358554639602</v>
+        <v>-0.002179028871050735</v>
       </c>
       <c r="P243" t="n">
-        <v>0.5173231826239506</v>
+        <v>0.52114835801118</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.1264278487086769</v>
+        <v>0.1254189575125194</v>
       </c>
       <c r="R243" t="n">
-        <v>-0.001962469639547529</v>
+        <v>-0.002386708461960814</v>
       </c>
     </row>
     <row r="244">
       <c r="F244" t="n">
-        <v>0.06895428484672921</v>
+        <v>0.06894514083911027</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1297766479616057</v>
+        <v>0.1272477853259688</v>
       </c>
       <c r="H244" t="n">
-        <v>-0.002247222231718162</v>
+        <v>-0.002233605145029142</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1450950753653845</v>
+        <v>0.1429191949759336</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1273436211524525</v>
+        <v>0.1283190395976267</v>
       </c>
       <c r="L244" t="n">
-        <v>-0.002242421590323091</v>
+        <v>-0.001879234912387798</v>
       </c>
       <c r="M244" t="n">
-        <v>0.3331311942976632</v>
+        <v>0.3329618645847513</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1270305640667194</v>
+        <v>0.1288594061443984</v>
       </c>
       <c r="O244" t="n">
-        <v>-0.002236358554639602</v>
+        <v>-0.002050062334640869</v>
       </c>
       <c r="P244" t="n">
-        <v>0.5166404526847396</v>
+        <v>0.5212520152088136</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.1272280249663268</v>
+        <v>0.1262127483828518</v>
       </c>
       <c r="R244" t="n">
-        <v>-0.001832914521465603</v>
+        <v>-0.002324790031722387</v>
       </c>
     </row>
     <row r="245">
       <c r="F245" t="n">
-        <v>0.0689514847577362</v>
+        <v>0.06895142735509391</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1305928532946976</v>
+        <v>0.1280480858626102</v>
       </c>
       <c r="H245" t="n">
-        <v>-0.002247222231718162</v>
+        <v>-0.00223338182917781</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1450913411266789</v>
+        <v>0.1427272240520597</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1281445244301408</v>
+        <v>0.1291260775825174</v>
       </c>
       <c r="L245" t="n">
-        <v>-0.002242421590323091</v>
+        <v>-0.001879234912387798</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3331558855465737</v>
+        <v>0.3330124415520107</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1278294984319189</v>
+        <v>0.1296698426610299</v>
       </c>
       <c r="O245" t="n">
-        <v>-0.002236358554639602</v>
+        <v>-0.002050062334640869</v>
       </c>
       <c r="P245" t="n">
-        <v>0.5161664012225053</v>
+        <v>0.521339443497417</v>
       </c>
       <c r="Q245" t="n">
-        <v>0.1280282012239766</v>
+        <v>0.1270065392531842</v>
       </c>
       <c r="R245" t="n">
-        <v>-0.001832914521465603</v>
+        <v>-0.002324790031722387</v>
       </c>
     </row>
     <row r="246">
       <c r="F246" t="n">
-        <v>0.0689663541949526</v>
+        <v>0.06893598725432523</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1314090586277895</v>
+        <v>0.1288483863992515</v>
       </c>
       <c r="H246" t="n">
-        <v>-0.002247671721113445</v>
+        <v>-0.00223338182917781</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1450914424037079</v>
+        <v>0.1424877726092766</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1289454277078292</v>
+        <v>0.1299331155674082</v>
       </c>
       <c r="L246" t="n">
-        <v>-0.002242421590323091</v>
+        <v>-0.001879234912387798</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3331808686639929</v>
+        <v>0.3328540411557347</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1286284327971184</v>
+        <v>0.1304802791776613</v>
       </c>
       <c r="O246" t="n">
-        <v>-0.002236358554639602</v>
+        <v>-0.002050062334640869</v>
       </c>
       <c r="P246" t="n">
-        <v>0.5156712347555904</v>
+        <v>0.5214102700304222</v>
       </c>
       <c r="Q246" t="n">
-        <v>0.1288283774816265</v>
+        <v>0.1278003301235166</v>
       </c>
       <c r="R246" t="n">
-        <v>-0.001832914521465603</v>
+        <v>-0.002324790031722387</v>
       </c>
     </row>
     <row r="247">
       <c r="F247" t="n">
-        <v>0.06895149825102979</v>
+        <v>0.06889913032373077</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1322252639608813</v>
+        <v>0.1296486869358928</v>
       </c>
       <c r="H247" t="n">
-        <v>-0.002247896465811086</v>
+        <v>-0.002232935197475144</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1451342959992109</v>
+        <v>0.142258812519982</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1297463309855176</v>
+        <v>0.1307401535522989</v>
       </c>
       <c r="L247" t="n">
-        <v>-0.002242421590323091</v>
+        <v>-0.001879234912387798</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3330129349066812</v>
+        <v>0.3327283245963601</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1294273671623179</v>
+        <v>0.1312907156942927</v>
       </c>
       <c r="O247" t="n">
-        <v>-0.002236358554639602</v>
+        <v>-0.002050062334640869</v>
       </c>
       <c r="P247" t="n">
-        <v>0.5150788336611218</v>
+        <v>0.5213098445646085</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.1296285537392763</v>
+        <v>0.128594120993849</v>
       </c>
       <c r="R247" t="n">
-        <v>-0.001708911098809931</v>
+        <v>-0.002324790031722387</v>
       </c>
     </row>
     <row r="248">
       <c r="F248" t="n">
-        <v>0.0689258202370706</v>
+        <v>0.06884117357799896</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1330414692939732</v>
+        <v>0.1304489874725341</v>
       </c>
       <c r="H248" t="n">
-        <v>-0.002221965933302993</v>
+        <v>-0.002169498187399893</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1451417552813725</v>
+        <v>0.14198283981143</v>
       </c>
       <c r="K248" t="n">
-        <v>0.130547234263206</v>
+        <v>0.1315471915371896</v>
       </c>
       <c r="L248" t="n">
-        <v>-0.002212035354941798</v>
+        <v>-0.001778376790922936</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3331351658116913</v>
+        <v>0.3325871846978517</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1302263015275174</v>
+        <v>0.1321011522109242</v>
       </c>
       <c r="O248" t="n">
-        <v>-0.002204518216173704</v>
+        <v>-0.001924521856560092</v>
       </c>
       <c r="P248" t="n">
-        <v>0.5144662014518356</v>
+        <v>0.521500626443366</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.1304287299969261</v>
+        <v>0.1293879118641814</v>
       </c>
       <c r="R248" t="n">
-        <v>-0.001708911098809931</v>
+        <v>-0.002260849600256876</v>
       </c>
     </row>
     <row r="249">
       <c r="F249" t="n">
-        <v>0.06894609410562501</v>
+        <v>0.06876244095365083</v>
       </c>
       <c r="G249" t="n">
-        <v>0.133857674627065</v>
+        <v>0.1312492880091754</v>
       </c>
       <c r="H249" t="n">
-        <v>-0.0022212994768143</v>
+        <v>-0.002170149101947567</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1451722496724839</v>
+        <v>0.1417176827319425</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1313481375408944</v>
+        <v>0.1323542295220804</v>
       </c>
       <c r="L249" t="n">
-        <v>-0.002212035354941798</v>
+        <v>-0.001778376790922936</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3330645203028744</v>
+        <v>0.3324308058700117</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1310252358927169</v>
+        <v>0.1329115887275556</v>
       </c>
       <c r="O249" t="n">
-        <v>-0.002204518216173704</v>
+        <v>-0.001924521856560092</v>
       </c>
       <c r="P249" t="n">
-        <v>0.5137573492654199</v>
+        <v>0.5214449102597793</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.131228906254576</v>
+        <v>0.1301817027345138</v>
       </c>
       <c r="R249" t="n">
-        <v>-0.001708911098809931</v>
+        <v>-0.002260849600256876</v>
       </c>
     </row>
     <row r="250">
       <c r="F250" t="n">
-        <v>0.06892705606167275</v>
+        <v>0.06869160117297597</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1346738799601569</v>
+        <v>0.1320495885458167</v>
       </c>
       <c r="H250" t="n">
-        <v>-0.0022212994768143</v>
+        <v>-0.002169715158915784</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1452452039135644</v>
+        <v>0.1414442813824632</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1321490408185828</v>
+        <v>0.1331612675069711</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.002212035354941798</v>
+        <v>-0.001778376790922936</v>
       </c>
       <c r="M250" t="n">
-        <v>0.333042537856947</v>
+        <v>0.3322111514075021</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1318241702579164</v>
+        <v>0.1337220252441871</v>
       </c>
       <c r="O250" t="n">
-        <v>-0.002204518216173704</v>
+        <v>-0.001924521856560092</v>
       </c>
       <c r="P250" t="n">
-        <v>0.5132581017273313</v>
+        <v>0.5215197283986428</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.1320290825122259</v>
+        <v>0.1309754936048462</v>
       </c>
       <c r="R250" t="n">
-        <v>-0.001708911098809931</v>
+        <v>-0.002260849600256876</v>
       </c>
     </row>
     <row r="251">
       <c r="F251" t="n">
-        <v>0.06891601016261283</v>
+        <v>0.0686289176876754</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1354900852932487</v>
+        <v>0.132849889082458</v>
       </c>
       <c r="H251" t="n">
-        <v>-0.002221743781140095</v>
+        <v>-0.002091561532961985</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1452824379717992</v>
+        <v>0.1411245691640736</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1329499440962711</v>
+        <v>0.1339683054918618</v>
       </c>
       <c r="L251" t="n">
-        <v>-0.002212035354941798</v>
+        <v>-0.00168033144665138</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3330692275424813</v>
+        <v>0.3320248665788899</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1326231046231159</v>
+        <v>0.1345324617608185</v>
       </c>
       <c r="O251" t="n">
-        <v>-0.002155704088600924</v>
+        <v>-0.001924521856560092</v>
       </c>
       <c r="P251" t="n">
-        <v>0.512358299952534</v>
+        <v>0.5214216987377458</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.1328292587698757</v>
+        <v>0.1317692844751786</v>
       </c>
       <c r="R251" t="n">
-        <v>-0.001708911098809931</v>
+        <v>-0.002260849600256876</v>
       </c>
     </row>
     <row r="252">
       <c r="F252" t="n">
-        <v>0.06888451613370562</v>
+        <v>0.06853692640045547</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1363062906263406</v>
+        <v>0.1336501896190994</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.002177978942028807</v>
+        <v>-0.002091143304301125</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1453228812630551</v>
+        <v>0.1408543089937817</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1337508473739595</v>
+        <v>0.1347753434767526</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.002162419626569076</v>
+        <v>-0.00168033144665138</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3329997132306533</v>
+        <v>0.3319202622982809</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1334220389883153</v>
+        <v>0.1353428982774499</v>
       </c>
       <c r="O252" t="n">
-        <v>-0.002155704088600924</v>
+        <v>-0.001804519344825757</v>
       </c>
       <c r="P252" t="n">
-        <v>0.5117449244263592</v>
+        <v>0.5214565597444984</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.1336294350275256</v>
+        <v>0.132563075345511</v>
       </c>
       <c r="R252" t="n">
-        <v>-0.001591057096773317</v>
+        <v>-0.002188446494012521</v>
       </c>
     </row>
     <row r="253">
       <c r="F253" t="n">
-        <v>0.06889878910618627</v>
+        <v>0.06841598839920396</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1371224959594325</v>
+        <v>0.1344504901557407</v>
       </c>
       <c r="H253" t="n">
-        <v>-0.002177325678998805</v>
+        <v>-0.002091352418631555</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1453664287532646</v>
+        <v>0.1405381216564796</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1345517506516479</v>
+        <v>0.1355823814616433</v>
       </c>
       <c r="L253" t="n">
-        <v>-0.002162419626569076</v>
+        <v>-0.00168033144665138</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3328823162505859</v>
+        <v>0.3316084286185273</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1342209733535148</v>
+        <v>0.1361533347940813</v>
       </c>
       <c r="O253" t="n">
-        <v>-0.002155704088600924</v>
+        <v>-0.001804519344825757</v>
       </c>
       <c r="P253" t="n">
-        <v>0.5110370105235897</v>
+        <v>0.521316108906825</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.1344296112851754</v>
+        <v>0.1333568662158434</v>
       </c>
       <c r="R253" t="n">
-        <v>-0.001591057096773317</v>
+        <v>-0.002188446494012521</v>
       </c>
     </row>
     <row r="254">
       <c r="F254" t="n">
-        <v>0.06886414189254902</v>
+        <v>0.06831351329604034</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1379387012925243</v>
+        <v>0.135250790692382</v>
       </c>
       <c r="H254" t="n">
-        <v>-0.002177761187685473</v>
+        <v>-0.002091143304301125</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1453934380182973</v>
+        <v>0.1402905012854677</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1353526539293363</v>
+        <v>0.136389419446534</v>
       </c>
       <c r="L254" t="n">
-        <v>-0.002162419626569076</v>
+        <v>-0.00168033144665138</v>
       </c>
       <c r="M254" t="n">
-        <v>0.332958513365645</v>
+        <v>0.3313786442695038</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1350199077187143</v>
+        <v>0.1369637713107128</v>
       </c>
       <c r="O254" t="n">
-        <v>-0.002155704088600924</v>
+        <v>-0.001804519344825757</v>
       </c>
       <c r="P254" t="n">
-        <v>0.5102351574136438</v>
+        <v>0.5213092388357076</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.1352297875428253</v>
+        <v>0.1341506570861758</v>
       </c>
       <c r="R254" t="n">
-        <v>-0.001591057096773317</v>
+        <v>-0.002188446494012521</v>
       </c>
     </row>
     <row r="255">
       <c r="F255" t="n">
-        <v>0.06886570382830365</v>
+        <v>0.06819212284075943</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1387549066256162</v>
+        <v>0.1360510912290233</v>
       </c>
       <c r="H255" t="n">
-        <v>-0.002177325678998805</v>
+        <v>-0.002091561532961985</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1454428738611214</v>
+        <v>0.1399782794369083</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1361535572070247</v>
+        <v>0.1371964574314248</v>
       </c>
       <c r="L255" t="n">
-        <v>-0.002162419626569076</v>
+        <v>-0.00168033144665138</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3328902728440399</v>
+        <v>0.3310866153901838</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1358188420839138</v>
+        <v>0.1377742078273442</v>
       </c>
       <c r="O255" t="n">
-        <v>-0.002155704088600924</v>
+        <v>-0.001804519344825757</v>
       </c>
       <c r="P255" t="n">
-        <v>0.5096438020715404</v>
+        <v>0.5210506847474049</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.1360299638004751</v>
+        <v>0.1349444479565082</v>
       </c>
       <c r="R255" t="n">
-        <v>-0.001591057096773317</v>
+        <v>-0.002188446494012521</v>
       </c>
     </row>
     <row r="256">
       <c r="F256" t="n">
-        <v>0.06883720107962804</v>
+        <v>0.06806154145517647</v>
       </c>
       <c r="G256" t="n">
-        <v>0.139571111958708</v>
+        <v>0.1368513917656646</v>
       </c>
       <c r="H256" t="n">
-        <v>-0.002116260132706098</v>
+        <v>-0.001998421938272151</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1454950985218423</v>
+        <v>0.1396398233318892</v>
       </c>
       <c r="K256" t="n">
-        <v>0.136954460484713</v>
+        <v>0.1380034954163155</v>
       </c>
       <c r="L256" t="n">
-        <v>-0.00209473346227528</v>
+        <v>-0.001586727280036931</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3329190635505668</v>
+        <v>0.3309249544772687</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1366177764491133</v>
+        <v>0.1385846443439757</v>
       </c>
       <c r="O256" t="n">
-        <v>-0.002092910003899553</v>
+        <v>-0.001692072105536095</v>
       </c>
       <c r="P256" t="n">
-        <v>0.5089591290945891</v>
+        <v>0.521157710890779</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.136830140058125</v>
+        <v>0.1357382388268406</v>
       </c>
       <c r="R256" t="n">
-        <v>-0.001479459155151513</v>
+        <v>-0.002096415692530447</v>
       </c>
     </row>
     <row r="257">
       <c r="F257" t="n">
-        <v>0.06881643699600744</v>
+        <v>0.06794081138732994</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1403873172917999</v>
+        <v>0.1376516923023059</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.002116471737558883</v>
+        <v>-0.001997822531572009</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1455500069768941</v>
+        <v>0.1392753930860291</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1377553637624014</v>
+        <v>0.1388105334012062</v>
       </c>
       <c r="L257" t="n">
-        <v>-0.00209473346227528</v>
+        <v>-0.001586727280036931</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3329483192393418</v>
+        <v>0.3305571819191814</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1374167108143128</v>
+        <v>0.1393950808606071</v>
       </c>
       <c r="O257" t="n">
-        <v>-0.002092910003899553</v>
+        <v>-0.001692072105536095</v>
       </c>
       <c r="P257" t="n">
-        <v>0.5079543393543502</v>
+        <v>0.5208596091817751</v>
       </c>
       <c r="Q257" t="n">
-        <v>0.1376303163157749</v>
+        <v>0.136532029697173</v>
       </c>
       <c r="R257" t="n">
-        <v>-0.001479459155151513</v>
+        <v>-0.002096415692530447</v>
       </c>
     </row>
     <row r="258">
       <c r="F258" t="n">
-        <v>0.06878445564275366</v>
+        <v>0.06779273631973298</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1412035226248917</v>
+        <v>0.1384519928389472</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.002116048527853312</v>
+        <v>-0.001998421938272151</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1455683766156284</v>
+        <v>0.1389986294852207</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1385562670400898</v>
+        <v>0.139617571386097</v>
       </c>
       <c r="L258" t="n">
-        <v>-0.00209473346227528</v>
+        <v>-0.001586727280036931</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3327849224329127</v>
+        <v>0.3302720082089208</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1382156451795123</v>
+        <v>0.1402055173772385</v>
       </c>
       <c r="O258" t="n">
-        <v>-0.002092910003899553</v>
+        <v>-0.001692072105536095</v>
       </c>
       <c r="P258" t="n">
-        <v>0.5071608327078729</v>
+        <v>0.520850589369154</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.1384304925734247</v>
+        <v>0.1373258205675054</v>
       </c>
       <c r="R258" t="n">
-        <v>-0.001479459155151513</v>
+        <v>-0.002096415692530447</v>
       </c>
     </row>
     <row r="259">
       <c r="F259" t="n">
-        <v>0.06876012734055358</v>
+        <v>0.06763638645488727</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1420197279579836</v>
+        <v>0.1392522933755886</v>
       </c>
       <c r="H259" t="n">
-        <v>-0.002116471737558883</v>
+        <v>-0.001998421938272151</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1456283255976473</v>
+        <v>0.1386205677657694</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1393571703177782</v>
+        <v>0.1404246093709877</v>
       </c>
       <c r="L259" t="n">
-        <v>-0.00209473346227528</v>
+        <v>-0.001586727280036931</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3329117257567511</v>
+        <v>0.3300214444905019</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1390145795447118</v>
+        <v>0.14101595389387</v>
       </c>
       <c r="O259" t="n">
-        <v>-0.00201442113834856</v>
+        <v>-0.001692072105536095</v>
       </c>
       <c r="P259" t="n">
-        <v>0.5063513537401182</v>
+        <v>0.5204373370148637</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.1392306688310746</v>
+        <v>0.1381196114378379</v>
       </c>
       <c r="R259" t="n">
-        <v>-0.001479459155151513</v>
+        <v>-0.002096415692530447</v>
       </c>
     </row>
     <row r="260">
       <c r="F260" t="n">
-        <v>0.06873395453649453</v>
+        <v>0.06746274648878772</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1428359332910755</v>
+        <v>0.1400525939122299</v>
       </c>
       <c r="H260" t="n">
-        <v>-0.00204057363660276</v>
+        <v>-0.001893398057675676</v>
       </c>
       <c r="J260" t="n">
-        <v>0.145749355893756</v>
+        <v>0.138292503351492</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1401580735954666</v>
+        <v>0.1412316473558785</v>
       </c>
       <c r="L260" t="n">
-        <v>-0.002009097283562668</v>
+        <v>-0.001497732090541803</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3328941949883257</v>
+        <v>0.3296616687035019</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1398135139099113</v>
+        <v>0.1418263904105014</v>
       </c>
       <c r="O260" t="n">
-        <v>-0.00201442113834856</v>
+        <v>-0.001587531123624631</v>
       </c>
       <c r="P260" t="n">
-        <v>0.5055262892463335</v>
+        <v>0.5203137798783671</v>
       </c>
       <c r="Q260" t="n">
-        <v>0.1400308450887244</v>
+        <v>0.1389134023081702</v>
       </c>
       <c r="R260" t="n">
-        <v>-0.001376403679408918</v>
+        <v>-0.001987248174862905</v>
       </c>
     </row>
     <row r="261">
       <c r="F261" t="n">
-        <v>0.06870589632759733</v>
+        <v>0.06727217399597707</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1436521386241673</v>
+        <v>0.1408528944488712</v>
       </c>
       <c r="H261" t="n">
-        <v>-0.002040165603482064</v>
+        <v>-0.001893398057675676</v>
       </c>
       <c r="J261" t="n">
-        <v>0.145774800789004</v>
+        <v>0.1379391161261149</v>
       </c>
       <c r="K261" t="n">
-        <v>0.140958976873155</v>
+        <v>0.1420386853407692</v>
       </c>
       <c r="L261" t="n">
-        <v>-0.002009097283562668</v>
+        <v>-0.001497732090541803</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3327323615601216</v>
+        <v>0.3294327486162194</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1406124482751108</v>
+        <v>0.1426368269271329</v>
       </c>
       <c r="O261" t="n">
-        <v>-0.00201442113834856</v>
+        <v>-0.001587531123624631</v>
       </c>
       <c r="P261" t="n">
-        <v>0.5046860260217663</v>
+        <v>0.5201719894239837</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.1408310213463743</v>
+        <v>0.1397071931785026</v>
       </c>
       <c r="R261" t="n">
-        <v>-0.001376403679408918</v>
+        <v>-0.001987248174862905</v>
       </c>
     </row>
     <row r="262">
       <c r="F262" t="n">
-        <v>0.06866646826780287</v>
+        <v>0.0671114618115259</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1444683439572592</v>
+        <v>0.1416531949855125</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.002039961586921716</v>
+        <v>-0.001892830151839541</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1458415461876755</v>
+        <v>0.1375419181493595</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1417598801508433</v>
+        <v>0.1428457233256599</v>
       </c>
       <c r="L262" t="n">
-        <v>-0.002009097283562668</v>
+        <v>-0.001497732090541803</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3328607437104472</v>
+        <v>0.3289992355710485</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1414113826403103</v>
+        <v>0.1434472634437643</v>
       </c>
       <c r="O262" t="n">
-        <v>-0.00201442113834856</v>
+        <v>-0.001587531123624631</v>
       </c>
       <c r="P262" t="n">
-        <v>0.5038309508616637</v>
+        <v>0.5199353300038768</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.1416311976040241</v>
+        <v>0.140500984048835</v>
       </c>
       <c r="R262" t="n">
-        <v>-0.001376403679408918</v>
+        <v>-0.001987248174862905</v>
       </c>
     </row>
     <row r="263">
       <c r="F263" t="n">
-        <v>0.06865340043127864</v>
+        <v>0.06693435883127942</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1452845492903511</v>
+        <v>0.1424534955221538</v>
       </c>
       <c r="H263" t="n">
-        <v>-0.002040369620042413</v>
+        <v>-0.001777346094743239</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1459103450339353</v>
+        <v>0.1371948884746966</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1425607834285317</v>
+        <v>0.1436527613105507</v>
       </c>
       <c r="L263" t="n">
-        <v>-0.002009097283562668</v>
+        <v>-0.001497732090541803</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3328448545262874</v>
+        <v>0.3286489448269946</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1422103170055098</v>
+        <v>0.1442576999603957</v>
       </c>
       <c r="O263" t="n">
-        <v>-0.00201442113834856</v>
+        <v>-0.001587531123624631</v>
       </c>
       <c r="P263" t="n">
-        <v>0.5030367542366974</v>
+        <v>0.5197581490272889</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.142431373861674</v>
+        <v>0.1412947749191674</v>
       </c>
       <c r="R263" t="n">
-        <v>-0.001376403679408918</v>
+        <v>-0.001987248174862905</v>
       </c>
     </row>
     <row r="264">
       <c r="F264" t="n">
-        <v>0.06862887414593045</v>
+        <v>0.06673197661164937</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1461007546234429</v>
+        <v>0.1432537960587951</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.001949509654181599</v>
+        <v>-0.001777523829352713</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1459614942054871</v>
+        <v>0.1368418113019265</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1433616867062201</v>
+        <v>0.1444597992954414</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.001907310239408635</v>
+        <v>-0.001413270248932625</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3327329972627233</v>
+        <v>0.3283340171966745</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1430092513707092</v>
+        <v>0.1450681364770272</v>
       </c>
       <c r="O264" t="n">
-        <v>-0.00192352731896433</v>
+        <v>-0.001493657492341246</v>
       </c>
       <c r="P264" t="n">
-        <v>0.502153127228566</v>
+        <v>0.5192560542366943</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.1432315501193238</v>
+        <v>0.1420885657894998</v>
       </c>
       <c r="R264" t="n">
-        <v>-0.001282823849581862</v>
+        <v>-0.001863203672261514</v>
       </c>
     </row>
     <row r="265">
       <c r="F265" t="n">
-        <v>0.06858342473507961</v>
+        <v>0.06653242371528109</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1469169599565348</v>
+        <v>0.1440540965954364</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.001949899595106527</v>
+        <v>-0.001777346094743239</v>
       </c>
       <c r="J265" t="n">
-        <v>0.1460928937535637</v>
+        <v>0.1364269133255619</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1441625899839085</v>
+        <v>0.1452668372803321</v>
       </c>
       <c r="L265" t="n">
-        <v>-0.001907310239408635</v>
+        <v>-0.001413270248932625</v>
       </c>
       <c r="M265" t="n">
-        <v>0.3327665555523867</v>
+        <v>0.3279111368478538</v>
       </c>
       <c r="N265" t="n">
-        <v>0.1438081857359087</v>
+        <v>0.1458785729936586</v>
       </c>
       <c r="O265" t="n">
-        <v>-0.00192352731896433</v>
+        <v>-0.001493657492341246</v>
       </c>
       <c r="P265" t="n">
-        <v>0.5012558473053503</v>
+        <v>0.5189680733059445</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.1440317263769737</v>
+        <v>0.1428823566598323</v>
       </c>
       <c r="R265" t="n">
-        <v>-0.001282823849581862</v>
+        <v>-0.001863203672261514</v>
       </c>
     </row>
     <row r="266">
       <c r="F266" t="n">
-        <v>0.06852646306510671</v>
+        <v>0.06630832315774968</v>
       </c>
       <c r="G266" t="n">
-        <v>0.1477331652896266</v>
+        <v>0.1448543971320777</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.001949509654181599</v>
+        <v>-0.001777701563962188</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1461083993263828</v>
+        <v>0.1360809435069674</v>
       </c>
       <c r="K266" t="n">
-        <v>0.1449634932615969</v>
+        <v>0.1460738752652228</v>
       </c>
       <c r="L266" t="n">
-        <v>-0.001907310239408635</v>
+        <v>-0.001413270248932625</v>
       </c>
       <c r="M266" t="n">
-        <v>0.3328007207446837</v>
+        <v>0.3275239883586156</v>
       </c>
       <c r="N266" t="n">
-        <v>0.1446071201011082</v>
+        <v>0.14668900951029</v>
       </c>
       <c r="O266" t="n">
-        <v>-0.00192352731896433</v>
+        <v>-0.001493657492341246</v>
       </c>
       <c r="P266" t="n">
-        <v>0.5003453013009811</v>
+        <v>0.5188174286148187</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.1448319026346235</v>
+        <v>0.1436761475301646</v>
       </c>
       <c r="R266" t="n">
-        <v>-0.001282823849581862</v>
+        <v>-0.001863203672261514</v>
       </c>
     </row>
     <row r="267">
       <c r="F267" t="n">
-        <v>0.06848623748757694</v>
+        <v>0.0661244136847416</v>
       </c>
       <c r="G267" t="n">
-        <v>0.1485493706227185</v>
+        <v>0.1456546976687191</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.001950094565568992</v>
+        <v>-0.001777701563962188</v>
       </c>
       <c r="J267" t="n">
-        <v>0.1462235950310227</v>
+        <v>0.1356736292862734</v>
       </c>
       <c r="K267" t="n">
-        <v>0.1457643965392852</v>
+        <v>0.1468809132501136</v>
       </c>
       <c r="L267" t="n">
-        <v>-0.001907310239408635</v>
+        <v>-0.001413270248932625</v>
       </c>
       <c r="M267" t="n">
-        <v>0.3326424324061535</v>
+        <v>0.3272203572281573</v>
       </c>
       <c r="N267" t="n">
-        <v>0.1454060544663077</v>
+        <v>0.1474994460269215</v>
       </c>
       <c r="O267" t="n">
-        <v>-0.001818699611728017</v>
+        <v>-0.001493657492341246</v>
       </c>
       <c r="P267" t="n">
-        <v>0.4993469338617841</v>
+        <v>0.5184969153825776</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.1456320788922734</v>
+        <v>0.144469938400497</v>
       </c>
       <c r="R267" t="n">
-        <v>-0.001198950599845341</v>
+        <v>-0.001863203672261514</v>
       </c>
     </row>
     <row r="268">
       <c r="F268" t="n">
-        <v>0.06846268295766049</v>
+        <v>0.06587986564840045</v>
       </c>
       <c r="G268" t="n">
-        <v>0.1493655759558103</v>
+        <v>0.1464549982053604</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.001848919438790475</v>
+        <v>-0.001652962400400859</v>
       </c>
       <c r="J268" t="n">
-        <v>0.146320721814891</v>
+        <v>0.1352610680824218</v>
       </c>
       <c r="K268" t="n">
-        <v>0.1465652998169736</v>
+        <v>0.1476879512350043</v>
       </c>
       <c r="L268" t="n">
-        <v>-0.001790475247847514</v>
+        <v>-0.001334298091842952</v>
       </c>
       <c r="M268" t="n">
-        <v>0.3327261318727347</v>
+        <v>0.32680947660551</v>
       </c>
       <c r="N268" t="n">
-        <v>0.1462049888315072</v>
+        <v>0.1483098825435529</v>
       </c>
       <c r="O268" t="n">
-        <v>-0.001818699611728017</v>
+        <v>-0.001412275970696525</v>
       </c>
       <c r="P268" t="n">
-        <v>0.4985608069803436</v>
+        <v>0.5180838898242359</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.1464322551499232</v>
+        <v>0.1452637292708295</v>
       </c>
       <c r="R268" t="n">
-        <v>-0.001198950599845341</v>
+        <v>-0.001726416492635658</v>
       </c>
     </row>
     <row r="269">
       <c r="F269" t="n">
-        <v>0.06840864772473931</v>
+        <v>0.0656668065835222</v>
       </c>
       <c r="G269" t="n">
-        <v>0.1501817812889022</v>
+        <v>0.1472552987420017</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.001848364873871822</v>
+        <v>-0.001652962400400859</v>
       </c>
       <c r="J269" t="n">
-        <v>0.1463800158171906</v>
+        <v>0.1348803996620739</v>
       </c>
       <c r="K269" t="n">
-        <v>0.147366203094662</v>
+        <v>0.148494989219895</v>
       </c>
       <c r="L269" t="n">
-        <v>-0.001790475247847514</v>
+        <v>-0.001334298091842952</v>
       </c>
       <c r="M269" t="n">
-        <v>0.3326174168299518</v>
+        <v>0.3263394113084519</v>
       </c>
       <c r="N269" t="n">
-        <v>0.1470039231967067</v>
+        <v>0.1491203190601843</v>
       </c>
       <c r="O269" t="n">
-        <v>-0.001818699611728017</v>
+        <v>-0.001412275970696525</v>
       </c>
       <c r="P269" t="n">
-        <v>0.4975379351402599</v>
+        <v>0.5178859059511249</v>
       </c>
       <c r="Q269" t="n">
-        <v>0.1472324314075731</v>
+        <v>0.1460575201411619</v>
       </c>
       <c r="R269" t="n">
-        <v>-0.001198950599845341</v>
+        <v>-0.001726416492635658</v>
       </c>
     </row>
     <row r="270">
       <c r="F270" t="n">
-        <v>0.06836178023823371</v>
+        <v>0.06544879466194771</v>
       </c>
       <c r="G270" t="n">
-        <v>0.1509979866219941</v>
+        <v>0.148055599278643</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.001848734583817591</v>
+        <v>-0.001652962400400859</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1464602564540116</v>
+        <v>0.1344946498882197</v>
       </c>
       <c r="K270" t="n">
-        <v>0.1481671063723504</v>
+        <v>0.1493020272047858</v>
       </c>
       <c r="L270" t="n">
-        <v>-0.001790475247847514</v>
+        <v>-0.001334298091842952</v>
       </c>
       <c r="M270" t="n">
-        <v>0.3327507059067269</v>
+        <v>0.3259056570044778</v>
       </c>
       <c r="N270" t="n">
-        <v>0.1478028575619062</v>
+        <v>0.1499307555768158</v>
       </c>
       <c r="O270" t="n">
-        <v>-0.001818699611728017</v>
+        <v>-0.001412275970696525</v>
       </c>
       <c r="P270" t="n">
-        <v>0.4967275087892146</v>
+        <v>0.5174425744968902</v>
       </c>
       <c r="Q270" t="n">
-        <v>0.148032607665223</v>
+        <v>0.1468513110114943</v>
       </c>
       <c r="R270" t="n">
-        <v>-0.001198950599845341</v>
+        <v>-0.001726416492635658</v>
       </c>
     </row>
     <row r="271">
       <c r="F271" t="n">
-        <v>0.06830321110336726</v>
+        <v>0.06520794090973429</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1518141919550859</v>
+        <v>0.1488558998152843</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.001848919438790475</v>
+        <v>-0.001653458338714811</v>
       </c>
       <c r="J271" t="n">
-        <v>0.1465024061435657</v>
+        <v>0.1340855726979572</v>
       </c>
       <c r="K271" t="n">
-        <v>0.1489680096500388</v>
+        <v>0.1501090651896765</v>
       </c>
       <c r="L271" t="n">
-        <v>-0.001659301383157658</v>
+        <v>-0.001334298091842952</v>
       </c>
       <c r="M271" t="n">
-        <v>0.33269161910158</v>
+        <v>0.3254131758327179</v>
       </c>
       <c r="N271" t="n">
-        <v>0.1486017919271057</v>
+        <v>0.1507411920934472</v>
       </c>
       <c r="O271" t="n">
-        <v>-0.001818699611728017</v>
+        <v>-0.001412275970696525</v>
       </c>
       <c r="P271" t="n">
-        <v>0.4956816799613343</v>
+        <v>0.5169846806987241</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.1488327839228728</v>
+        <v>0.1476451018818267</v>
       </c>
       <c r="R271" t="n">
-        <v>-0.001198950599845341</v>
+        <v>-0.001726416492635658</v>
       </c>
     </row>
     <row r="272">
       <c r="F272" t="n">
-        <v>0.06827052312235679</v>
+        <v>0.06498098415722851</v>
       </c>
       <c r="G272" t="n">
-        <v>0.1526303972881778</v>
+        <v>0.1496562003519256</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.001737571681683683</v>
+        <v>-0.001521266799042819</v>
       </c>
       <c r="J272" t="n">
-        <v>0.14664393355856</v>
+        <v>0.1336534529237483</v>
       </c>
       <c r="K272" t="n">
-        <v>0.1497689129277271</v>
+        <v>0.1509161031745672</v>
       </c>
       <c r="L272" t="n">
-        <v>-0.001659301383157658</v>
+        <v>-0.001260639257103259</v>
       </c>
       <c r="M272" t="n">
-        <v>0.3326332381409787</v>
+        <v>0.3250522908801476</v>
       </c>
       <c r="N272" t="n">
-        <v>0.1494007262923052</v>
+        <v>0.1515516286100786</v>
       </c>
       <c r="O272" t="n">
-        <v>-0.001702668753790601</v>
+        <v>-0.001344653380328996</v>
       </c>
       <c r="P272" t="n">
-        <v>0.4947740252907197</v>
+        <v>0.5165892434089835</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.1496329601805227</v>
+        <v>0.148438892752159</v>
       </c>
       <c r="R272" t="n">
-        <v>-0.001125885032550145</v>
+        <v>-0.001580087084690704</v>
       </c>
     </row>
     <row r="273">
       <c r="F273" t="n">
-        <v>0.0682166442356725</v>
+        <v>0.06474094012628134</v>
       </c>
       <c r="G273" t="n">
-        <v>0.1534466026212697</v>
+        <v>0.1504565008885669</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.001737571681683683</v>
+        <v>-0.001520810510260863</v>
       </c>
       <c r="J273" t="n">
-        <v>0.1466881702396037</v>
+        <v>0.1332169016942147</v>
       </c>
       <c r="K273" t="n">
-        <v>0.1505698162054155</v>
+        <v>0.151723141159458</v>
       </c>
       <c r="L273" t="n">
-        <v>-0.001659301383157658</v>
+        <v>-0.001260639257103259</v>
       </c>
       <c r="M273" t="n">
-        <v>0.3326238408558531</v>
+        <v>0.3245855006891266</v>
       </c>
       <c r="N273" t="n">
-        <v>0.1501996606575047</v>
+        <v>0.1523620651267101</v>
       </c>
       <c r="O273" t="n">
-        <v>-0.001702668753790601</v>
+        <v>-0.001344653380328996</v>
       </c>
       <c r="P273" t="n">
-        <v>0.4937812495528934</v>
+        <v>0.5161032636285943</v>
       </c>
       <c r="Q273" t="n">
-        <v>0.1504331364381725</v>
+        <v>0.1492326836224915</v>
       </c>
       <c r="R273" t="n">
-        <v>-0.001125885032550145</v>
+        <v>-0.001580087084690704</v>
       </c>
     </row>
     <row r="274">
       <c r="F274" t="n">
-        <v>0.06816034796370581</v>
+        <v>0.06447916198155476</v>
       </c>
       <c r="G274" t="n">
-        <v>0.1542628079543615</v>
+        <v>0.1512568014252083</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.001737745438851851</v>
+        <v>-0.001521114702782167</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1467529488844337</v>
+        <v>0.1328492075108957</v>
       </c>
       <c r="K274" t="n">
-        <v>0.1513707194831039</v>
+        <v>0.1525301791443487</v>
       </c>
       <c r="L274" t="n">
-        <v>-0.001659301383157658</v>
+        <v>-0.001260639257103259</v>
       </c>
       <c r="M274" t="n">
-        <v>0.3327117016059555</v>
+        <v>0.3240132696786893</v>
       </c>
       <c r="N274" t="n">
-        <v>0.1509985950227042</v>
+        <v>0.1531725016433415</v>
       </c>
       <c r="O274" t="n">
-        <v>-0.001702668753790601</v>
+        <v>-0.001344653380328996</v>
       </c>
       <c r="P274" t="n">
-        <v>0.4927040373936364</v>
+        <v>0.5157569508949209</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.1512333126958224</v>
+        <v>0.1500264744928239</v>
       </c>
       <c r="R274" t="n">
-        <v>-0.001125885032550145</v>
+        <v>-0.001580087084690704</v>
       </c>
     </row>
     <row r="275">
       <c r="F275" t="n">
-        <v>0.06809220822666581</v>
+        <v>0.06425010430631285</v>
       </c>
       <c r="G275" t="n">
-        <v>0.1550790132874534</v>
+        <v>0.1520571019618495</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.001618991010676343</v>
+        <v>-0.001521114702782167</v>
       </c>
       <c r="J275" t="n">
-        <v>0.1468972469203711</v>
+        <v>0.1324041129282471</v>
       </c>
       <c r="K275" t="n">
-        <v>0.1521716227607923</v>
+        <v>0.1533372171292395</v>
       </c>
       <c r="L275" t="n">
-        <v>-0.001659301383157658</v>
+        <v>-0.001193067639582482</v>
       </c>
       <c r="M275" t="n">
-        <v>0.3327037883970469</v>
+        <v>0.3235255040918105</v>
       </c>
       <c r="N275" t="n">
-        <v>0.1517975293879037</v>
+        <v>0.153982938159973</v>
       </c>
       <c r="O275" t="n">
-        <v>-0.001575649243826131</v>
+        <v>-0.001344653380328996</v>
       </c>
       <c r="P275" t="n">
-        <v>0.4917655646565713</v>
+        <v>0.5153973388970383</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.1520334889534722</v>
+        <v>0.1508202653631563</v>
       </c>
       <c r="R275" t="n">
-        <v>-0.001125885032550145</v>
+        <v>-0.001580087084690704</v>
       </c>
     </row>
     <row r="276">
       <c r="F276" t="n">
-        <v>0.06804971868360478</v>
+        <v>0.0640088994837697</v>
       </c>
       <c r="G276" t="n">
-        <v>0.1558952186205453</v>
+        <v>0.1528574024984909</v>
       </c>
       <c r="H276" t="n">
-        <v>-0.001618991010676343</v>
+        <v>-0.001382875864466123</v>
       </c>
       <c r="J276" t="n">
-        <v>0.1469241184400175</v>
+        <v>0.131936879907512</v>
       </c>
       <c r="K276" t="n">
-        <v>0.1529725260384807</v>
+        <v>0.1541442551141302</v>
       </c>
       <c r="L276" t="n">
-        <v>-0.001514084937696261</v>
+        <v>-0.001193067639582482</v>
       </c>
       <c r="M276" t="n">
-        <v>0.3326483816477816</v>
+        <v>0.323169403128489</v>
       </c>
       <c r="N276" t="n">
-        <v>0.1525964637531032</v>
+        <v>0.1547933746766044</v>
       </c>
       <c r="O276" t="n">
-        <v>-0.001575649243826131</v>
+        <v>-0.001292524800219832</v>
       </c>
       <c r="P276" t="n">
-        <v>0.4906693697896448</v>
+        <v>0.5147953177734474</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.1528336652111221</v>
+        <v>0.1516140562334887</v>
       </c>
       <c r="R276" t="n">
-        <v>-0.001065453394126952</v>
+        <v>-0.00142632392629081</v>
       </c>
     </row>
     <row r="277">
       <c r="F277" t="n">
-        <v>0.0679765457654163</v>
+        <v>0.06375592762909088</v>
       </c>
       <c r="G277" t="n">
-        <v>0.1567114239536371</v>
+        <v>0.1536577030351322</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.001618829143948621</v>
+        <v>-0.00138301415205257</v>
       </c>
       <c r="J277" t="n">
-        <v>0.1470500365953323</v>
+        <v>0.1315204103261966</v>
       </c>
       <c r="K277" t="n">
-        <v>0.1537734293161691</v>
+        <v>0.1549512930990209</v>
       </c>
       <c r="L277" t="n">
-        <v>-0.001514084937696261</v>
+        <v>-0.001193067639582482</v>
       </c>
       <c r="M277" t="n">
-        <v>0.3325937583056356</v>
+        <v>0.3226138971803984</v>
       </c>
       <c r="N277" t="n">
-        <v>0.1533953981183027</v>
+        <v>0.1556038111932358</v>
       </c>
       <c r="O277" t="n">
-        <v>-0.001575649243826131</v>
+        <v>-0.001292524800219832</v>
       </c>
       <c r="P277" t="n">
-        <v>0.4896383248378334</v>
+        <v>0.5143338598504698</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.1536338414687719</v>
+        <v>0.152407847103821</v>
       </c>
       <c r="R277" t="n">
-        <v>-0.001065453394126952</v>
+        <v>-0.00142632392629081</v>
       </c>
     </row>
     <row r="278">
       <c r="F278" t="n">
-        <v>0.06791017088162489</v>
+        <v>0.06347372214540783</v>
       </c>
       <c r="G278" t="n">
-        <v>0.1575276292867289</v>
+        <v>0.1544580035717735</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.001618991010676343</v>
+        <v>-0.001382737576879676</v>
       </c>
       <c r="J278" t="n">
-        <v>0.1471567560207774</v>
+        <v>0.1310639329916987</v>
       </c>
       <c r="K278" t="n">
-        <v>0.1545743325938574</v>
+        <v>0.1557583310839117</v>
       </c>
       <c r="L278" t="n">
-        <v>-0.001514084937696261</v>
+        <v>-0.001193067639582482</v>
       </c>
       <c r="M278" t="n">
-        <v>0.3326847102517483</v>
+        <v>0.3220958076660682</v>
       </c>
       <c r="N278" t="n">
-        <v>0.1541943324835021</v>
+        <v>0.1564142477098673</v>
       </c>
       <c r="O278" t="n">
-        <v>-0.001575649243826131</v>
+        <v>-0.001292524800219832</v>
       </c>
       <c r="P278" t="n">
-        <v>0.4885248024693843</v>
+        <v>0.5138602565040638</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.1544340177264218</v>
+        <v>0.1532016379741535</v>
       </c>
       <c r="R278" t="n">
-        <v>-0.001065453394126952</v>
+        <v>-0.00142632392629081</v>
       </c>
     </row>
     <row r="279">
       <c r="F279" t="n">
-        <v>0.06783181494381038</v>
+        <v>0.0632340085090449</v>
       </c>
       <c r="G279" t="n">
-        <v>0.1583438346198208</v>
+        <v>0.1552583041084148</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.001618829143948621</v>
+        <v>-0.001382737576879676</v>
       </c>
       <c r="J279" t="n">
-        <v>0.1472441457260632</v>
+        <v>0.1306220661324799</v>
       </c>
       <c r="K279" t="n">
-        <v>0.1553752358715458</v>
+        <v>0.1565653690688024</v>
       </c>
       <c r="L279" t="n">
-        <v>-0.001514084937696261</v>
+        <v>-0.001193067639582482</v>
       </c>
       <c r="M279" t="n">
-        <v>0.3325351818738808</v>
+        <v>0.3215208594305408</v>
       </c>
       <c r="N279" t="n">
-        <v>0.1549932668487017</v>
+        <v>0.1572246842264987</v>
       </c>
       <c r="O279" t="n">
-        <v>-0.001575649243826131</v>
+        <v>-0.001292524800219832</v>
       </c>
       <c r="P279" t="n">
-        <v>0.4875507469976516</v>
+        <v>0.513603898634069</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.1552341939840717</v>
+        <v>0.1539954288444859</v>
       </c>
       <c r="R279" t="n">
-        <v>-0.001065453394126952</v>
+        <v>-0.00142632392629081</v>
       </c>
     </row>
     <row r="280">
       <c r="F280" t="n">
-        <v>0.06776951444508265</v>
+        <v>0.062956852577084</v>
       </c>
       <c r="G280" t="n">
-        <v>0.1591600399529127</v>
+        <v>0.1560586046450561</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.001494634136857937</v>
+        <v>-0.00124066426930003</v>
       </c>
       <c r="J280" t="n">
-        <v>0.147312074475954</v>
+        <v>0.1301768198128714</v>
       </c>
       <c r="K280" t="n">
-        <v>0.1561761391492342</v>
+        <v>0.1573724070536931</v>
       </c>
       <c r="L280" t="n">
-        <v>-0.001356316643810918</v>
+        <v>-0.001131936650626233</v>
       </c>
       <c r="M280" t="n">
-        <v>0.3325795167791812</v>
+        <v>0.3209364964224915</v>
       </c>
       <c r="N280" t="n">
-        <v>0.1557922012139011</v>
+        <v>0.1580351207431302</v>
       </c>
       <c r="O280" t="n">
-        <v>-0.001437995035803961</v>
+        <v>-0.001257992990289156</v>
       </c>
       <c r="P280" t="n">
-        <v>0.4865686299890811</v>
+        <v>0.5131069219895908</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.1560343702417215</v>
+        <v>0.1547892197148183</v>
       </c>
       <c r="R280" t="n">
-        <v>-0.001018307497983578</v>
+        <v>-0.001267482369302115</v>
       </c>
     </row>
     <row r="281">
       <c r="F281" t="n">
-        <v>0.06770449561074611</v>
+        <v>0.06272249032051321</v>
       </c>
       <c r="G281" t="n">
-        <v>0.1599762452860045</v>
+        <v>0.1568589051816974</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.001494484703330957</v>
+        <v>-0.001240416161256974</v>
       </c>
       <c r="J281" t="n">
-        <v>0.1473604108952816</v>
+        <v>0.129746330771314</v>
       </c>
       <c r="K281" t="n">
-        <v>0.1569770424269226</v>
+        <v>0.1581794450385839</v>
       </c>
       <c r="L281" t="n">
-        <v>-0.001356316643810918</v>
+        <v>-0.001131936650626233</v>
       </c>
       <c r="M281" t="n">
-        <v>0.3326246956003718</v>
+        <v>0.3205310806500882</v>
       </c>
       <c r="N281" t="n">
-        <v>0.1565911355791006</v>
+        <v>0.1588455572597616</v>
       </c>
       <c r="O281" t="n">
-        <v>-0.001437995035803961</v>
+        <v>-0.001257992990289156</v>
       </c>
       <c r="P281" t="n">
-        <v>0.4852846927471042</v>
+        <v>0.5125226185722801</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.1568345464993713</v>
+        <v>0.1555830105851506</v>
       </c>
       <c r="R281" t="n">
-        <v>-0.001018307497983578</v>
+        <v>-0.001267482369302115</v>
       </c>
     </row>
     <row r="282">
       <c r="F282" t="n">
-        <v>0.06762737989198785</v>
+        <v>0.06245145325776576</v>
       </c>
       <c r="G282" t="n">
-        <v>0.1607924506190964</v>
+        <v>0.1576592057183388</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.001494185836276996</v>
+        <v>-0.001240540215278502</v>
       </c>
       <c r="J282" t="n">
-        <v>0.1474680107782695</v>
+        <v>0.1292947666906092</v>
       </c>
       <c r="K282" t="n">
-        <v>0.157777945704611</v>
+        <v>0.1589864830234746</v>
       </c>
       <c r="L282" t="n">
-        <v>-0.001356316643810918</v>
+        <v>-0.001131936650626233</v>
       </c>
       <c r="M282" t="n">
-        <v>0.332622476831543</v>
+        <v>0.3199282273542318</v>
       </c>
       <c r="N282" t="n">
-        <v>0.1573900699443001</v>
+        <v>0.159655993776393</v>
       </c>
       <c r="O282" t="n">
-        <v>-0.001437995035803961</v>
+        <v>-0.001257992990289156</v>
       </c>
       <c r="P282" t="n">
-        <v>0.484214605878256</v>
+        <v>0.5120800779383107</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.1576347227570212</v>
+        <v>0.1563768014554831</v>
       </c>
       <c r="R282" t="n">
-        <v>-0.001018307497983578</v>
+        <v>-0.001267482369302115</v>
       </c>
     </row>
     <row r="283">
       <c r="F283" t="n">
-        <v>0.06752882067786137</v>
+        <v>0.06217953778673574</v>
       </c>
       <c r="G283" t="n">
-        <v>0.1616086559521882</v>
+        <v>0.1584595062549801</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.001397672525596652</v>
+        <v>-0.001132138224240782</v>
       </c>
       <c r="J283" t="n">
-        <v>0.1475558258326557</v>
+        <v>0.1288403091762627</v>
       </c>
       <c r="K283" t="n">
-        <v>0.1585788489822993</v>
+        <v>0.1597935210083653</v>
       </c>
       <c r="L283" t="n">
-        <v>-0.001230665067736484</v>
+        <v>-0.001090485550982794</v>
       </c>
       <c r="M283" t="n">
-        <v>0.3325728767977735</v>
+        <v>0.3193165171099457</v>
       </c>
       <c r="N283" t="n">
-        <v>0.1581890043094996</v>
+        <v>0.1604664302930245</v>
       </c>
       <c r="O283" t="n">
-        <v>-0.00132809959590249</v>
+        <v>-0.001244282620514666</v>
       </c>
       <c r="P283" t="n">
-        <v>0.4832111508891576</v>
+        <v>0.5113986420910774</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.1584348990146711</v>
+        <v>0.1571705923258155</v>
       </c>
       <c r="R283" t="n">
-        <v>-0.0009919670052984284</v>
+        <v>-0.001146387217590813</v>
       </c>
     </row>
     <row r="284">
       <c r="F284" t="n">
-        <v>0.06743678837262929</v>
+        <v>0.06192458515263118</v>
       </c>
       <c r="G284" t="n">
-        <v>0.1624248612852801</v>
+        <v>0.1592598067916214</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.001397672525596652</v>
+        <v>-0.001132364674530659</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1476632534091721</v>
+        <v>0.1284009586618852</v>
       </c>
       <c r="K284" t="n">
-        <v>0.1593797522599877</v>
+        <v>0.1606005589932561</v>
       </c>
       <c r="L284" t="n">
-        <v>-0.001230665067736484</v>
+        <v>-0.001090485550982794</v>
       </c>
       <c r="M284" t="n">
-        <v>0.3325724257806053</v>
+        <v>0.3188367598839686</v>
       </c>
       <c r="N284" t="n">
-        <v>0.1589879386746991</v>
+        <v>0.1612768668096559</v>
       </c>
       <c r="O284" t="n">
-        <v>-0.00132809959590249</v>
+        <v>-0.001244282620514666</v>
       </c>
       <c r="P284" t="n">
-        <v>0.4820547512297894</v>
+        <v>0.5108595785815059</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.1592350752723209</v>
+        <v>0.1579643831961479</v>
       </c>
       <c r="R284" t="n">
-        <v>-0.0009919670052984284</v>
+        <v>-0.001146387217590813</v>
       </c>
     </row>
   </sheetData>
